--- a/content/balanced_data_with_features.xlsx
+++ b/content/balanced_data_with_features.xlsx
@@ -501,10 +501,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43851.67458836427</v>
+        <v>43851.67138232705</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43851.69342476494</v>
+        <v>43851.69483312071</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -518,10 +518,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>27.1244169587</v>
+        <v>33.7691428745</v>
       </c>
       <c r="G3" t="n">
-        <v>19562.9239112281</v>
+        <v>19558.3072176223</v>
       </c>
     </row>
     <row r="4">
@@ -546,15 +546,15 @@
         <v>9.016666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>9633.218338479866</v>
+        <v>9631.190306169867</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43864.05609133404</v>
+        <v>43864.05777285698</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43864.07563297804</v>
+        <v>43864.07466093425</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>28.1399673804</v>
+        <v>24.3188312678</v>
       </c>
       <c r="G5" t="n">
-        <v>8160.004854351</v>
+        <v>8162.4262473955</v>
       </c>
     </row>
     <row r="6">
@@ -596,7 +596,7 @@
         <v>2.366666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>3411.1051782686</v>
+        <v>3412.5049213367</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +676,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43878.33564757119</v>
+        <v>43878.34069723878</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43878.35808620801</v>
+        <v>43878.35831573896</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -693,18 +693,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>32.3116370273</v>
+        <v>25.37064024541667</v>
       </c>
       <c r="G10" t="n">
-        <v>13196.0991691889</v>
+        <v>13203.3706905279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43884.94173014294</v>
+        <v>43884.94402612637</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43884.96080492136</v>
+        <v>43884.96378929933</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>27.4676809307</v>
+        <v>28.4589690632</v>
       </c>
       <c r="G11" t="n">
-        <v>9480.447266295401</v>
+        <v>9483.422957864585</v>
       </c>
     </row>
     <row r="12">
@@ -746,7 +746,7 @@
         <v>4.1</v>
       </c>
       <c r="G12" t="n">
-        <v>7064.057579891033</v>
+        <v>7059.760075632234</v>
       </c>
     </row>
     <row r="13">
@@ -776,10 +776,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43892.18896538581</v>
+        <v>43892.18780757966</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43892.20975514762</v>
+        <v>43892.20794958629</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>29.9372569851</v>
+        <v>29.0044895542</v>
       </c>
       <c r="G14" t="n">
-        <v>3300.793488916</v>
+        <v>3299.1262480592</v>
       </c>
     </row>
     <row r="15">
@@ -821,15 +821,15 @@
         <v>3.45</v>
       </c>
       <c r="G15" t="n">
-        <v>2815.685920765567</v>
+        <v>2818.285929053266</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43896.18810639268</v>
+        <v>43896.18580884551</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43896.21198506439</v>
+        <v>43896.20776810063</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>34.3852872507</v>
+        <v>31.6213273747</v>
       </c>
       <c r="G16" t="n">
-        <v>2909.6898721378</v>
+        <v>2906.3814042044</v>
       </c>
     </row>
     <row r="17">
@@ -871,7 +871,7 @@
         <v>9.816666666666666</v>
       </c>
       <c r="G17" t="n">
-        <v>14721.00817394483</v>
+        <v>14727.08060175423</v>
       </c>
     </row>
     <row r="18">
@@ -901,10 +901,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43907.99874026363</v>
+        <v>43907.99755127611</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43908.01876597277</v>
+        <v>43908.01811805561</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -918,18 +918,18 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>28.8370211637</v>
+        <v>29.61616248618333</v>
       </c>
       <c r="G19" t="n">
-        <v>2219.4526462952</v>
+        <v>2217.740504274717</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43910.16411873417</v>
+        <v>43910.16233362399</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43910.1891852467</v>
+        <v>43910.18595462214</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>36.0957780534</v>
+        <v>34.0142373374</v>
       </c>
       <c r="G20" t="n">
-        <v>3089.3079764112</v>
+        <v>3087.6704184637</v>
       </c>
     </row>
     <row r="21">
@@ -971,7 +971,7 @@
         <v>4.45</v>
       </c>
       <c r="G21" t="n">
-        <v>6083.123244743167</v>
+        <v>6087.775344104667</v>
       </c>
     </row>
     <row r="22">
@@ -1076,10 +1076,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43929.70614879799</v>
+        <v>43929.71097459854</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43929.72949052432</v>
+        <v>43929.7308272808</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1087,24 +1087,24 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>33.6120859196</v>
+        <v>28.5878624434</v>
       </c>
       <c r="G26" t="n">
-        <v>11037.8542691</v>
+        <v>11044.8034219166</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43932.16653463658</v>
+        <v>43932.16867333261</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43932.18723984108</v>
+        <v>43932.1898289784</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1112,24 +1112,24 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>29.8154944763</v>
+        <v>30.4641299503</v>
       </c>
       <c r="G27" t="n">
-        <v>3509.3435216557</v>
+        <v>3510.4983145989</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43934.87427741032</v>
+        <v>43934.87350925633</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43934.89587041027</v>
+        <v>43934.8923927538</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1143,18 +1143,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>31.0939199199</v>
+        <v>27.192236355</v>
       </c>
       <c r="G28" t="n">
-        <v>3869.3340997121</v>
+        <v>3864.499600212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43935.04272318909</v>
+        <v>43935.04376541538</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43935.06064984079</v>
+        <v>43935.06389961112</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1168,18 +1168,18 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>25.814378453</v>
+        <v>28.993241864</v>
       </c>
       <c r="G29" t="n">
-        <v>211.4680015016</v>
+        <v>217.9766326891</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43937.87326131629</v>
+        <v>43937.87291786617</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43937.89431605725</v>
+        <v>43937.89213495122</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>30.3188269667</v>
+        <v>27.672602469</v>
       </c>
       <c r="G30" t="n">
-        <v>4050.1605247418</v>
+        <v>4044.9862872577</v>
       </c>
     </row>
     <row r="31">
@@ -1221,7 +1221,7 @@
         <v>3.416666666666667</v>
       </c>
       <c r="G31" t="n">
-        <v>18898.40154421997</v>
+        <v>18901.54233691067</v>
       </c>
     </row>
     <row r="32">
@@ -1351,10 +1351,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43967.07848059987</v>
+        <v>43967.07303305496</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43967.09578319457</v>
+        <v>43967.09938425322</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1368,18 +1368,18 @@
         <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>24.9157363642</v>
+        <v>37.94572550119999</v>
       </c>
       <c r="G37" t="n">
-        <v>11403.9120638307</v>
+        <v>11396.0675991452</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43970.59715725709</v>
+        <v>43970.59434119287</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43970.61650434594</v>
+        <v>43970.61991436721</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>27.859807933</v>
+        <v>36.8253710381</v>
       </c>
       <c r="G38" t="n">
-        <v>5041.9786500361</v>
+        <v>5032.7379931008</v>
       </c>
     </row>
     <row r="39">
@@ -1421,15 +1421,15 @@
         <v>5.183333333333334</v>
       </c>
       <c r="G39" t="n">
-        <v>6084.817075169333</v>
+        <v>6079.906644548033</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43975.24487188714</v>
+        <v>43975.24366318447</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43975.26061589264</v>
+        <v>43975.25905354648</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1443,18 +1443,18 @@
         <v>6</v>
       </c>
       <c r="F40" t="n">
-        <v>22.6713679159</v>
+        <v>22.1621212961</v>
       </c>
       <c r="G40" t="n">
-        <v>574.8488508253999</v>
+        <v>573.1083189777</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43979.84437144497</v>
+        <v>43979.84489291141</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43979.86611693967</v>
+        <v>43979.86702481192</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1468,18 +1468,18 @@
         <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>31.3135123593</v>
+        <v>31.869936738</v>
       </c>
       <c r="G41" t="n">
-        <v>6600.6079953695</v>
+        <v>6603.6086855045</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43984.86663872074</v>
+        <v>43984.86380359588</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43984.8869726312</v>
+        <v>43984.88810776539</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1493,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>29.280831054</v>
+        <v>34.99800409909999</v>
       </c>
       <c r="G42" t="n">
-        <v>7200.7513647433</v>
+        <v>7195.361448900299</v>
       </c>
     </row>
     <row r="43">
@@ -1521,7 +1521,7 @@
         <v>3.283333333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>4027.792744399267</v>
+        <v>4026.158151150967</v>
       </c>
     </row>
     <row r="44">
@@ -1551,10 +1551,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43993.21310147376</v>
+        <v>43993.21157443459</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43993.23326630305</v>
+        <v>43993.23348766442</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1568,18 +1568,18 @@
         <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>29.0373541631</v>
+        <v>31.5550509426</v>
       </c>
       <c r="G45" t="n">
-        <v>4590.8494555658</v>
+        <v>4588.6505191648</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43994.18821483666</v>
+        <v>43994.1943767351</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43994.21177611154</v>
+        <v>43994.21318457399</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1593,10 +1593,10 @@
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>33.9282358485</v>
+        <v>27.083288009</v>
       </c>
       <c r="G46" t="n">
-        <v>1375.1258883892</v>
+        <v>1383.6802617835</v>
       </c>
     </row>
     <row r="47">
@@ -1621,7 +1621,7 @@
         <v>3.9</v>
       </c>
       <c r="G47" t="n">
-        <v>40360.0090660334</v>
+        <v>40357.9808801001</v>
       </c>
     </row>
     <row r="48">
@@ -1676,10 +1676,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44031.61705306972</v>
+        <v>44031.61693178617</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44031.63456442177</v>
+        <v>44031.63375044069</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1693,18 +1693,18 @@
         <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>25.21634695361667</v>
+        <v>24.2188625114</v>
       </c>
       <c r="G50" t="n">
-        <v>13441.53975373688</v>
+        <v>13441.3651054224</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44038.01239236331</v>
+        <v>44038.00856472766</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44038.03514515967</v>
+        <v>44038.02979181382</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1718,18 +1718,18 @@
         <v>6</v>
       </c>
       <c r="F51" t="n">
-        <v>32.7640267462</v>
+        <v>30.5670040562</v>
       </c>
       <c r="G51" t="n">
-        <v>9184.0722358149</v>
+        <v>9179.7325732463</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44048.3693868679</v>
+        <v>44048.36869814435</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44048.3888418947</v>
+        <v>44048.38467813476</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1743,18 +1743,18 @@
         <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>28.0152385922</v>
+        <v>23.0111861908</v>
       </c>
       <c r="G52" t="n">
-        <v>14881.3080598602</v>
+        <v>14888.0251159688</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44050.55279576897</v>
+        <v>44050.55603690167</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44050.57468701554</v>
+        <v>44050.57321184605</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1768,18 +1768,18 @@
         <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>31.5233950674</v>
+        <v>24.7319199233</v>
       </c>
       <c r="G53" t="n">
-        <v>3116.0935789576</v>
+        <v>3126.7566243429</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44051.73942731912</v>
+        <v>44051.73881827518</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44051.76228906464</v>
+        <v>44051.75969557705</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>32.9209135481</v>
+        <v>30.0633146891</v>
       </c>
       <c r="G54" t="n">
-        <v>1677.226037149</v>
+        <v>1678.4732579447</v>
       </c>
     </row>
     <row r="55">
@@ -1821,7 +1821,7 @@
         <v>3.55</v>
       </c>
       <c r="G55" t="n">
-        <v>3256.237080240567</v>
+        <v>3259.971702370766</v>
       </c>
     </row>
     <row r="56">
@@ -2176,10 +2176,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44060.65335800463</v>
+        <v>44060.65082047745</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44060.67085385616</v>
+        <v>44060.67496132954</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2193,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>25.1940262032</v>
+        <v>34.76282700679999</v>
       </c>
       <c r="G70" t="n">
-        <v>1232.3521933385</v>
+        <v>1228.6981542096</v>
       </c>
     </row>
     <row r="71">
@@ -2221,15 +2221,15 @@
         <v>6.8</v>
       </c>
       <c r="G71" t="n">
-        <v>835.8204471249667</v>
+        <v>829.9056854502667</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44061.36039586537</v>
+        <v>44061.36026130906</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44061.38390985136</v>
+        <v>44061.38214938068</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2243,10 +2243,10 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>33.8601398303</v>
+        <v>31.5188231279</v>
       </c>
       <c r="G72" t="n">
-        <v>150.3200461421</v>
+        <v>150.126285057</v>
       </c>
     </row>
     <row r="73">
@@ -2271,7 +2271,7 @@
         <v>3.433333333333333</v>
       </c>
       <c r="G73" t="n">
-        <v>16301.13648069427</v>
+        <v>16303.67155848177</v>
       </c>
     </row>
     <row r="74">
@@ -2476,10 +2476,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44090.32018127485</v>
+        <v>44090.31760140515</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44090.33742207169</v>
+        <v>44090.34111730376</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2493,18 +2493,18 @@
         <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>24.8267474541</v>
+        <v>33.8628940106</v>
       </c>
       <c r="G82" t="n">
-        <v>2313.3943691271</v>
+        <v>2309.6793567531</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44090.92119319995</v>
+        <v>44090.91873083558</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44090.94281947351</v>
+        <v>44090.94462492748</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2518,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>31.1418339187</v>
+        <v>37.2874923417</v>
       </c>
       <c r="G83" t="n">
-        <v>840.6304246986</v>
+        <v>831.7634858072</v>
       </c>
     </row>
     <row r="84">
@@ -2546,15 +2546,15 @@
         <v>4.533333333333333</v>
       </c>
       <c r="G84" t="n">
-        <v>636.5732914681666</v>
+        <v>633.9734377540666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44094.17786865988</v>
+        <v>44094.18136157494</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44094.19779526255</v>
+        <v>44094.19816203788</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2568,10 +2568,10 @@
         <v>6</v>
       </c>
       <c r="F85" t="n">
-        <v>28.694307843</v>
+        <v>24.192666622</v>
       </c>
       <c r="G85" t="n">
-        <v>4017.3642035717</v>
+        <v>4022.3940012661</v>
       </c>
     </row>
     <row r="86">
@@ -2596,7 +2596,7 @@
         <v>3.016666666666667</v>
       </c>
       <c r="G86" t="n">
-        <v>6823.7414885853</v>
+        <v>6823.2133321119</v>
       </c>
     </row>
     <row r="87">
@@ -2776,10 +2776,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44143.27698585509</v>
+        <v>44143.28157740184</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44143.30103152208</v>
+        <v>44143.29780543503</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2793,18 +2793,18 @@
         <v>6</v>
       </c>
       <c r="F94" t="n">
-        <v>34.6257604663</v>
+        <v>23.3683677999</v>
       </c>
       <c r="G94" t="n">
-        <v>26008.3762980018</v>
+        <v>26014.9881253192</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44147.65461246629</v>
+        <v>44147.65046626642</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44147.67700041751</v>
+        <v>44147.67048093037</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2818,18 +2818,18 @@
         <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>32.2386497606</v>
+        <v>28.8211161094</v>
       </c>
       <c r="G95" t="n">
-        <v>6269.156559667</v>
+        <v>6267.8315971856</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44164.298152601</v>
+        <v>44164.29822485179</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44164.32251353908</v>
+        <v>44164.31912759957</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2843,18 +2843,18 @@
         <v>6</v>
       </c>
       <c r="F96" t="n">
-        <v>35.0797508432</v>
+        <v>30.0999568032</v>
       </c>
       <c r="G96" t="n">
-        <v>23934.4591442177</v>
+        <v>23943.951246846</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44164.54707349853</v>
+        <v>44164.54794361421</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44164.56862792441</v>
+        <v>44164.56829199249</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2868,18 +2868,18 @@
         <v>6</v>
       </c>
       <c r="F97" t="n">
-        <v>31.0383732681</v>
+        <v>29.3016647187</v>
       </c>
       <c r="G97" t="n">
-        <v>323.3663416084</v>
+        <v>329.4950610766</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44173.48695220264</v>
+        <v>44173.48671893073</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44173.5057130488</v>
+        <v>44173.50787856471</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2893,18 +2893,18 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>27.01561847061667</v>
+        <v>30.4698729475</v>
       </c>
       <c r="G98" t="n">
-        <v>12842.3869606337</v>
+        <v>12842.5347910601</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44173.62891429186</v>
+        <v>44173.62963221882</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44173.65121355306</v>
+        <v>44173.65054291715</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2918,18 +2918,18 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>32.1109361182</v>
+        <v>30.1114056059</v>
       </c>
       <c r="G99" t="n">
-        <v>177.4097900273833</v>
+        <v>175.3252619052</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44177.30199041058</v>
+        <v>44177.29977079392</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44177.31657232239</v>
+        <v>44177.32237865571</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2943,18 +2943,18 @@
         <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>20.9979530184</v>
+        <v>32.5553209699</v>
       </c>
       <c r="G100" t="n">
-        <v>5257.1186748233</v>
+        <v>5254.8881425411</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44178.44270556347</v>
+        <v>44178.44701708057</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44178.4656516613</v>
+        <v>44178.46662830668</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2968,10 +2968,10 @@
         <v>6</v>
       </c>
       <c r="F101" t="n">
-        <v>33.0423808734</v>
+        <v>28.2401656</v>
       </c>
       <c r="G101" t="n">
-        <v>1621.6318671444</v>
+        <v>1619.4793318021</v>
       </c>
     </row>
     <row r="102">
@@ -2996,7 +2996,7 @@
         <v>2.716666666666667</v>
       </c>
       <c r="G102" t="n">
-        <v>5592.361607724166</v>
+        <v>5590.955238376267</v>
       </c>
     </row>
     <row r="103">
@@ -3076,10 +3076,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44190.25109478387</v>
+        <v>44190.25086822981</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44190.26914138799</v>
+        <v>44190.27115707485</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3093,18 +3093,18 @@
         <v>4</v>
       </c>
       <c r="F106" t="n">
-        <v>25.9871099358</v>
+        <v>29.2159368755</v>
       </c>
       <c r="G106" t="n">
-        <v>424.7764887720001</v>
+        <v>424.4502509181</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44201.41704865347</v>
+        <v>44201.41404576353</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44201.43361247911</v>
+        <v>44201.43369837497</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>23.8519089152</v>
+        <v>28.2997604668</v>
       </c>
       <c r="G107" t="n">
-        <v>16052.9864623035</v>
+        <v>16045.7597116914</v>
       </c>
     </row>
     <row r="108">
@@ -3146,7 +3146,7 @@
         <v>4.416666666666667</v>
       </c>
       <c r="G108" t="n">
-        <v>1885.3980300735</v>
+        <v>1885.2743400482</v>
       </c>
     </row>
     <row r="109">
@@ -3176,10 +3176,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44209.178979041</v>
+        <v>44209.18186809628</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44209.19770664646</v>
+        <v>44209.20312012163</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3193,18 +3193,18 @@
         <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>26.9677518673</v>
+        <v>30.6029165124</v>
       </c>
       <c r="G110" t="n">
-        <v>8008.0964857035</v>
+        <v>8012.2567253183</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44216.40829185366</v>
+        <v>44216.41229869697</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44216.42757840479</v>
+        <v>44216.42781620376</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3218,18 +3218,18 @@
         <v>2</v>
       </c>
       <c r="F111" t="n">
-        <v>27.7726336227</v>
+        <v>22.3452097843</v>
       </c>
       <c r="G111" t="n">
-        <v>10383.2426983782</v>
+        <v>10381.2171484773</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44220.84480384343</v>
+        <v>44220.84666446223</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44220.86558079016</v>
+        <v>44220.86457881671</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3243,18 +3243,18 @@
         <v>6</v>
       </c>
       <c r="F112" t="n">
-        <v>29.918803301</v>
+        <v>25.7966704434</v>
       </c>
       <c r="G112" t="n">
-        <v>6360.8046316417</v>
+        <v>6363.141492198</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44221.38567440725</v>
+        <v>44221.3900446697</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44221.41249095028</v>
+        <v>44221.40780084665</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>38.61582196459999</v>
+        <v>25.5688948214</v>
       </c>
       <c r="G113" t="n">
-        <v>748.9348085957</v>
+        <v>756.6708283085001</v>
       </c>
     </row>
     <row r="114">
@@ -3296,7 +3296,7 @@
         <v>2.733333333333333</v>
       </c>
       <c r="G114" t="n">
-        <v>20298.9463649253</v>
+        <v>20305.7001141364</v>
       </c>
     </row>
     <row r="115">
@@ -3351,10 +3351,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44246.47029145872</v>
+        <v>44246.47154562044</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44246.48912899489</v>
+        <v>44246.4911294894</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3368,18 +3368,18 @@
         <v>4</v>
       </c>
       <c r="F117" t="n">
-        <v>27.1260520965</v>
+        <v>28.2007712938</v>
       </c>
       <c r="G117" t="n">
-        <v>14822.1863672317</v>
+        <v>14823.9923601063</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44250.72147833864</v>
+        <v>44250.71950683197</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44250.73640736385</v>
+        <v>44250.74063199698</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3393,10 +3393,10 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>21.4977962873</v>
+        <v>30.4202376181</v>
       </c>
       <c r="G118" t="n">
-        <v>6094.5830549955</v>
+        <v>6088.8633733066</v>
       </c>
     </row>
     <row r="119">
@@ -3421,15 +3421,15 @@
         <v>3.233333333333333</v>
       </c>
       <c r="G119" t="n">
-        <v>148.556729389</v>
+        <v>142.4732576752</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44254.38598971662</v>
+        <v>44254.38005197947</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44254.40235232582</v>
+        <v>44254.40271177238</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3443,18 +3443,18 @@
         <v>5</v>
       </c>
       <c r="F120" t="n">
-        <v>23.5621572519</v>
+        <v>32.6301018099</v>
       </c>
       <c r="G120" t="n">
-        <v>5103.6085252676</v>
+        <v>5095.0581837728</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44260.17280634167</v>
+        <v>44260.17374514828</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44260.19672221737</v>
+        <v>44260.19816234262</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3468,18 +3468,18 @@
         <v>4</v>
       </c>
       <c r="F121" t="n">
-        <v>34.4388610234</v>
+        <v>35.1607598472</v>
       </c>
       <c r="G121" t="n">
-        <v>8309.4537828181</v>
+        <v>8310.2880612729</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44260.38119384095</v>
+        <v>44260.38005034684</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44260.40367898739</v>
+        <v>44260.40686450341</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3493,18 +3493,18 @@
         <v>4</v>
       </c>
       <c r="F122" t="n">
-        <v>32.378610866</v>
+        <v>38.6123854624</v>
       </c>
       <c r="G122" t="n">
-        <v>265.6391379429</v>
+        <v>261.9187260908</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44263.90745730234</v>
+        <v>44263.90277688874</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44263.92599941233</v>
+        <v>44263.92780612028</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3518,18 +3518,18 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>26.7006383948</v>
+        <v>36.0420934059</v>
       </c>
       <c r="G123" t="n">
-        <v>5045.4407735412</v>
+        <v>5034.1138348747</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44266.25583658729</v>
+        <v>44266.25580845068</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44266.27683867616</v>
+        <v>44266.27633913769</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3543,18 +3543,18 @@
         <v>3</v>
       </c>
       <c r="F124" t="n">
-        <v>30.2430079638</v>
+        <v>29.5641892698</v>
       </c>
       <c r="G124" t="n">
-        <v>3354.9655319326</v>
+        <v>3352.3233557939</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44267.59415505108</v>
+        <v>44267.58926847988</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44267.61073603957</v>
+        <v>44267.61385396939</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3568,18 +3568,18 @@
         <v>4</v>
       </c>
       <c r="F125" t="n">
-        <v>23.8766234246</v>
+        <v>35.4031048835</v>
       </c>
       <c r="G125" t="n">
-        <v>1896.9355798922</v>
+        <v>1890.6182527798</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44268.57158421177</v>
+        <v>44268.57213046623</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44268.59088024545</v>
+        <v>44268.59192241202</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3593,10 +3593,10 @@
         <v>5</v>
       </c>
       <c r="F126" t="n">
-        <v>27.7862885028</v>
+        <v>28.5004019312</v>
       </c>
       <c r="G126" t="n">
-        <v>1383.621367971</v>
+        <v>1379.9181554524</v>
       </c>
     </row>
     <row r="127">
@@ -3621,15 +3621,15 @@
         <v>2.15</v>
       </c>
       <c r="G127" t="n">
-        <v>2688.932446540433</v>
+        <v>2687.431726686133</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44277.81637127223</v>
+        <v>44277.81628547654</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44277.83795027866</v>
+        <v>44277.83647196609</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3643,10 +3643,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>31.0737692585</v>
+        <v>29.06854495968333</v>
       </c>
       <c r="G128" t="n">
-        <v>10593.6246320231</v>
+        <v>10593.5010862196</v>
       </c>
     </row>
     <row r="129">
@@ -3671,7 +3671,7 @@
         <v>3.083333333333333</v>
       </c>
       <c r="G129" t="n">
-        <v>726.7682653850667</v>
+        <v>728.8970354873834</v>
       </c>
     </row>
     <row r="130">
@@ -3701,10 +3701,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44284.45346097493</v>
+        <v>44284.45225561262</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44284.47220878097</v>
+        <v>44284.47484410809</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3718,18 +3718,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>26.996840709</v>
+        <v>32.5274334786</v>
       </c>
       <c r="G131" t="n">
-        <v>8250.0838039022</v>
+        <v>8248.3480821866</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44289.85186920997</v>
+        <v>44289.85108762619</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44289.8715615696</v>
+        <v>44289.86855058734</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3743,18 +3743,18 @@
         <v>5</v>
       </c>
       <c r="F132" t="n">
-        <v>28.3569978679</v>
+        <v>25.1466640446</v>
       </c>
       <c r="G132" t="n">
-        <v>7746.7110177396</v>
+        <v>7741.790666058299</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44291.28369332624</v>
+        <v>44291.28939441603</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44291.30726089564</v>
+        <v>44291.30749770145</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3768,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>33.9372999278</v>
+        <v>26.0687309999</v>
       </c>
       <c r="G133" t="n">
-        <v>2033.4697295744</v>
+        <v>2046.0151133274</v>
       </c>
     </row>
     <row r="134">
@@ -3796,7 +3796,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="G134" t="n">
-        <v>1149.527643612433</v>
+        <v>1149.186643237933</v>
       </c>
     </row>
     <row r="135">
@@ -3826,10 +3826,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44303.02971780399</v>
+        <v>44303.02833265248</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44303.04952336266</v>
+        <v>44303.04782512354</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3843,10 +3843,10 @@
         <v>5</v>
       </c>
       <c r="F136" t="n">
-        <v>28.5200044805</v>
+        <v>28.0691583452</v>
       </c>
       <c r="G136" t="n">
-        <v>15724.4436377531</v>
+        <v>15722.4490195672</v>
       </c>
     </row>
     <row r="137">
@@ -3871,15 +3871,15 @@
         <v>2.083333333333333</v>
       </c>
       <c r="G137" t="n">
-        <v>5209.369691099733</v>
+        <v>5211.815155420933</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44310.70808371074</v>
+        <v>44310.71034237982</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44310.73453398488</v>
+        <v>44310.73437743361</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
       </c>
       <c r="F138" t="n">
-        <v>38.0883947478</v>
+        <v>34.6104774726</v>
       </c>
       <c r="G138" t="n">
-        <v>5816.8738768146</v>
+        <v>5820.126360269301</v>
       </c>
     </row>
     <row r="139">
@@ -3921,7 +3921,7 @@
         <v>6.383333333333334</v>
       </c>
       <c r="G139" t="n">
-        <v>8381.371061770933</v>
+        <v>8381.596495591433</v>
       </c>
     </row>
     <row r="140">
@@ -3951,10 +3951,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44317.40374490414</v>
+        <v>44317.39865407572</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44317.42375099309</v>
+        <v>44317.41973792036</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3968,18 +3968,18 @@
         <v>5</v>
       </c>
       <c r="F141" t="n">
-        <v>28.8087680788</v>
+        <v>30.3607362765</v>
       </c>
       <c r="G141" t="n">
-        <v>872.5759953163999</v>
+        <v>865.2452023804</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44321.46281328805</v>
+        <v>44321.46298550478</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44321.48749009538</v>
+        <v>44321.48370770545</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3993,18 +3993,18 @@
         <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>35.5346025438</v>
+        <v>29.83996896101667</v>
       </c>
       <c r="G142" t="n">
-        <v>5816.2497047537</v>
+        <v>5822.2765215724</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44325.38093072081</v>
+        <v>44325.37856639873</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44325.40002560435</v>
+        <v>44325.40112900781</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4018,18 +4018,18 @@
         <v>6</v>
       </c>
       <c r="F143" t="n">
-        <v>27.4966323087</v>
+        <v>32.4901570832</v>
       </c>
       <c r="G143" t="n">
-        <v>5606.5545006084</v>
+        <v>5608.596518316784</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44325.86118211844</v>
+        <v>44325.86159957289</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44325.88254070749</v>
+        <v>44325.87821069885</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4043,10 +4043,10 @@
         <v>6</v>
       </c>
       <c r="F144" t="n">
-        <v>30.7563682327</v>
+        <v>23.9200213809</v>
       </c>
       <c r="G144" t="n">
-        <v>664.0653802776</v>
+        <v>663.0776137212999</v>
       </c>
     </row>
     <row r="145">
@@ -4071,15 +4071,15 @@
         <v>2.983333333333333</v>
       </c>
       <c r="G145" t="n">
-        <v>2004.124714546567</v>
+        <v>2010.359926974167</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44340.09130497748</v>
+        <v>44340.08791272434</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44340.10844826155</v>
+        <v>44340.11093082513</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4093,18 +4093,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>24.6863290566</v>
+        <v>33.1460651392</v>
       </c>
       <c r="G146" t="n">
-        <v>18453.5125009119</v>
+        <v>18448.6276563869</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44342.46566407009</v>
+        <v>44342.46580747389</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44342.48261807606</v>
+        <v>44342.48468461137</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4118,10 +4118,10 @@
         <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>24.4137685978</v>
+        <v>27.1830779739</v>
       </c>
       <c r="G147" t="n">
-        <v>3394.390764303</v>
+        <v>3391.0223742157</v>
       </c>
     </row>
     <row r="148">
@@ -4146,15 +4146,15 @@
         <v>6.466666666666667</v>
       </c>
       <c r="G148" t="n">
-        <v>9768.579970464032</v>
+        <v>9765.604159617633</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44350.37804894587</v>
+        <v>44350.37416328692</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44350.3984308122</v>
+        <v>44350.39651371926</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4162,16 +4162,16 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E149" t="n">
         <v>3</v>
       </c>
       <c r="F149" t="n">
-        <v>29.3498875155</v>
+        <v>32.1846225725</v>
       </c>
       <c r="G149" t="n">
-        <v>1594.3738153855</v>
+        <v>1588.7784665086</v>
       </c>
     </row>
     <row r="150">
@@ -4196,7 +4196,7 @@
         <v>2.35</v>
       </c>
       <c r="G150" t="n">
-        <v>1476.792963765667</v>
+        <v>1479.553577585567</v>
       </c>
     </row>
     <row r="151">
@@ -4301,10 +4301,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44361.09841008769</v>
+        <v>44361.09774268151</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44361.1183858053</v>
+        <v>44361.116336821</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>28.7650333672</v>
+        <v>26.7755608968</v>
       </c>
       <c r="G155" t="n">
-        <v>3869.8438596115</v>
+        <v>3868.8827947</v>
       </c>
     </row>
     <row r="156">
@@ -4346,7 +4346,7 @@
         <v>3.416666666666667</v>
       </c>
       <c r="G156" t="n">
-        <v>475.7577736879667</v>
+        <v>478.7083110698667</v>
       </c>
     </row>
     <row r="157">
@@ -4451,10 +4451,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44392.11020632424</v>
+        <v>44392.11358490938</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>44392.13467346872</v>
+        <v>44392.13744467685</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4468,18 +4468,18 @@
         <v>3</v>
       </c>
       <c r="F161" t="n">
-        <v>35.232688051</v>
+        <v>34.3580651582</v>
       </c>
       <c r="G161" t="n">
-        <v>9955.7137735785</v>
+        <v>9960.578936176</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44392.44615016005</v>
+        <v>44392.44356099278</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>44392.46693912029</v>
+        <v>44392.46912967941</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4493,18 +4493,18 @@
         <v>3</v>
       </c>
       <c r="F162" t="n">
-        <v>29.9361027383</v>
+        <v>36.8189087527</v>
       </c>
       <c r="G162" t="n">
-        <v>448.5264355196001</v>
+        <v>440.8074949445</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44394.5720243079</v>
+        <v>44394.56934526192</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>44394.58900168544</v>
+        <v>44394.58938511367</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4518,10 +4518,10 @@
         <v>5</v>
       </c>
       <c r="F163" t="n">
-        <v>24.4474236481</v>
+        <v>28.8573865081</v>
       </c>
       <c r="G163" t="n">
-        <v>3031.3226701668</v>
+        <v>3024.3104388181</v>
       </c>
     </row>
     <row r="164">
@@ -4546,7 +4546,7 @@
         <v>2.833333333333333</v>
       </c>
       <c r="G164" t="n">
-        <v>2672.604239631034</v>
+        <v>2672.052102975733</v>
       </c>
     </row>
     <row r="165">
@@ -4576,10 +4576,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44397.98812856201</v>
+        <v>44397.99341165559</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44398.01543498215</v>
+        <v>44398.01172472074</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4593,18 +4593,18 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>39.3212450018</v>
+        <v>26.3708138189</v>
       </c>
       <c r="G166" t="n">
-        <v>415.5217959778</v>
+        <v>423.1294507179</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44399.80173407814</v>
+        <v>44399.80571124573</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44399.82395239367</v>
+        <v>44399.82613186177</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4618,10 +4618,10 @@
         <v>3</v>
       </c>
       <c r="F167" t="n">
-        <v>31.994374371</v>
+        <v>29.4056870912</v>
       </c>
       <c r="G167" t="n">
-        <v>2572.2706982134</v>
+        <v>2583.3405959909</v>
       </c>
     </row>
     <row r="168">
@@ -4646,7 +4646,7 @@
         <v>4.966666666666667</v>
       </c>
       <c r="G168" t="n">
-        <v>11549.90855310267</v>
+        <v>11546.77011904777</v>
       </c>
     </row>
     <row r="169">
@@ -4726,10 +4726,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44420.41112357332</v>
+        <v>44420.41159567828</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>44420.43728088889</v>
+        <v>44420.43732093222</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4743,10 +4743,10 @@
         <v>3</v>
       </c>
       <c r="F172" t="n">
-        <v>37.6665344277</v>
+        <v>37.0443656681</v>
       </c>
       <c r="G172" t="n">
-        <v>17126.4846122506</v>
+        <v>17127.1644434135</v>
       </c>
     </row>
     <row r="173">
@@ -4771,7 +4771,7 @@
         <v>3.383333333333333</v>
       </c>
       <c r="G173" t="n">
-        <v>4490.215519988367</v>
+        <v>4490.157857585067</v>
       </c>
     </row>
     <row r="174">
@@ -4876,10 +4876,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44432.22977444284</v>
+        <v>44432.23473261689</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>44432.25310418832</v>
+        <v>44432.25096912684</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4893,18 +4893,18 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>33.5948335098</v>
+        <v>23.3805743321</v>
       </c>
       <c r="G178" t="n">
-        <v>2035.1251976888</v>
+        <v>2042.2649683324</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44433.31591201439</v>
+        <v>44433.3168413579</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>44433.3392296431</v>
+        <v>44433.33423028302</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4918,18 +4918,18 @@
         <v>2</v>
       </c>
       <c r="F179" t="n">
-        <v>33.57738535169999</v>
+        <v>25.0400521838</v>
       </c>
       <c r="G179" t="n">
-        <v>1530.4432695247</v>
+        <v>1534.8560127022</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44437.54619327104</v>
+        <v>44437.54267967759</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>44437.56847842554</v>
+        <v>44437.56987999636</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4943,18 +4943,18 @@
         <v>6</v>
       </c>
       <c r="F180" t="n">
-        <v>32.0906224741</v>
+        <v>39.1684590389</v>
       </c>
       <c r="G180" t="n">
-        <v>6058.0276242355</v>
+        <v>6060.1671281924</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44444.23397339171</v>
+        <v>44444.23347088675</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>44444.25455542362</v>
+        <v>44444.25108362713</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4968,10 +4968,10 @@
         <v>6</v>
       </c>
       <c r="F181" t="n">
-        <v>29.6381259504</v>
+        <v>25.3623461573</v>
       </c>
       <c r="G181" t="n">
-        <v>9598.312751293799</v>
+        <v>9595.570882139999</v>
       </c>
     </row>
     <row r="182">
@@ -4996,15 +4996,15 @@
         <v>4.2</v>
       </c>
       <c r="G182" t="n">
-        <v>2953.906856637867</v>
+        <v>2958.906243587567</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44446.74927300838</v>
+        <v>44446.74563640017</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>44446.77012721102</v>
+        <v>44446.76571989994</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>30.0300517936</v>
+        <v>28.9202396656</v>
       </c>
       <c r="G183" t="n">
-        <v>634.2864654113</v>
+        <v>629.0497495985001</v>
       </c>
     </row>
     <row r="184">
@@ -5046,7 +5046,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G184" t="n">
-        <v>868.7668161284333</v>
+        <v>875.1133440692333</v>
       </c>
     </row>
     <row r="185">
@@ -5126,10 +5126,10 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44461.79819789482</v>
+        <v>44461.79748051827</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>44461.82191107579</v>
+        <v>44461.81971207964</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5143,18 +5143,18 @@
         <v>2</v>
       </c>
       <c r="F188" t="n">
-        <v>34.14698058</v>
+        <v>32.0134483629</v>
       </c>
       <c r="G188" t="n">
-        <v>11157.1383018996</v>
+        <v>11156.1052796583</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44463.92825929313</v>
+        <v>44463.92320184795</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>44463.94369268754</v>
+        <v>44463.94721615484</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5168,10 +5168,10 @@
         <v>4</v>
       </c>
       <c r="F189" t="n">
-        <v>22.2240879365</v>
+        <v>34.5806019055</v>
       </c>
       <c r="G189" t="n">
-        <v>3033.1414329796</v>
+        <v>3029.0252663753</v>
       </c>
     </row>
     <row r="190">
@@ -5196,7 +5196,7 @@
         <v>5.5</v>
       </c>
       <c r="G190" t="n">
-        <v>18725.3991966043</v>
+        <v>18720.325403698</v>
       </c>
     </row>
     <row r="191">
@@ -5351,10 +5351,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44492.71971246401</v>
+        <v>44492.71962768012</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>44492.74362408624</v>
+        <v>44492.74224064425</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5368,18 +5368,18 @@
         <v>5</v>
       </c>
       <c r="F197" t="n">
-        <v>34.4327360271</v>
+        <v>32.5626683436</v>
       </c>
       <c r="G197" t="n">
-        <v>12926.0192815056</v>
+        <v>12925.8971927149</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44503.408583103</v>
+        <v>44503.40727153248</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>44503.4322110411</v>
+        <v>44503.42969191428</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5393,10 +5393,10 @@
         <v>2</v>
       </c>
       <c r="F198" t="n">
-        <v>34.0242308689</v>
+        <v>32.285349812</v>
       </c>
       <c r="G198" t="n">
-        <v>15357.5409841277</v>
+        <v>15357.6444790422</v>
       </c>
     </row>
     <row r="199">
@@ -5421,7 +5421,7 @@
         <v>4.266666666666667</v>
       </c>
       <c r="G199" t="n">
-        <v>31447.94943413737</v>
+        <v>31451.57697675396</v>
       </c>
     </row>
     <row r="200">
@@ -5451,10 +5451,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44531.29810834845</v>
+        <v>44531.30204353837</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>44531.31990609527</v>
+        <v>44531.31888198062</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5468,10 +5468,10 @@
         <v>2</v>
       </c>
       <c r="F201" t="n">
-        <v>31.3887554218</v>
+        <v>24.2473568511</v>
       </c>
       <c r="G201" t="n">
-        <v>8667.7926884359</v>
+        <v>8673.4593619179</v>
       </c>
     </row>
     <row r="202">
@@ -5496,7 +5496,7 @@
         <v>7.05</v>
       </c>
       <c r="G202" t="n">
-        <v>2817.0185561423</v>
+        <v>2818.493281231</v>
       </c>
     </row>
     <row r="203">
@@ -5551,10 +5551,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44538.90080582078</v>
+        <v>44538.90063346891</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>44538.92010148458</v>
+        <v>44538.92124102452</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5568,18 +5568,18 @@
         <v>2</v>
       </c>
       <c r="F205" t="n">
-        <v>27.7857558803</v>
+        <v>29.6748800898</v>
       </c>
       <c r="G205" t="n">
-        <v>2008.8937152538</v>
+        <v>2008.6455285698</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44541.1486080364</v>
+        <v>44541.15221602155</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>44541.16938726925</v>
+        <v>44541.17268381184</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5593,10 +5593,10 @@
         <v>5</v>
       </c>
       <c r="F206" t="n">
-        <v>29.92209530438333</v>
+        <v>29.4736180188</v>
       </c>
       <c r="G206" t="n">
-        <v>3209.049434627317</v>
+        <v>3212.6039957161</v>
       </c>
     </row>
     <row r="207">
@@ -5621,15 +5621,15 @@
         <v>7.033333333333333</v>
       </c>
       <c r="G207" t="n">
-        <v>6033.1489989342</v>
+        <v>6028.4019776055</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44547.90796313399</v>
+        <v>44547.90530498564</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>44547.92698325092</v>
+        <v>44547.92831296528</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>4</v>
       </c>
       <c r="F208" t="n">
-        <v>27.3889683727</v>
+        <v>33.1314906816</v>
       </c>
       <c r="G208" t="n">
-        <v>3663.3669129594</v>
+        <v>3659.5391793221</v>
       </c>
     </row>
     <row r="209">
@@ -5671,7 +5671,7 @@
         <v>4.05</v>
       </c>
       <c r="G209" t="n">
-        <v>4353.110785334567</v>
+        <v>4351.195996662967</v>
       </c>
     </row>
     <row r="210">
@@ -5701,10 +5701,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44564.48272004885</v>
+        <v>44564.48119648467</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>44564.50047098628</v>
+        <v>44564.50154909465</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5718,18 +5718,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>25.5613499104</v>
+        <v>29.3077583845</v>
       </c>
       <c r="G211" t="n">
-        <v>19472.7668703542</v>
+        <v>19470.5729379319</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44568.58259661473</v>
+        <v>44568.58348909231</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>44568.60478419194</v>
+        <v>44568.60517932105</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5737,24 +5737,24 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
       </c>
       <c r="F212" t="n">
-        <v>31.9501111781</v>
+        <v>31.233929381</v>
       </c>
       <c r="G212" t="n">
-        <v>5878.260904967</v>
+        <v>5877.993596627</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44570.58206660307</v>
+        <v>44570.58726545174</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>44570.60799270724</v>
+        <v>44570.6037561456</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5762,16 +5762,16 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E213" t="n">
         <v>6</v>
       </c>
       <c r="F213" t="n">
-        <v>37.33359000860001</v>
+        <v>23.7465991739</v>
       </c>
       <c r="G213" t="n">
-        <v>2847.2866720165</v>
+        <v>2854.2040281815</v>
       </c>
     </row>
     <row r="214">
@@ -5796,15 +5796,15 @@
         <v>4.65</v>
       </c>
       <c r="G214" t="n">
-        <v>3582.023834898534</v>
+        <v>3588.124483653533</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44584.51585287851</v>
+        <v>44584.51457647821</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>44584.53871685289</v>
+        <v>44584.53565398597</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5818,18 +5818,18 @@
         <v>6</v>
       </c>
       <c r="F215" t="n">
-        <v>32.9241231172</v>
+        <v>30.3516111739</v>
       </c>
       <c r="G215" t="n">
-        <v>16440.6448117319</v>
+        <v>16438.8067952981</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44592.14017071539</v>
+        <v>44592.14034419404</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>44592.16411107612</v>
+        <v>44592.15990401186</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5843,10 +5843,10 @@
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>34.47411947499999</v>
+        <v>28.1661376625</v>
       </c>
       <c r="G216" t="n">
-        <v>10946.0935619725</v>
+        <v>10950.7538996171</v>
       </c>
     </row>
     <row r="217">
@@ -5871,7 +5871,7 @@
         <v>6.1</v>
       </c>
       <c r="G217" t="n">
-        <v>4257.0633837034</v>
+        <v>4263.1215562484</v>
       </c>
     </row>
     <row r="218">
@@ -6176,10 +6176,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44603.53449104039</v>
+        <v>44603.53044833675</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>44603.55068777594</v>
+        <v>44603.55051075205</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -6193,10 +6193,10 @@
         <v>4</v>
       </c>
       <c r="F230" t="n">
-        <v>23.3232991806</v>
+        <v>28.8898780424</v>
       </c>
       <c r="G230" t="n">
-        <v>633.4504315098</v>
+        <v>627.628938252</v>
       </c>
     </row>
     <row r="231">
@@ -6221,15 +6221,15 @@
         <v>4.833333333333333</v>
       </c>
       <c r="G231" t="n">
-        <v>5677.6762693096</v>
+        <v>5677.9311837056</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44609.47570884747</v>
+        <v>44609.47888613074</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>44609.49852246387</v>
+        <v>44609.49884541427</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -6243,18 +6243,18 @@
         <v>3</v>
       </c>
       <c r="F232" t="n">
-        <v>32.8516076244</v>
+        <v>28.7413682839</v>
       </c>
       <c r="G232" t="n">
-        <v>2849.5207403565</v>
+        <v>2854.0960282725</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44612.95611988131</v>
+        <v>44612.95593965738</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>44612.97648790652</v>
+        <v>44612.97913396009</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -6268,18 +6268,18 @@
         <v>6</v>
       </c>
       <c r="F233" t="n">
-        <v>29.3299562952</v>
+        <v>33.3997958963</v>
       </c>
       <c r="G233" t="n">
-        <v>4978.9402811107</v>
+        <v>4978.215710087899</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44613.28717229742</v>
+        <v>44613.28685900653</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>44613.30746166477</v>
+        <v>44613.31108576352</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -6293,10 +6293,10 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>29.2166889863</v>
+        <v>34.8865300632</v>
       </c>
       <c r="G234" t="n">
-        <v>447.3855229006</v>
+        <v>443.1240668758</v>
       </c>
     </row>
     <row r="235">
@@ -6321,7 +6321,7 @@
         <v>2.4</v>
       </c>
       <c r="G235" t="n">
-        <v>2282.438536059633</v>
+        <v>2277.219833853733</v>
       </c>
     </row>
     <row r="236">
@@ -6451,10 +6451,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44621.48223005384</v>
+        <v>44621.48418556622</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>44621.50462323972</v>
+        <v>44621.50835639963</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -6468,10 +6468,10 @@
         <v>1</v>
       </c>
       <c r="F241" t="n">
-        <v>32.2461876693</v>
+        <v>34.8060001006</v>
       </c>
       <c r="G241" t="n">
-        <v>2935.1612775402</v>
+        <v>2937.9772153663</v>
       </c>
     </row>
     <row r="242">
@@ -6496,7 +6496,7 @@
         <v>5.9</v>
       </c>
       <c r="G242" t="n">
-        <v>1438.6925347905</v>
+        <v>1433.3167845331</v>
       </c>
     </row>
     <row r="243">
@@ -7326,10 +7326,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44652.27075147968</v>
+        <v>44652.27322432159</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>44652.29187665425</v>
+        <v>44652.29233416433</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -7343,18 +7343,18 @@
         <v>4</v>
       </c>
       <c r="F276" t="n">
-        <v>30.4202513858</v>
+        <v>27.5181735372</v>
       </c>
       <c r="G276" t="n">
-        <v>16675.665464073</v>
+        <v>16679.2263564404</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44661.37483965463</v>
+        <v>44661.37833571205</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>44661.39876329869</v>
+        <v>44661.40166300904</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -7362,24 +7362,24 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E277" t="n">
         <v>6</v>
       </c>
       <c r="F277" t="n">
-        <v>34.4500474625</v>
+        <v>33.5913076709</v>
       </c>
       <c r="G277" t="n">
-        <v>13079.4667205434</v>
+        <v>13083.8422287102</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44666.02081050868</v>
+        <v>44666.02255327701</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>44666.04689792594</v>
+        <v>44666.0476254384</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -7393,10 +7393,10 @@
         <v>4</v>
       </c>
       <c r="F278" t="n">
-        <v>37.5658808579</v>
+        <v>36.1039124017</v>
       </c>
       <c r="G278" t="n">
-        <v>6655.7479823722</v>
+        <v>6654.0819858892</v>
       </c>
     </row>
     <row r="279">
@@ -7421,7 +7421,7 @@
         <v>2.85</v>
       </c>
       <c r="G279" t="n">
-        <v>2735.066986638533</v>
+        <v>2734.019368683733</v>
       </c>
     </row>
     <row r="280">
@@ -7451,10 +7451,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44680.53574316653</v>
+        <v>44680.53796085573</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>44680.5579972833</v>
+        <v>44680.56154800291</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -7468,18 +7468,18 @@
         <v>4</v>
       </c>
       <c r="F281" t="n">
-        <v>32.0459281479</v>
+        <v>33.9654919221</v>
       </c>
       <c r="G281" t="n">
-        <v>17966.6534931386</v>
+        <v>17969.8469655975</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44681.74840555697</v>
+        <v>44681.74522997499</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>44681.76399089974</v>
+        <v>44681.76691447311</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -7493,10 +7493,10 @@
         <v>5</v>
       </c>
       <c r="F282" t="n">
-        <v>22.4428935956</v>
+        <v>31.2256773048</v>
       </c>
       <c r="G282" t="n">
-        <v>1714.187914081</v>
+        <v>1704.5020398085</v>
       </c>
     </row>
     <row r="283">
@@ -7521,15 +7521,15 @@
         <v>7.4</v>
       </c>
       <c r="G283" t="n">
-        <v>2756.553104370234</v>
+        <v>2752.343158700433</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44694.22738480893</v>
+        <v>44694.22185542084</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>44694.24421098173</v>
+        <v>44694.24757486794</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -7543,10 +7543,10 @@
         <v>4</v>
       </c>
       <c r="F284" t="n">
-        <v>24.2296888323</v>
+        <v>37.036003809</v>
       </c>
       <c r="G284" t="n">
-        <v>15183.3341248799</v>
+        <v>15175.3718060246</v>
       </c>
     </row>
     <row r="285">
@@ -7571,15 +7571,15 @@
         <v>5.05</v>
       </c>
       <c r="G285" t="n">
-        <v>2802.3361862878</v>
+        <v>2797.4921901664</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44700.12851177772</v>
+        <v>44700.13404383612</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>44700.1511805509</v>
+        <v>44700.15361185126</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -7593,18 +7593,18 @@
         <v>3</v>
       </c>
       <c r="F286" t="n">
-        <v>32.6430333848</v>
+        <v>28.1779418003</v>
       </c>
       <c r="G286" t="n">
-        <v>5666.0069599265</v>
+        <v>5673.9731240243</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44711.59100565337</v>
+        <v>44711.58829768118</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>44711.61246711495</v>
+        <v>44711.60735984638</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -7618,18 +7618,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>30.9045046853</v>
+        <v>27.4495178957</v>
       </c>
       <c r="G287" t="n">
-        <v>16473.3481475511</v>
+        <v>16465.9475950768</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44714.50388556861</v>
+        <v>44714.50613321627</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>44714.53016271554</v>
+        <v>44714.52641354882</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -7643,18 +7643,18 @@
         <v>3</v>
       </c>
       <c r="F288" t="n">
-        <v>37.8390915831</v>
+        <v>29.2036788618</v>
       </c>
       <c r="G288" t="n">
-        <v>4163.642573258699</v>
+        <v>4174.2336526474</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44715.83915454493</v>
+        <v>44715.83814445303</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>44715.86238108344</v>
+        <v>44715.86056759993</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -7668,18 +7668,18 @@
         <v>4</v>
       </c>
       <c r="F289" t="n">
-        <v>33.4462154526</v>
+        <v>32.2893315324</v>
       </c>
       <c r="G289" t="n">
-        <v>1884.9482343117</v>
+        <v>1888.8925020661</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44717.73846426362</v>
+        <v>44717.73709308351</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>44717.75320080785</v>
+        <v>44717.75909436952</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -7693,10 +7693,10 @@
         <v>6</v>
       </c>
       <c r="F290" t="n">
-        <v>21.220623683</v>
+        <v>31.6818518733</v>
       </c>
       <c r="G290" t="n">
-        <v>2701.5597794793</v>
+        <v>2702.196696355</v>
       </c>
     </row>
     <row r="291">
@@ -7721,15 +7721,15 @@
         <v>4.2</v>
       </c>
       <c r="G291" t="n">
-        <v>2563.474170017233</v>
+        <v>2554.987441200233</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44721.36813103763</v>
+        <v>44721.36627943663</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>44721.39234191155</v>
+        <v>44721.38993235479</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -7743,18 +7743,18 @@
         <v>3</v>
       </c>
       <c r="F292" t="n">
-        <v>34.863658459</v>
+        <v>34.0602021499</v>
       </c>
       <c r="G292" t="n">
-        <v>2637.8253608525</v>
+        <v>2635.1590554198</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44729.0585521053</v>
+        <v>44729.05676109638</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>44729.08074367348</v>
+        <v>44729.07902529432</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -7768,10 +7768,10 @@
         <v>4</v>
       </c>
       <c r="F293" t="n">
-        <v>31.95585818511666</v>
+        <v>32.06044504798334</v>
       </c>
       <c r="G293" t="n">
-        <v>11039.34267898938</v>
+        <v>11040.2333878818</v>
       </c>
     </row>
     <row r="294">
@@ -7796,15 +7796,15 @@
         <v>5.183333333333334</v>
       </c>
       <c r="G294" t="n">
-        <v>7197.929110180668</v>
+        <v>7200.403576167183</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44735.89784660283</v>
+        <v>44735.89469628406</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>44735.91970622044</v>
+        <v>44735.91445477441</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -7818,18 +7818,18 @@
         <v>3</v>
       </c>
       <c r="F295" t="n">
-        <v>31.4778493472</v>
+        <v>28.4522260916</v>
       </c>
       <c r="G295" t="n">
-        <v>2613.5157747566</v>
+        <v>2608.9793157278</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44739.684350777</v>
+        <v>44739.68535371242</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>44739.71037253027</v>
+        <v>44739.70448699865</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -7843,18 +7843,18 @@
         <v>0</v>
       </c>
       <c r="F296" t="n">
-        <v>37.4713246972</v>
+        <v>27.5519321622</v>
       </c>
       <c r="G296" t="n">
-        <v>5421.088161460601</v>
+        <v>5430.094470736</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44753.41885472068</v>
+        <v>44753.41610973792</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>44753.44015203861</v>
+        <v>44753.43491813204</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -7862,24 +7862,24 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E297" t="n">
         <v>0</v>
       </c>
       <c r="F297" t="n">
-        <v>30.6681378097</v>
+        <v>27.0840875349</v>
       </c>
       <c r="G297" t="n">
-        <v>19740.2143541987</v>
+        <v>19744.736744564</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44760.72978388646</v>
+        <v>44760.72542889386</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>44760.75113537586</v>
+        <v>44760.74886075398</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -7893,10 +7893,10 @@
         <v>0</v>
       </c>
       <c r="F298" t="n">
-        <v>30.7461447479</v>
+        <v>33.7418785578</v>
       </c>
       <c r="G298" t="n">
-        <v>10497.06986089858</v>
+        <v>10498.3354970322</v>
       </c>
     </row>
     <row r="299">
@@ -7921,15 +7921,15 @@
         <v>3.733333333333333</v>
       </c>
       <c r="G299" t="n">
-        <v>20392.29839208351</v>
+        <v>20395.5738475935</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44787.47638009817</v>
+        <v>44787.47723421595</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>44787.50158048631</v>
+        <v>44787.50083516161</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -7943,18 +7943,18 @@
         <v>6</v>
       </c>
       <c r="F300" t="n">
-        <v>36.2885589095</v>
+        <v>33.9853617498</v>
       </c>
       <c r="G300" t="n">
-        <v>18088.3206747083</v>
+        <v>18089.5506043123</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44794.29284662515</v>
+        <v>44794.28778970095</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>44794.31228792898</v>
+        <v>44794.31170073219</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -7962,24 +7962,24 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E301" t="n">
         <v>6</v>
       </c>
       <c r="F301" t="n">
-        <v>27.9954775163</v>
+        <v>34.4318849894</v>
       </c>
       <c r="G301" t="n">
-        <v>9779.423239948499</v>
+        <v>9773.2145366399</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44794.48011751414</v>
+        <v>44794.47550194497</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>44794.49675236388</v>
+        <v>44794.49900263141</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -7993,18 +7993,18 @@
         <v>6</v>
       </c>
       <c r="F302" t="n">
-        <v>23.9541836117</v>
+        <v>33.8409884814</v>
       </c>
       <c r="G302" t="n">
-        <v>241.674602628</v>
+        <v>235.8737463955</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44796.20417301962</v>
+        <v>44796.20992557206</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>44796.23036724544</v>
+        <v>44796.22469667307</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -8012,24 +8012,24 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E303" t="n">
         <v>1</v>
       </c>
       <c r="F303" t="n">
-        <v>37.7196851839</v>
+        <v>21.2703854471</v>
       </c>
       <c r="G303" t="n">
-        <v>2458.6857442703</v>
+        <v>2463.7290345364</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44802.82828281801</v>
+        <v>44802.8301556432</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>44802.85499402586</v>
+        <v>44802.84994383956</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -8043,10 +8043,10 @@
         <v>0</v>
       </c>
       <c r="F304" t="n">
-        <v>38.4641393016</v>
+        <v>28.4950027713</v>
       </c>
       <c r="G304" t="n">
-        <v>9500.998424500101</v>
+        <v>9511.8609169839</v>
       </c>
     </row>
     <row r="305">
@@ -8071,15 +8071,15 @@
         <v>3.85</v>
       </c>
       <c r="G305" t="n">
-        <v>1014.291936088467</v>
+        <v>1021.564204359667</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44805.27233072604</v>
+        <v>44805.26711172663</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>44805.29003630598</v>
+        <v>44805.29398746842</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -8093,18 +8093,18 @@
         <v>3</v>
       </c>
       <c r="F306" t="n">
-        <v>25.4960351116</v>
+        <v>38.70106817048334</v>
       </c>
       <c r="G306" t="n">
-        <v>2462.8229121748</v>
+        <v>2455.3075530238</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44815.62657851184</v>
+        <v>44815.62314495914</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>44815.64449375958</v>
+        <v>44815.64529234049</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -8112,24 +8112,24 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E307" t="n">
         <v>6</v>
       </c>
       <c r="F307" t="n">
-        <v>25.7979567377</v>
+        <v>31.8922291458</v>
       </c>
       <c r="G307" t="n">
-        <v>14884.6207764442</v>
+        <v>14873.98678664062</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44828.04427490092</v>
+        <v>44828.04088338083</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>44828.06421216467</v>
+        <v>44828.06207890317</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -8137,16 +8137,16 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
       </c>
       <c r="F308" t="n">
-        <v>28.7096598103</v>
+        <v>30.5215521756</v>
       </c>
       <c r="G308" t="n">
-        <v>17855.684843537</v>
+        <v>17849.6510980779</v>
       </c>
     </row>
     <row r="309">
@@ -8171,7 +8171,7 @@
         <v>4.4</v>
       </c>
       <c r="G309" t="n">
-        <v>8998.634482851068</v>
+        <v>9001.706379432466</v>
       </c>
     </row>
     <row r="310">
@@ -8251,10 +8251,10 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44843.02374121693</v>
+        <v>44843.02955983707</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>44843.04903175485</v>
+        <v>44843.04862561778</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -8268,18 +8268,18 @@
         <v>6</v>
       </c>
       <c r="F313" t="n">
-        <v>36.4183746131</v>
+        <v>27.4547242207</v>
       </c>
       <c r="G313" t="n">
-        <v>6055.7873523865</v>
+        <v>6064.1661653839</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44844.94296597895</v>
+        <v>44844.9420926399</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>44844.96716559069</v>
+        <v>44844.96328341922</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -8293,18 +8293,18 @@
         <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>34.8474409157</v>
+        <v>30.5147222291</v>
       </c>
       <c r="G314" t="n">
-        <v>2727.2652826949</v>
+        <v>2726.5925118565</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44848.92549355078</v>
+        <v>44848.92262916511</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>44848.94449176622</v>
+        <v>44848.94308117194</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -8318,10 +8318,10 @@
         <v>4</v>
       </c>
       <c r="F315" t="n">
-        <v>27.3574302264</v>
+        <v>29.4508898545</v>
       </c>
       <c r="G315" t="n">
-        <v>5699.992262520501</v>
+        <v>5701.4578740682</v>
       </c>
     </row>
     <row r="316">
@@ -8346,7 +8346,7 @@
         <v>9.75</v>
       </c>
       <c r="G316" t="n">
-        <v>7848.565189976233</v>
+        <v>7850.596445720434</v>
       </c>
     </row>
     <row r="317">
@@ -8376,10 +8376,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44889.78592515772</v>
+        <v>44889.78646955071</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>44889.80497946539</v>
+        <v>44889.80893169793</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -8393,18 +8393,18 @@
         <v>3</v>
       </c>
       <c r="F318" t="n">
-        <v>27.4382030343</v>
+        <v>32.34549200498333</v>
       </c>
       <c r="G318" t="n">
-        <v>31948.715560456</v>
+        <v>31949.49948636162</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44892.24480386206</v>
+        <v>44892.24175816877</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>44892.26575096159</v>
+        <v>44892.26259095983</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -8418,10 +8418,10 @@
         <v>6</v>
       </c>
       <c r="F319" t="n">
-        <v>30.1638233223</v>
+        <v>29.9992191142</v>
       </c>
       <c r="G319" t="n">
-        <v>3513.3471312149</v>
+        <v>3503.2701180159</v>
       </c>
     </row>
     <row r="320">
@@ -8446,7 +8446,7 @@
         <v>3.216666666666667</v>
       </c>
       <c r="G320" t="n">
-        <v>2447.051948639166</v>
+        <v>2451.602351169967</v>
       </c>
     </row>
     <row r="321">
@@ -8626,10 +8626,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44907.60139797786</v>
+        <v>44907.59907773567</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>44907.62498420096</v>
+        <v>44907.62188540855</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -8643,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="F328" t="n">
-        <v>33.9641612692</v>
+        <v>32.8430489491</v>
       </c>
       <c r="G328" t="n">
-        <v>17968.91308812</v>
+        <v>17965.571939372</v>
       </c>
     </row>
     <row r="329">
@@ -8671,7 +8671,7 @@
         <v>3.65</v>
       </c>
       <c r="G329" t="n">
-        <v>38356.65608394414</v>
+        <v>38361.11834501223</v>
       </c>
     </row>
     <row r="330">
@@ -8701,10 +8701,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44935.38526704866</v>
+        <v>44935.38631762979</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>44935.4080767077</v>
+        <v>44935.4075549988</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -8718,18 +8718,18 @@
         <v>0</v>
       </c>
       <c r="F331" t="n">
-        <v>32.8459090097</v>
+        <v>30.5818113726</v>
       </c>
       <c r="G331" t="n">
-        <v>1315.4845500822</v>
+        <v>1316.9973869076</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44938.01462362977</v>
+        <v>44938.01269615272</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>44938.03575494303</v>
+        <v>44938.03187429007</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -8743,18 +8743,18 @@
         <v>3</v>
       </c>
       <c r="F332" t="n">
-        <v>30.4290911051</v>
+        <v>27.6165177905</v>
       </c>
       <c r="G332" t="n">
-        <v>3753.4275677782</v>
+        <v>3751.4032616419</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44940.93195938591</v>
+        <v>44940.93323005481</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>44940.95083495961</v>
+        <v>44940.94881636675</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -8768,10 +8768,10 @@
         <v>5</v>
       </c>
       <c r="F333" t="n">
-        <v>27.18082612</v>
+        <v>22.44428918191667</v>
       </c>
       <c r="G333" t="n">
-        <v>4170.5343977438</v>
+        <v>4177.9523012302</v>
       </c>
     </row>
     <row r="334">
@@ -8796,7 +8796,7 @@
         <v>2.4</v>
       </c>
       <c r="G334" t="n">
-        <v>14993.98099149433</v>
+        <v>14996.88776520862</v>
       </c>
     </row>
     <row r="335">
@@ -8926,10 +8926,10 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44964.22492129965</v>
+        <v>44964.22105104336</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>44964.24482422794</v>
+        <v>44964.24478707096</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -8943,18 +8943,18 @@
         <v>1</v>
       </c>
       <c r="F340" t="n">
-        <v>28.6602167384</v>
+        <v>34.1798797424</v>
       </c>
       <c r="G340" t="n">
-        <v>2671.0533381731</v>
+        <v>2665.4801691092</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44966.0588303291</v>
+        <v>44966.06006078948</v>
       </c>
       <c r="B341" s="2" t="n">
-        <v>44966.07931453199</v>
+        <v>44966.07964193726</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -8968,18 +8968,18 @@
         <v>3</v>
       </c>
       <c r="F341" t="n">
-        <v>29.4972521752</v>
+        <v>28.1968528127</v>
       </c>
       <c r="G341" t="n">
-        <v>2612.1687856585</v>
+        <v>2613.9941546678</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44968.20446519566</v>
+        <v>44968.20502659193</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>44968.22342493318</v>
+        <v>44968.22097619114</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -8993,18 +8993,18 @@
         <v>5</v>
       </c>
       <c r="F342" t="n">
-        <v>27.3020220367</v>
+        <v>22.9674228496</v>
       </c>
       <c r="G342" t="n">
-        <v>3060.2169556807</v>
+        <v>3060.5539027297</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44969.47408140786</v>
+        <v>44969.47253466029</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>44969.4918190697</v>
+        <v>44969.49539078468</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -9018,18 +9018,18 @@
         <v>6</v>
       </c>
       <c r="F343" t="n">
-        <v>25.5422330642</v>
+        <v>32.912819119</v>
       </c>
       <c r="G343" t="n">
-        <v>1800.9453235228</v>
+        <v>1802.2441955724</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44978.49833090116</v>
+        <v>44978.49749778875</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>44978.51493160128</v>
+        <v>44978.51416733809</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -9043,10 +9043,10 @@
         <v>1</v>
       </c>
       <c r="F344" t="n">
-        <v>23.905008185</v>
+        <v>24.004151049</v>
       </c>
       <c r="G344" t="n">
-        <v>12969.3770372953</v>
+        <v>12963.0340858731</v>
       </c>
     </row>
     <row r="345">
@@ -9071,15 +9071,15 @@
         <v>3.95</v>
       </c>
       <c r="G345" t="n">
-        <v>2009.615160803433</v>
+        <v>2010.715699808433</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44982.74862368057</v>
+        <v>44982.74814218787</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>44982.76767350632</v>
+        <v>44982.76849305101</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -9093,18 +9093,18 @@
         <v>5</v>
       </c>
       <c r="F346" t="n">
-        <v>27.4317490721</v>
+        <v>29.3052429144</v>
       </c>
       <c r="G346" t="n">
-        <v>4082.951433364</v>
+        <v>4082.2580838726</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44986.41463415515</v>
+        <v>44986.4104801478</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>44986.43255349687</v>
+        <v>44986.43160779309</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         <v>2</v>
       </c>
       <c r="F347" t="n">
-        <v>25.8038520658</v>
+        <v>30.42380922551667</v>
       </c>
       <c r="G347" t="n">
-        <v>5251.623334318199</v>
+        <v>5244.461419386201</v>
       </c>
     </row>
     <row r="348">
@@ -9146,7 +9146,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="G348" t="n">
-        <v>11735.5396311799</v>
+        <v>11736.90144460128</v>
       </c>
     </row>
     <row r="349">
@@ -9201,10 +9201,10 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45014.09938281065</v>
+        <v>45014.10046228258</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>45014.12256257171</v>
+        <v>45014.12054481696</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -9218,18 +9218,18 @@
         <v>2</v>
       </c>
       <c r="F351" t="n">
-        <v>33.37885593088333</v>
+        <v>28.9188494956</v>
       </c>
       <c r="G351" t="n">
-        <v>27087.86124733712</v>
+        <v>27089.4156869233</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45018.97657205369</v>
+        <v>45018.97818409971</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>45018.99456315106</v>
+        <v>45018.99358274325</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -9243,18 +9243,18 @@
         <v>6</v>
       </c>
       <c r="F352" t="n">
-        <v>25.907180214</v>
+        <v>22.1740466959</v>
       </c>
       <c r="G352" t="n">
-        <v>6989.7736540634</v>
+        <v>6995.0005671798</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45035.99914726006</v>
+        <v>45035.9972655058</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>45036.01674528091</v>
+        <v>45036.01842096538</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -9268,10 +9268,10 @@
         <v>2</v>
       </c>
       <c r="F353" t="n">
-        <v>25.3411500367</v>
+        <v>30.46386178858333</v>
       </c>
       <c r="G353" t="n">
-        <v>24486.6011169438</v>
+        <v>24485.3031780669</v>
       </c>
     </row>
     <row r="354">
@@ -9296,15 +9296,15 @@
         <v>3.566666666666667</v>
       </c>
       <c r="G354" t="n">
-        <v>8842.753462140767</v>
+        <v>8840.340476516583</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45052.11831061788</v>
+        <v>45052.11698865295</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>45052.14204137451</v>
+        <v>45052.13957352668</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -9318,18 +9318,18 @@
         <v>5</v>
       </c>
       <c r="F355" t="n">
-        <v>34.1722895455</v>
+        <v>32.5222181721</v>
       </c>
       <c r="G355" t="n">
-        <v>14339.9339564286</v>
+        <v>14338.0303269274</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45055.57716384622</v>
+        <v>45055.57470040018</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>45055.59980806863</v>
+        <v>45055.59641472359</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -9343,18 +9343,18 @@
         <v>1</v>
       </c>
       <c r="F356" t="n">
-        <v>32.6076802693</v>
+        <v>31.2686257289</v>
       </c>
       <c r="G356" t="n">
-        <v>4946.5763592502</v>
+        <v>4946.5826978187</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45058.11618478451</v>
+        <v>45058.11512068245</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>45058.13730375185</v>
+        <v>45058.14103294162</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -9368,10 +9368,10 @@
         <v>4</v>
       </c>
       <c r="F357" t="n">
-        <v>30.41131297618334</v>
+        <v>37.3136531969</v>
       </c>
       <c r="G357" t="n">
-        <v>3623.582470878517</v>
+        <v>3626.9365807577</v>
       </c>
     </row>
     <row r="358">
@@ -9396,15 +9396,15 @@
         <v>5.333333333333333</v>
       </c>
       <c r="G358" t="n">
-        <v>219.8992639850333</v>
+        <v>214.5292307316333</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45061.95805223572</v>
+        <v>45061.95892205474</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>45061.97884596448</v>
+        <v>45061.9790069032</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -9412,24 +9412,24 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E359" t="n">
         <v>0</v>
       </c>
       <c r="F359" t="n">
-        <v>29.9429694206</v>
+        <v>28.9221817968</v>
       </c>
       <c r="G359" t="n">
-        <v>5276.6452194352</v>
+        <v>5277.8977588198</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45064.02028359225</v>
+        <v>45064.02311485098</v>
       </c>
       <c r="B360" s="2" t="n">
-        <v>45064.0442798181</v>
+        <v>45064.04510297095</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -9443,18 +9443,18 @@
         <v>3</v>
       </c>
       <c r="F360" t="n">
-        <v>34.5545652208</v>
+        <v>31.6628927401</v>
       </c>
       <c r="G360" t="n">
-        <v>2939.6701840042</v>
+        <v>2943.5154448113</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45071.62692902057</v>
+        <v>45071.62428499641</v>
       </c>
       <c r="B361" s="2" t="n">
-        <v>45071.64555721877</v>
+        <v>45071.65088113103</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -9462,16 +9462,16 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E361" t="n">
         <v>3</v>
       </c>
       <c r="F361" t="n">
-        <v>26.82460542</v>
+        <v>38.2984338448</v>
       </c>
       <c r="G361" t="n">
-        <v>10919.014851546</v>
+        <v>10914.0221166706</v>
       </c>
     </row>
     <row r="362">
@@ -9496,15 +9496,15 @@
         <v>6.55</v>
       </c>
       <c r="G362" t="n">
-        <v>1575.780938286533</v>
+        <v>1568.114504649933</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45084.76471150884</v>
+        <v>45084.76428018112</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>45084.78758143236</v>
+        <v>45084.78408592167</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -9518,18 +9518,18 @@
         <v>2</v>
       </c>
       <c r="F363" t="n">
-        <v>32.9326898544</v>
+        <v>28.5202663722</v>
       </c>
       <c r="G363" t="n">
-        <v>17309.2512394164</v>
+        <v>17308.6301274953</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45096.20394813635</v>
+        <v>45096.20230253957</v>
       </c>
       <c r="B364" s="2" t="n">
-        <v>45096.22104909023</v>
+        <v>45096.22169555346</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -9543,18 +9543,18 @@
         <v>0</v>
       </c>
       <c r="F364" t="n">
-        <v>24.6253735815</v>
+        <v>27.9259400047</v>
       </c>
       <c r="G364" t="n">
-        <v>16439.5680537541</v>
+        <v>16442.2319297907</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45099.91003248745</v>
+        <v>45099.90867324881</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>45099.9306985478</v>
+        <v>45099.93295113963</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -9568,18 +9568,18 @@
         <v>3</v>
       </c>
       <c r="F365" t="n">
-        <v>29.7591268939</v>
+        <v>34.96016278578334</v>
       </c>
       <c r="G365" t="n">
-        <v>5312.1360920057</v>
+        <v>5309.2478813012</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45107.49256225715</v>
+        <v>45107.49290120053</v>
       </c>
       <c r="B366" s="2" t="n">
-        <v>45107.51406926999</v>
+        <v>45107.51627131773</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -9593,18 +9593,18 @@
         <v>4</v>
       </c>
       <c r="F366" t="n">
-        <v>30.9700984808</v>
+        <v>33.6529687667</v>
       </c>
       <c r="G366" t="n">
-        <v>10889.083741469</v>
+        <v>10886.32808769442</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45119.22701938115</v>
+        <v>45119.22701847745</v>
       </c>
       <c r="B367" s="2" t="n">
-        <v>45119.2426013025</v>
+        <v>45119.2466279828</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -9618,18 +9618,18 @@
         <v>2</v>
       </c>
       <c r="F367" t="n">
-        <v>22.4379667525</v>
+        <v>28.237687701</v>
       </c>
       <c r="G367" t="n">
-        <v>16866.6481600726</v>
+        <v>16863.4759099907</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45123.76603589009</v>
+        <v>45123.76800958177</v>
       </c>
       <c r="B368" s="2" t="n">
-        <v>45123.78622113122</v>
+        <v>45123.78877585255</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -9643,10 +9643,10 @@
         <v>6</v>
       </c>
       <c r="F368" t="n">
-        <v>29.0667472111</v>
+        <v>29.9034299156</v>
       </c>
       <c r="G368" t="n">
-        <v>6513.7458061325</v>
+        <v>6510.7895025186</v>
       </c>
     </row>
     <row r="369">
@@ -9671,15 +9671,15 @@
         <v>6.016666666666667</v>
       </c>
       <c r="G369" t="n">
-        <v>3837.041571042167</v>
+        <v>3833.362772329767</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45132.97239651433</v>
+        <v>45132.97746824719</v>
       </c>
       <c r="B370" s="2" t="n">
-        <v>45132.99669425471</v>
+        <v>45132.99951350225</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -9693,18 +9693,18 @@
         <v>1</v>
       </c>
       <c r="F370" t="n">
-        <v>34.9887461641</v>
+        <v>31.74516728</v>
       </c>
       <c r="G370" t="n">
-        <v>9385.034313968499</v>
+        <v>9392.337609299801</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45133.43560309218</v>
+        <v>45133.43650349371</v>
       </c>
       <c r="B371" s="2" t="n">
-        <v>45133.45505766196</v>
+        <v>45133.45804553603</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -9718,18 +9718,18 @@
         <v>2</v>
       </c>
       <c r="F371" t="n">
-        <v>28.01458048158333</v>
+        <v>31.0205409382</v>
       </c>
       <c r="G371" t="n">
-        <v>632.0287259512</v>
+        <v>629.2655877045</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45138.39232091486</v>
+        <v>45138.38966030885</v>
       </c>
       <c r="B372" s="2" t="n">
-        <v>45138.41555635181</v>
+        <v>45138.41261406765</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -9743,18 +9743,18 @@
         <v>0</v>
       </c>
       <c r="F372" t="n">
-        <v>33.4590292044</v>
+        <v>33.0534126743</v>
       </c>
       <c r="G372" t="n">
-        <v>7109.659084170116</v>
+        <v>7101.5252728636</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45139.35386458691</v>
+        <v>45139.34960457422</v>
       </c>
       <c r="B373" s="2" t="n">
-        <v>45139.3726630842</v>
+        <v>45139.37411084964</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -9768,18 +9768,18 @@
         <v>1</v>
       </c>
       <c r="F373" t="n">
-        <v>27.0698361002</v>
+        <v>35.28903659928334</v>
       </c>
       <c r="G373" t="n">
-        <v>1351.163858559</v>
+        <v>1349.2663294629</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45141.68367865875</v>
+        <v>45141.68722364349</v>
       </c>
       <c r="B374" s="2" t="n">
-        <v>45141.70485234127</v>
+        <v>45141.70737454328</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -9793,18 +9793,18 @@
         <v>3</v>
       </c>
       <c r="F374" t="n">
-        <v>30.4901028311</v>
+        <v>29.0172956805</v>
       </c>
       <c r="G374" t="n">
-        <v>3327.8624273373</v>
+        <v>3330.882423156717</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45141.97805695022</v>
+        <v>45141.97358599003</v>
       </c>
       <c r="B375" s="2" t="n">
-        <v>45141.99913240335</v>
+        <v>45141.99948106803</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -9818,18 +9818,18 @@
         <v>3</v>
       </c>
       <c r="F375" t="n">
-        <v>30.34865252338333</v>
+        <v>37.28891232060001</v>
       </c>
       <c r="G375" t="n">
-        <v>393.4146368902</v>
+        <v>383.3444833291</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45149.6210317076</v>
+        <v>45149.62393711253</v>
       </c>
       <c r="B376" s="2" t="n">
-        <v>45149.64442273964</v>
+        <v>45149.64469219631</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -9843,10 +9843,10 @@
         <v>4</v>
       </c>
       <c r="F376" t="n">
-        <v>33.68308614</v>
+        <v>29.8873206465</v>
       </c>
       <c r="G376" t="n">
-        <v>10975.53499810972</v>
+        <v>10979.2167040665</v>
       </c>
     </row>
     <row r="377">
@@ -9871,7 +9871,7 @@
         <v>6.9</v>
       </c>
       <c r="G377" t="n">
-        <v>1973.181254902534</v>
+        <v>1972.793237310833</v>
       </c>
     </row>
     <row r="378">
@@ -10101,10 +10101,10 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45168.3982675491</v>
+        <v>45168.39798017331</v>
       </c>
       <c r="B387" s="2" t="n">
-        <v>45168.42029710932</v>
+        <v>45168.41369356971</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -10118,18 +10118,18 @@
         <v>2</v>
       </c>
       <c r="F387" t="n">
-        <v>31.7225667204</v>
+        <v>22.6272908309</v>
       </c>
       <c r="G387" t="n">
-        <v>933.0219373689999</v>
+        <v>932.608116234</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45179.56317835958</v>
+        <v>45179.55969693616</v>
       </c>
       <c r="B388" s="2" t="n">
-        <v>45179.58278443958</v>
+        <v>45179.58158927877</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -10143,18 +10143,18 @@
         <v>6</v>
       </c>
       <c r="F388" t="n">
-        <v>28.2327551836</v>
+        <v>31.5249733474</v>
       </c>
       <c r="G388" t="n">
-        <v>16045.7490003841</v>
+        <v>16050.2448476844</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45181.70628875039</v>
+        <v>45181.71014829003</v>
       </c>
       <c r="B389" s="2" t="n">
-        <v>45181.73235141599</v>
+        <v>45181.72666459488</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -10162,24 +10162,24 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E389" t="n">
         <v>1</v>
       </c>
       <c r="F389" t="n">
-        <v>37.5302384883</v>
+        <v>23.78347899581667</v>
       </c>
       <c r="G389" t="n">
-        <v>3057.8462075665</v>
+        <v>3065.124976222984</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45194.96084451714</v>
+        <v>45194.96164109162</v>
       </c>
       <c r="B390" s="2" t="n">
-        <v>45194.97695297029</v>
+        <v>45194.98138579508</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -10193,18 +10193,18 @@
         <v>0</v>
       </c>
       <c r="F390" t="n">
-        <v>23.1961725271</v>
+        <v>28.4323729878</v>
       </c>
       <c r="G390" t="n">
-        <v>19049.0300656505</v>
+        <v>19058.3661552859</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45199.83349761696</v>
+        <v>45199.83526164468</v>
       </c>
       <c r="B391" s="2" t="n">
-        <v>45199.85369993252</v>
+        <v>45199.85753933772</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -10218,18 +10218,18 @@
         <v>5</v>
       </c>
       <c r="F391" t="n">
-        <v>29.0913343754</v>
+        <v>32.0798779816</v>
       </c>
       <c r="G391" t="n">
-        <v>6993.424291218899</v>
+        <v>6989.581223418801</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45199.9561714572</v>
+        <v>45199.95894872315</v>
       </c>
       <c r="B392" s="2" t="n">
-        <v>45199.97660785464</v>
+        <v>45199.97672898984</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -10237,24 +10237,24 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
       </c>
       <c r="F392" t="n">
-        <v>29.428412307</v>
+        <v>25.6035840298</v>
       </c>
       <c r="G392" t="n">
-        <v>147.558995561</v>
+        <v>146.0295150153</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45202.1679322471</v>
+        <v>45202.16552089933</v>
       </c>
       <c r="B393" s="2" t="n">
-        <v>45202.18586702426</v>
+        <v>45202.18895531361</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -10262,24 +10262,24 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E393" t="n">
         <v>1</v>
       </c>
       <c r="F393" t="n">
-        <v>25.826079109</v>
+        <v>33.7455565654</v>
       </c>
       <c r="G393" t="n">
-        <v>3155.5071251409</v>
+        <v>3151.8603496718</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45205.04405564485</v>
+        <v>45205.04251630653</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>45205.06343399115</v>
+        <v>45205.06223971925</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -10293,18 +10293,18 @@
         <v>4</v>
       </c>
       <c r="F394" t="n">
-        <v>27.9048186701</v>
+        <v>28.4017143133</v>
       </c>
       <c r="G394" t="n">
-        <v>4115.7916136484</v>
+        <v>4109.1278298069</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45212.7085999317</v>
+        <v>45212.71064233519</v>
       </c>
       <c r="B395" s="2" t="n">
-        <v>45212.7278404242</v>
+        <v>45212.7266926676</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -10318,18 +10318,18 @@
         <v>4</v>
       </c>
       <c r="F395" t="n">
-        <v>27.7063092032</v>
+        <v>23.1124786677</v>
       </c>
       <c r="G395" t="n">
-        <v>11009.038954403</v>
+        <v>11013.6997669733</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45213.06475784318</v>
+        <v>45213.06390040839</v>
       </c>
       <c r="B396" s="2" t="n">
-        <v>45213.08272865268</v>
+        <v>45213.08379767231</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -10343,18 +10343,18 @@
         <v>5</v>
       </c>
       <c r="F396" t="n">
-        <v>25.877965663</v>
+        <v>28.6520600471</v>
       </c>
       <c r="G396" t="n">
-        <v>485.161083337</v>
+        <v>485.5791467228</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45214.28956134881</v>
+        <v>45214.29330857174</v>
       </c>
       <c r="B397" s="2" t="n">
-        <v>45214.31608278419</v>
+        <v>45214.31568801409</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -10362,24 +10362,24 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E397" t="n">
         <v>6</v>
       </c>
       <c r="F397" t="n">
-        <v>38.19086694558334</v>
+        <v>32.2263969694</v>
       </c>
       <c r="G397" t="n">
-        <v>1737.839082429517</v>
+        <v>1741.6956951801</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45214.67008101643</v>
+        <v>45214.66653595464</v>
       </c>
       <c r="B398" s="2" t="n">
-        <v>45214.68569853365</v>
+        <v>45214.68803750832</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -10387,24 +10387,24 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E398" t="n">
         <v>6</v>
       </c>
       <c r="F398" t="n">
-        <v>22.4892247983</v>
+        <v>30.9622372894</v>
       </c>
       <c r="G398" t="n">
-        <v>509.7574544286</v>
+        <v>505.2210344122</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45218.35449059497</v>
+        <v>45218.3529746893</v>
       </c>
       <c r="B399" s="2" t="n">
-        <v>45218.37427417787</v>
+        <v>45218.37614981191</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -10418,10 +10418,10 @@
         <v>3</v>
       </c>
       <c r="F399" t="n">
-        <v>28.4883593663</v>
+        <v>33.3721765568</v>
       </c>
       <c r="G399" t="n">
-        <v>5283.060568321101</v>
+        <v>5277.509540612699</v>
       </c>
     </row>
     <row r="400">
@@ -10446,7 +10446,7 @@
         <v>3.383333333333333</v>
       </c>
       <c r="G400" t="n">
-        <v>7798.361850517534</v>
+        <v>7795.660937509733</v>
       </c>
     </row>
     <row r="401">
@@ -10576,10 +10576,10 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45233.46544944854</v>
+        <v>45233.46214049985</v>
       </c>
       <c r="B406" s="2" t="n">
-        <v>45233.48136114426</v>
+        <v>45233.48345621739</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -10593,10 +10593,10 @@
         <v>4</v>
       </c>
       <c r="F406" t="n">
-        <v>22.91284183101667</v>
+        <v>30.6946332347</v>
       </c>
       <c r="G406" t="n">
-        <v>5584.130539240484</v>
+        <v>5579.365653133001</v>
       </c>
     </row>
     <row r="407">
@@ -10621,7 +10621,7 @@
         <v>4.083333333333333</v>
       </c>
       <c r="G407" t="n">
-        <v>5242.7566189285</v>
+        <v>5239.7397136323</v>
       </c>
     </row>
     <row r="408">
@@ -10651,10 +10651,10 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45249.75715747338</v>
+        <v>45249.75729316988</v>
       </c>
       <c r="B409" s="2" t="n">
-        <v>45249.77412862489</v>
+        <v>45249.77921269385</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -10668,18 +10668,18 @@
         <v>6</v>
       </c>
       <c r="F409" t="n">
-        <v>24.4384581555</v>
+        <v>31.5641145112</v>
       </c>
       <c r="G409" t="n">
-        <v>18181.3400950122</v>
+        <v>18181.5354979786</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45251.50349985491</v>
+        <v>45251.50811048593</v>
       </c>
       <c r="B410" s="2" t="n">
-        <v>45251.52361005585</v>
+        <v>45251.52364603311</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -10693,18 +10693,18 @@
         <v>1</v>
       </c>
       <c r="F410" t="n">
-        <v>28.9586893622</v>
+        <v>22.3711879595</v>
       </c>
       <c r="G410" t="n">
-        <v>2490.2945712427</v>
+        <v>2489.6128205835</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45252.153075284</v>
+        <v>45252.15010039444</v>
       </c>
       <c r="B411" s="2" t="n">
-        <v>45252.17367540615</v>
+        <v>45252.17436788472</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -10718,18 +10718,18 @@
         <v>2</v>
       </c>
       <c r="F411" t="n">
-        <v>29.66417587</v>
+        <v>34.9451859972</v>
       </c>
       <c r="G411" t="n">
-        <v>906.4299285436001</v>
+        <v>902.0942803041</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45252.44646812967</v>
+        <v>45252.44610285958</v>
       </c>
       <c r="B412" s="2" t="n">
-        <v>45252.46314070763</v>
+        <v>45252.4612747964</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -10743,18 +10743,18 @@
         <v>2</v>
       </c>
       <c r="F412" t="n">
-        <v>24.0085122756</v>
+        <v>21.8475890299</v>
       </c>
       <c r="G412" t="n">
-        <v>392.8215218702</v>
+        <v>391.2983638006</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45259.46194380111</v>
+        <v>45259.46124916821</v>
       </c>
       <c r="B413" s="2" t="n">
-        <v>45259.48338380367</v>
+        <v>45259.48469971133</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -10768,18 +10768,18 @@
         <v>2</v>
       </c>
       <c r="F413" t="n">
-        <v>30.8736036963</v>
+        <v>33.768782087</v>
       </c>
       <c r="G413" t="n">
-        <v>10078.2764546023</v>
+        <v>10079.9630953985</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45268.11227647597</v>
+        <v>45268.11274399132</v>
       </c>
       <c r="B414" s="2" t="n">
-        <v>45268.13396006566</v>
+        <v>45268.12903604643</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -10793,18 +10793,18 @@
         <v>4</v>
       </c>
       <c r="F414" t="n">
-        <v>31.224369156</v>
+        <v>23.4605593533</v>
       </c>
       <c r="G414" t="n">
-        <v>12425.6054481077</v>
+        <v>12424.3837631861</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45270.85774231063</v>
+        <v>45270.85787396875</v>
       </c>
       <c r="B415" s="2" t="n">
-        <v>45270.8815930585</v>
+        <v>45270.88317579961</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -10818,10 +10818,10 @@
         <v>6</v>
       </c>
       <c r="F415" t="n">
-        <v>34.3450769522</v>
+        <v>36.4346364359</v>
       </c>
       <c r="G415" t="n">
-        <v>3922.2464327395</v>
+        <v>3929.5266081509</v>
       </c>
     </row>
     <row r="416">
@@ -10846,15 +10846,15 @@
         <v>3.166666666666667</v>
       </c>
       <c r="G416" t="n">
-        <v>4815.622662414</v>
+        <v>4813.343515223701</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45286.99784045933</v>
+        <v>45286.99772836999</v>
       </c>
       <c r="B417" s="2" t="n">
-        <v>45287.01752527661</v>
+        <v>45287.01802724531</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -10868,18 +10868,18 @@
         <v>1</v>
       </c>
       <c r="F417" t="n">
-        <v>28.3461368772</v>
+        <v>29.23038045938333</v>
       </c>
       <c r="G417" t="n">
-        <v>18388.606928109</v>
+        <v>18388.44551945942</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45287.1263677656</v>
+        <v>45287.12394461397</v>
       </c>
       <c r="B418" s="2" t="n">
-        <v>45287.1462947797</v>
+        <v>45287.14644881982</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -10887,24 +10887,24 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E418" t="n">
         <v>2</v>
       </c>
       <c r="F418" t="n">
-        <v>28.6949002929</v>
+        <v>32.4060564156</v>
       </c>
       <c r="G418" t="n">
-        <v>156.7331841592</v>
+        <v>152.5210108753</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45287.41343855976</v>
+        <v>45287.41827012147</v>
       </c>
       <c r="B419" s="2" t="n">
-        <v>45287.43855102128</v>
+        <v>45287.43831057609</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -10912,24 +10912,24 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E419" t="n">
         <v>2</v>
       </c>
       <c r="F419" t="n">
-        <v>36.16194460249999</v>
+        <v>28.8582546425</v>
       </c>
       <c r="G419" t="n">
-        <v>384.6870432849</v>
+        <v>391.4226743854</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45299.7510895446</v>
+        <v>45299.74693490751</v>
       </c>
       <c r="B420" s="2" t="n">
-        <v>45299.76750943669</v>
+        <v>45299.77261704644</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -10937,16 +10937,16 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E420" t="n">
         <v>0</v>
       </c>
       <c r="F420" t="n">
-        <v>23.6446445972</v>
+        <v>36.98228004</v>
       </c>
       <c r="G420" t="n">
-        <v>17730.0554735846</v>
+        <v>17724.4190372575</v>
       </c>
     </row>
     <row r="421">
@@ -10971,7 +10971,7 @@
         <v>3.6</v>
       </c>
       <c r="G421" t="n">
-        <v>1653.4197444925</v>
+        <v>1646.0647864649</v>
       </c>
     </row>
     <row r="422">
@@ -11001,10 +11001,10 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45302.93023250361</v>
+        <v>45302.92657579831</v>
       </c>
       <c r="B423" s="2" t="n">
-        <v>45302.94810020844</v>
+        <v>45302.94810965839</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -11018,10 +11018,10 @@
         <v>3</v>
       </c>
       <c r="F423" t="n">
-        <v>25.7294949514</v>
+        <v>31.00875851251667</v>
       </c>
       <c r="G423" t="n">
-        <v>2881.7014718765</v>
+        <v>2876.4358162484</v>
       </c>
     </row>
     <row r="424">
@@ -11046,7 +11046,7 @@
         <v>12.56666666666667</v>
       </c>
       <c r="G424" t="n">
-        <v>38846.48569983876</v>
+        <v>38846.47209190575</v>
       </c>
     </row>
     <row r="425">
@@ -11076,10 +11076,10 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45340.54427423448</v>
+        <v>45340.53983708834</v>
       </c>
       <c r="B426" s="2" t="n">
-        <v>45340.56431544133</v>
+        <v>45340.56682906804</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -11087,24 +11087,24 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E426" t="n">
         <v>6</v>
       </c>
       <c r="F426" t="n">
-        <v>28.8593378684</v>
+        <v>38.86845078048334</v>
       </c>
       <c r="G426" t="n">
-        <v>15121.8715643208</v>
+        <v>15115.48207388392</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45351.26958927391</v>
+        <v>45351.27463541798</v>
       </c>
       <c r="B427" s="2" t="n">
-        <v>45351.29225338866</v>
+        <v>45351.2960656011</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -11118,18 +11118,18 @@
         <v>3</v>
       </c>
       <c r="F427" t="n">
-        <v>32.63632524</v>
+        <v>30.8594636977</v>
       </c>
       <c r="G427" t="n">
-        <v>15415.5943189155</v>
+        <v>15419.241143897</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45352.35387590764</v>
+        <v>45352.35724969205</v>
       </c>
       <c r="B428" s="2" t="n">
-        <v>45352.37516716708</v>
+        <v>45352.37819553805</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -11143,18 +11143,18 @@
         <v>4</v>
       </c>
       <c r="F428" t="n">
-        <v>30.6594136014</v>
+        <v>30.1620182275</v>
       </c>
       <c r="G428" t="n">
-        <v>1528.7364273283</v>
+        <v>1528.1050909715</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45354.93970631079</v>
+        <v>45354.93683702908</v>
       </c>
       <c r="B429" s="2" t="n">
-        <v>45354.96002774232</v>
+        <v>45354.95987243688</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -11168,18 +11168,18 @@
         <v>6</v>
       </c>
       <c r="F429" t="n">
-        <v>29.26286139578333</v>
+        <v>33.1709872243</v>
       </c>
       <c r="G429" t="n">
-        <v>3692.9363669335</v>
+        <v>3684.4437470881</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45358.75270664258</v>
+        <v>45358.75072173041</v>
       </c>
       <c r="B430" s="2" t="n">
-        <v>45358.77030748441</v>
+        <v>45358.77035333688</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -11193,18 +11193,18 @@
         <v>3</v>
       </c>
       <c r="F430" t="n">
-        <v>25.3452122324</v>
+        <v>28.269513328</v>
       </c>
       <c r="G430" t="n">
-        <v>5461.457616392616</v>
+        <v>5458.822982689901</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45361.92141684674</v>
+        <v>45361.91909580375</v>
       </c>
       <c r="B431" s="2" t="n">
-        <v>45361.93815281448</v>
+        <v>45361.93960319246</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -11218,18 +11218,18 @@
         <v>6</v>
       </c>
       <c r="F431" t="n">
-        <v>24.0997935394</v>
+        <v>29.5306397492</v>
       </c>
       <c r="G431" t="n">
-        <v>4537.5974817573</v>
+        <v>4534.1891522873</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45363.29513287321</v>
+        <v>45363.28974878654</v>
       </c>
       <c r="B432" s="2" t="n">
-        <v>45363.3162135129</v>
+        <v>45363.31067181224</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -11237,24 +11237,24 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E432" t="n">
         <v>1</v>
       </c>
       <c r="F432" t="n">
-        <v>30.3561211393</v>
+        <v>30.1291569891</v>
       </c>
       <c r="G432" t="n">
-        <v>1954.0512845724</v>
+        <v>1944.2096554747</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45368.77520675134</v>
+        <v>45368.76980261724</v>
       </c>
       <c r="B433" s="2" t="n">
-        <v>45368.79055898543</v>
+        <v>45368.79618855221</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -11268,18 +11268,18 @@
         <v>6</v>
       </c>
       <c r="F433" t="n">
-        <v>22.1072170779</v>
+        <v>37.9957463772</v>
       </c>
       <c r="G433" t="n">
-        <v>7860.9502633774</v>
+        <v>7861.148359195</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45370.58138487952</v>
+        <v>45370.58261969665</v>
       </c>
       <c r="B434" s="2" t="n">
-        <v>45370.60395027451</v>
+        <v>45370.6062737559</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -11293,18 +11293,18 @@
         <v>1</v>
       </c>
       <c r="F434" t="n">
-        <v>32.4941687874</v>
+        <v>34.0618453213</v>
       </c>
       <c r="G434" t="n">
-        <v>2578.7892874907</v>
+        <v>2572.4608480008</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45372.5413179321</v>
+        <v>45372.54079859253</v>
       </c>
       <c r="B435" s="2" t="n">
-        <v>45372.56695547106</v>
+        <v>45372.56196835526</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -11318,18 +11318,18 @@
         <v>3</v>
       </c>
       <c r="F435" t="n">
-        <v>36.91805610788333</v>
+        <v>30.4844583614</v>
       </c>
       <c r="G435" t="n">
-        <v>2789.8094269245</v>
+        <v>2785.7157647183</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45375.89409824257</v>
+        <v>45375.89759037807</v>
       </c>
       <c r="B436" s="2" t="n">
-        <v>45375.91748037925</v>
+        <v>45375.92047475082</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -11343,18 +11343,18 @@
         <v>6</v>
       </c>
       <c r="F436" t="n">
-        <v>33.6702768226</v>
+        <v>32.9534967736</v>
       </c>
       <c r="G436" t="n">
-        <v>4791.085590972217</v>
+        <v>4803.2957128251</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45380.37946970718</v>
+        <v>45380.37527828143</v>
       </c>
       <c r="B437" s="2" t="n">
-        <v>45380.39988958575</v>
+        <v>45380.40044633106</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -11368,18 +11368,18 @@
         <v>4</v>
       </c>
       <c r="F437" t="n">
-        <v>29.4046251354</v>
+        <v>36.2419914765</v>
       </c>
       <c r="G437" t="n">
-        <v>6425.2646322185</v>
+        <v>6414.917084061</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45382.7931863589</v>
+        <v>45382.79605032999</v>
       </c>
       <c r="B438" s="2" t="n">
-        <v>45382.8127514317</v>
+        <v>45382.81661223733</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -11393,18 +11393,18 @@
         <v>6</v>
       </c>
       <c r="F438" t="n">
-        <v>28.1737048314</v>
+        <v>29.6091465657</v>
       </c>
       <c r="G438" t="n">
-        <v>3446.347353336</v>
+        <v>3449.6697584626</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45387.29087768507</v>
+        <v>45387.29323134592</v>
       </c>
       <c r="B439" s="2" t="n">
-        <v>45387.31382064432</v>
+        <v>45387.3138073279</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -11412,24 +11412,24 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E439" t="n">
         <v>4</v>
       </c>
       <c r="F439" t="n">
-        <v>33.0378613127</v>
+        <v>29.629414031</v>
       </c>
       <c r="G439" t="n">
-        <v>6448.501804853</v>
+        <v>6446.3315163875</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45388.28973713403</v>
+        <v>45388.29643634287</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>45388.31709234198</v>
+        <v>45388.31064681801</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -11437,24 +11437,24 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
       </c>
       <c r="F440" t="n">
-        <v>39.391499458</v>
+        <v>20.4630841938</v>
       </c>
       <c r="G440" t="n">
-        <v>1405.3197451904</v>
+        <v>1414.9857815662</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45394.81714893295</v>
+        <v>45394.81475079607</v>
       </c>
       <c r="B441" s="2" t="n">
-        <v>45394.83261837981</v>
+        <v>45394.83768476666</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -11468,18 +11468,18 @@
         <v>4</v>
       </c>
       <c r="F441" t="n">
-        <v>22.2760034802</v>
+        <v>33.0249176266</v>
       </c>
       <c r="G441" t="n">
-        <v>9360.081490987701</v>
+        <v>9365.909728424898</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45399.29163873185</v>
+        <v>45399.29105820959</v>
       </c>
       <c r="B442" s="2" t="n">
-        <v>45399.31474503355</v>
+        <v>45399.31223371255</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -11493,18 +11493,18 @@
         <v>2</v>
       </c>
       <c r="F442" t="n">
-        <v>33.2730744378</v>
+        <v>30.49272424771667</v>
       </c>
       <c r="G442" t="n">
-        <v>6420.9893069462</v>
+        <v>6412.8577578316</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45401.39561866548</v>
+        <v>45401.3960246122</v>
       </c>
       <c r="B443" s="2" t="n">
-        <v>45401.42043512303</v>
+        <v>45401.41823339102</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -11518,18 +11518,18 @@
         <v>4</v>
       </c>
       <c r="F443" t="n">
-        <v>35.73569889538333</v>
+        <v>31.9806414924</v>
       </c>
       <c r="G443" t="n">
-        <v>2996.4580299666</v>
+        <v>3000.658895510584</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45401.70767555258</v>
+        <v>45401.70875182117</v>
       </c>
       <c r="B444" s="2" t="n">
-        <v>45401.73208354053</v>
+        <v>45401.73102035302</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -11537,24 +11537,24 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E444" t="n">
         <v>4</v>
       </c>
       <c r="F444" t="n">
-        <v>35.1475026531</v>
+        <v>32.0666858746</v>
       </c>
       <c r="G444" t="n">
-        <v>413.6262185474167</v>
+        <v>418.3465394186</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45411.19132019798</v>
+        <v>45411.18801271678</v>
       </c>
       <c r="B445" s="2" t="n">
-        <v>45411.2099493708</v>
+        <v>45411.21113582562</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -11568,18 +11568,18 @@
         <v>0</v>
       </c>
       <c r="F445" t="n">
-        <v>26.8260088418</v>
+        <v>33.2972767361</v>
       </c>
       <c r="G445" t="n">
-        <v>13621.3007867312</v>
+        <v>13618.0690038132</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45415.45930292342</v>
+        <v>45415.45691373758</v>
       </c>
       <c r="B446" s="2" t="n">
-        <v>45415.48131319425</v>
+        <v>45415.4773020326</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -11587,24 +11587,24 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E446" t="n">
         <v>4</v>
       </c>
       <c r="F446" t="n">
-        <v>31.6947899988</v>
+        <v>29.3591448312</v>
       </c>
       <c r="G446" t="n">
-        <v>6119.0691157774</v>
+        <v>6113.9201932135</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45417.87679058094</v>
+        <v>45417.87970304683</v>
       </c>
       <c r="B447" s="2" t="n">
-        <v>45417.8938845917</v>
+        <v>45417.89803303831</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -11618,18 +11618,18 @@
         <v>6</v>
       </c>
       <c r="F447" t="n">
-        <v>24.6153754899</v>
+        <v>26.3951877394</v>
       </c>
       <c r="G447" t="n">
-        <v>3449.4874368306</v>
+        <v>3459.4574604823</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45425.3562551077</v>
+        <v>45425.35304739237</v>
       </c>
       <c r="B448" s="2" t="n">
-        <v>45425.37949093751</v>
+        <v>45425.37957761102</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -11643,18 +11643,18 @@
         <v>0</v>
       </c>
       <c r="F448" t="n">
-        <v>33.4595949112</v>
+        <v>38.2035148524</v>
       </c>
       <c r="G448" t="n">
-        <v>10745.8135430648</v>
+        <v>10735.2206698474</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45426.02172461023</v>
+        <v>45426.02261930936</v>
       </c>
       <c r="B449" s="2" t="n">
-        <v>45426.04044584925</v>
+        <v>45426.04561746903</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -11668,18 +11668,18 @@
         <v>1</v>
       </c>
       <c r="F449" t="n">
-        <v>26.9585841791</v>
+        <v>33.1173499132</v>
       </c>
       <c r="G449" t="n">
-        <v>924.8164887227</v>
+        <v>925.9800456163</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45426.92113716144</v>
+        <v>45426.92060553728</v>
       </c>
       <c r="B450" s="2" t="n">
-        <v>45426.93815962791</v>
+        <v>45426.93590218013</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -11693,18 +11693,18 @@
         <v>1</v>
       </c>
       <c r="F450" t="n">
-        <v>24.512351699</v>
+        <v>22.0271657018</v>
       </c>
       <c r="G450" t="n">
-        <v>1268.1954895708</v>
+        <v>1259.9828182869</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45429.79438383449</v>
+        <v>45429.79509424861</v>
       </c>
       <c r="B451" s="2" t="n">
-        <v>45429.8129629278</v>
+        <v>45429.81134442066</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -11718,18 +11718,18 @@
         <v>4</v>
       </c>
       <c r="F451" t="n">
-        <v>26.7538943654</v>
+        <v>23.4002477407</v>
       </c>
       <c r="G451" t="n">
-        <v>4112.9628574734</v>
+        <v>4117.2365786149</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45435.71272476565</v>
+        <v>45435.71292256461</v>
       </c>
       <c r="B452" s="2" t="n">
-        <v>45435.72895547171</v>
+        <v>45435.72967011405</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -11743,18 +11743,18 @@
         <v>3</v>
       </c>
       <c r="F452" t="n">
-        <v>23.3722167251</v>
+        <v>24.1164711957</v>
       </c>
       <c r="G452" t="n">
-        <v>8495.6570465111</v>
+        <v>8498.272527286601</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45440.14851748251</v>
+        <v>45440.144222322</v>
       </c>
       <c r="B453" s="2" t="n">
-        <v>45440.16809448232</v>
+        <v>45440.17004075371</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -11768,18 +11768,18 @@
         <v>1</v>
       </c>
       <c r="F453" t="n">
-        <v>28.1908797121</v>
+        <v>37.1785416493</v>
       </c>
       <c r="G453" t="n">
-        <v>6364.169295556</v>
+        <v>6356.9551794467</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45441.69173159156</v>
+        <v>45441.68989949828</v>
       </c>
       <c r="B454" s="2" t="n">
-        <v>45441.70970207463</v>
+        <v>45441.70789383134</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -11793,18 +11793,18 @@
         <v>2</v>
       </c>
       <c r="F454" t="n">
-        <v>25.8774956195</v>
+        <v>25.91183960581667</v>
       </c>
       <c r="G454" t="n">
-        <v>2194.0374373139</v>
+        <v>2188.596592208</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45446.14997748154</v>
+        <v>45446.14982670007</v>
       </c>
       <c r="B455" s="2" t="n">
-        <v>45446.16507395694</v>
+        <v>45446.17035057153</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -11818,18 +11818,18 @@
         <v>0</v>
       </c>
       <c r="F455" t="n">
-        <v>21.7389245898</v>
+        <v>29.5543748866</v>
       </c>
       <c r="G455" t="n">
-        <v>6393.996585946899</v>
+        <v>6396.383330966883</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45452.37579323078</v>
+        <v>45452.37656149616</v>
       </c>
       <c r="B456" s="2" t="n">
-        <v>45452.40028927735</v>
+        <v>45452.3961239463</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -11843,18 +11843,18 @@
         <v>6</v>
       </c>
       <c r="F456" t="n">
-        <v>35.2743070638</v>
+        <v>28.1699281985</v>
       </c>
       <c r="G456" t="n">
-        <v>8943.435754321499</v>
+        <v>8936.9437314683</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45457.02209558189</v>
+        <v>45457.02183908936</v>
       </c>
       <c r="B457" s="2" t="n">
-        <v>45457.04345346182</v>
+        <v>45457.04494049237</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -11868,18 +11868,18 @@
         <v>4</v>
       </c>
       <c r="F457" t="n">
-        <v>30.75534709608333</v>
+        <v>33.2660203238</v>
       </c>
       <c r="G457" t="n">
-        <v>6655.401078537817</v>
+        <v>6661.0298060278</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45467.5253519754</v>
+        <v>45467.52465360176</v>
       </c>
       <c r="B458" s="2" t="n">
-        <v>45467.54464599118</v>
+        <v>45467.54637673024</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -11893,18 +11893,18 @@
         <v>0</v>
       </c>
       <c r="F458" t="n">
-        <v>27.7833827481</v>
+        <v>31.2813050138</v>
       </c>
       <c r="G458" t="n">
-        <v>15093.9338595365</v>
+        <v>15090.7868775296</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45468.20730131706</v>
+        <v>45468.20915722376</v>
       </c>
       <c r="B459" s="2" t="n">
-        <v>45468.23165804904</v>
+        <v>45468.23029990504</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -11912,24 +11912,24 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E459" t="n">
         <v>1</v>
       </c>
       <c r="F459" t="n">
-        <v>35.073694047</v>
+        <v>30.4454610342</v>
       </c>
       <c r="G459" t="n">
-        <v>954.2236692646001</v>
+        <v>954.4039106542</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45469.43784551762</v>
+        <v>45469.43884717258</v>
       </c>
       <c r="B460" s="2" t="n">
-        <v>45469.45743349992</v>
+        <v>45469.45844164982</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -11943,18 +11943,18 @@
         <v>2</v>
       </c>
       <c r="F460" t="n">
-        <v>28.2066945143</v>
+        <v>28.2160472177</v>
       </c>
       <c r="G460" t="n">
-        <v>1736.909954755</v>
+        <v>1740.3080652726</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45483.19167997179</v>
+        <v>45483.18691112367</v>
       </c>
       <c r="B461" s="2" t="n">
-        <v>45483.21249826177</v>
+        <v>45483.20781918732</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -11968,18 +11968,18 @@
         <v>2</v>
       </c>
       <c r="F461" t="n">
-        <v>29.97833757691667</v>
+        <v>30.1076116458</v>
       </c>
       <c r="G461" t="n">
-        <v>19777.31491948778</v>
+        <v>19768.9960423513</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45492.52531224781</v>
+        <v>45492.52119433891</v>
       </c>
       <c r="B462" s="2" t="n">
-        <v>45492.54570488956</v>
+        <v>45492.54368337598</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -11993,18 +11993,18 @@
         <v>4</v>
       </c>
       <c r="F462" t="n">
-        <v>29.3654041188</v>
+        <v>32.384213384</v>
       </c>
       <c r="G462" t="n">
-        <v>13410.4521398964</v>
+        <v>13411.2602182982</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45493.04326264586</v>
+        <v>45493.04373807969</v>
       </c>
       <c r="B463" s="2" t="n">
-        <v>45493.06266298922</v>
+        <v>45493.06079116307</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -12018,18 +12018,18 @@
         <v>5</v>
       </c>
       <c r="F463" t="n">
-        <v>27.9364944534</v>
+        <v>24.5564400648</v>
       </c>
       <c r="G463" t="n">
-        <v>716.4831690649</v>
+        <v>720.0787733423</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45498.70793355671</v>
+        <v>45498.71262825759</v>
       </c>
       <c r="B464" s="2" t="n">
-        <v>45498.7300717309</v>
+        <v>45498.7283272014</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -12037,24 +12037,24 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E464" t="n">
         <v>3</v>
       </c>
       <c r="F464" t="n">
-        <v>31.8789708263</v>
+        <v>22.6064790839</v>
       </c>
       <c r="G464" t="n">
-        <v>8129.189617187801</v>
+        <v>8138.6454161148</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45499.62920405066</v>
+        <v>45499.62857423651</v>
       </c>
       <c r="B465" s="2" t="n">
-        <v>45499.64831723621</v>
+        <v>45499.64590250982</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -12068,18 +12068,18 @@
         <v>4</v>
       </c>
       <c r="F465" t="n">
-        <v>27.52298718</v>
+        <v>24.952713564</v>
       </c>
       <c r="G465" t="n">
-        <v>1294.7505404501</v>
+        <v>1296.3557305707</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45501.9771832332</v>
+        <v>45501.98326602766</v>
       </c>
       <c r="B466" s="2" t="n">
-        <v>45501.9996533495</v>
+        <v>45502.00422254334</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -12093,18 +12093,18 @@
         <v>6</v>
       </c>
       <c r="F466" t="n">
-        <v>32.3569674515</v>
+        <v>30.1773825937</v>
       </c>
       <c r="G466" t="n">
-        <v>3353.5670356942</v>
+        <v>3365.8034656771</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45516.47970441585</v>
+        <v>45516.48026032108</v>
       </c>
       <c r="B467" s="2" t="n">
-        <v>45516.50222579172</v>
+        <v>45516.50005956445</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -12118,18 +12118,18 @@
         <v>0</v>
       </c>
       <c r="F467" t="n">
-        <v>32.4307812537</v>
+        <v>28.510910439</v>
       </c>
       <c r="G467" t="n">
-        <v>20851.2735355406</v>
+        <v>20845.4943999379</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45519.68981604761</v>
+        <v>45519.68567199603</v>
       </c>
       <c r="B468" s="2" t="n">
-        <v>45519.71003703248</v>
+        <v>45519.7099791588</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -12143,18 +12143,18 @@
         <v>3</v>
       </c>
       <c r="F468" t="n">
-        <v>29.1182182013</v>
+        <v>35.00231438620001</v>
       </c>
       <c r="G468" t="n">
-        <v>4590.1299684953</v>
+        <v>4587.2819014826</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45520.04060045052</v>
+        <v>45520.03960514001</v>
       </c>
       <c r="B469" s="2" t="n">
-        <v>45520.06620398257</v>
+        <v>45520.0607151211</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -12168,18 +12168,18 @@
         <v>4</v>
       </c>
       <c r="F469" t="n">
-        <v>36.8690861565</v>
+        <v>30.3983727677</v>
       </c>
       <c r="G469" t="n">
-        <v>476.0113219818001</v>
+        <v>474.6614129499</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45525.50231687576</v>
+        <v>45525.5015291009</v>
       </c>
       <c r="B470" s="2" t="n">
-        <v>45525.52518578705</v>
+        <v>45525.52393258587</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -12193,18 +12193,18 @@
         <v>2</v>
       </c>
       <c r="F470" t="n">
-        <v>32.9312322496</v>
+        <v>32.2610183591</v>
       </c>
       <c r="G470" t="n">
-        <v>7828.002566191</v>
+        <v>7834.7721309081</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45542.70683258421</v>
+        <v>45542.70668043667</v>
       </c>
       <c r="B471" s="2" t="n">
-        <v>45542.73258599574</v>
+        <v>45542.73075533842</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -12218,18 +12218,18 @@
         <v>5</v>
       </c>
       <c r="F471" t="n">
-        <v>37.0849126035</v>
+        <v>34.6678585227</v>
       </c>
       <c r="G471" t="n">
-        <v>24741.5713879158</v>
+        <v>24743.1569051538</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45546.60518126948</v>
+        <v>45546.60342823839</v>
       </c>
       <c r="B472" s="2" t="n">
-        <v>45546.62371898966</v>
+        <v>45546.62614371816</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -12243,18 +12243,18 @@
         <v>2</v>
       </c>
       <c r="F472" t="n">
-        <v>26.6943170721</v>
+        <v>32.7102908608</v>
       </c>
       <c r="G472" t="n">
-        <v>5576.5371941817</v>
+        <v>5576.6489759587</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45549.27509885956</v>
+        <v>45549.27378667884</v>
       </c>
       <c r="B473" s="2" t="n">
-        <v>45549.29139823937</v>
+        <v>45549.29048170353</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -12268,18 +12268,18 @@
         <v>5</v>
       </c>
       <c r="F473" t="n">
-        <v>23.47110693921667</v>
+        <v>24.0408355517</v>
       </c>
       <c r="G473" t="n">
-        <v>3817.987012643083</v>
+        <v>3812.6058633767</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45552.81096156293</v>
+        <v>45552.81250427965</v>
       </c>
       <c r="B474" s="2" t="n">
-        <v>45552.83658867024</v>
+        <v>45552.83406014556</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -12293,10 +12293,10 @@
         <v>1</v>
       </c>
       <c r="F474" t="n">
-        <v>36.9030345407</v>
+        <v>31.0404469076</v>
       </c>
       <c r="G474" t="n">
-        <v>5068.1711859077</v>
+        <v>5071.7125096225</v>
       </c>
     </row>
     <row r="475">
@@ -12321,7 +12321,7 @@
         <v>6.483333333333333</v>
       </c>
       <c r="G475" t="n">
-        <v>1696.828981508933</v>
+        <v>1700.470057049633</v>
       </c>
     </row>
     <row r="476">
@@ -12351,10 +12351,10 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45559.2733012975</v>
+        <v>45559.27563958774</v>
       </c>
       <c r="B477" s="2" t="n">
-        <v>45559.29713661529</v>
+        <v>45559.29259582623</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -12368,18 +12368,18 @@
         <v>1</v>
       </c>
       <c r="F477" t="n">
-        <v>34.322857617</v>
+        <v>24.41698344231667</v>
       </c>
       <c r="G477" t="n">
-        <v>7558.6705350671</v>
+        <v>7562.037673019199</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45565.27699998657</v>
+        <v>45565.27514262644</v>
       </c>
       <c r="B478" s="2" t="n">
-        <v>45565.29547428282</v>
+        <v>45565.29399022346</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -12393,18 +12393,18 @@
         <v>0</v>
       </c>
       <c r="F478" t="n">
-        <v>26.6029865844</v>
+        <v>27.1405396977</v>
       </c>
       <c r="G478" t="n">
-        <v>8611.003254651599</v>
+        <v>8614.867392302383</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45576.02146868426</v>
+        <v>45576.021111909</v>
       </c>
       <c r="B479" s="2" t="n">
-        <v>45576.04657318434</v>
+        <v>45576.04807712028</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -12418,18 +12418,18 @@
         <v>4</v>
       </c>
       <c r="F479" t="n">
-        <v>36.15048010580001</v>
+        <v>38.8299042297</v>
       </c>
       <c r="G479" t="n">
-        <v>15445.431938096</v>
+        <v>15447.0552271806</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45578.43893788622</v>
+        <v>45578.43777296043</v>
       </c>
       <c r="B480" s="2" t="n">
-        <v>45578.46080279973</v>
+        <v>45578.45874841354</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -12443,18 +12443,18 @@
         <v>6</v>
       </c>
       <c r="F480" t="n">
-        <v>31.4854754618</v>
+        <v>30.2046524832</v>
       </c>
       <c r="G480" t="n">
-        <v>3445.0051707051</v>
+        <v>3441.1620098171</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45581.46142921807</v>
+        <v>45581.45888070287</v>
       </c>
       <c r="B481" s="2" t="n">
-        <v>45581.48372992184</v>
+        <v>45581.48061091824</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -12468,18 +12468,18 @@
         <v>2</v>
       </c>
       <c r="F481" t="n">
-        <v>32.113013439</v>
+        <v>31.2915101465</v>
       </c>
       <c r="G481" t="n">
-        <v>4320.9020423974</v>
+        <v>4320.1904966286</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45582.17136191746</v>
+        <v>45582.16806194019</v>
       </c>
       <c r="B482" s="2" t="n">
-        <v>45582.18935508853</v>
+        <v>45582.19167012412</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -12493,18 +12493,18 @@
         <v>3</v>
       </c>
       <c r="F482" t="n">
-        <v>25.9101663436</v>
+        <v>33.9957848673</v>
       </c>
       <c r="G482" t="n">
-        <v>990.1900736881</v>
+        <v>989.9294716016999</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45585.43760909062</v>
+        <v>45585.43973250921</v>
       </c>
       <c r="B483" s="2" t="n">
-        <v>45585.46402845359</v>
+        <v>45585.46341051523</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -12518,18 +12518,18 @@
         <v>6</v>
       </c>
       <c r="F483" t="n">
-        <v>38.0438826809</v>
+        <v>34.0963286663</v>
       </c>
       <c r="G483" t="n">
-        <v>4677.4857630116</v>
+        <v>4677.2098345218</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45590.83518328883</v>
+        <v>45590.83668414717</v>
       </c>
       <c r="B484" s="2" t="n">
-        <v>45590.85821049014</v>
+        <v>45590.85663561585</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -12543,18 +12543,18 @@
         <v>4</v>
       </c>
       <c r="F484" t="n">
-        <v>33.159169885</v>
+        <v>28.7301149036</v>
       </c>
       <c r="G484" t="n">
-        <v>7734.462962744</v>
+        <v>7737.5140299894</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45592.81499985819</v>
+        <v>45592.81915720666</v>
       </c>
       <c r="B485" s="2" t="n">
-        <v>45592.8359879729</v>
+        <v>45592.83710311111</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -12568,10 +12568,10 @@
         <v>6</v>
       </c>
       <c r="F485" t="n">
-        <v>30.2228851671</v>
+        <v>25.8421023939</v>
       </c>
       <c r="G485" t="n">
-        <v>2817.7766899906</v>
+        <v>2826.031090785</v>
       </c>
     </row>
     <row r="486">
@@ -12596,7 +12596,7 @@
         <v>3.016666666666667</v>
       </c>
       <c r="G486" t="n">
-        <v>11280.5106523639</v>
+        <v>11278.9048533237</v>
       </c>
     </row>
     <row r="487">

--- a/content/balanced_data_with_features.xlsx
+++ b/content/balanced_data_with_features.xlsx
@@ -501,10 +501,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43851.67138232705</v>
+        <v>43851.67547302219</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43851.69483312071</v>
+        <v>43851.69076690087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -518,10 +518,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>33.7691428745</v>
+        <v>22.0231852927</v>
       </c>
       <c r="G3" t="n">
-        <v>19558.3072176223</v>
+        <v>19564.1978186301</v>
       </c>
     </row>
     <row r="4">
@@ -546,15 +546,15 @@
         <v>9.016666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>9631.190306169867</v>
+        <v>9637.045662743865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43864.05777285698</v>
+        <v>43864.05721759169</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43864.07466093425</v>
+        <v>43864.07760616291</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.3188312678</v>
+        <v>29.3595425628</v>
       </c>
       <c r="G5" t="n">
-        <v>8162.4262473955</v>
+        <v>8161.6266653779</v>
       </c>
     </row>
     <row r="6">
@@ -596,7 +596,7 @@
         <v>2.366666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>3412.5049213367</v>
+        <v>3408.2637920593</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +676,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43878.34069723878</v>
+        <v>43878.33870564108</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43878.35831573896</v>
+        <v>43878.35865313109</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -693,18 +693,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.37064024541667</v>
+        <v>28.7243856157</v>
       </c>
       <c r="G10" t="n">
-        <v>13203.3706905279</v>
+        <v>13200.5027898285</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43884.94402612637</v>
+        <v>43884.94396923655</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43884.96378929933</v>
+        <v>43884.96364040364</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>28.4589690632</v>
+        <v>28.3264806027</v>
       </c>
       <c r="G11" t="n">
-        <v>9483.422957864585</v>
+        <v>9482.855191860901</v>
       </c>
     </row>
     <row r="12">
@@ -746,7 +746,7 @@
         <v>4.1</v>
       </c>
       <c r="G12" t="n">
-        <v>7059.760075632234</v>
+        <v>7059.974485425534</v>
       </c>
     </row>
     <row r="13">
@@ -776,10 +776,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43892.18780757966</v>
+        <v>43892.18621538079</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43892.20794958629</v>
+        <v>43892.20743532041</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>29.0044895542</v>
+        <v>30.5567130495</v>
       </c>
       <c r="G14" t="n">
-        <v>3299.1262480592</v>
+        <v>3296.8334816814</v>
       </c>
     </row>
     <row r="15">
@@ -821,15 +821,15 @@
         <v>3.45</v>
       </c>
       <c r="G15" t="n">
-        <v>2818.285929053266</v>
+        <v>2819.026471935766</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43896.18580884551</v>
+        <v>43896.19092436889</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43896.20776810063</v>
+        <v>43896.21008384856</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>31.6213273747</v>
+        <v>27.5896507336</v>
       </c>
       <c r="G16" t="n">
-        <v>2906.3814042044</v>
+        <v>2913.7477578705</v>
       </c>
     </row>
     <row r="17">
@@ -871,7 +871,7 @@
         <v>9.816666666666666</v>
       </c>
       <c r="G17" t="n">
-        <v>14727.08060175423</v>
+        <v>14723.74592472923</v>
       </c>
     </row>
     <row r="18">
@@ -901,10 +901,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43907.99755127611</v>
+        <v>43907.99765722594</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43908.01811805561</v>
+        <v>43908.02310390364</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -918,18 +918,18 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>29.61616248618333</v>
+        <v>36.6432158844</v>
       </c>
       <c r="G19" t="n">
-        <v>2217.740504274717</v>
+        <v>2217.8930720177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43910.16233362399</v>
+        <v>43910.16638677609</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43910.18595462214</v>
+        <v>43910.18561650119</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>34.0142373374</v>
+        <v>27.6908041564</v>
       </c>
       <c r="G20" t="n">
-        <v>3087.6704184637</v>
+        <v>3086.3273363322</v>
       </c>
     </row>
     <row r="21">
@@ -971,7 +971,7 @@
         <v>4.45</v>
       </c>
       <c r="G21" t="n">
-        <v>6087.775344104667</v>
+        <v>6088.262238275967</v>
       </c>
     </row>
     <row r="22">
@@ -1076,10 +1076,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43929.71097459854</v>
+        <v>43929.70800582589</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43929.7308272808</v>
+        <v>43929.72875657328</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1087,24 +1087,24 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>28.5878624434</v>
+        <v>29.881076248</v>
       </c>
       <c r="G26" t="n">
-        <v>11044.8034219166</v>
+        <v>11040.5283892849</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43932.16867333261</v>
+        <v>43932.16332443068</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43932.1898289784</v>
+        <v>43932.19000843156</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1112,24 +1112,24 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>30.4641299503</v>
+        <v>38.4249612779</v>
       </c>
       <c r="G27" t="n">
-        <v>3510.4983145989</v>
+        <v>3505.7777146557</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43934.87350925633</v>
+        <v>43934.87300611558</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43934.8923927538</v>
+        <v>43934.89557959011</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1143,18 +1143,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>27.192236355</v>
+        <v>32.5058033305</v>
       </c>
       <c r="G28" t="n">
-        <v>3864.499600212</v>
+        <v>3863.5166649833</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43935.04376541538</v>
+        <v>43935.0385415181</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43935.06389961112</v>
+        <v>43935.06068200597</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1162,24 +1162,24 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>28.993241864</v>
+        <v>31.8823025269</v>
       </c>
       <c r="G29" t="n">
-        <v>217.9766326891</v>
+        <v>205.8651762984</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43937.87291786617</v>
+        <v>43937.87719733588</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43937.89213495122</v>
+        <v>43937.89350970051</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>27.672602469</v>
+        <v>23.4898050552</v>
       </c>
       <c r="G30" t="n">
-        <v>4044.9862872577</v>
+        <v>4055.7820750769</v>
       </c>
     </row>
     <row r="31">
@@ -1221,7 +1221,7 @@
         <v>3.416666666666667</v>
       </c>
       <c r="G31" t="n">
-        <v>18901.54233691067</v>
+        <v>18899.56269792897</v>
       </c>
     </row>
     <row r="32">
@@ -1351,10 +1351,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43967.07303305496</v>
+        <v>43967.0788920265</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43967.09938425322</v>
+        <v>43967.09498321227</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1368,18 +1368,18 @@
         <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>37.94572550119999</v>
+        <v>23.171307507</v>
       </c>
       <c r="G37" t="n">
-        <v>11396.0675991452</v>
+        <v>11404.5045181755</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43970.59434119287</v>
+        <v>43970.59590709723</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43970.61991436721</v>
+        <v>43970.62038167984</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>36.8253710381</v>
+        <v>35.243398939</v>
       </c>
       <c r="G38" t="n">
-        <v>5032.7379931008</v>
+        <v>5041.330394348301</v>
       </c>
     </row>
     <row r="39">
@@ -1421,15 +1421,15 @@
         <v>5.183333333333334</v>
       </c>
       <c r="G39" t="n">
-        <v>6079.906644548033</v>
+        <v>6079.233714363533</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43975.24366318447</v>
+        <v>43975.24307551364</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43975.25905354648</v>
+        <v>43975.26429342284</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1443,18 +1443,18 @@
         <v>6</v>
       </c>
       <c r="F40" t="n">
-        <v>22.1621212961</v>
+        <v>30.5537892425</v>
       </c>
       <c r="G40" t="n">
-        <v>573.1083189777</v>
+        <v>572.2620729744</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43979.84489291141</v>
+        <v>43979.84779584945</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43979.86702481192</v>
+        <v>43979.86948286813</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1468,18 +1468,18 @@
         <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>31.869936738</v>
+        <v>31.229306909</v>
       </c>
       <c r="G41" t="n">
-        <v>6603.6086855045</v>
+        <v>6600.2434943191</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43984.86380359588</v>
+        <v>43984.86838890481</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43984.88810776539</v>
+        <v>43984.88974235592</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1493,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>34.99800409909999</v>
+        <v>30.7489695764</v>
       </c>
       <c r="G42" t="n">
-        <v>7195.361448900299</v>
+        <v>7198.4246928298</v>
       </c>
     </row>
     <row r="43">
@@ -1521,7 +1521,7 @@
         <v>3.283333333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>4026.158151150967</v>
+        <v>4023.804340815467</v>
       </c>
     </row>
     <row r="44">
@@ -1551,10 +1551,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43993.21157443459</v>
+        <v>43993.21230064464</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43993.23348766442</v>
+        <v>43993.2312678353</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1568,18 +1568,18 @@
         <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>31.5550509426</v>
+        <v>27.3127545527</v>
       </c>
       <c r="G45" t="n">
-        <v>4588.6505191648</v>
+        <v>4589.6962616297</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43994.1943767351</v>
+        <v>43994.18898254905</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43994.21318457399</v>
+        <v>43994.21300958669</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1593,10 +1593,10 @@
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>27.083288009</v>
+        <v>34.5989341892</v>
       </c>
       <c r="G46" t="n">
-        <v>1383.6802617835</v>
+        <v>1379.1091877963</v>
       </c>
     </row>
     <row r="47">
@@ -1621,7 +1621,7 @@
         <v>3.9</v>
       </c>
       <c r="G47" t="n">
-        <v>40357.9808801001</v>
+        <v>40358.2328618321</v>
       </c>
     </row>
     <row r="48">
@@ -1676,10 +1676,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44031.61693178617</v>
+        <v>44031.61868259779</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44031.63375044069</v>
+        <v>44031.64015825579</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1693,18 +1693,18 @@
         <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>24.2188625114</v>
+        <v>30.9249475132</v>
       </c>
       <c r="G50" t="n">
-        <v>13441.3651054224</v>
+        <v>13443.8862741635</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44038.00856472766</v>
+        <v>44038.01423531486</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44038.02979181382</v>
+        <v>44038.03306219484</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1718,18 +1718,18 @@
         <v>6</v>
       </c>
       <c r="F51" t="n">
-        <v>30.5670040562</v>
+        <v>27.1107071541</v>
       </c>
       <c r="G51" t="n">
-        <v>9179.7325732463</v>
+        <v>9178.6709650704</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44048.36869814435</v>
+        <v>44048.36565069241</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44048.38467813476</v>
+        <v>44048.38947077038</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1743,18 +1743,18 @@
         <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>23.0111861908</v>
+        <v>34.3009122807</v>
       </c>
       <c r="G52" t="n">
-        <v>14888.0251159688</v>
+        <v>14878.9274365135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44050.55603690167</v>
+        <v>44050.55359353567</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44050.57321184605</v>
+        <v>44050.57495004462</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1768,18 +1768,18 @@
         <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>24.7319199233</v>
+        <v>30.7533728799</v>
       </c>
       <c r="G53" t="n">
-        <v>3126.7566243429</v>
+        <v>3116.3367820184</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44051.73881827518</v>
+        <v>44051.7404414508</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44051.75969557705</v>
+        <v>44051.76426150692</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>30.0633146891</v>
+        <v>34.3008808292</v>
       </c>
       <c r="G54" t="n">
-        <v>1678.4732579447</v>
+        <v>1678.3076248902</v>
       </c>
     </row>
     <row r="55">
@@ -1821,7 +1821,7 @@
         <v>3.55</v>
       </c>
       <c r="G55" t="n">
-        <v>3259.971702370766</v>
+        <v>3253.396763353567</v>
       </c>
     </row>
     <row r="56">
@@ -2176,10 +2176,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44060.65082047745</v>
+        <v>44060.65411919829</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44060.67496132954</v>
+        <v>44060.67485068629</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2193,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>34.76282700679999</v>
+        <v>29.8533427164</v>
       </c>
       <c r="G70" t="n">
-        <v>1228.6981542096</v>
+        <v>1233.448312208</v>
       </c>
     </row>
     <row r="71">
@@ -2221,15 +2221,15 @@
         <v>6.8</v>
       </c>
       <c r="G71" t="n">
-        <v>829.9056854502667</v>
+        <v>830.0650117422666</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44061.36026130906</v>
+        <v>44061.36130392676</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44061.38214938068</v>
+        <v>44061.38428398435</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2243,10 +2243,10 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>31.5188231279</v>
+        <v>33.0912829356</v>
       </c>
       <c r="G72" t="n">
-        <v>150.126285057</v>
+        <v>151.6276545454</v>
       </c>
     </row>
     <row r="73">
@@ -2271,7 +2271,7 @@
         <v>3.433333333333333</v>
       </c>
       <c r="G73" t="n">
-        <v>16303.67155848177</v>
+        <v>16300.59772918567</v>
       </c>
     </row>
     <row r="74">
@@ -2476,10 +2476,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44090.31760140515</v>
+        <v>44090.31932972284</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44090.34111730376</v>
+        <v>44090.339811167</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2493,18 +2493,18 @@
         <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>33.8628940106</v>
+        <v>29.4932796006</v>
       </c>
       <c r="G82" t="n">
-        <v>2309.6793567531</v>
+        <v>2312.1681342219</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44090.91873083558</v>
+        <v>44090.91894276672</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44090.94462492748</v>
+        <v>44090.94015815395</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2518,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>37.2874923417</v>
+        <v>30.5501576193</v>
       </c>
       <c r="G83" t="n">
-        <v>831.7634858072</v>
+        <v>833.9495035839999</v>
       </c>
     </row>
     <row r="84">
@@ -2546,15 +2546,15 @@
         <v>4.533333333333333</v>
       </c>
       <c r="G84" t="n">
-        <v>633.9734377540666</v>
+        <v>640.4055916408666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44094.18136157494</v>
+        <v>44094.18218371143</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44094.19816203788</v>
+        <v>44094.19821043407</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2568,10 +2568,10 @@
         <v>6</v>
       </c>
       <c r="F85" t="n">
-        <v>24.192666622</v>
+        <v>23.0784805996</v>
       </c>
       <c r="G85" t="n">
-        <v>4022.3940012661</v>
+        <v>4023.5778778103</v>
       </c>
     </row>
     <row r="86">
@@ -2596,7 +2596,7 @@
         <v>3.016666666666667</v>
       </c>
       <c r="G86" t="n">
-        <v>6823.2133321119</v>
+        <v>6823.1436415901</v>
       </c>
     </row>
     <row r="87">
@@ -2776,10 +2776,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44143.28157740184</v>
+        <v>44143.27469321928</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44143.29780543503</v>
+        <v>44143.30086221312</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2793,18 +2793,18 @@
         <v>6</v>
       </c>
       <c r="F94" t="n">
-        <v>23.3683677999</v>
+        <v>37.6833511429</v>
       </c>
       <c r="G94" t="n">
-        <v>26014.9881253192</v>
+        <v>26005.0749024355</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44147.65046626642</v>
+        <v>44147.65627121257</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44147.67048093037</v>
+        <v>44147.67245970413</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2818,18 +2818,18 @@
         <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>28.8211161094</v>
+        <v>23.3114278409</v>
       </c>
       <c r="G95" t="n">
-        <v>6267.8315971856</v>
+        <v>6271.7889592033</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44164.29822485179</v>
+        <v>44164.2976807868</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44164.31912759957</v>
+        <v>44164.316479134</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2843,18 +2843,18 @@
         <v>6</v>
       </c>
       <c r="F96" t="n">
-        <v>30.0999568032</v>
+        <v>27.0696199658</v>
       </c>
       <c r="G96" t="n">
-        <v>23943.951246846</v>
+        <v>23940.3183590603</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44164.54794361421</v>
+        <v>44164.54645705297</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44164.56829199249</v>
+        <v>44164.56867110937</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2868,18 +2868,18 @@
         <v>6</v>
       </c>
       <c r="F97" t="n">
-        <v>29.3016647187</v>
+        <v>31.9882412249</v>
       </c>
       <c r="G97" t="n">
-        <v>329.4950610766</v>
+        <v>331.1682032952</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44173.48671893073</v>
+        <v>44173.48512024128</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44173.50787856471</v>
+        <v>44173.51074816934</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2893,18 +2893,18 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>30.4698729475</v>
+        <v>36.9042164131</v>
       </c>
       <c r="G98" t="n">
-        <v>12842.5347910601</v>
+        <v>12839.6867499459</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44173.62963221882</v>
+        <v>44173.6339163783</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44173.65054291715</v>
+        <v>44173.65227493468</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2918,18 +2918,18 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>30.1114056059</v>
+        <v>26.4363212007</v>
       </c>
       <c r="G99" t="n">
-        <v>175.3252619052</v>
+        <v>177.3622208921</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44177.29977079392</v>
+        <v>44177.29856251868</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44177.32237865571</v>
+        <v>44177.32257833451</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2943,18 +2943,18 @@
         <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>32.5553209699</v>
+        <v>34.5827748068</v>
       </c>
       <c r="G100" t="n">
-        <v>5254.8881425411</v>
+        <v>5250.6541209519</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44178.44701708057</v>
+        <v>44178.44500146468</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44178.46662830668</v>
+        <v>44178.46496589794</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2968,10 +2968,10 @@
         <v>6</v>
       </c>
       <c r="F101" t="n">
-        <v>28.2401656</v>
+        <v>28.7487839089</v>
       </c>
       <c r="G101" t="n">
-        <v>1619.4793318021</v>
+        <v>1616.2893074234</v>
       </c>
     </row>
     <row r="102">
@@ -2996,7 +2996,7 @@
         <v>2.716666666666667</v>
       </c>
       <c r="G102" t="n">
-        <v>5590.955238376267</v>
+        <v>5593.349106955066</v>
       </c>
     </row>
     <row r="103">
@@ -3076,10 +3076,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44190.25086822981</v>
+        <v>44190.25081319411</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44190.27115707485</v>
+        <v>44190.27204273177</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3093,18 +3093,18 @@
         <v>4</v>
       </c>
       <c r="F106" t="n">
-        <v>29.2159368755</v>
+        <v>30.5705342313</v>
       </c>
       <c r="G106" t="n">
-        <v>424.4502509181</v>
+        <v>424.3709995331</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44201.41404576353</v>
+        <v>44201.41745927079</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44201.43369837497</v>
+        <v>44201.43448221497</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>28.2997604668</v>
+        <v>24.5130396126</v>
       </c>
       <c r="G107" t="n">
-        <v>16045.7597116914</v>
+        <v>16049.3998161835</v>
       </c>
     </row>
     <row r="108">
@@ -3146,7 +3146,7 @@
         <v>4.416666666666667</v>
       </c>
       <c r="G108" t="n">
-        <v>1885.2743400482</v>
+        <v>1884.1456104395</v>
       </c>
     </row>
     <row r="109">
@@ -3176,10 +3176,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44209.18186809628</v>
+        <v>44209.18262099875</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44209.20312012163</v>
+        <v>44209.20287107546</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3193,18 +3193,18 @@
         <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>30.6029165124</v>
+        <v>29.16011046888333</v>
       </c>
       <c r="G110" t="n">
-        <v>8012.2567253183</v>
+        <v>8013.3409048782</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44216.41229869697</v>
+        <v>44216.40979573486</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44216.42781620376</v>
+        <v>44216.42997980196</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3218,18 +3218,18 @@
         <v>2</v>
       </c>
       <c r="F111" t="n">
-        <v>22.3452097843</v>
+        <v>29.0650566219</v>
       </c>
       <c r="G111" t="n">
-        <v>10381.2171484773</v>
+        <v>10377.97150952092</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44220.84666446223</v>
+        <v>44220.84485533368</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44220.86457881671</v>
+        <v>44220.86921883778</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3243,18 +3243,18 @@
         <v>6</v>
       </c>
       <c r="F112" t="n">
-        <v>25.7966704434</v>
+        <v>35.0834459005</v>
       </c>
       <c r="G112" t="n">
-        <v>6363.141492198</v>
+        <v>6357.4207656908</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44221.3900446697</v>
+        <v>44221.38974560156</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44221.40780084665</v>
+        <v>44221.40978566627</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>25.5688948214</v>
+        <v>28.8576931787</v>
       </c>
       <c r="G113" t="n">
-        <v>756.6708283085001</v>
+        <v>749.5585398448001</v>
       </c>
     </row>
     <row r="114">
@@ -3296,7 +3296,7 @@
         <v>2.733333333333333</v>
       </c>
       <c r="G114" t="n">
-        <v>20305.7001141364</v>
+        <v>20302.8419738953</v>
       </c>
     </row>
     <row r="115">
@@ -3351,10 +3351,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44246.47154562044</v>
+        <v>44246.46771542884</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44246.4911294894</v>
+        <v>44246.49233950373</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3368,18 +3368,18 @@
         <v>4</v>
       </c>
       <c r="F117" t="n">
-        <v>28.2007712938</v>
+        <v>35.4586678388</v>
       </c>
       <c r="G117" t="n">
-        <v>14823.9923601063</v>
+        <v>14818.476884205</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44250.71950683197</v>
+        <v>44250.71841022675</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44250.74063199698</v>
+        <v>44250.73979346265</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3393,10 +3393,10 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>30.4202376181</v>
+        <v>30.7918596987</v>
       </c>
       <c r="G118" t="n">
-        <v>6088.8633733066</v>
+        <v>6085.5418411448</v>
       </c>
     </row>
     <row r="119">
@@ -3421,15 +3421,15 @@
         <v>3.233333333333333</v>
       </c>
       <c r="G119" t="n">
-        <v>142.4732576752</v>
+        <v>143.6807471127</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44254.38005197947</v>
+        <v>44254.38415984177</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44254.40271177238</v>
+        <v>44254.40373005721</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3443,18 +3443,18 @@
         <v>5</v>
       </c>
       <c r="F120" t="n">
-        <v>32.6301018099</v>
+        <v>28.1811102336</v>
       </c>
       <c r="G120" t="n">
-        <v>5095.0581837728</v>
+        <v>5100.9735054978</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44260.17374514828</v>
+        <v>44260.17590892412</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44260.19816234262</v>
+        <v>44260.19572305095</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3468,18 +3468,18 @@
         <v>4</v>
       </c>
       <c r="F121" t="n">
-        <v>35.1607598472</v>
+        <v>28.5323426341</v>
       </c>
       <c r="G121" t="n">
-        <v>8310.2880612729</v>
+        <v>8311.9375683452</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44260.38005034684</v>
+        <v>44260.3833284808</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44260.40686450341</v>
+        <v>44260.40117079911</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3493,18 +3493,18 @@
         <v>4</v>
       </c>
       <c r="F122" t="n">
-        <v>38.6123854624</v>
+        <v>25.6929383685</v>
       </c>
       <c r="G122" t="n">
-        <v>261.9187260908</v>
+        <v>270.1518189737</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44263.90277688874</v>
+        <v>44263.90732133314</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44263.92780612028</v>
+        <v>44263.92426215793</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3518,18 +3518,18 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>36.0420934059</v>
+        <v>24.3947877084</v>
       </c>
       <c r="G123" t="n">
-        <v>5034.1138348747</v>
+        <v>5048.8567690008</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44266.25580845068</v>
+        <v>44266.2593956795</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44266.27633913769</v>
+        <v>44266.28060084488</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3543,18 +3543,18 @@
         <v>3</v>
       </c>
       <c r="F124" t="n">
-        <v>29.5641892698</v>
+        <v>30.5354381437</v>
       </c>
       <c r="G124" t="n">
-        <v>3352.3233557939</v>
+        <v>3362.5922710625</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44267.58926847988</v>
+        <v>44267.59518357767</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44267.61385396939</v>
+        <v>44267.61463681028</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3568,18 +3568,18 @@
         <v>4</v>
       </c>
       <c r="F125" t="n">
-        <v>35.4031048835</v>
+        <v>28.0126549664</v>
       </c>
       <c r="G125" t="n">
-        <v>1890.6182527798</v>
+        <v>1892.9991352082</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44268.57213046623</v>
+        <v>44268.57012917968</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44268.59192241202</v>
+        <v>44268.58947793958</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3593,10 +3593,10 @@
         <v>5</v>
       </c>
       <c r="F126" t="n">
-        <v>28.5004019312</v>
+        <v>27.8622142752</v>
       </c>
       <c r="G126" t="n">
-        <v>1379.9181554524</v>
+        <v>1375.9090119254</v>
       </c>
     </row>
     <row r="127">
@@ -3621,15 +3621,15 @@
         <v>2.15</v>
       </c>
       <c r="G127" t="n">
-        <v>2687.431726686133</v>
+        <v>2690.951766989833</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44277.81628547654</v>
+        <v>44277.81355001462</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44277.83647196609</v>
+        <v>44277.83571975408</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3643,10 +3643,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>29.06854495968333</v>
+        <v>31.9244248199</v>
       </c>
       <c r="G128" t="n">
-        <v>10593.5010862196</v>
+        <v>10589.5620210622</v>
       </c>
     </row>
     <row r="129">
@@ -3671,7 +3671,7 @@
         <v>3.083333333333333</v>
       </c>
       <c r="G129" t="n">
-        <v>728.8970354873834</v>
+        <v>729.9802207845667</v>
       </c>
     </row>
     <row r="130">
@@ -3701,10 +3701,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44284.45225561262</v>
+        <v>44284.45075704155</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44284.47484410809</v>
+        <v>44284.47657489314</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3718,18 +3718,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>32.5274334786</v>
+        <v>37.177706298</v>
       </c>
       <c r="G131" t="n">
-        <v>8248.3480821866</v>
+        <v>8246.1901398351</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44289.85108762619</v>
+        <v>44289.84843284988</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44289.86855058734</v>
+        <v>44289.87045939436</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3743,18 +3743,18 @@
         <v>5</v>
       </c>
       <c r="F132" t="n">
-        <v>25.1466640446</v>
+        <v>31.718224058</v>
       </c>
       <c r="G132" t="n">
-        <v>7741.790666058299</v>
+        <v>7735.4754577013</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44291.28939441603</v>
+        <v>44291.28821589552</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44291.30749770145</v>
+        <v>44291.30600905351</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3768,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>26.0687309999</v>
+        <v>25.6221475048</v>
       </c>
       <c r="G133" t="n">
-        <v>2046.0151133274</v>
+        <v>2041.5693616662</v>
       </c>
     </row>
     <row r="134">
@@ -3796,7 +3796,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="G134" t="n">
-        <v>1149.186643237933</v>
+        <v>1151.330296269933</v>
       </c>
     </row>
     <row r="135">
@@ -3826,10 +3826,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44303.02833265248</v>
+        <v>44303.02663458499</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44303.04782512354</v>
+        <v>44303.04680125978</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3843,10 +3843,10 @@
         <v>5</v>
       </c>
       <c r="F136" t="n">
-        <v>28.0691583452</v>
+        <v>29.0400116995</v>
       </c>
       <c r="G136" t="n">
-        <v>15722.4490195672</v>
+        <v>15720.0038023991</v>
       </c>
     </row>
     <row r="137">
@@ -3871,15 +3871,15 @@
         <v>2.083333333333333</v>
       </c>
       <c r="G137" t="n">
-        <v>5211.815155420933</v>
+        <v>5213.289519234733</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44310.71034237982</v>
+        <v>44310.71283707125</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44310.73437743361</v>
+        <v>44310.73117858192</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3893,10 +3893,10 @@
         <v>5</v>
       </c>
       <c r="F138" t="n">
-        <v>34.6104774726</v>
+        <v>26.4117753589</v>
       </c>
       <c r="G138" t="n">
-        <v>5820.126360269301</v>
+        <v>5823.718715942699</v>
       </c>
     </row>
     <row r="139">
@@ -3921,7 +3921,7 @@
         <v>6.383333333333334</v>
       </c>
       <c r="G139" t="n">
-        <v>8381.596495591433</v>
+        <v>8386.202842031733</v>
       </c>
     </row>
     <row r="140">
@@ -3951,10 +3951,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44317.39865407572</v>
+        <v>44317.40541926504</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44317.41973792036</v>
+        <v>44317.4198832054</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3968,18 +3968,18 @@
         <v>5</v>
       </c>
       <c r="F141" t="n">
-        <v>30.3607362765</v>
+        <v>20.8280741141</v>
       </c>
       <c r="G141" t="n">
-        <v>865.2452023804</v>
+        <v>874.9870749956001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44321.46298550478</v>
+        <v>44321.46773292552</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44321.48370770545</v>
+        <v>44321.48659780978</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3993,18 +3993,18 @@
         <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>29.83996896101667</v>
+        <v>27.1654333446</v>
       </c>
       <c r="G142" t="n">
-        <v>5822.2765215724</v>
+        <v>5828.9035969785</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44325.37856639873</v>
+        <v>44325.38209778757</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44325.40112900781</v>
+        <v>44325.40139268385</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4018,18 +4018,18 @@
         <v>6</v>
       </c>
       <c r="F143" t="n">
-        <v>32.4901570832</v>
+        <v>27.7846506371</v>
       </c>
       <c r="G143" t="n">
-        <v>5608.596518316784</v>
+        <v>5609.519968003099</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44325.86159957289</v>
+        <v>44325.8602286965</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44325.87821069885</v>
+        <v>44325.88274765784</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4043,10 +4043,10 @@
         <v>6</v>
       </c>
       <c r="F144" t="n">
-        <v>23.9200213809</v>
+        <v>32.42730435169999</v>
       </c>
       <c r="G144" t="n">
-        <v>663.0776137212999</v>
+        <v>660.7238582143</v>
       </c>
     </row>
     <row r="145">
@@ -4071,15 +4071,15 @@
         <v>2.983333333333333</v>
       </c>
       <c r="G145" t="n">
-        <v>2010.359926974167</v>
+        <v>2003.826706027667</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44340.08791272434</v>
+        <v>44340.09092658616</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44340.11093082513</v>
+        <v>44340.10875889846</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4093,18 +4093,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>33.1460651392</v>
+        <v>25.6785297082</v>
       </c>
       <c r="G146" t="n">
-        <v>18448.6276563869</v>
+        <v>18452.9676174117</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44342.46580747389</v>
+        <v>44342.46221964486</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44342.48468461137</v>
+        <v>44342.48578339238</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4118,10 +4118,10 @@
         <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>27.1830779739</v>
+        <v>33.9317964216</v>
       </c>
       <c r="G147" t="n">
-        <v>3391.0223742157</v>
+        <v>3388.983474827</v>
       </c>
     </row>
     <row r="148">
@@ -4146,15 +4146,15 @@
         <v>6.466666666666667</v>
       </c>
       <c r="G148" t="n">
-        <v>9765.604159617633</v>
+        <v>9764.021914964833</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44350.37416328692</v>
+        <v>44350.37628036993</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44350.39651371926</v>
+        <v>44350.3931509012</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4162,16 +4162,16 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E149" t="n">
         <v>3</v>
       </c>
       <c r="F149" t="n">
-        <v>32.1846225725</v>
+        <v>24.2935650376</v>
       </c>
       <c r="G149" t="n">
-        <v>1588.7784665086</v>
+        <v>1591.8270660364</v>
       </c>
     </row>
     <row r="150">
@@ -4196,7 +4196,7 @@
         <v>2.35</v>
       </c>
       <c r="G150" t="n">
-        <v>1479.553577585567</v>
+        <v>1484.396035592667</v>
       </c>
     </row>
     <row r="151">
@@ -4301,10 +4301,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44361.09774268151</v>
+        <v>44361.09972421997</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44361.116336821</v>
+        <v>44361.11726553832</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>26.7755608968</v>
+        <v>25.2594984118</v>
       </c>
       <c r="G155" t="n">
-        <v>3868.8827947</v>
+        <v>3871.7362101101</v>
       </c>
     </row>
     <row r="156">
@@ -4346,7 +4346,7 @@
         <v>3.416666666666667</v>
       </c>
       <c r="G156" t="n">
-        <v>478.7083110698667</v>
+        <v>477.3709581447666</v>
       </c>
     </row>
     <row r="157">
@@ -4451,10 +4451,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44392.11358490938</v>
+        <v>44392.11044117058</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>44392.13744467685</v>
+        <v>44392.13094452882</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4468,18 +4468,18 @@
         <v>3</v>
       </c>
       <c r="F161" t="n">
-        <v>34.3580651582</v>
+        <v>29.5248358683</v>
       </c>
       <c r="G161" t="n">
-        <v>9960.578936176</v>
+        <v>9956.0519523127</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44392.44356099278</v>
+        <v>44392.44938479757</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>44392.46912967941</v>
+        <v>44392.46414323135</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4493,18 +4493,18 @@
         <v>3</v>
       </c>
       <c r="F162" t="n">
-        <v>36.8189087527</v>
+        <v>21.2521446364</v>
       </c>
       <c r="G162" t="n">
-        <v>440.8074949445</v>
+        <v>458.5539869998</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44394.56934526192</v>
+        <v>44394.57400320668</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>44394.58938511367</v>
+        <v>44394.59479411814</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4518,10 +4518,10 @@
         <v>5</v>
       </c>
       <c r="F163" t="n">
-        <v>28.8573865081</v>
+        <v>29.9389125103</v>
       </c>
       <c r="G163" t="n">
-        <v>3024.3104388181</v>
+        <v>3038.198364467</v>
       </c>
     </row>
     <row r="164">
@@ -4546,7 +4546,7 @@
         <v>2.833333333333333</v>
       </c>
       <c r="G164" t="n">
-        <v>2672.052102975733</v>
+        <v>2664.263136538833</v>
       </c>
     </row>
     <row r="165">
@@ -4576,10 +4576,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44397.99341165559</v>
+        <v>44397.99291075463</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44398.01172472074</v>
+        <v>44398.01538225872</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4593,18 +4593,18 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>26.3708138189</v>
+        <v>32.3589658894</v>
       </c>
       <c r="G166" t="n">
-        <v>423.1294507179</v>
+        <v>422.4081533355</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44399.80571124573</v>
+        <v>44399.80450393452</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44399.82613186177</v>
+        <v>44399.82419472603</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4618,10 +4618,10 @@
         <v>3</v>
       </c>
       <c r="F167" t="n">
-        <v>29.4056870912</v>
+        <v>28.35473978501667</v>
       </c>
       <c r="G167" t="n">
-        <v>2583.3405959909</v>
+        <v>2576.3352131539</v>
       </c>
     </row>
     <row r="168">
@@ -4646,7 +4646,7 @@
         <v>4.966666666666667</v>
       </c>
       <c r="G168" t="n">
-        <v>11546.77011904777</v>
+        <v>11549.55959450285</v>
       </c>
     </row>
     <row r="169">
@@ -4726,10 +4726,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44420.41159567828</v>
+        <v>44420.41266507068</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>44420.43732093222</v>
+        <v>44420.43776195878</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4743,10 +4743,10 @@
         <v>3</v>
       </c>
       <c r="F172" t="n">
-        <v>37.0443656681</v>
+        <v>36.1395188514</v>
       </c>
       <c r="G172" t="n">
-        <v>17127.1644434135</v>
+        <v>17128.7043684663</v>
       </c>
     </row>
     <row r="173">
@@ -4771,7 +4771,7 @@
         <v>3.383333333333333</v>
       </c>
       <c r="G173" t="n">
-        <v>4490.157857585067</v>
+        <v>4489.522779348967</v>
       </c>
     </row>
     <row r="174">
@@ -4876,10 +4876,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44432.23473261689</v>
+        <v>44432.23472549586</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>44432.25096912684</v>
+        <v>44432.25123384039</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4893,18 +4893,18 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>23.3805743321</v>
+        <v>23.7720161294</v>
       </c>
       <c r="G178" t="n">
-        <v>2042.2649683324</v>
+        <v>2042.2547140395</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44433.3168413579</v>
+        <v>44433.31779329196</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>44433.33423028302</v>
+        <v>44433.33510599127</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4918,18 +4918,18 @@
         <v>2</v>
       </c>
       <c r="F179" t="n">
-        <v>25.0400521838</v>
+        <v>24.9302870097</v>
       </c>
       <c r="G179" t="n">
-        <v>1534.8560127022</v>
+        <v>1535.8456102558</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44437.54267967759</v>
+        <v>44437.54527409523</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>44437.56987999636</v>
+        <v>44437.56738840882</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4943,18 +4943,18 @@
         <v>6</v>
       </c>
       <c r="F180" t="n">
-        <v>39.1684590389</v>
+        <v>31.8446115781</v>
       </c>
       <c r="G180" t="n">
-        <v>6060.1671281924</v>
+        <v>6062.6420697039</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44444.23347088675</v>
+        <v>44444.23149490423</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>44444.25108362713</v>
+        <v>44444.25628687851</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4968,10 +4968,10 @@
         <v>6</v>
       </c>
       <c r="F181" t="n">
-        <v>25.3623461573</v>
+        <v>35.700442946</v>
       </c>
       <c r="G181" t="n">
-        <v>9595.570882139999</v>
+        <v>9596.313353394899</v>
       </c>
     </row>
     <row r="182">
@@ -4996,15 +4996,15 @@
         <v>4.2</v>
       </c>
       <c r="G182" t="n">
-        <v>2958.906243587567</v>
+        <v>2951.413561609367</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44446.74563640017</v>
+        <v>44446.74891585826</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>44446.76571989994</v>
+        <v>44446.76670966867</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>28.9202396656</v>
+        <v>25.6230869829</v>
       </c>
       <c r="G183" t="n">
-        <v>629.0497495985001</v>
+        <v>633.7721692344001</v>
       </c>
     </row>
     <row r="184">
@@ -5046,7 +5046,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G184" t="n">
-        <v>875.1133440692333</v>
+        <v>873.6880771160334</v>
       </c>
     </row>
     <row r="185">
@@ -5126,10 +5126,10 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44461.79748051827</v>
+        <v>44461.80272813037</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>44461.81971207964</v>
+        <v>44461.82391998507</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5143,18 +5143,18 @@
         <v>2</v>
       </c>
       <c r="F188" t="n">
-        <v>32.0134483629</v>
+        <v>30.5162707616</v>
       </c>
       <c r="G188" t="n">
-        <v>11156.1052796583</v>
+        <v>11163.661841081</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44463.92320184795</v>
+        <v>44463.92528122639</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>44463.94721615484</v>
+        <v>44463.94654308132</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5168,10 +5168,10 @@
         <v>4</v>
       </c>
       <c r="F189" t="n">
-        <v>34.5806019055</v>
+        <v>30.6170710985</v>
       </c>
       <c r="G189" t="n">
-        <v>3029.0252663753</v>
+        <v>3025.960187501</v>
       </c>
     </row>
     <row r="190">
@@ -5196,7 +5196,7 @@
         <v>5.5</v>
       </c>
       <c r="G190" t="n">
-        <v>18720.325403698</v>
+        <v>18721.2946295579</v>
       </c>
     </row>
     <row r="191">
@@ -5351,10 +5351,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44492.71962768012</v>
+        <v>44492.72335726403</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>44492.74224064425</v>
+        <v>44492.74258697925</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5368,18 +5368,18 @@
         <v>5</v>
       </c>
       <c r="F197" t="n">
-        <v>32.5626683436</v>
+        <v>27.69078991501667</v>
       </c>
       <c r="G197" t="n">
-        <v>12925.8971927149</v>
+        <v>12931.26779353578</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44503.40727153248</v>
+        <v>44503.41340810429</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>44503.42969191428</v>
+        <v>44503.43002453158</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5393,10 +5393,10 @@
         <v>2</v>
       </c>
       <c r="F198" t="n">
-        <v>32.285349812</v>
+        <v>23.9276553018</v>
       </c>
       <c r="G198" t="n">
-        <v>15357.6444790422</v>
+        <v>15365.9824200704</v>
       </c>
     </row>
     <row r="199">
@@ -5421,7 +5421,7 @@
         <v>4.266666666666667</v>
       </c>
       <c r="G199" t="n">
-        <v>31451.57697675396</v>
+        <v>31451.09800784367</v>
       </c>
     </row>
     <row r="200">
@@ -5451,10 +5451,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44531.30204353837</v>
+        <v>44531.29894594331</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>44531.31888198062</v>
+        <v>44531.31765708609</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5468,10 +5468,10 @@
         <v>2</v>
       </c>
       <c r="F201" t="n">
-        <v>24.2473568511</v>
+        <v>26.9440455911</v>
       </c>
       <c r="G201" t="n">
-        <v>8673.4593619179</v>
+        <v>8668.998825049301</v>
       </c>
     </row>
     <row r="202">
@@ -5496,7 +5496,7 @@
         <v>7.05</v>
       </c>
       <c r="G202" t="n">
-        <v>2818.493281231</v>
+        <v>2820.2571293596</v>
       </c>
     </row>
     <row r="203">
@@ -5551,10 +5551,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44538.90063346891</v>
+        <v>44538.90399263987</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>44538.92124102452</v>
+        <v>44538.92140458707</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5568,18 +5568,18 @@
         <v>2</v>
       </c>
       <c r="F205" t="n">
-        <v>29.6748800898</v>
+        <v>25.0732039645</v>
       </c>
       <c r="G205" t="n">
-        <v>2008.6455285698</v>
+        <v>2013.4827347563</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44541.15221602155</v>
+        <v>44541.15193672237</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>44541.17268381184</v>
+        <v>44541.17587614703</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5593,10 +5593,10 @@
         <v>5</v>
       </c>
       <c r="F206" t="n">
-        <v>29.4736180188</v>
+        <v>34.4727715041</v>
       </c>
       <c r="G206" t="n">
-        <v>3212.6039957161</v>
+        <v>3211.9662748454</v>
       </c>
     </row>
     <row r="207">
@@ -5621,15 +5621,15 @@
         <v>7.033333333333333</v>
       </c>
       <c r="G207" t="n">
-        <v>6028.4019776055</v>
+        <v>6023.805014929701</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44547.90530498564</v>
+        <v>44547.90514835935</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>44547.92831296528</v>
+        <v>44547.92747950181</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>4</v>
       </c>
       <c r="F208" t="n">
-        <v>33.1314906816</v>
+        <v>32.1568451434</v>
       </c>
       <c r="G208" t="n">
-        <v>3659.5391793221</v>
+        <v>3659.3136374798</v>
       </c>
     </row>
     <row r="209">
@@ -5671,7 +5671,7 @@
         <v>4.05</v>
       </c>
       <c r="G209" t="n">
-        <v>4351.195996662967</v>
+        <v>4352.396184043467</v>
       </c>
     </row>
     <row r="210">
@@ -5701,10 +5701,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44564.48119648467</v>
+        <v>44564.47795495878</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>44564.50154909465</v>
+        <v>44564.49926699824</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5718,18 +5718,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>29.3077583845</v>
+        <v>30.6893368166</v>
       </c>
       <c r="G211" t="n">
-        <v>19470.5729379319</v>
+        <v>19465.9051406512</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44568.58348909231</v>
+        <v>44568.58228707178</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>44568.60517932105</v>
+        <v>44568.60385094008</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5737,24 +5737,24 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
       </c>
       <c r="F212" t="n">
-        <v>31.233929381</v>
+        <v>31.0519703509</v>
       </c>
       <c r="G212" t="n">
-        <v>5877.993596627</v>
+        <v>5879.548905899899</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44570.58726545174</v>
+        <v>44570.58160556285</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>44570.6037561456</v>
+        <v>44570.60872612575</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5762,16 +5762,16 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E213" t="n">
         <v>6</v>
       </c>
       <c r="F213" t="n">
-        <v>23.7465991739</v>
+        <v>39.0536105872</v>
       </c>
       <c r="G213" t="n">
-        <v>2854.2040281815</v>
+        <v>2847.9666567849</v>
       </c>
     </row>
     <row r="214">
@@ -5796,15 +5796,15 @@
         <v>4.65</v>
       </c>
       <c r="G214" t="n">
-        <v>3588.124483653533</v>
+        <v>3580.967712242634</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44584.51457647821</v>
+        <v>44584.5167757041</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>44584.53565398597</v>
+        <v>44584.5339360047</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5818,18 +5818,18 @@
         <v>6</v>
       </c>
       <c r="F215" t="n">
-        <v>30.3516111739</v>
+        <v>24.7108328665</v>
       </c>
       <c r="G215" t="n">
-        <v>16438.8067952981</v>
+        <v>16441.9736805695</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44592.14034419404</v>
+        <v>44592.14143876929</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>44592.15990401186</v>
+        <v>44592.15977021552</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5843,10 +5843,10 @@
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>28.1661376625</v>
+        <v>26.3972825871</v>
       </c>
       <c r="G216" t="n">
-        <v>10950.7538996171</v>
+        <v>10954.8039809979</v>
       </c>
     </row>
     <row r="217">
@@ -5871,7 +5871,7 @@
         <v>6.1</v>
       </c>
       <c r="G217" t="n">
-        <v>4263.1215562484</v>
+        <v>4263.314222979</v>
       </c>
     </row>
     <row r="218">
@@ -6176,10 +6176,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44603.53044833675</v>
+        <v>44603.53542369686</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>44603.55051075205</v>
+        <v>44603.55039859511</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -6193,10 +6193,10 @@
         <v>4</v>
       </c>
       <c r="F230" t="n">
-        <v>28.8898780424</v>
+        <v>21.5638534711</v>
       </c>
       <c r="G230" t="n">
-        <v>627.628938252</v>
+        <v>634.7934568285</v>
       </c>
     </row>
     <row r="231">
@@ -6221,15 +6221,15 @@
         <v>4.833333333333333</v>
       </c>
       <c r="G231" t="n">
-        <v>5677.9311837056</v>
+        <v>5678.0926897004</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44609.47888613074</v>
+        <v>44609.47747089935</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>44609.49884541427</v>
+        <v>44609.49927941238</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -6243,18 +6243,18 @@
         <v>3</v>
       </c>
       <c r="F232" t="n">
-        <v>28.7413682839</v>
+        <v>31.4042587746</v>
       </c>
       <c r="G232" t="n">
-        <v>2854.0960282725</v>
+        <v>2852.0580950723</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44612.95593965738</v>
+        <v>44612.95331117205</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>44612.97913396009</v>
+        <v>44612.97346021868</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -6268,18 +6268,18 @@
         <v>6</v>
       </c>
       <c r="F233" t="n">
-        <v>33.3997958963</v>
+        <v>29.0146271419</v>
       </c>
       <c r="G233" t="n">
-        <v>4978.215710087899</v>
+        <v>4973.805733915699</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44613.28685900653</v>
+        <v>44613.28773726491</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>44613.31108576352</v>
+        <v>44613.30728879073</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -6293,10 +6293,10 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>34.8865300632</v>
+        <v>28.1541971851</v>
       </c>
       <c r="G234" t="n">
-        <v>443.1240668758</v>
+        <v>452.558946572</v>
       </c>
     </row>
     <row r="235">
@@ -6321,7 +6321,7 @@
         <v>2.4</v>
       </c>
       <c r="G235" t="n">
-        <v>2277.219833853733</v>
+        <v>2282.687474671734</v>
       </c>
     </row>
     <row r="236">
@@ -6451,10 +6451,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44621.48418556622</v>
+        <v>44621.48379448627</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>44621.50835639963</v>
+        <v>44621.50818529912</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -6468,10 +6468,10 @@
         <v>1</v>
       </c>
       <c r="F241" t="n">
-        <v>34.8060001006</v>
+        <v>35.122770501</v>
       </c>
       <c r="G241" t="n">
-        <v>2937.9772153663</v>
+        <v>2937.4140602352</v>
       </c>
     </row>
     <row r="242">
@@ -6496,7 +6496,7 @@
         <v>5.9</v>
       </c>
       <c r="G242" t="n">
-        <v>1433.3167845331</v>
+        <v>1433.5631692638</v>
       </c>
     </row>
     <row r="243">
@@ -7326,10 +7326,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44652.27322432159</v>
+        <v>44652.27317008856</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>44652.29233416433</v>
+        <v>44652.29499456691</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -7343,18 +7343,18 @@
         <v>4</v>
       </c>
       <c r="F276" t="n">
-        <v>27.5181735372</v>
+        <v>31.4272488204</v>
       </c>
       <c r="G276" t="n">
-        <v>16679.2263564404</v>
+        <v>16679.1482608698</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44661.37833571205</v>
+        <v>44661.37834872847</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>44661.40166300904</v>
+        <v>44661.39899571409</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -7368,18 +7368,18 @@
         <v>6</v>
       </c>
       <c r="F277" t="n">
-        <v>33.5913076709</v>
+        <v>29.7316592893</v>
       </c>
       <c r="G277" t="n">
-        <v>13083.8422287102</v>
+        <v>13080.0299926587</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44666.02255327701</v>
+        <v>44666.02291433463</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>44666.0476254384</v>
+        <v>44666.04358898969</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -7393,10 +7393,10 @@
         <v>4</v>
       </c>
       <c r="F278" t="n">
-        <v>36.1039124017</v>
+        <v>29.7715032954</v>
       </c>
       <c r="G278" t="n">
-        <v>6654.0819858892</v>
+        <v>6658.442813565701</v>
       </c>
     </row>
     <row r="279">
@@ -7421,7 +7421,7 @@
         <v>2.85</v>
       </c>
       <c r="G279" t="n">
-        <v>2734.019368683733</v>
+        <v>2739.831854834033</v>
       </c>
     </row>
     <row r="280">
@@ -7451,10 +7451,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44680.53796085573</v>
+        <v>44680.53536948559</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>44680.56154800291</v>
+        <v>44680.55680119126</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -7468,18 +7468,18 @@
         <v>4</v>
       </c>
       <c r="F281" t="n">
-        <v>33.9654919221</v>
+        <v>30.8616561733</v>
       </c>
       <c r="G281" t="n">
-        <v>17969.8469655975</v>
+        <v>17966.1153925892</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44681.74522997499</v>
+        <v>44681.74425389047</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>44681.76691447311</v>
+        <v>44681.76546891584</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -7493,10 +7493,10 @@
         <v>5</v>
       </c>
       <c r="F282" t="n">
-        <v>31.2256773048</v>
+        <v>30.549636553</v>
       </c>
       <c r="G282" t="n">
-        <v>1704.5020398085</v>
+        <v>1709.9318868511</v>
       </c>
     </row>
     <row r="283">
@@ -7521,15 +7521,15 @@
         <v>7.4</v>
       </c>
       <c r="G283" t="n">
-        <v>2752.343158700433</v>
+        <v>2754.424761166733</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44694.22185542084</v>
+        <v>44694.2224454743</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>44694.24757486794</v>
+        <v>44694.24677399626</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -7543,10 +7543,10 @@
         <v>4</v>
       </c>
       <c r="F284" t="n">
-        <v>37.036003809</v>
+        <v>35.03307162</v>
       </c>
       <c r="G284" t="n">
-        <v>15175.3718060246</v>
+        <v>15176.2214830038</v>
       </c>
     </row>
     <row r="285">
@@ -7571,15 +7571,15 @@
         <v>5.05</v>
       </c>
       <c r="G285" t="n">
-        <v>2797.4921901664</v>
+        <v>2798.6454453762</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44700.13404383612</v>
+        <v>44700.12812629764</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>44700.15361185126</v>
+        <v>44700.15299271145</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -7593,18 +7593,18 @@
         <v>3</v>
       </c>
       <c r="F286" t="n">
-        <v>28.1779418003</v>
+        <v>35.80763588408333</v>
       </c>
       <c r="G286" t="n">
-        <v>5673.9731240243</v>
+        <v>5665.4518686072</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44711.58829768118</v>
+        <v>44711.59242238769</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>44711.60735984638</v>
+        <v>44711.61132800029</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -7618,18 +7618,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>27.4495178957</v>
+        <v>27.22408213128334</v>
       </c>
       <c r="G287" t="n">
-        <v>16465.9475950768</v>
+        <v>16472.77873380192</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44714.50613321627</v>
+        <v>44714.50809550712</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>44714.52641354882</v>
+        <v>44714.5245051661</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -7643,18 +7643,18 @@
         <v>3</v>
       </c>
       <c r="F288" t="n">
-        <v>29.2036788618</v>
+        <v>23.6299089309</v>
       </c>
       <c r="G288" t="n">
-        <v>4174.2336526474</v>
+        <v>4171.345209837317</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44715.83814445303</v>
+        <v>44715.83904288099</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>44715.86056759993</v>
+        <v>44715.85957454902</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -7668,18 +7668,18 @@
         <v>4</v>
       </c>
       <c r="F289" t="n">
-        <v>32.2893315324</v>
+        <v>29.5656019703</v>
       </c>
       <c r="G289" t="n">
-        <v>1888.8925020661</v>
+        <v>1892.9343094246</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44717.73709308351</v>
+        <v>44717.73289846728</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>44717.75909436952</v>
+        <v>44717.75816144603</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -7693,10 +7693,10 @@
         <v>6</v>
       </c>
       <c r="F290" t="n">
-        <v>31.6818518733</v>
+        <v>36.3786894011</v>
       </c>
       <c r="G290" t="n">
-        <v>2702.196696355</v>
+        <v>2697.5864423103</v>
       </c>
     </row>
     <row r="291">
@@ -7721,15 +7721,15 @@
         <v>4.2</v>
       </c>
       <c r="G291" t="n">
-        <v>2554.987441200233</v>
+        <v>2556.330851034334</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44721.36627943663</v>
+        <v>44721.36652749225</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>44721.38993235479</v>
+        <v>44721.39297944781</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -7743,18 +7743,18 @@
         <v>3</v>
       </c>
       <c r="F292" t="n">
-        <v>34.0602021499</v>
+        <v>38.0908160235</v>
       </c>
       <c r="G292" t="n">
-        <v>2635.1590554198</v>
+        <v>2635.5162555087</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44729.05676109638</v>
+        <v>44729.05609885415</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>44729.07902529432</v>
+        <v>44729.07803906471</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -7768,10 +7768,10 @@
         <v>4</v>
       </c>
       <c r="F293" t="n">
-        <v>32.06044504798334</v>
+        <v>31.5939032043</v>
       </c>
       <c r="G293" t="n">
-        <v>11040.2333878818</v>
+        <v>11034.8919451263</v>
       </c>
     </row>
     <row r="294">
@@ -7796,15 +7796,15 @@
         <v>5.183333333333334</v>
       </c>
       <c r="G294" t="n">
-        <v>7200.403576167183</v>
+        <v>7201.823746803867</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44735.89469628406</v>
+        <v>44735.89587846498</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>44735.91445477441</v>
+        <v>44735.91783178168</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -7818,18 +7818,18 @@
         <v>3</v>
       </c>
       <c r="F295" t="n">
-        <v>28.4522260916</v>
+        <v>31.6127760574</v>
       </c>
       <c r="G295" t="n">
-        <v>2608.9793157278</v>
+        <v>2610.681656234</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44739.68535371242</v>
+        <v>44739.68756704631</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>44739.70448699865</v>
+        <v>44739.71103890245</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -7843,18 +7843,18 @@
         <v>0</v>
       </c>
       <c r="F296" t="n">
-        <v>27.5519321622</v>
+        <v>33.7994728421</v>
       </c>
       <c r="G296" t="n">
-        <v>5430.094470736</v>
+        <v>5428.4187810726</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44753.41610973792</v>
+        <v>44753.4134275064</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>44753.43491813204</v>
+        <v>44753.44049938423</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -7868,18 +7868,18 @@
         <v>0</v>
       </c>
       <c r="F297" t="n">
-        <v>27.0840875349</v>
+        <v>38.98350406580001</v>
       </c>
       <c r="G297" t="n">
-        <v>19744.736744564</v>
+        <v>19731.4395896889</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44760.72542889386</v>
+        <v>44760.7280558531</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>44760.74886075398</v>
+        <v>44760.74908148064</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -7893,10 +7893,10 @@
         <v>0</v>
       </c>
       <c r="F298" t="n">
-        <v>33.7418785578</v>
+        <v>30.276903644</v>
       </c>
       <c r="G298" t="n">
-        <v>10498.3354970322</v>
+        <v>10494.0813151806</v>
       </c>
     </row>
     <row r="299">
@@ -7921,15 +7921,15 @@
         <v>3.733333333333333</v>
       </c>
       <c r="G299" t="n">
-        <v>20395.5738475935</v>
+        <v>20395.2560012146</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44787.47723421595</v>
+        <v>44787.48087001083</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>44787.50083516161</v>
+        <v>44787.49537655839</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -7943,18 +7943,18 @@
         <v>6</v>
       </c>
       <c r="F300" t="n">
-        <v>33.9853617498</v>
+        <v>20.8894284934</v>
       </c>
       <c r="G300" t="n">
-        <v>18089.5506043123</v>
+        <v>18094.7861489379</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44794.28778970095</v>
+        <v>44794.28927558691</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>44794.31170073219</v>
+        <v>44794.31180843911</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -7968,18 +7968,18 @@
         <v>6</v>
       </c>
       <c r="F301" t="n">
-        <v>34.4318849894</v>
+        <v>32.4473071669</v>
       </c>
       <c r="G301" t="n">
-        <v>9773.2145366399</v>
+        <v>9783.2146010658</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44794.47550194497</v>
+        <v>44794.47879499822</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>44794.49900263141</v>
+        <v>44794.49969934607</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -7993,18 +7993,18 @@
         <v>6</v>
       </c>
       <c r="F302" t="n">
-        <v>33.8409884814</v>
+        <v>30.1022609112</v>
       </c>
       <c r="G302" t="n">
-        <v>235.8737463955</v>
+        <v>240.4606451148</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44796.20992557206</v>
+        <v>44796.20331797079</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>44796.22469667307</v>
+        <v>44796.22882480554</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -8012,24 +8012,24 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E303" t="n">
         <v>1</v>
       </c>
       <c r="F303" t="n">
-        <v>21.2703854471</v>
+        <v>36.7298420579</v>
       </c>
       <c r="G303" t="n">
-        <v>2463.7290345364</v>
+        <v>2453.2108195805</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44802.8301556432</v>
+        <v>44802.83490799466</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>44802.84994383956</v>
+        <v>44802.85307276108</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -8037,16 +8037,16 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
       </c>
       <c r="F304" t="n">
-        <v>28.4950027713</v>
+        <v>26.1572636187</v>
       </c>
       <c r="G304" t="n">
-        <v>9511.8609169839</v>
+        <v>9512.7597923374</v>
       </c>
     </row>
     <row r="305">
@@ -8071,15 +8071,15 @@
         <v>3.85</v>
       </c>
       <c r="G305" t="n">
-        <v>1021.564204359667</v>
+        <v>1017.058557382167</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44805.26711172663</v>
+        <v>44805.26953708063</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>44805.29398746842</v>
+        <v>44805.29124644805</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -8093,18 +8093,18 @@
         <v>3</v>
       </c>
       <c r="F306" t="n">
-        <v>38.70106817048334</v>
+        <v>31.2614890739</v>
       </c>
       <c r="G306" t="n">
-        <v>2455.3075530238</v>
+        <v>2458.8000627819</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44815.62314495914</v>
+        <v>44815.62492411939</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>44815.64529234049</v>
+        <v>44815.64591228485</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -8118,18 +8118,18 @@
         <v>6</v>
       </c>
       <c r="F307" t="n">
-        <v>31.8922291458</v>
+        <v>30.2229582683</v>
       </c>
       <c r="G307" t="n">
-        <v>14873.98678664062</v>
+        <v>14880.4958467383</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44828.04088338083</v>
+        <v>44828.037941804</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>44828.06207890317</v>
+        <v>44828.06353282935</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -8143,10 +8143,10 @@
         <v>5</v>
       </c>
       <c r="F308" t="n">
-        <v>30.5215521756</v>
+        <v>36.8510765232</v>
       </c>
       <c r="G308" t="n">
-        <v>17849.6510980779</v>
+        <v>17844.5225075634</v>
       </c>
     </row>
     <row r="309">
@@ -8171,7 +8171,7 @@
         <v>4.4</v>
       </c>
       <c r="G309" t="n">
-        <v>9001.706379432466</v>
+        <v>8999.612725717667</v>
       </c>
     </row>
     <row r="310">
@@ -8251,10 +8251,10 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44843.02955983707</v>
+        <v>44843.02821508671</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>44843.04862561778</v>
+        <v>44843.04656893669</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -8268,18 +8268,18 @@
         <v>6</v>
       </c>
       <c r="F313" t="n">
-        <v>27.4547242207</v>
+        <v>26.4295439633</v>
       </c>
       <c r="G313" t="n">
-        <v>6064.1661653839</v>
+        <v>6062.2297248744</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44844.9420926399</v>
+        <v>44844.94573060769</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>44844.96328341922</v>
+        <v>44844.96072603396</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -8293,18 +8293,18 @@
         <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>30.5147222291</v>
+        <v>21.5934138226</v>
       </c>
       <c r="G314" t="n">
-        <v>2726.5925118565</v>
+        <v>2734.7928062504</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44848.92262916511</v>
+        <v>44848.92005366418</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>44848.94308117194</v>
+        <v>44848.9448402959</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -8318,10 +8318,10 @@
         <v>4</v>
       </c>
       <c r="F315" t="n">
-        <v>29.4508898545</v>
+        <v>35.692749681</v>
       </c>
       <c r="G315" t="n">
-        <v>5701.4578740682</v>
+        <v>5701.431787521</v>
       </c>
     </row>
     <row r="316">
@@ -8346,7 +8346,7 @@
         <v>9.75</v>
       </c>
       <c r="G316" t="n">
-        <v>7850.596445720434</v>
+        <v>7848.063307220634</v>
       </c>
     </row>
     <row r="317">
@@ -8376,10 +8376,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44889.78646955071</v>
+        <v>44889.78409977011</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>44889.80893169793</v>
+        <v>44889.80479495843</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -8393,18 +8393,18 @@
         <v>3</v>
       </c>
       <c r="F318" t="n">
-        <v>32.34549200498333</v>
+        <v>29.801071186</v>
       </c>
       <c r="G318" t="n">
-        <v>31949.49948636162</v>
+        <v>31946.0870022866</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44892.24175816877</v>
+        <v>44892.24272267843</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>44892.26259095983</v>
+        <v>44892.26425088765</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -8418,10 +8418,10 @@
         <v>6</v>
       </c>
       <c r="F319" t="n">
-        <v>29.9992191142</v>
+        <v>31.0006212628</v>
       </c>
       <c r="G319" t="n">
-        <v>3503.2701180159</v>
+        <v>3510.6159168153</v>
       </c>
     </row>
     <row r="320">
@@ -8446,7 +8446,7 @@
         <v>3.216666666666667</v>
       </c>
       <c r="G320" t="n">
-        <v>2451.602351169967</v>
+        <v>2449.212055115967</v>
       </c>
     </row>
     <row r="321">
@@ -8626,10 +8626,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44907.59907773567</v>
+        <v>44907.60104713359</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>44907.62188540855</v>
+        <v>44907.6247164032</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -8643,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="F328" t="n">
-        <v>32.8430489491</v>
+        <v>34.0837482583</v>
       </c>
       <c r="G328" t="n">
-        <v>17965.571939372</v>
+        <v>17968.4078723683</v>
       </c>
     </row>
     <row r="329">
@@ -8671,7 +8671,7 @@
         <v>3.65</v>
       </c>
       <c r="G329" t="n">
-        <v>38361.11834501223</v>
+        <v>38357.04171270673</v>
       </c>
     </row>
     <row r="330">
@@ -8701,10 +8701,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44935.38631762979</v>
+        <v>44935.3849687633</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>44935.4075549988</v>
+        <v>44935.4114663234</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -8718,18 +8718,18 @@
         <v>0</v>
       </c>
       <c r="F331" t="n">
-        <v>30.5818113726</v>
+        <v>38.1564865564</v>
       </c>
       <c r="G331" t="n">
-        <v>1316.9973869076</v>
+        <v>1315.0550191505</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44938.01269615272</v>
+        <v>44938.01094078324</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>44938.03187429007</v>
+        <v>44938.03688203307</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -8743,18 +8743,18 @@
         <v>3</v>
       </c>
       <c r="F332" t="n">
-        <v>27.6165177905</v>
+        <v>37.3553997435</v>
       </c>
       <c r="G332" t="n">
-        <v>3751.4032616419</v>
+        <v>3743.2432221755</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44940.93323005481</v>
+        <v>44940.92787008757</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>44940.94881636675</v>
+        <v>44940.95384495546</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -8768,10 +8768,10 @@
         <v>5</v>
       </c>
       <c r="F333" t="n">
-        <v>22.44428918191667</v>
+        <v>37.4038097634</v>
       </c>
       <c r="G333" t="n">
-        <v>4177.9523012302</v>
+        <v>4163.0227984886</v>
       </c>
     </row>
     <row r="334">
@@ -8796,7 +8796,7 @@
         <v>2.4</v>
       </c>
       <c r="G334" t="n">
-        <v>14996.88776520862</v>
+        <v>14989.64659745543</v>
       </c>
     </row>
     <row r="335">
@@ -8926,10 +8926,10 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44964.22105104336</v>
+        <v>44964.22126771291</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>44964.24478707096</v>
+        <v>44964.24639080183</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -8943,18 +8943,18 @@
         <v>1</v>
       </c>
       <c r="F340" t="n">
-        <v>34.1798797424</v>
+        <v>36.17724803780001</v>
       </c>
       <c r="G340" t="n">
-        <v>2665.4801691092</v>
+        <v>2665.792173269</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44966.06006078948</v>
+        <v>44966.05445875008</v>
       </c>
       <c r="B341" s="2" t="n">
-        <v>44966.07964193726</v>
+        <v>44966.07652196909</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -8968,18 +8968,18 @@
         <v>3</v>
       </c>
       <c r="F341" t="n">
-        <v>28.1968528127</v>
+        <v>31.7710353666</v>
       </c>
       <c r="G341" t="n">
-        <v>2613.9941546678</v>
+        <v>2603.6178454822</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44968.20502659193</v>
+        <v>44968.20234485598</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>44968.22097619114</v>
+        <v>44968.22672307961</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -8993,18 +8993,18 @@
         <v>5</v>
       </c>
       <c r="F342" t="n">
-        <v>22.9674228496</v>
+        <v>35.1046420257</v>
       </c>
       <c r="G342" t="n">
-        <v>3060.5539027297</v>
+        <v>3061.1849571336</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44969.47253466029</v>
+        <v>44969.47742603361</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>44969.49539078468</v>
+        <v>44969.49768405793</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -9018,18 +9018,18 @@
         <v>6</v>
       </c>
       <c r="F343" t="n">
-        <v>32.912819119</v>
+        <v>29.1715550134</v>
       </c>
       <c r="G343" t="n">
-        <v>1802.2441955724</v>
+        <v>1801.0122537663</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44978.49749778875</v>
+        <v>44978.49410898177</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>44978.51416733809</v>
+        <v>44978.51568423013</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -9043,10 +9043,10 @@
         <v>1</v>
       </c>
       <c r="F344" t="n">
-        <v>24.004151049</v>
+        <v>31.0683576377</v>
       </c>
       <c r="G344" t="n">
-        <v>12963.0340858731</v>
+        <v>12954.851890332</v>
       </c>
     </row>
     <row r="345">
@@ -9071,15 +9071,15 @@
         <v>3.95</v>
       </c>
       <c r="G345" t="n">
-        <v>2010.715699808433</v>
+        <v>2008.531375269033</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44982.74814218787</v>
+        <v>44982.74641129972</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>44982.76849305101</v>
+        <v>44982.769748817</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -9093,18 +9093,18 @@
         <v>5</v>
       </c>
       <c r="F346" t="n">
-        <v>29.3052429144</v>
+        <v>33.6060248838</v>
       </c>
       <c r="G346" t="n">
-        <v>4082.2580838726</v>
+        <v>4079.7656049342</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44986.4104801478</v>
+        <v>44986.41650864794</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>44986.43160779309</v>
+        <v>44986.43728510374</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         <v>2</v>
       </c>
       <c r="F347" t="n">
-        <v>30.42380922551667</v>
+        <v>29.91809635</v>
       </c>
       <c r="G347" t="n">
-        <v>5244.461419386201</v>
+        <v>5251.3341565545</v>
       </c>
     </row>
     <row r="348">
@@ -9146,7 +9146,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="G348" t="n">
-        <v>11736.90144460128</v>
+        <v>11728.7261172775</v>
       </c>
     </row>
     <row r="349">
@@ -9201,10 +9201,10 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45014.10046228258</v>
+        <v>45014.10240839953</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>45014.12054481696</v>
+        <v>45014.12345268311</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -9218,18 +9218,18 @@
         <v>2</v>
       </c>
       <c r="F351" t="n">
-        <v>28.9188494956</v>
+        <v>30.3037683541</v>
       </c>
       <c r="G351" t="n">
-        <v>27089.4156869233</v>
+        <v>27092.218095332</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45018.97818409971</v>
+        <v>45018.97704973585</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>45018.99358274325</v>
+        <v>45018.99964457929</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -9243,18 +9243,18 @@
         <v>6</v>
       </c>
       <c r="F352" t="n">
-        <v>22.1740466959</v>
+        <v>32.5365745382</v>
       </c>
       <c r="G352" t="n">
-        <v>6995.0005671798</v>
+        <v>6989.179755957401</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45035.9972655058</v>
+        <v>45035.99481859478</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>45036.01842096538</v>
+        <v>45036.01717770509</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -9268,10 +9268,10 @@
         <v>2</v>
       </c>
       <c r="F353" t="n">
-        <v>30.46386178858333</v>
+        <v>32.1971188513</v>
       </c>
       <c r="G353" t="n">
-        <v>24485.3031780669</v>
+        <v>24473.0505823036</v>
       </c>
     </row>
     <row r="354">
@@ -9296,15 +9296,15 @@
         <v>3.566666666666667</v>
       </c>
       <c r="G354" t="n">
-        <v>8840.340476516583</v>
+        <v>8842.130771330067</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45052.11698865295</v>
+        <v>45052.1202752383</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>45052.13957352668</v>
+        <v>45052.13685117815</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -9318,18 +9318,18 @@
         <v>5</v>
       </c>
       <c r="F355" t="n">
-        <v>32.5222181721</v>
+        <v>23.8693533921</v>
       </c>
       <c r="G355" t="n">
-        <v>14338.0303269274</v>
+        <v>14342.7630098188</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45055.57470040018</v>
+        <v>45055.57373864832</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>45055.59641472359</v>
+        <v>45055.59499013899</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -9343,18 +9343,18 @@
         <v>1</v>
       </c>
       <c r="F356" t="n">
-        <v>31.2686257289</v>
+        <v>30.6021465713</v>
       </c>
       <c r="G356" t="n">
-        <v>4946.5826978187</v>
+        <v>4949.1179570422</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45058.11512068245</v>
+        <v>45058.11837051042</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>45058.14103294162</v>
+        <v>45058.1400599996</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -9368,10 +9368,10 @@
         <v>4</v>
       </c>
       <c r="F357" t="n">
-        <v>37.3136531969</v>
+        <v>31.2328644246</v>
       </c>
       <c r="G357" t="n">
-        <v>3626.9365807577</v>
+        <v>3633.6677348507</v>
       </c>
     </row>
     <row r="358">
@@ -9396,15 +9396,15 @@
         <v>5.333333333333333</v>
       </c>
       <c r="G358" t="n">
-        <v>214.5292307316333</v>
+        <v>215.9302672336333</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45061.95892205474</v>
+        <v>45061.95723646579</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>45061.9790069032</v>
+        <v>45061.98329173239</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -9412,24 +9412,24 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E359" t="n">
         <v>0</v>
       </c>
       <c r="F359" t="n">
-        <v>28.9221817968</v>
+        <v>37.5195839187</v>
       </c>
       <c r="G359" t="n">
-        <v>5277.8977588198</v>
+        <v>5275.4705107463</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45064.02311485098</v>
+        <v>45064.02357890375</v>
       </c>
       <c r="B360" s="2" t="n">
-        <v>45064.04510297095</v>
+        <v>45064.04439932702</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -9443,18 +9443,18 @@
         <v>3</v>
       </c>
       <c r="F360" t="n">
-        <v>31.6628927401</v>
+        <v>29.9814095072</v>
       </c>
       <c r="G360" t="n">
-        <v>2943.5154448113</v>
+        <v>2938.0135267484</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45071.62428499641</v>
+        <v>45071.63013831958</v>
       </c>
       <c r="B361" s="2" t="n">
-        <v>45071.65088113103</v>
+        <v>45071.64655003735</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -9462,16 +9462,16 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E361" t="n">
         <v>3</v>
       </c>
       <c r="F361" t="n">
-        <v>38.2984338448</v>
+        <v>23.6328735907</v>
       </c>
       <c r="G361" t="n">
-        <v>10914.0221166706</v>
+        <v>10923.4641492767</v>
       </c>
     </row>
     <row r="362">
@@ -9496,15 +9496,15 @@
         <v>6.55</v>
       </c>
       <c r="G362" t="n">
-        <v>1568.114504649933</v>
+        <v>1574.351279545333</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45084.76428018112</v>
+        <v>45084.76714043746</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>45084.78408592167</v>
+        <v>45084.78489095861</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -9518,18 +9518,18 @@
         <v>2</v>
       </c>
       <c r="F363" t="n">
-        <v>28.5202663722</v>
+        <v>25.5607504656</v>
       </c>
       <c r="G363" t="n">
-        <v>17308.6301274953</v>
+        <v>17312.7488966064</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45096.20230253957</v>
+        <v>45096.2007167489</v>
       </c>
       <c r="B364" s="2" t="n">
-        <v>45096.22169555346</v>
+        <v>45096.22336939074</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -9543,18 +9543,18 @@
         <v>0</v>
       </c>
       <c r="F364" t="n">
-        <v>27.9259400047</v>
+        <v>32.61980424451666</v>
       </c>
       <c r="G364" t="n">
-        <v>16442.2319297907</v>
+        <v>16438.7891380188</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45099.90867324881</v>
+        <v>45099.90845182022</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>45099.93295113963</v>
+        <v>45099.93095456337</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -9568,18 +9568,18 @@
         <v>3</v>
       </c>
       <c r="F365" t="n">
-        <v>34.96016278578334</v>
+        <v>32.403950124</v>
       </c>
       <c r="G365" t="n">
-        <v>5309.2478813012</v>
+        <v>5306.518698461383</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45107.49290120053</v>
+        <v>45107.49341849501</v>
       </c>
       <c r="B366" s="2" t="n">
-        <v>45107.51627131773</v>
+        <v>45107.51206505124</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -9593,18 +9593,18 @@
         <v>4</v>
       </c>
       <c r="F366" t="n">
-        <v>33.6529687667</v>
+        <v>26.851040975</v>
       </c>
       <c r="G366" t="n">
-        <v>10886.32808769442</v>
+        <v>10889.9480615639</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45119.22701847745</v>
+        <v>45119.22239089257</v>
       </c>
       <c r="B367" s="2" t="n">
-        <v>45119.2466279828</v>
+        <v>45119.24162836043</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -9618,18 +9618,18 @@
         <v>2</v>
       </c>
       <c r="F367" t="n">
-        <v>28.237687701</v>
+        <v>27.7019537213</v>
       </c>
       <c r="G367" t="n">
-        <v>16863.4759099907</v>
+        <v>16862.8692115129</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45123.76800958177</v>
+        <v>45123.76534655484</v>
       </c>
       <c r="B368" s="2" t="n">
-        <v>45123.78877585255</v>
+        <v>45123.78647392592</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -9643,10 +9643,10 @@
         <v>6</v>
       </c>
       <c r="F368" t="n">
-        <v>29.9034299156</v>
+        <v>30.4234143453</v>
       </c>
       <c r="G368" t="n">
-        <v>6510.7895025186</v>
+        <v>6514.154199947</v>
       </c>
     </row>
     <row r="369">
@@ -9671,15 +9671,15 @@
         <v>6.016666666666667</v>
       </c>
       <c r="G369" t="n">
-        <v>3833.362772329767</v>
+        <v>3836.677546680567</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45132.97746824719</v>
+        <v>45132.97900444282</v>
       </c>
       <c r="B370" s="2" t="n">
-        <v>45132.99951350225</v>
+        <v>45132.99496271963</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -9693,18 +9693,18 @@
         <v>1</v>
       </c>
       <c r="F370" t="n">
-        <v>31.74516728</v>
+        <v>22.9799186114</v>
       </c>
       <c r="G370" t="n">
-        <v>9392.337609299801</v>
+        <v>9394.5497309989</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45133.43650349371</v>
+        <v>45133.43744360015</v>
       </c>
       <c r="B371" s="2" t="n">
-        <v>45133.45804553603</v>
+        <v>45133.45700114198</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -9718,18 +9718,18 @@
         <v>2</v>
       </c>
       <c r="F371" t="n">
-        <v>31.0205409382</v>
+        <v>28.1628602383</v>
       </c>
       <c r="G371" t="n">
-        <v>629.2655877045</v>
+        <v>637.1724679511001</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45138.38966030885</v>
+        <v>45138.39418597856</v>
       </c>
       <c r="B372" s="2" t="n">
-        <v>45138.41261406765</v>
+        <v>45138.41096403448</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -9743,18 +9743,18 @@
         <v>0</v>
       </c>
       <c r="F372" t="n">
-        <v>33.0534126743</v>
+        <v>24.1604005288</v>
       </c>
       <c r="G372" t="n">
-        <v>7101.5252728636</v>
+        <v>7109.546164662</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45139.34960457422</v>
+        <v>45139.35046348214</v>
       </c>
       <c r="B373" s="2" t="n">
-        <v>45139.37411084964</v>
+        <v>45139.37492719553</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -9768,18 +9768,18 @@
         <v>1</v>
       </c>
       <c r="F373" t="n">
-        <v>35.28903659928334</v>
+        <v>35.2277472856</v>
       </c>
       <c r="G373" t="n">
-        <v>1349.2663294629</v>
+        <v>1352.8792046278</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45141.68722364349</v>
+        <v>45141.68076705918</v>
       </c>
       <c r="B374" s="2" t="n">
-        <v>45141.70737454328</v>
+        <v>45141.70464302383</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -9793,18 +9793,18 @@
         <v>3</v>
       </c>
       <c r="F374" t="n">
-        <v>29.0172956805</v>
+        <v>34.3813891065</v>
       </c>
       <c r="G374" t="n">
-        <v>3330.882423156717</v>
+        <v>3320.4094036472</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45141.97358599003</v>
+        <v>45141.97843652203</v>
       </c>
       <c r="B375" s="2" t="n">
-        <v>45141.99948106803</v>
+        <v>45141.99672957534</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -9818,18 +9818,18 @@
         <v>3</v>
       </c>
       <c r="F375" t="n">
-        <v>37.28891232060001</v>
+        <v>26.3419967648</v>
       </c>
       <c r="G375" t="n">
-        <v>383.3444833291</v>
+        <v>394.2626374044</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45149.62393711253</v>
+        <v>45149.62320442112</v>
       </c>
       <c r="B376" s="2" t="n">
-        <v>45149.64469219631</v>
+        <v>45149.63911469021</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -9843,10 +9843,10 @@
         <v>4</v>
       </c>
       <c r="F376" t="n">
-        <v>29.8873206465</v>
+        <v>22.9107874713</v>
       </c>
       <c r="G376" t="n">
-        <v>10979.2167040665</v>
+        <v>10982.1237779393</v>
       </c>
     </row>
     <row r="377">
@@ -9871,7 +9871,7 @@
         <v>6.9</v>
       </c>
       <c r="G377" t="n">
-        <v>1972.793237310833</v>
+        <v>1980.824846095933</v>
       </c>
     </row>
     <row r="378">
@@ -10101,10 +10101,10 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45168.39798017331</v>
+        <v>45168.39504999985</v>
       </c>
       <c r="B387" s="2" t="n">
-        <v>45168.41369356971</v>
+        <v>45168.41686989756</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -10118,18 +10118,18 @@
         <v>2</v>
       </c>
       <c r="F387" t="n">
-        <v>22.6272908309</v>
+        <v>31.4206527022</v>
       </c>
       <c r="G387" t="n">
-        <v>932.608116234</v>
+        <v>928.3886664639</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45179.55969693616</v>
+        <v>45179.56027778861</v>
       </c>
       <c r="B388" s="2" t="n">
-        <v>45179.58158927877</v>
+        <v>45179.58544890464</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -10143,18 +10143,18 @@
         <v>6</v>
       </c>
       <c r="F388" t="n">
-        <v>31.5249733474</v>
+        <v>36.24640708398333</v>
       </c>
       <c r="G388" t="n">
-        <v>16050.2448476844</v>
+        <v>16046.5073631055</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45181.71014829003</v>
+        <v>45181.70913473102</v>
       </c>
       <c r="B389" s="2" t="n">
-        <v>45181.72666459488</v>
+        <v>45181.72708538259</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -10168,18 +10168,18 @@
         <v>1</v>
       </c>
       <c r="F389" t="n">
-        <v>23.78347899581667</v>
+        <v>25.848938262</v>
       </c>
       <c r="G389" t="n">
-        <v>3065.124976222984</v>
+        <v>3058.107589985817</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45194.96164109162</v>
+        <v>45194.95910080169</v>
       </c>
       <c r="B390" s="2" t="n">
-        <v>45194.98138579508</v>
+        <v>45194.97853327589</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -10193,18 +10193,18 @@
         <v>0</v>
       </c>
       <c r="F390" t="n">
-        <v>28.4323729878</v>
+        <v>27.982762855</v>
       </c>
       <c r="G390" t="n">
-        <v>19058.3661552859</v>
+        <v>19054.1022035011</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45199.83526164468</v>
+        <v>45199.8303669822</v>
       </c>
       <c r="B391" s="2" t="n">
-        <v>45199.85753933772</v>
+        <v>45199.85115770261</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -10212,24 +10212,24 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
       </c>
       <c r="F391" t="n">
-        <v>32.0798779816</v>
+        <v>29.9386374091</v>
       </c>
       <c r="G391" t="n">
-        <v>6989.581223418801</v>
+        <v>6986.6405370759</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45199.95894872315</v>
+        <v>45199.95955163847</v>
       </c>
       <c r="B392" s="2" t="n">
-        <v>45199.97672898984</v>
+        <v>45199.98022569126</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -10243,18 +10243,18 @@
         <v>5</v>
       </c>
       <c r="F392" t="n">
-        <v>25.6035840298</v>
+        <v>29.7706360161</v>
       </c>
       <c r="G392" t="n">
-        <v>146.0295150153</v>
+        <v>156.0872676327</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45202.16552089933</v>
+        <v>45202.16524520495</v>
       </c>
       <c r="B393" s="2" t="n">
-        <v>45202.18895531361</v>
+        <v>45202.18515154096</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -10268,18 +10268,18 @@
         <v>1</v>
       </c>
       <c r="F393" t="n">
-        <v>33.7455565654</v>
+        <v>28.66512386158333</v>
       </c>
       <c r="G393" t="n">
-        <v>3151.8603496718</v>
+        <v>3146.428099696317</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45205.04251630653</v>
+        <v>45205.03916469507</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>45205.06223971925</v>
+        <v>45205.06297497429</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -10287,24 +10287,24 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
       </c>
       <c r="F394" t="n">
-        <v>28.4017143133</v>
+        <v>34.286802097</v>
       </c>
       <c r="G394" t="n">
-        <v>4109.1278298069</v>
+        <v>4109.7789419157</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45212.71064233519</v>
+        <v>45212.71014460683</v>
       </c>
       <c r="B395" s="2" t="n">
-        <v>45212.7266926676</v>
+        <v>45212.72775303854</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -10318,18 +10318,18 @@
         <v>4</v>
       </c>
       <c r="F395" t="n">
-        <v>23.1124786677</v>
+        <v>25.35614167261667</v>
       </c>
       <c r="G395" t="n">
-        <v>11013.6997669733</v>
+        <v>11011.9242708374</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45213.06390040839</v>
+        <v>45213.06070534013</v>
       </c>
       <c r="B396" s="2" t="n">
-        <v>45213.08379767231</v>
+        <v>45213.08253954984</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -10343,18 +10343,18 @@
         <v>5</v>
       </c>
       <c r="F396" t="n">
-        <v>28.6520600471</v>
+        <v>31.44126198778333</v>
       </c>
       <c r="G396" t="n">
-        <v>485.5791467228</v>
+        <v>479.4513142852</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45214.29330857174</v>
+        <v>45214.29048828268</v>
       </c>
       <c r="B397" s="2" t="n">
-        <v>45214.31568801409</v>
+        <v>45214.31435319774</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -10362,24 +10362,24 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E397" t="n">
         <v>6</v>
       </c>
       <c r="F397" t="n">
-        <v>32.2263969694</v>
+        <v>34.3654776933</v>
       </c>
       <c r="G397" t="n">
-        <v>1741.6956951801</v>
+        <v>1739.4461752879</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45214.66653595464</v>
+        <v>45214.66552897823</v>
       </c>
       <c r="B398" s="2" t="n">
-        <v>45214.68803750832</v>
+        <v>45214.68927483015</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -10393,18 +10393,18 @@
         <v>6</v>
       </c>
       <c r="F398" t="n">
-        <v>30.9622372894</v>
+        <v>34.1940267522</v>
       </c>
       <c r="G398" t="n">
-        <v>505.2210344122</v>
+        <v>505.6931239038</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45218.3529746893</v>
+        <v>45218.35346024908</v>
       </c>
       <c r="B399" s="2" t="n">
-        <v>45218.37614981191</v>
+        <v>45218.3723960172</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -10418,10 +10418,10 @@
         <v>3</v>
       </c>
       <c r="F399" t="n">
-        <v>33.3721765568</v>
+        <v>27.26750608608333</v>
       </c>
       <c r="G399" t="n">
-        <v>5277.509540612699</v>
+        <v>5276.427003265217</v>
       </c>
     </row>
     <row r="400">
@@ -10446,7 +10446,7 @@
         <v>3.383333333333333</v>
       </c>
       <c r="G400" t="n">
-        <v>7795.660937509733</v>
+        <v>7801.066401897933</v>
       </c>
     </row>
     <row r="401">
@@ -10576,10 +10576,10 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45233.46214049985</v>
+        <v>45233.46042263799</v>
       </c>
       <c r="B406" s="2" t="n">
-        <v>45233.48345621739</v>
+        <v>45233.48425047061</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -10593,10 +10593,10 @@
         <v>4</v>
       </c>
       <c r="F406" t="n">
-        <v>30.6946332347</v>
+        <v>34.3120789777</v>
       </c>
       <c r="G406" t="n">
-        <v>5579.365653133001</v>
+        <v>5576.8919320413</v>
       </c>
     </row>
     <row r="407">
@@ -10621,7 +10621,7 @@
         <v>4.083333333333333</v>
       </c>
       <c r="G407" t="n">
-        <v>5239.7397136323</v>
+        <v>5238.595988981</v>
       </c>
     </row>
     <row r="408">
@@ -10651,10 +10651,10 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45249.75729316988</v>
+        <v>45249.75678963784</v>
       </c>
       <c r="B409" s="2" t="n">
-        <v>45249.77921269385</v>
+        <v>45249.77840350463</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -10668,18 +10668,18 @@
         <v>6</v>
       </c>
       <c r="F409" t="n">
-        <v>31.5641145112</v>
+        <v>31.1239681906</v>
       </c>
       <c r="G409" t="n">
-        <v>18181.5354979786</v>
+        <v>18180.8104118176</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45251.50811048593</v>
+        <v>45251.50417161755</v>
       </c>
       <c r="B410" s="2" t="n">
-        <v>45251.52364603311</v>
+        <v>45251.53006778767</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -10693,18 +10693,18 @@
         <v>1</v>
       </c>
       <c r="F410" t="n">
-        <v>22.3711879595</v>
+        <v>37.2904849767</v>
       </c>
       <c r="G410" t="n">
-        <v>2489.6128205835</v>
+        <v>2485.106082602</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45252.15010039444</v>
+        <v>45252.14966614412</v>
       </c>
       <c r="B411" s="2" t="n">
-        <v>45252.17436788472</v>
+        <v>45252.17480202403</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -10718,18 +10718,18 @@
         <v>2</v>
       </c>
       <c r="F411" t="n">
-        <v>34.9451859972</v>
+        <v>36.1956670625</v>
       </c>
       <c r="G411" t="n">
-        <v>902.0942803041</v>
+        <v>892.2216332877</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45252.44610285958</v>
+        <v>45252.44262492099</v>
       </c>
       <c r="B412" s="2" t="n">
-        <v>45252.4612747964</v>
+        <v>45252.46492009795</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -10743,18 +10743,18 @@
         <v>2</v>
       </c>
       <c r="F412" t="n">
-        <v>21.8475890299</v>
+        <v>32.10505481448333</v>
       </c>
       <c r="G412" t="n">
-        <v>391.2983638006</v>
+        <v>385.6649716435001</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45259.46124916821</v>
+        <v>45259.46456355262</v>
       </c>
       <c r="B413" s="2" t="n">
-        <v>45259.48469971133</v>
+        <v>45259.4844398987</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -10768,18 +10768,18 @@
         <v>2</v>
       </c>
       <c r="F413" t="n">
-        <v>33.768782087</v>
+        <v>28.6219383823</v>
       </c>
       <c r="G413" t="n">
-        <v>10079.9630953985</v>
+        <v>10079.48657470492</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45268.11274399132</v>
+        <v>45268.10985123718</v>
       </c>
       <c r="B414" s="2" t="n">
-        <v>45268.12903604643</v>
+        <v>45268.13203439692</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -10793,18 +10793,18 @@
         <v>4</v>
       </c>
       <c r="F414" t="n">
-        <v>23.4605593533</v>
+        <v>31.9437500413</v>
       </c>
       <c r="G414" t="n">
-        <v>12424.3837631861</v>
+        <v>12420.592327393</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45270.85787396875</v>
+        <v>45270.85783872165</v>
       </c>
       <c r="B415" s="2" t="n">
-        <v>45270.88317579961</v>
+        <v>45270.88430673285</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -10818,10 +10818,10 @@
         <v>6</v>
       </c>
       <c r="F415" t="n">
-        <v>36.4346364359</v>
+        <v>38.1139361119</v>
       </c>
       <c r="G415" t="n">
-        <v>3929.5266081509</v>
+        <v>3925.1582276052</v>
       </c>
     </row>
     <row r="416">
@@ -10846,15 +10846,15 @@
         <v>3.166666666666667</v>
       </c>
       <c r="G416" t="n">
-        <v>4813.343515223701</v>
+        <v>4811.714971366299</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45286.99772836999</v>
+        <v>45287.00133082797</v>
       </c>
       <c r="B417" s="2" t="n">
-        <v>45287.01802724531</v>
+        <v>45287.02004990023</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -10862,24 +10862,24 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E417" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F417" t="n">
-        <v>29.23038045938333</v>
+        <v>26.9554640522</v>
       </c>
       <c r="G417" t="n">
-        <v>18388.44551945942</v>
+        <v>18393.6330589563</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45287.12394461397</v>
+        <v>45287.12079150754</v>
       </c>
       <c r="B418" s="2" t="n">
-        <v>45287.14644881982</v>
+        <v>45287.14471645838</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -10893,18 +10893,18 @@
         <v>2</v>
       </c>
       <c r="F418" t="n">
-        <v>32.4060564156</v>
+        <v>34.4519292131</v>
       </c>
       <c r="G418" t="n">
-        <v>152.5210108753</v>
+        <v>145.0679145263</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45287.41827012147</v>
+        <v>45287.41444899701</v>
       </c>
       <c r="B419" s="2" t="n">
-        <v>45287.43831057609</v>
+        <v>45287.43684318414</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -10912,24 +10912,24 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E419" t="n">
         <v>2</v>
       </c>
       <c r="F419" t="n">
-        <v>28.8582546425</v>
+        <v>32.2476294813</v>
       </c>
       <c r="G419" t="n">
-        <v>391.4226743854</v>
+        <v>388.4148556151</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45299.74693490751</v>
+        <v>45299.74882165482</v>
       </c>
       <c r="B420" s="2" t="n">
-        <v>45299.77261704644</v>
+        <v>45299.77210169149</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -10943,10 +10943,10 @@
         <v>0</v>
       </c>
       <c r="F420" t="n">
-        <v>36.98228004</v>
+        <v>33.52325281348333</v>
       </c>
       <c r="G420" t="n">
-        <v>17724.4190372575</v>
+        <v>17729.248997762</v>
       </c>
     </row>
     <row r="421">
@@ -10971,7 +10971,7 @@
         <v>3.6</v>
       </c>
       <c r="G421" t="n">
-        <v>1646.0647864649</v>
+        <v>1646.806897580217</v>
       </c>
     </row>
     <row r="422">
@@ -11001,10 +11001,10 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45302.92657579831</v>
+        <v>45302.92802474447</v>
       </c>
       <c r="B423" s="2" t="n">
-        <v>45302.94810965839</v>
+        <v>45302.95117771225</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -11018,10 +11018,10 @@
         <v>3</v>
       </c>
       <c r="F423" t="n">
-        <v>31.00875851251667</v>
+        <v>33.3402736277</v>
       </c>
       <c r="G423" t="n">
-        <v>2876.4358162484</v>
+        <v>2878.5222987024</v>
       </c>
     </row>
     <row r="424">
@@ -11046,7 +11046,7 @@
         <v>12.56666666666667</v>
       </c>
       <c r="G424" t="n">
-        <v>38846.47209190575</v>
+        <v>38842.05409433657</v>
       </c>
     </row>
     <row r="425">
@@ -11076,10 +11076,10 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45340.53983708834</v>
+        <v>45340.54640799425</v>
       </c>
       <c r="B426" s="2" t="n">
-        <v>45340.56682906804</v>
+        <v>45340.56408247264</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -11087,24 +11087,24 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E426" t="n">
         <v>6</v>
       </c>
       <c r="F426" t="n">
-        <v>38.86845078048334</v>
+        <v>25.451248892</v>
       </c>
       <c r="G426" t="n">
-        <v>15115.48207388392</v>
+        <v>15124.9441783852</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45351.27463541798</v>
+        <v>45351.26887842389</v>
       </c>
       <c r="B427" s="2" t="n">
-        <v>45351.2960656011</v>
+        <v>45351.29473350552</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -11118,18 +11118,18 @@
         <v>3</v>
       </c>
       <c r="F427" t="n">
-        <v>30.8594636977</v>
+        <v>37.23131756119999</v>
       </c>
       <c r="G427" t="n">
-        <v>15419.241143897</v>
+        <v>15414.9061697919</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45352.35724969205</v>
+        <v>45352.35737545074</v>
       </c>
       <c r="B428" s="2" t="n">
-        <v>45352.37819553805</v>
+        <v>45352.37829127548</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -11143,18 +11143,18 @@
         <v>4</v>
       </c>
       <c r="F428" t="n">
-        <v>30.1620182275</v>
+        <v>30.1187876202</v>
       </c>
       <c r="G428" t="n">
-        <v>1528.1050909715</v>
+        <v>1530.2044011124</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45354.93683702908</v>
+        <v>45354.94192362325</v>
       </c>
       <c r="B429" s="2" t="n">
-        <v>45354.95987243688</v>
+        <v>45354.95711860073</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -11168,18 +11168,18 @@
         <v>6</v>
       </c>
       <c r="F429" t="n">
-        <v>33.1709872243</v>
+        <v>21.8807675741</v>
       </c>
       <c r="G429" t="n">
-        <v>3684.4437470881</v>
+        <v>3691.63058079</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45358.75072173041</v>
+        <v>45358.75211206092</v>
       </c>
       <c r="B430" s="2" t="n">
-        <v>45358.77035333688</v>
+        <v>45358.7719646037</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -11193,18 +11193,18 @@
         <v>3</v>
       </c>
       <c r="F430" t="n">
-        <v>28.269513328</v>
+        <v>28.5876616051</v>
       </c>
       <c r="G430" t="n">
-        <v>5458.822982689901</v>
+        <v>5464.7905826708</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45361.91909580375</v>
+        <v>45361.91521243437</v>
       </c>
       <c r="B431" s="2" t="n">
-        <v>45361.93960319246</v>
+        <v>45361.93771430361</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -11212,24 +11212,24 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E431" t="n">
         <v>6</v>
       </c>
       <c r="F431" t="n">
-        <v>29.5306397492</v>
+        <v>32.4026916952</v>
       </c>
       <c r="G431" t="n">
-        <v>4534.1891522873</v>
+        <v>4526.276876177</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45363.28974878654</v>
+        <v>45363.29443246795</v>
       </c>
       <c r="B432" s="2" t="n">
-        <v>45363.31067181224</v>
+        <v>45363.3155591754</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -11237,24 +11237,24 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E432" t="n">
         <v>1</v>
       </c>
       <c r="F432" t="n">
-        <v>30.1291569891</v>
+        <v>30.4224587127</v>
       </c>
       <c r="G432" t="n">
-        <v>1944.2096554747</v>
+        <v>1953.6741566527</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45368.76980261724</v>
+        <v>45368.77393718603</v>
       </c>
       <c r="B433" s="2" t="n">
-        <v>45368.79618855221</v>
+        <v>45368.79482165949</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -11268,18 +11268,18 @@
         <v>6</v>
       </c>
       <c r="F433" t="n">
-        <v>37.9957463772</v>
+        <v>30.0736417772</v>
       </c>
       <c r="G433" t="n">
-        <v>7861.148359195</v>
+        <v>7860.0643353224</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45370.58261969665</v>
+        <v>45370.58585852056</v>
       </c>
       <c r="B434" s="2" t="n">
-        <v>45370.6062737559</v>
+        <v>45370.60383735948</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -11287,24 +11287,24 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E434" t="n">
         <v>1</v>
       </c>
       <c r="F434" t="n">
-        <v>34.0618453213</v>
+        <v>25.8895280562</v>
       </c>
       <c r="G434" t="n">
-        <v>2572.4608480008</v>
+        <v>2579.0930799286</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45372.54079859253</v>
+        <v>45372.54504638408</v>
       </c>
       <c r="B435" s="2" t="n">
-        <v>45372.56196835526</v>
+        <v>45372.56135422253</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -11312,24 +11312,24 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E435" t="n">
         <v>3</v>
       </c>
       <c r="F435" t="n">
-        <v>30.4844583614</v>
+        <v>23.4832873778</v>
       </c>
       <c r="G435" t="n">
-        <v>2785.7157647183</v>
+        <v>2795.3409954109</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45375.89759037807</v>
+        <v>45375.89683752634</v>
       </c>
       <c r="B436" s="2" t="n">
-        <v>45375.92047475082</v>
+        <v>45375.91571490005</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -11343,18 +11343,18 @@
         <v>6</v>
       </c>
       <c r="F436" t="n">
-        <v>32.9534967736</v>
+        <v>27.18341813951667</v>
       </c>
       <c r="G436" t="n">
-        <v>4803.2957128251</v>
+        <v>4803.0959574891</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45380.37527828143</v>
+        <v>45380.37390619925</v>
       </c>
       <c r="B437" s="2" t="n">
-        <v>45380.40044633106</v>
+        <v>45380.39788188588</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -11362,24 +11362,24 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E437" t="n">
         <v>4</v>
       </c>
       <c r="F437" t="n">
-        <v>36.2419914765</v>
+        <v>34.5249887534</v>
       </c>
       <c r="G437" t="n">
-        <v>6414.917084061</v>
+        <v>6419.795470850283</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45382.79605032999</v>
+        <v>45382.7937611992</v>
       </c>
       <c r="B438" s="2" t="n">
-        <v>45382.81661223733</v>
+        <v>45382.81622313453</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -11393,18 +11393,18 @@
         <v>6</v>
       </c>
       <c r="F438" t="n">
-        <v>29.6091465657</v>
+        <v>32.3451868643</v>
       </c>
       <c r="G438" t="n">
-        <v>3449.6697584626</v>
+        <v>3450.066211182</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45387.29323134592</v>
+        <v>45387.29361029728</v>
       </c>
       <c r="B439" s="2" t="n">
-        <v>45387.3138073279</v>
+        <v>45387.3127173244</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -11418,18 +11418,18 @@
         <v>4</v>
       </c>
       <c r="F439" t="n">
-        <v>29.629414031</v>
+        <v>27.5141190388</v>
       </c>
       <c r="G439" t="n">
-        <v>6446.3315163875</v>
+        <v>6447.4375143708</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45388.29643634287</v>
+        <v>45388.29375819775</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>45388.31064681801</v>
+        <v>45388.31264605536</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -11443,18 +11443,18 @@
         <v>5</v>
       </c>
       <c r="F440" t="n">
-        <v>20.4630841938</v>
+        <v>27.1985149427</v>
       </c>
       <c r="G440" t="n">
-        <v>1414.9857815662</v>
+        <v>1412.6988576444</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45394.81475079607</v>
+        <v>45394.81190072196</v>
       </c>
       <c r="B441" s="2" t="n">
-        <v>45394.83768476666</v>
+        <v>45394.83220561661</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -11468,18 +11468,18 @@
         <v>4</v>
       </c>
       <c r="F441" t="n">
-        <v>33.0249176266</v>
+        <v>29.2390482945</v>
       </c>
       <c r="G441" t="n">
-        <v>9365.909728424898</v>
+        <v>9358.926719905199</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45399.29105820959</v>
+        <v>45399.29070309064</v>
       </c>
       <c r="B442" s="2" t="n">
-        <v>45399.31223371255</v>
+        <v>45399.31608424464</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -11493,18 +11493,18 @@
         <v>2</v>
       </c>
       <c r="F442" t="n">
-        <v>30.49272424771667</v>
+        <v>36.548861763</v>
       </c>
       <c r="G442" t="n">
-        <v>6412.8577578316</v>
+        <v>6420.236362601</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45401.3960246122</v>
+        <v>45401.39909237209</v>
       </c>
       <c r="B443" s="2" t="n">
-        <v>45401.41823339102</v>
+        <v>45401.42103230159</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -11518,18 +11518,18 @@
         <v>4</v>
       </c>
       <c r="F443" t="n">
-        <v>31.9806414924</v>
+        <v>31.5934984727</v>
       </c>
       <c r="G443" t="n">
-        <v>3000.658895510584</v>
+        <v>2999.5317035376</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45401.70875182117</v>
+        <v>45401.70660351935</v>
       </c>
       <c r="B444" s="2" t="n">
-        <v>45401.73102035302</v>
+        <v>45401.73328130296</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -11537,24 +11537,24 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E444" t="n">
         <v>4</v>
       </c>
       <c r="F444" t="n">
-        <v>32.0666858746</v>
+        <v>38.4160083989</v>
       </c>
       <c r="G444" t="n">
-        <v>418.3465394186</v>
+        <v>411.2225535792001</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45411.18801271678</v>
+        <v>45411.18931868108</v>
       </c>
       <c r="B445" s="2" t="n">
-        <v>45411.21113582562</v>
+        <v>45411.2093082128</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -11568,18 +11568,18 @@
         <v>0</v>
       </c>
       <c r="F445" t="n">
-        <v>33.2972767361</v>
+        <v>28.7849256669</v>
       </c>
       <c r="G445" t="n">
-        <v>13618.0690038132</v>
+        <v>13616.6938245009</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45415.45691373758</v>
+        <v>45415.46302557951</v>
       </c>
       <c r="B446" s="2" t="n">
-        <v>45415.4773020326</v>
+        <v>45415.47794593286</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -11587,24 +11587,24 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E446" t="n">
         <v>4</v>
       </c>
       <c r="F446" t="n">
-        <v>29.3591448312</v>
+        <v>21.48530883</v>
       </c>
       <c r="G446" t="n">
-        <v>6113.9201932135</v>
+        <v>6125.353008055599</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45417.87970304683</v>
+        <v>45417.87461903886</v>
       </c>
       <c r="B447" s="2" t="n">
-        <v>45417.89803303831</v>
+        <v>45417.89597237767</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -11612,24 +11612,24 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E447" t="n">
         <v>6</v>
       </c>
       <c r="F447" t="n">
-        <v>26.3951877394</v>
+        <v>30.7488078836</v>
       </c>
       <c r="G447" t="n">
-        <v>3459.4574604823</v>
+        <v>3451.2092726529</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45425.35304739237</v>
+        <v>45425.35284661395</v>
       </c>
       <c r="B448" s="2" t="n">
-        <v>45425.37957761102</v>
+        <v>45425.37848358786</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -11643,18 +11643,18 @@
         <v>0</v>
       </c>
       <c r="F448" t="n">
-        <v>38.2035148524</v>
+        <v>36.9172424262</v>
       </c>
       <c r="G448" t="n">
-        <v>10735.2206698474</v>
+        <v>10737.8989002317</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45426.02261930936</v>
+        <v>45426.01994096453</v>
       </c>
       <c r="B449" s="2" t="n">
-        <v>45426.04561746903</v>
+        <v>45426.04587717491</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -11668,18 +11668,18 @@
         <v>1</v>
       </c>
       <c r="F449" t="n">
-        <v>33.1173499132</v>
+        <v>37.3481429605</v>
       </c>
       <c r="G449" t="n">
-        <v>925.9800456163</v>
+        <v>923.6986223968</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45426.92060553728</v>
+        <v>45426.91536318819</v>
       </c>
       <c r="B450" s="2" t="n">
-        <v>45426.93590218013</v>
+        <v>45426.9410645868</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -11687,24 +11687,24 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E450" t="n">
         <v>1</v>
       </c>
       <c r="F450" t="n">
-        <v>22.0271657018</v>
+        <v>37.0100140034</v>
       </c>
       <c r="G450" t="n">
-        <v>1259.9828182869</v>
+        <v>1252.0598591155</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45429.79509424861</v>
+        <v>45429.79460602624</v>
       </c>
       <c r="B451" s="2" t="n">
-        <v>45429.81134442066</v>
+        <v>45429.8163030956</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -11718,18 +11718,18 @@
         <v>4</v>
       </c>
       <c r="F451" t="n">
-        <v>23.4002477407</v>
+        <v>31.2437798876</v>
       </c>
       <c r="G451" t="n">
-        <v>4117.2365786149</v>
+        <v>4109.0996727883</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45435.71292256461</v>
+        <v>45435.70954705781</v>
       </c>
       <c r="B452" s="2" t="n">
-        <v>45435.72967011405</v>
+        <v>45435.72841241875</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -11743,18 +11743,18 @@
         <v>3</v>
       </c>
       <c r="F452" t="n">
-        <v>24.1164711957</v>
+        <v>27.1661197407</v>
       </c>
       <c r="G452" t="n">
-        <v>8498.272527286601</v>
+        <v>8486.271305587999</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45440.144222322</v>
+        <v>45440.14999954047</v>
       </c>
       <c r="B453" s="2" t="n">
-        <v>45440.17004075371</v>
+        <v>45440.16922325885</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -11768,18 +11768,18 @@
         <v>1</v>
       </c>
       <c r="F453" t="n">
-        <v>37.1785416493</v>
+        <v>27.6821544511</v>
       </c>
       <c r="G453" t="n">
-        <v>6356.9551794467</v>
+        <v>6367.085455296899</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45441.68989949828</v>
+        <v>45441.68758894728</v>
       </c>
       <c r="B454" s="2" t="n">
-        <v>45441.70789383134</v>
+        <v>45441.70897449302</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -11793,18 +11793,18 @@
         <v>2</v>
       </c>
       <c r="F454" t="n">
-        <v>25.91183960581667</v>
+        <v>30.7951858576</v>
       </c>
       <c r="G454" t="n">
-        <v>2188.596592208</v>
+        <v>2186.4465913447</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45446.14982670007</v>
+        <v>45446.14570665075</v>
       </c>
       <c r="B455" s="2" t="n">
-        <v>45446.17035057153</v>
+        <v>45446.16636228595</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -11818,18 +11818,18 @@
         <v>0</v>
       </c>
       <c r="F455" t="n">
-        <v>29.5543748866</v>
+        <v>29.744114678</v>
       </c>
       <c r="G455" t="n">
-        <v>6396.383330966883</v>
+        <v>6388.8943071392</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45452.37656149616</v>
+        <v>45452.37884474562</v>
       </c>
       <c r="B456" s="2" t="n">
-        <v>45452.3961239463</v>
+        <v>45452.3949947744</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -11843,18 +11843,18 @@
         <v>6</v>
       </c>
       <c r="F456" t="n">
-        <v>28.1699281985</v>
+        <v>23.256041441</v>
       </c>
       <c r="G456" t="n">
-        <v>8936.9437314683</v>
+        <v>8945.974741931899</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45457.02183908936</v>
+        <v>45457.02036928252</v>
       </c>
       <c r="B457" s="2" t="n">
-        <v>45457.04494049237</v>
+        <v>45457.04493217972</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -11868,18 +11868,18 @@
         <v>4</v>
       </c>
       <c r="F457" t="n">
-        <v>33.2660203238</v>
+        <v>35.3705719619</v>
       </c>
       <c r="G457" t="n">
-        <v>6661.0298060278</v>
+        <v>6660.5392916998</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45467.52465360176</v>
+        <v>45467.51991250495</v>
       </c>
       <c r="B458" s="2" t="n">
-        <v>45467.54637673024</v>
+        <v>45467.54540245711</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -11893,18 +11893,18 @@
         <v>0</v>
       </c>
       <c r="F458" t="n">
-        <v>31.2813050138</v>
+        <v>36.7055311031</v>
       </c>
       <c r="G458" t="n">
-        <v>15090.7868775296</v>
+        <v>15083.9716683289</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45468.20915722376</v>
+        <v>45468.20808908244</v>
       </c>
       <c r="B459" s="2" t="n">
-        <v>45468.23029990504</v>
+        <v>45468.22811281207</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -11912,24 +11912,24 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E459" t="n">
         <v>1</v>
       </c>
       <c r="F459" t="n">
-        <v>30.4454610342</v>
+        <v>28.8341706711</v>
       </c>
       <c r="G459" t="n">
-        <v>954.4039106542</v>
+        <v>954.2687404815</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45469.43884717258</v>
+        <v>45469.43589533116</v>
       </c>
       <c r="B460" s="2" t="n">
-        <v>45469.45844164982</v>
+        <v>45469.46228207804</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -11943,18 +11943,18 @@
         <v>2</v>
       </c>
       <c r="F460" t="n">
-        <v>28.2160472177</v>
+        <v>37.9969155182</v>
       </c>
       <c r="G460" t="n">
-        <v>1740.3080652726</v>
+        <v>1739.2068274891</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45483.18691112367</v>
+        <v>45483.1903525038</v>
       </c>
       <c r="B461" s="2" t="n">
-        <v>45483.20781918732</v>
+        <v>45483.20989490288</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -11968,18 +11968,18 @@
         <v>2</v>
       </c>
       <c r="F461" t="n">
-        <v>30.1076116458</v>
+        <v>28.1410546738</v>
       </c>
       <c r="G461" t="n">
-        <v>19768.9960423513</v>
+        <v>19768.4214130802</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45492.52119433891</v>
+        <v>45492.52470643281</v>
       </c>
       <c r="B462" s="2" t="n">
-        <v>45492.54368337598</v>
+        <v>45492.54590633813</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -11993,18 +11993,18 @@
         <v>4</v>
       </c>
       <c r="F462" t="n">
-        <v>32.384213384</v>
+        <v>30.527863659</v>
       </c>
       <c r="G462" t="n">
-        <v>13411.2602182982</v>
+        <v>13413.3286031153</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45493.04373807969</v>
+        <v>45493.04431320962</v>
       </c>
       <c r="B463" s="2" t="n">
-        <v>45493.06079116307</v>
+        <v>45493.06299876003</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -12018,18 +12018,18 @@
         <v>5</v>
       </c>
       <c r="F463" t="n">
-        <v>24.5564400648</v>
+        <v>26.9071925796</v>
       </c>
       <c r="G463" t="n">
-        <v>720.0787733423</v>
+        <v>717.7058949411</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45498.71262825759</v>
+        <v>45498.7069068967</v>
       </c>
       <c r="B464" s="2" t="n">
-        <v>45498.7283272014</v>
+        <v>45498.73349592441</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -12037,24 +12037,24 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E464" t="n">
         <v>3</v>
       </c>
       <c r="F464" t="n">
-        <v>22.6064790839</v>
+        <v>38.28819990140001</v>
       </c>
       <c r="G464" t="n">
-        <v>8138.6454161148</v>
+        <v>8127.2277168176</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45499.62857423651</v>
+        <v>45499.62606736986</v>
       </c>
       <c r="B465" s="2" t="n">
-        <v>45499.64590250982</v>
+        <v>45499.64402838647</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -12068,18 +12068,18 @@
         <v>4</v>
       </c>
       <c r="F465" t="n">
-        <v>24.952713564</v>
+        <v>25.8638639191</v>
       </c>
       <c r="G465" t="n">
-        <v>1296.3557305707</v>
+        <v>1285.3028814447</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45501.98326602766</v>
+        <v>45501.97923219581</v>
       </c>
       <c r="B466" s="2" t="n">
-        <v>45502.00422254334</v>
+        <v>45501.99983169906</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -12093,18 +12093,18 @@
         <v>6</v>
       </c>
       <c r="F466" t="n">
-        <v>30.1773825937</v>
+        <v>29.6632846947</v>
       </c>
       <c r="G466" t="n">
-        <v>3365.8034656771</v>
+        <v>3362.6934854416</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45516.48026032108</v>
+        <v>45516.47966346918</v>
       </c>
       <c r="B467" s="2" t="n">
-        <v>45516.50005956445</v>
+        <v>45516.49916677418</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -12118,18 +12118,18 @@
         <v>0</v>
       </c>
       <c r="F467" t="n">
-        <v>28.510910439</v>
+        <v>28.0847592066</v>
       </c>
       <c r="G467" t="n">
-        <v>20845.4943999379</v>
+        <v>20850.9577489548</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45519.68567199603</v>
+        <v>45519.69097866859</v>
       </c>
       <c r="B468" s="2" t="n">
-        <v>45519.7099791588</v>
+        <v>45519.70652435</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -12143,18 +12143,18 @@
         <v>3</v>
       </c>
       <c r="F468" t="n">
-        <v>35.00231438620001</v>
+        <v>22.3857812459</v>
       </c>
       <c r="G468" t="n">
-        <v>4587.2819014826</v>
+        <v>4596.2091279435</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45520.03960514001</v>
+        <v>45520.04160658959</v>
       </c>
       <c r="B469" s="2" t="n">
-        <v>45520.0607151211</v>
+        <v>45520.06220503725</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -12168,18 +12168,18 @@
         <v>4</v>
       </c>
       <c r="F469" t="n">
-        <v>30.3983727677</v>
+        <v>29.6617646061</v>
       </c>
       <c r="G469" t="n">
-        <v>474.6614129499</v>
+        <v>482.5184250156</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45525.5015291009</v>
+        <v>45525.50221823479</v>
       </c>
       <c r="B470" s="2" t="n">
-        <v>45525.52393258587</v>
+        <v>45525.51943891877</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -12193,18 +12193,18 @@
         <v>2</v>
       </c>
       <c r="F470" t="n">
-        <v>32.2610183591</v>
+        <v>24.79778494</v>
       </c>
       <c r="G470" t="n">
-        <v>7834.7721309081</v>
+        <v>7833.619004467099</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45542.70668043667</v>
+        <v>45542.7104446731</v>
       </c>
       <c r="B471" s="2" t="n">
-        <v>45542.73075533842</v>
+        <v>45542.72930402425</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -12212,24 +12212,24 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E471" t="n">
         <v>5</v>
       </c>
       <c r="F471" t="n">
-        <v>34.6678585227</v>
+        <v>27.1574656431</v>
       </c>
       <c r="G471" t="n">
-        <v>24743.1569051538</v>
+        <v>24755.0482862351</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45546.60342823839</v>
+        <v>45546.60641177994</v>
       </c>
       <c r="B472" s="2" t="n">
-        <v>45546.62614371816</v>
+        <v>45546.62478558718</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -12243,18 +12243,18 @@
         <v>2</v>
       </c>
       <c r="F472" t="n">
-        <v>32.7102908608</v>
+        <v>26.4582824379</v>
       </c>
       <c r="G472" t="n">
-        <v>5576.6489759587</v>
+        <v>5583.035168195501</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45549.27378667884</v>
+        <v>45549.27510121268</v>
       </c>
       <c r="B473" s="2" t="n">
-        <v>45549.29048170353</v>
+        <v>45549.29171043905</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -12268,18 +12268,18 @@
         <v>5</v>
       </c>
       <c r="F473" t="n">
-        <v>24.0408355517</v>
+        <v>23.9172859661</v>
       </c>
       <c r="G473" t="n">
-        <v>3812.6058633767</v>
+        <v>3816.4545007219</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45552.81250427965</v>
+        <v>45552.8148102494</v>
       </c>
       <c r="B474" s="2" t="n">
-        <v>45552.83406014556</v>
+        <v>45552.83613169396</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -12293,10 +12293,10 @@
         <v>1</v>
       </c>
       <c r="F474" t="n">
-        <v>31.0404469076</v>
+        <v>30.7028801696</v>
       </c>
       <c r="G474" t="n">
-        <v>5071.7125096225</v>
+        <v>5073.2637268925</v>
       </c>
     </row>
     <row r="475">
@@ -12321,7 +12321,7 @@
         <v>6.483333333333333</v>
       </c>
       <c r="G475" t="n">
-        <v>1700.470057049633</v>
+        <v>1697.487027360333</v>
       </c>
     </row>
     <row r="476">
@@ -12351,10 +12351,10 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45559.27563958774</v>
+        <v>45559.27222064309</v>
       </c>
       <c r="B477" s="2" t="n">
-        <v>45559.29259582623</v>
+        <v>45559.2974394591</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -12368,18 +12368,18 @@
         <v>1</v>
       </c>
       <c r="F477" t="n">
-        <v>24.41698344231667</v>
+        <v>36.3150950614</v>
       </c>
       <c r="G477" t="n">
-        <v>7562.037673019199</v>
+        <v>7557.1143927205</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45565.27514262644</v>
+        <v>45565.27401731487</v>
       </c>
       <c r="B478" s="2" t="n">
-        <v>45565.29399022346</v>
+        <v>45565.29468615369</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -12393,18 +12393,18 @@
         <v>0</v>
       </c>
       <c r="F478" t="n">
-        <v>27.1405396977</v>
+        <v>29.7631279012</v>
       </c>
       <c r="G478" t="n">
-        <v>8614.867392302383</v>
+        <v>8606.272112311</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45576.021111909</v>
+        <v>45576.02663692308</v>
       </c>
       <c r="B479" s="2" t="n">
-        <v>45576.04807712028</v>
+        <v>45576.04725648974</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -12418,18 +12418,18 @@
         <v>4</v>
       </c>
       <c r="F479" t="n">
-        <v>38.8299042297</v>
+        <v>29.6921759856</v>
       </c>
       <c r="G479" t="n">
-        <v>15447.0552271806</v>
+        <v>15454.0091079182</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45578.43777296043</v>
+        <v>45578.43758351554</v>
       </c>
       <c r="B480" s="2" t="n">
-        <v>45578.45874841354</v>
+        <v>45578.46174743729</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -12443,18 +12443,18 @@
         <v>6</v>
       </c>
       <c r="F480" t="n">
-        <v>30.2046524832</v>
+        <v>34.796047322</v>
       </c>
       <c r="G480" t="n">
-        <v>3441.1620098171</v>
+        <v>3442.0709171596</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45581.45888070287</v>
+        <v>45581.46287622711</v>
       </c>
       <c r="B481" s="2" t="n">
-        <v>45581.48061091824</v>
+        <v>45581.48514327265</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -12468,18 +12468,18 @@
         <v>2</v>
       </c>
       <c r="F481" t="n">
-        <v>31.2915101465</v>
+        <v>32.0645455855</v>
       </c>
       <c r="G481" t="n">
-        <v>4320.1904966286</v>
+        <v>4321.625457323</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45582.16806194019</v>
+        <v>45582.17089965669</v>
       </c>
       <c r="B482" s="2" t="n">
-        <v>45582.19167012412</v>
+        <v>45582.18921415832</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -12493,18 +12493,18 @@
         <v>3</v>
       </c>
       <c r="F482" t="n">
-        <v>33.9957848673</v>
+        <v>26.3728823523</v>
       </c>
       <c r="G482" t="n">
-        <v>989.9294716016999</v>
+        <v>987.4891930171</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45585.43973250921</v>
+        <v>45585.44000295265</v>
       </c>
       <c r="B483" s="2" t="n">
-        <v>45585.46341051523</v>
+        <v>45585.46196551365</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -12518,18 +12518,18 @@
         <v>6</v>
       </c>
       <c r="F483" t="n">
-        <v>34.0963286663</v>
+        <v>31.6260878341</v>
       </c>
       <c r="G483" t="n">
-        <v>4677.2098345218</v>
+        <v>4681.135863841801</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45590.83668414717</v>
+        <v>45590.83681846775</v>
       </c>
       <c r="B484" s="2" t="n">
-        <v>45590.85663561585</v>
+        <v>45590.85470584763</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -12543,18 +12543,18 @@
         <v>4</v>
       </c>
       <c r="F484" t="n">
-        <v>28.7301149036</v>
+        <v>25.7578270129</v>
       </c>
       <c r="G484" t="n">
-        <v>7737.5140299894</v>
+        <v>7739.7882539165</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45592.81915720666</v>
+        <v>45592.81313146816</v>
       </c>
       <c r="B485" s="2" t="n">
-        <v>45592.83710311111</v>
+        <v>45592.83819072138</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -12568,10 +12568,10 @@
         <v>6</v>
       </c>
       <c r="F485" t="n">
-        <v>25.8421023939</v>
+        <v>36.085324628</v>
       </c>
       <c r="G485" t="n">
-        <v>2826.031090785</v>
+        <v>2820.1328935645</v>
       </c>
     </row>
     <row r="486">
@@ -12596,7 +12596,7 @@
         <v>3.016666666666667</v>
       </c>
       <c r="G486" t="n">
-        <v>11278.9048533237</v>
+        <v>11277.3386945448</v>
       </c>
     </row>
     <row r="487">

--- a/content/balanced_data_with_features.xlsx
+++ b/content/balanced_data_with_features.xlsx
@@ -501,10 +501,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43851.67547302219</v>
+        <v>43851.67562879137</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43851.69076690087</v>
+        <v>43851.69099127268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -518,10 +518,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>22.0231852927</v>
+        <v>22.1219730699</v>
       </c>
       <c r="G3" t="n">
-        <v>19564.1978186301</v>
+        <v>19564.4221262609</v>
       </c>
     </row>
     <row r="4">
@@ -546,15 +546,15 @@
         <v>9.016666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>9637.045662743865</v>
+        <v>9636.722567335868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43864.05721759169</v>
+        <v>43864.05365162359</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43864.07760616291</v>
+        <v>43864.07827821499</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>29.3595425628</v>
+        <v>35.4622916113</v>
       </c>
       <c r="G5" t="n">
-        <v>8161.6266653779</v>
+        <v>8156.4916713074</v>
       </c>
     </row>
     <row r="6">
@@ -596,7 +596,7 @@
         <v>2.366666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>3408.2637920593</v>
+        <v>3407.2960370813</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +676,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43878.33870564108</v>
+        <v>43878.34075589276</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43878.35865313109</v>
+        <v>43878.35714533722</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -693,18 +693,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>28.7243856157</v>
+        <v>23.6008000331</v>
       </c>
       <c r="G10" t="n">
-        <v>13200.5027898285</v>
+        <v>13203.455152239</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43884.94396923655</v>
+        <v>43884.94372543792</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43884.96364040364</v>
+        <v>43884.9655271298</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>28.3264806027</v>
+        <v>31.3944363228</v>
       </c>
       <c r="G11" t="n">
-        <v>9482.855191860901</v>
+        <v>9484.675345000102</v>
       </c>
     </row>
     <row r="12">
@@ -746,7 +746,7 @@
         <v>4.1</v>
       </c>
       <c r="G12" t="n">
-        <v>7059.974485425534</v>
+        <v>7057.257599738334</v>
       </c>
     </row>
     <row r="13">
@@ -776,10 +776,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43892.18621538079</v>
+        <v>43892.19161045385</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43892.20743532041</v>
+        <v>43892.21012335603</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>30.5567130495</v>
+        <v>26.65857914278333</v>
       </c>
       <c r="G14" t="n">
-        <v>3296.8334816814</v>
+        <v>3304.6023868887</v>
       </c>
     </row>
     <row r="15">
@@ -821,15 +821,15 @@
         <v>3.45</v>
       </c>
       <c r="G15" t="n">
-        <v>2819.026471935766</v>
+        <v>2815.155700635184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43896.19092436889</v>
+        <v>43896.18633356028</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43896.21008384856</v>
+        <v>43896.21068683163</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>27.5896507336</v>
+        <v>35.0687107602</v>
       </c>
       <c r="G16" t="n">
-        <v>2913.7477578705</v>
+        <v>2907.1369934693</v>
       </c>
     </row>
     <row r="17">
@@ -871,7 +871,7 @@
         <v>9.816666666666666</v>
       </c>
       <c r="G17" t="n">
-        <v>14723.74592472923</v>
+        <v>14722.87762910383</v>
       </c>
     </row>
     <row r="18">
@@ -901,10 +901,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43907.99765722594</v>
+        <v>43908.00134288635</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43908.02310390364</v>
+        <v>43908.0216978467</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -912,24 +912,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>36.6432158844</v>
+        <v>29.3111429271</v>
       </c>
       <c r="G19" t="n">
-        <v>2217.8930720177</v>
+        <v>2223.2004230052</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43910.16638677609</v>
+        <v>43910.1634974222</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43910.18561650119</v>
+        <v>43910.18995794307</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>27.6908041564</v>
+        <v>38.103150058</v>
       </c>
       <c r="G20" t="n">
-        <v>3086.3273363322</v>
+        <v>3084.1913887056</v>
       </c>
     </row>
     <row r="21">
@@ -971,7 +971,7 @@
         <v>4.45</v>
       </c>
       <c r="G21" t="n">
-        <v>6088.262238275967</v>
+        <v>6082.010561970767</v>
       </c>
     </row>
     <row r="22">
@@ -1076,10 +1076,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43929.70800582589</v>
+        <v>43929.71037635763</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43929.72875657328</v>
+        <v>43929.73042294285</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1087,24 +1087,24 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>29.881076248</v>
+        <v>28.8670827267</v>
       </c>
       <c r="G26" t="n">
-        <v>11040.5283892849</v>
+        <v>11043.9419549846</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43932.16332443068</v>
+        <v>43932.16448511927</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43932.19000843156</v>
+        <v>43932.18483407328</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1118,18 +1118,18 @@
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>38.4249612779</v>
+        <v>29.30249376518333</v>
       </c>
       <c r="G27" t="n">
-        <v>3505.7777146557</v>
+        <v>3505.049534044917</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43934.87300611558</v>
+        <v>43934.87408605183</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43934.89557959011</v>
+        <v>43934.89403230525</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1143,18 +1143,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>32.5058033305</v>
+        <v>28.7226049309</v>
       </c>
       <c r="G28" t="n">
-        <v>3863.5166649833</v>
+        <v>3872.5228491283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43935.0385415181</v>
+        <v>43935.03839898775</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43935.06068200597</v>
+        <v>43935.06312371237</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1168,18 +1168,18 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>31.8823025269</v>
+        <v>35.6036034497</v>
       </c>
       <c r="G29" t="n">
-        <v>205.8651762984</v>
+        <v>207.8880227875</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43937.87719733588</v>
+        <v>43937.87702400038</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43937.89350970051</v>
+        <v>43937.89176717346</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>23.4898050552</v>
+        <v>21.2301692334</v>
       </c>
       <c r="G30" t="n">
-        <v>4055.7820750769</v>
+        <v>4052.0164147416</v>
       </c>
     </row>
     <row r="31">
@@ -1221,7 +1221,7 @@
         <v>3.416666666666667</v>
       </c>
       <c r="G31" t="n">
-        <v>18899.56269792897</v>
+        <v>18902.07193687387</v>
       </c>
     </row>
     <row r="32">
@@ -1351,10 +1351,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43967.0788920265</v>
+        <v>43967.07279239287</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43967.09498321227</v>
+        <v>43967.09462367933</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1368,18 +1368,18 @@
         <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>23.171307507</v>
+        <v>31.4370525007</v>
       </c>
       <c r="G37" t="n">
-        <v>11404.5045181755</v>
+        <v>11395.7210457419</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43970.59590709723</v>
+        <v>43970.59505809916</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43970.62038167984</v>
+        <v>43970.61647267197</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>35.243398939</v>
+        <v>30.8369848462</v>
       </c>
       <c r="G38" t="n">
-        <v>5041.330394348301</v>
+        <v>5040.6255645478</v>
       </c>
     </row>
     <row r="39">
@@ -1421,15 +1421,15 @@
         <v>5.183333333333334</v>
       </c>
       <c r="G39" t="n">
-        <v>6079.233714363533</v>
+        <v>6084.862685696733</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43975.24307551364</v>
+        <v>43975.24456320606</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43975.26429342284</v>
+        <v>43975.26028799383</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1443,18 +1443,18 @@
         <v>6</v>
       </c>
       <c r="F40" t="n">
-        <v>30.5537892425</v>
+        <v>22.6436943721</v>
       </c>
       <c r="G40" t="n">
-        <v>572.2620729744</v>
+        <v>574.4043500792</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43979.84779584945</v>
+        <v>43979.84705714971</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43979.86948286813</v>
+        <v>43979.86602340999</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1468,18 +1468,18 @@
         <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>31.229306909</v>
+        <v>27.3114148024</v>
       </c>
       <c r="G41" t="n">
-        <v>6600.2434943191</v>
+        <v>6604.947584466199</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43984.86838890481</v>
+        <v>43984.86385800537</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43984.88974235592</v>
+        <v>43984.89008353179</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1493,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>30.7489695764</v>
+        <v>37.7647580456</v>
       </c>
       <c r="G42" t="n">
-        <v>7198.4246928298</v>
+        <v>7196.8818173622</v>
       </c>
     </row>
     <row r="43">
@@ -1521,7 +1521,7 @@
         <v>3.283333333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>4023.804340815467</v>
+        <v>4023.313047538967</v>
       </c>
     </row>
     <row r="44">
@@ -1551,10 +1551,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43993.21230064464</v>
+        <v>43993.21545846014</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43993.2312678353</v>
+        <v>43993.23222219859</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1568,18 +1568,18 @@
         <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>27.3127545527</v>
+        <v>24.1397833537</v>
       </c>
       <c r="G45" t="n">
-        <v>4589.6962616297</v>
+        <v>4594.2435159486</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43994.18898254905</v>
+        <v>43994.19042180113</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43994.21300958669</v>
+        <v>43994.21166469668</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1593,10 +1593,10 @@
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>34.5989341892</v>
+        <v>30.5897695951</v>
       </c>
       <c r="G46" t="n">
-        <v>1379.1091877963</v>
+        <v>1379.8074276577</v>
       </c>
     </row>
     <row r="47">
@@ -1621,7 +1621,7 @@
         <v>3.9</v>
       </c>
       <c r="G47" t="n">
-        <v>40358.2328618321</v>
+        <v>40360.1695034449</v>
       </c>
     </row>
     <row r="48">
@@ -1676,10 +1676,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44031.61868259779</v>
+        <v>44031.61269687164</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44031.64015825579</v>
+        <v>44031.63485347414</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1693,18 +1693,18 @@
         <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>30.9249475132</v>
+        <v>31.9055075888</v>
       </c>
       <c r="G50" t="n">
-        <v>13443.8862741635</v>
+        <v>13435.2668285112</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44038.01423531486</v>
+        <v>44038.0133824023</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44038.03306219484</v>
+        <v>44038.03070418916</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1718,18 +1718,18 @@
         <v>6</v>
       </c>
       <c r="F51" t="n">
-        <v>27.1107071541</v>
+        <v>24.9433730845</v>
       </c>
       <c r="G51" t="n">
-        <v>9178.6709650704</v>
+        <v>9185.081656552</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44048.36565069241</v>
+        <v>44048.36434078274</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44048.38947077038</v>
+        <v>44048.38423473317</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1743,18 +1743,18 @@
         <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>34.3009122807</v>
+        <v>28.6472886045</v>
       </c>
       <c r="G52" t="n">
-        <v>14878.9274365135</v>
+        <v>14880.4366947626</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44050.55359353567</v>
+        <v>44050.55398930617</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44050.57495004462</v>
+        <v>44050.5738146614</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1768,18 +1768,18 @@
         <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>30.7533728799</v>
+        <v>28.5485115258</v>
       </c>
       <c r="G53" t="n">
-        <v>3116.3367820184</v>
+        <v>3124.4465851275</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44051.7404414508</v>
+        <v>44051.74161588628</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44051.76426150692</v>
+        <v>44051.76434666992</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>34.3008808292</v>
+        <v>32.7323284347</v>
       </c>
       <c r="G54" t="n">
-        <v>1678.3076248902</v>
+        <v>1681.6337638412</v>
       </c>
     </row>
     <row r="55">
@@ -1821,7 +1821,7 @@
         <v>3.55</v>
       </c>
       <c r="G55" t="n">
-        <v>3253.396763353567</v>
+        <v>3253.274128633866</v>
       </c>
     </row>
     <row r="56">
@@ -2176,10 +2176,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44060.65411919829</v>
+        <v>44060.64894406219</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44060.67485068629</v>
+        <v>44060.66928272147</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2193,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>29.8533427164</v>
+        <v>29.2876693648</v>
       </c>
       <c r="G70" t="n">
-        <v>1233.448312208</v>
+        <v>1225.9961162236</v>
       </c>
     </row>
     <row r="71">
@@ -2221,15 +2221,15 @@
         <v>6.8</v>
       </c>
       <c r="G71" t="n">
-        <v>830.0650117422666</v>
+        <v>838.0828810782666</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44061.36130392676</v>
+        <v>44061.35981406386</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44061.38428398435</v>
+        <v>44061.37987642887</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2243,10 +2243,10 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>33.0912829356</v>
+        <v>28.8898055913</v>
       </c>
       <c r="G72" t="n">
-        <v>151.6276545454</v>
+        <v>149.4822519769</v>
       </c>
     </row>
     <row r="73">
@@ -2271,7 +2271,7 @@
         <v>3.433333333333333</v>
       </c>
       <c r="G73" t="n">
-        <v>16300.59772918567</v>
+        <v>16306.94460909847</v>
       </c>
     </row>
     <row r="74">
@@ -2476,10 +2476,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44090.31932972284</v>
+        <v>44090.32004555874</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44090.339811167</v>
+        <v>44090.34179226258</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2493,18 +2493,18 @@
         <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>29.4932796006</v>
+        <v>31.3152535297</v>
       </c>
       <c r="G82" t="n">
-        <v>2312.1681342219</v>
+        <v>2313.1989379241</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44090.91894276672</v>
+        <v>44090.9207987653</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44090.94015815395</v>
+        <v>44090.94330892678</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2518,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>30.5501576193</v>
+        <v>32.41463252320001</v>
       </c>
       <c r="G83" t="n">
-        <v>833.9495035839999</v>
+        <v>833.7693639234</v>
       </c>
     </row>
     <row r="84">
@@ -2546,15 +2546,15 @@
         <v>4.533333333333333</v>
       </c>
       <c r="G84" t="n">
-        <v>640.4055916408666</v>
+        <v>635.8684787662667</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44094.18218371143</v>
+        <v>44094.17656728606</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44094.19821043407</v>
+        <v>44094.2019085449</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2568,10 +2568,10 @@
         <v>6</v>
       </c>
       <c r="F85" t="n">
-        <v>23.0784805996</v>
+        <v>36.4914127107</v>
       </c>
       <c r="G85" t="n">
-        <v>4023.5778778103</v>
+        <v>4015.4902252743</v>
       </c>
     </row>
     <row r="86">
@@ -2596,7 +2596,7 @@
         <v>3.016666666666667</v>
       </c>
       <c r="G86" t="n">
-        <v>6823.1436415901</v>
+        <v>6817.818362014999</v>
       </c>
     </row>
     <row r="87">
@@ -2776,10 +2776,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44143.27469321928</v>
+        <v>44143.2794746155</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44143.30086221312</v>
+        <v>44143.30046021246</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2793,18 +2793,18 @@
         <v>6</v>
       </c>
       <c r="F94" t="n">
-        <v>37.6833511429</v>
+        <v>30.2192596098</v>
       </c>
       <c r="G94" t="n">
-        <v>26005.0749024355</v>
+        <v>26011.9601129974</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44147.65627121257</v>
+        <v>44147.65201229542</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44147.67245970413</v>
+        <v>44147.6770548025</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2818,18 +2818,18 @@
         <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>23.3114278409</v>
+        <v>36.0612102007</v>
       </c>
       <c r="G95" t="n">
-        <v>6271.7889592033</v>
+        <v>6266.2349994598</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44164.2976807868</v>
+        <v>44164.30147487562</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44164.316479134</v>
+        <v>44164.31759733518</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2843,18 +2843,18 @@
         <v>6</v>
       </c>
       <c r="F96" t="n">
-        <v>27.0696199658</v>
+        <v>23.2163417505</v>
       </c>
       <c r="G96" t="n">
-        <v>23940.3183590603</v>
+        <v>23939.164905312</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44164.54645705297</v>
+        <v>44164.55137739253</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44164.56867110937</v>
+        <v>44164.56692774329</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2868,18 +2868,18 @@
         <v>6</v>
       </c>
       <c r="F97" t="n">
-        <v>31.9882412249</v>
+        <v>22.3925050792</v>
       </c>
       <c r="G97" t="n">
-        <v>331.1682032952</v>
+        <v>336.6432826027</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44173.48512024128</v>
+        <v>44173.48408125446</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44173.51074816934</v>
+        <v>44173.50472105882</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2893,18 +2893,18 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>36.9042164131</v>
+        <v>29.7213182818</v>
       </c>
       <c r="G98" t="n">
-        <v>12839.6867499459</v>
+        <v>12840.7010560783</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44173.6339163783</v>
+        <v>44173.63263395886</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44173.65227493468</v>
+        <v>44173.65583639537</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2918,18 +2918,18 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>26.4363212007</v>
+        <v>33.4115085603</v>
       </c>
       <c r="G99" t="n">
-        <v>177.3622208921</v>
+        <v>184.1945760765</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44177.29856251868</v>
+        <v>44177.30196099582</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44177.32257833451</v>
+        <v>44177.31664982643</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2943,18 +2943,18 @@
         <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>34.5827748068</v>
+        <v>21.1519160537</v>
       </c>
       <c r="G100" t="n">
-        <v>5250.6541209519</v>
+        <v>5250.4194246542</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44178.44500146468</v>
+        <v>44178.44552201976</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44178.46496589794</v>
+        <v>44178.46435982706</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2968,10 +2968,10 @@
         <v>6</v>
       </c>
       <c r="F101" t="n">
-        <v>28.7487839089</v>
+        <v>27.1264425227</v>
       </c>
       <c r="G101" t="n">
-        <v>1616.2893074234</v>
+        <v>1625.5759584012</v>
       </c>
     </row>
     <row r="102">
@@ -2996,7 +2996,7 @@
         <v>2.716666666666667</v>
       </c>
       <c r="G102" t="n">
-        <v>5593.349106955066</v>
+        <v>5594.221849025867</v>
       </c>
     </row>
     <row r="103">
@@ -3076,10 +3076,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44190.25081319411</v>
+        <v>44190.24996020726</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44190.27204273177</v>
+        <v>44190.27130275476</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3087,24 +3087,24 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E106" t="n">
         <v>4</v>
       </c>
       <c r="F106" t="n">
-        <v>30.5705342313</v>
+        <v>30.7332683914</v>
       </c>
       <c r="G106" t="n">
-        <v>424.3709995331</v>
+        <v>423.1426984654</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44201.41745927079</v>
+        <v>44201.41229848476</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44201.43448221497</v>
+        <v>44201.43282716698</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>24.5130396126</v>
+        <v>29.5613023988</v>
       </c>
       <c r="G107" t="n">
-        <v>16049.3998161835</v>
+        <v>16043.0338512012</v>
       </c>
     </row>
     <row r="108">
@@ -3146,7 +3146,7 @@
         <v>4.416666666666667</v>
       </c>
       <c r="G108" t="n">
-        <v>1884.1456104395</v>
+        <v>1886.5288795432</v>
       </c>
     </row>
     <row r="109">
@@ -3176,10 +3176,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44209.18262099875</v>
+        <v>44209.18375898919</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44209.20287107546</v>
+        <v>44209.19998113895</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3193,18 +3193,18 @@
         <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>29.16011046888333</v>
+        <v>23.3598956444</v>
       </c>
       <c r="G110" t="n">
-        <v>8013.3409048782</v>
+        <v>8014.9796111144</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44216.40979573486</v>
+        <v>44216.40829343971</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44216.42997980196</v>
+        <v>44216.4325092518</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3218,18 +3218,18 @@
         <v>2</v>
       </c>
       <c r="F111" t="n">
-        <v>29.0650566219</v>
+        <v>34.8707693901</v>
       </c>
       <c r="G111" t="n">
-        <v>10377.97150952092</v>
+        <v>10379.9697131039</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44220.84485533368</v>
+        <v>44220.85040563584</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44220.86921883778</v>
+        <v>44220.86723376482</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3243,18 +3243,18 @@
         <v>6</v>
       </c>
       <c r="F112" t="n">
-        <v>35.0834459005</v>
+        <v>24.2325057111</v>
       </c>
       <c r="G112" t="n">
-        <v>6357.4207656908</v>
+        <v>6361.7707930417</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44221.38974560156</v>
+        <v>44221.39069015604</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44221.40978566627</v>
+        <v>44221.41038230219</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>28.8576931787</v>
+        <v>28.3566904452</v>
       </c>
       <c r="G113" t="n">
-        <v>749.5585398448001</v>
+        <v>753.7772033746</v>
       </c>
     </row>
     <row r="114">
@@ -3296,7 +3296,7 @@
         <v>2.733333333333333</v>
       </c>
       <c r="G114" t="n">
-        <v>20302.8419738953</v>
+        <v>20301.9828181746</v>
       </c>
     </row>
     <row r="115">
@@ -3351,10 +3351,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44246.46771542884</v>
+        <v>44246.46954750393</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44246.49233950373</v>
+        <v>44246.4875273165</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3368,18 +3368,18 @@
         <v>4</v>
       </c>
       <c r="F117" t="n">
-        <v>35.4586678388</v>
+        <v>25.8909301008</v>
       </c>
       <c r="G117" t="n">
-        <v>14818.476884205</v>
+        <v>14821.115072349</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44250.71841022675</v>
+        <v>44250.71857105893</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44250.73979346265</v>
+        <v>44250.73947363419</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3393,10 +3393,10 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>30.7918596987</v>
+        <v>30.0997083727</v>
       </c>
       <c r="G118" t="n">
-        <v>6085.5418411448</v>
+        <v>6092.7029890873</v>
       </c>
     </row>
     <row r="119">
@@ -3421,15 +3421,15 @@
         <v>3.233333333333333</v>
       </c>
       <c r="G119" t="n">
-        <v>143.6807471127</v>
+        <v>144.1413000902</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44254.38415984177</v>
+        <v>44254.38014584109</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44254.40373005721</v>
+        <v>44254.4039736477</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3443,18 +3443,18 @@
         <v>5</v>
       </c>
       <c r="F120" t="n">
-        <v>28.1811102336</v>
+        <v>34.312041513</v>
       </c>
       <c r="G120" t="n">
-        <v>5100.9735054978</v>
+        <v>5095.1933445038</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44260.17590892412</v>
+        <v>44260.17292234963</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44260.19572305095</v>
+        <v>44260.1990984672</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3468,18 +3468,18 @@
         <v>4</v>
       </c>
       <c r="F121" t="n">
-        <v>28.5323426341</v>
+        <v>37.6936093045</v>
       </c>
       <c r="G121" t="n">
-        <v>8311.9375683452</v>
+        <v>8307.286130791999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44260.3833284808</v>
+        <v>44260.38427482996</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44260.40117079911</v>
+        <v>44260.40597895073</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3493,18 +3493,18 @@
         <v>4</v>
       </c>
       <c r="F122" t="n">
-        <v>25.6929383685</v>
+        <v>31.2539338993</v>
       </c>
       <c r="G122" t="n">
-        <v>270.1518189737</v>
+        <v>266.6539623866</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44263.90732133314</v>
+        <v>44263.90647824282</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44263.92426215793</v>
+        <v>44263.92393023384</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3518,18 +3518,18 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>24.3947877084</v>
+        <v>25.1308670702</v>
       </c>
       <c r="G123" t="n">
-        <v>5048.8567690008</v>
+        <v>5040.7189806138</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44266.2593956795</v>
+        <v>44266.25654854248</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44266.28060084488</v>
+        <v>44266.28252779056</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3543,18 +3543,18 @@
         <v>3</v>
       </c>
       <c r="F124" t="n">
-        <v>30.5354381437</v>
+        <v>37.4101172483</v>
       </c>
       <c r="G124" t="n">
-        <v>3362.5922710625</v>
+        <v>3358.9703644308</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44267.59518357767</v>
+        <v>44267.58845916313</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44267.61463681028</v>
+        <v>44267.61447351894</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3568,18 +3568,18 @@
         <v>4</v>
       </c>
       <c r="F125" t="n">
-        <v>28.0126549664</v>
+        <v>37.4606723529</v>
       </c>
       <c r="G125" t="n">
-        <v>1892.9991352082</v>
+        <v>1880.5411764977</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44268.57012917968</v>
+        <v>44268.57034553206</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44268.58947793958</v>
+        <v>44268.58865048223</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3593,10 +3593,10 @@
         <v>5</v>
       </c>
       <c r="F126" t="n">
-        <v>27.8622142752</v>
+        <v>26.3591282551</v>
       </c>
       <c r="G126" t="n">
-        <v>1375.9090119254</v>
+        <v>1376.4556988889</v>
       </c>
     </row>
     <row r="127">
@@ -3621,15 +3621,15 @@
         <v>2.15</v>
       </c>
       <c r="G127" t="n">
-        <v>2690.951766989833</v>
+        <v>2692.143305576433</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44277.81355001462</v>
+        <v>44277.8166819188</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44277.83571975408</v>
+        <v>44277.83385055177</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3643,10 +3643,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>31.9244248199</v>
+        <v>24.722831477</v>
       </c>
       <c r="G128" t="n">
-        <v>10589.5620210622</v>
+        <v>10594.0719630859</v>
       </c>
     </row>
     <row r="129">
@@ -3671,7 +3671,7 @@
         <v>3.083333333333333</v>
       </c>
       <c r="G129" t="n">
-        <v>729.9802207845667</v>
+        <v>732.6718721037666</v>
       </c>
     </row>
     <row r="130">
@@ -3701,10 +3701,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44284.45075704155</v>
+        <v>44284.45680846491</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44284.47657489314</v>
+        <v>44284.47685990023</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3718,18 +3718,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>37.177706298</v>
+        <v>28.8740668744</v>
       </c>
       <c r="G131" t="n">
-        <v>8246.1901398351</v>
+        <v>8254.9041894691</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44289.84843284988</v>
+        <v>44289.85199582041</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44289.87045939436</v>
+        <v>44289.86828375365</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3743,18 +3743,18 @@
         <v>5</v>
       </c>
       <c r="F132" t="n">
-        <v>31.718224058</v>
+        <v>23.45462389</v>
       </c>
       <c r="G132" t="n">
-        <v>7735.4754577013</v>
+        <v>7740.195725041001</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44291.28821589552</v>
+        <v>44291.28872685126</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44291.30600905351</v>
+        <v>44291.31036466562</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3768,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>25.6221475048</v>
+        <v>31.1584526709</v>
       </c>
       <c r="G133" t="n">
-        <v>2041.5693616662</v>
+        <v>2045.4380605476</v>
       </c>
     </row>
     <row r="134">
@@ -3796,7 +3796,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="G134" t="n">
-        <v>1151.330296269933</v>
+        <v>1145.058214840333</v>
       </c>
     </row>
     <row r="135">
@@ -3826,10 +3826,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44303.02663458499</v>
+        <v>44303.02574334013</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44303.04680125978</v>
+        <v>44303.04838055585</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3843,10 +3843,10 @@
         <v>5</v>
       </c>
       <c r="F136" t="n">
-        <v>29.0400116995</v>
+        <v>32.5975906392</v>
       </c>
       <c r="G136" t="n">
-        <v>15720.0038023991</v>
+        <v>15718.7204097921</v>
       </c>
     </row>
     <row r="137">
@@ -3871,15 +3871,15 @@
         <v>2.083333333333333</v>
       </c>
       <c r="G137" t="n">
-        <v>5213.289519234733</v>
+        <v>5211.015332902034</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44310.71283707125</v>
+        <v>44310.70789304187</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44310.73117858192</v>
+        <v>44310.72806111564</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
       </c>
       <c r="F138" t="n">
-        <v>26.4117753589</v>
+        <v>29.0420262247</v>
       </c>
       <c r="G138" t="n">
-        <v>5823.718715942699</v>
+        <v>5816.5993136395</v>
       </c>
     </row>
     <row r="139">
@@ -3921,7 +3921,7 @@
         <v>6.383333333333334</v>
       </c>
       <c r="G139" t="n">
-        <v>8386.202842031733</v>
+        <v>8390.691993469134</v>
       </c>
     </row>
     <row r="140">
@@ -3951,10 +3951,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44317.40541926504</v>
+        <v>44317.40442340023</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44317.4198832054</v>
+        <v>44317.42598584969</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3968,18 +3968,18 @@
         <v>5</v>
       </c>
       <c r="F141" t="n">
-        <v>20.8280741141</v>
+        <v>31.0499272207</v>
       </c>
       <c r="G141" t="n">
-        <v>874.9870749956001</v>
+        <v>873.5530296755001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44321.46773292552</v>
+        <v>44321.46449041207</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44321.48659780978</v>
+        <v>44321.48656751408</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3993,18 +3993,18 @@
         <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>27.1654333446</v>
+        <v>31.7910269038</v>
       </c>
       <c r="G142" t="n">
-        <v>5828.9035969785</v>
+        <v>5815.4465698242</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44325.38209778757</v>
+        <v>44325.3829711704</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44325.40139268385</v>
+        <v>44325.4043966292</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4018,18 +4018,18 @@
         <v>6</v>
       </c>
       <c r="F143" t="n">
-        <v>27.7846506371</v>
+        <v>30.8526606692</v>
       </c>
       <c r="G143" t="n">
-        <v>5609.519968003099</v>
+        <v>5610.8212650975</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44325.8602286965</v>
+        <v>44325.86137903886</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44325.88274765784</v>
+        <v>44325.88237984732</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4043,10 +4043,10 @@
         <v>6</v>
       </c>
       <c r="F144" t="n">
-        <v>32.42730435169999</v>
+        <v>30.2411641567</v>
       </c>
       <c r="G144" t="n">
-        <v>660.7238582143</v>
+        <v>658.0546699193</v>
       </c>
     </row>
     <row r="145">
@@ -4071,15 +4071,15 @@
         <v>2.983333333333333</v>
       </c>
       <c r="G145" t="n">
-        <v>2003.826706027667</v>
+        <v>2004.356353199767</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44340.09092658616</v>
+        <v>44340.088191933</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44340.10875889846</v>
+        <v>44340.10688353438</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4093,18 +4093,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>25.6785297082</v>
+        <v>26.9159059757</v>
       </c>
       <c r="G146" t="n">
-        <v>18452.9676174117</v>
+        <v>18449.0297168595</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44342.46221964486</v>
+        <v>44342.46156469736</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44342.48578339238</v>
+        <v>44342.48808575381</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4118,10 +4118,10 @@
         <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>33.9317964216</v>
+        <v>38.1903212777</v>
       </c>
       <c r="G147" t="n">
-        <v>3388.983474827</v>
+        <v>3390.7408747062</v>
       </c>
     </row>
     <row r="148">
@@ -4146,15 +4146,15 @@
         <v>6.466666666666667</v>
       </c>
       <c r="G148" t="n">
-        <v>9764.021914964833</v>
+        <v>9760.706514514233</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44350.37628036993</v>
+        <v>44350.37180955329</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44350.3931509012</v>
+        <v>44350.39341299024</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4162,16 +4162,16 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E149" t="n">
         <v>3</v>
       </c>
       <c r="F149" t="n">
-        <v>24.2935650376</v>
+        <v>31.1089492224</v>
       </c>
       <c r="G149" t="n">
-        <v>1591.8270660364</v>
+        <v>1585.3890900671</v>
       </c>
     </row>
     <row r="150">
@@ -4196,7 +4196,7 @@
         <v>2.35</v>
       </c>
       <c r="G150" t="n">
-        <v>1484.396035592667</v>
+        <v>1484.018627377166</v>
       </c>
     </row>
     <row r="151">
@@ -4301,10 +4301,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44361.09972421997</v>
+        <v>44361.10008155757</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44361.11726553832</v>
+        <v>44361.11970080722</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>25.2594984118</v>
+        <v>28.2517194972</v>
       </c>
       <c r="G155" t="n">
-        <v>3871.7362101101</v>
+        <v>3872.2507762415</v>
       </c>
     </row>
     <row r="156">
@@ -4346,7 +4346,7 @@
         <v>3.416666666666667</v>
       </c>
       <c r="G156" t="n">
-        <v>477.3709581447666</v>
+        <v>473.8641709279667</v>
       </c>
     </row>
     <row r="157">
@@ -4451,10 +4451,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44392.11044117058</v>
+        <v>44392.11195675913</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>44392.13094452882</v>
+        <v>44392.13345334594</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4468,18 +4468,18 @@
         <v>3</v>
       </c>
       <c r="F161" t="n">
-        <v>29.5248358683</v>
+        <v>30.9550850069</v>
       </c>
       <c r="G161" t="n">
-        <v>9956.0519523127</v>
+        <v>9958.234399821</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44392.44938479757</v>
+        <v>44392.44397271481</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>44392.46414323135</v>
+        <v>44392.46496080016</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4493,18 +4493,18 @@
         <v>3</v>
       </c>
       <c r="F162" t="n">
-        <v>21.2521446364</v>
+        <v>30.22284291</v>
       </c>
       <c r="G162" t="n">
-        <v>458.5539869998</v>
+        <v>447.1478911724</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44394.57400320668</v>
+        <v>44394.57200550978</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>44394.59479411814</v>
+        <v>44394.59329639983</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4518,10 +4518,10 @@
         <v>5</v>
       </c>
       <c r="F163" t="n">
-        <v>29.9389125103</v>
+        <v>30.6588816737</v>
       </c>
       <c r="G163" t="n">
-        <v>3038.198364467</v>
+        <v>3034.1443818478</v>
       </c>
     </row>
     <row r="164">
@@ -4546,7 +4546,7 @@
         <v>2.833333333333333</v>
       </c>
       <c r="G164" t="n">
-        <v>2664.263136538833</v>
+        <v>2666.419850901533</v>
       </c>
     </row>
     <row r="165">
@@ -4576,10 +4576,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44397.99291075463</v>
+        <v>44397.98932282167</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44398.01538225872</v>
+        <v>44398.0109628322</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4593,18 +4593,18 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>32.3589658894</v>
+        <v>31.1616151593</v>
       </c>
       <c r="G166" t="n">
-        <v>422.4081533355</v>
+        <v>417.2415298758</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44399.80450393452</v>
+        <v>44399.80706359854</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44399.82419472603</v>
+        <v>44399.82258352698</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4618,10 +4618,10 @@
         <v>3</v>
       </c>
       <c r="F167" t="n">
-        <v>28.35473978501667</v>
+        <v>22.348696937</v>
       </c>
       <c r="G167" t="n">
-        <v>2576.3352131539</v>
+        <v>2586.3851035468</v>
       </c>
     </row>
     <row r="168">
@@ -4646,7 +4646,7 @@
         <v>4.966666666666667</v>
       </c>
       <c r="G168" t="n">
-        <v>11549.55959450285</v>
+        <v>11551.87972114777</v>
       </c>
     </row>
     <row r="169">
@@ -4726,10 +4726,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44420.41266507068</v>
+        <v>44420.41055199176</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>44420.43776195878</v>
+        <v>44420.43466230825</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4743,10 +4743,10 @@
         <v>3</v>
       </c>
       <c r="F172" t="n">
-        <v>36.1395188514</v>
+        <v>34.71885575220001</v>
       </c>
       <c r="G172" t="n">
-        <v>17128.7043684663</v>
+        <v>17125.6615348025</v>
       </c>
     </row>
     <row r="173">
@@ -4771,7 +4771,7 @@
         <v>3.383333333333333</v>
       </c>
       <c r="G173" t="n">
-        <v>4489.522779348967</v>
+        <v>4493.986276111967</v>
       </c>
     </row>
     <row r="174">
@@ -4876,10 +4876,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44432.23472549586</v>
+        <v>44432.23048007063</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>44432.25123384039</v>
+        <v>44432.25619616693</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4893,18 +4893,18 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>23.7720161294</v>
+        <v>37.0311786848</v>
       </c>
       <c r="G178" t="n">
-        <v>2042.2547140395</v>
+        <v>2036.1413017149</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44433.31779329196</v>
+        <v>44433.31906483586</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>44433.33510599127</v>
+        <v>44433.33804858366</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4918,18 +4918,18 @@
         <v>2</v>
       </c>
       <c r="F179" t="n">
-        <v>24.9302870097</v>
+        <v>27.3365968222</v>
       </c>
       <c r="G179" t="n">
-        <v>1535.8456102558</v>
+        <v>1530.5308832553</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44437.54527409523</v>
+        <v>44437.5436427075</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>44437.56738840882</v>
+        <v>44437.56302599284</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4943,18 +4943,18 @@
         <v>6</v>
       </c>
       <c r="F180" t="n">
-        <v>31.8446115781</v>
+        <v>27.9119308704</v>
       </c>
       <c r="G180" t="n">
-        <v>6062.6420697039</v>
+        <v>6056.0555383392</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44444.23149490423</v>
+        <v>44444.23038957792</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>44444.25628687851</v>
+        <v>44444.25338893427</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4968,10 +4968,10 @@
         <v>6</v>
       </c>
       <c r="F181" t="n">
-        <v>35.700442946</v>
+        <v>33.1190731523</v>
       </c>
       <c r="G181" t="n">
-        <v>9596.313353394899</v>
+        <v>9601.0035625209</v>
       </c>
     </row>
     <row r="182">
@@ -4996,15 +4996,15 @@
         <v>4.2</v>
       </c>
       <c r="G182" t="n">
-        <v>2951.413561609367</v>
+        <v>2955.586601306667</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44446.74891585826</v>
+        <v>44446.74674188024</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>44446.76670966867</v>
+        <v>44446.76892229717</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>25.6230869829</v>
+        <v>31.9398003753</v>
       </c>
       <c r="G183" t="n">
-        <v>633.7721692344001</v>
+        <v>630.6416408866</v>
       </c>
     </row>
     <row r="184">
@@ -5046,7 +5046,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G184" t="n">
-        <v>873.6880771160334</v>
+        <v>870.5018920714333</v>
       </c>
     </row>
     <row r="185">
@@ -5126,10 +5126,10 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44461.80272813037</v>
+        <v>44461.80309565119</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>44461.82391998507</v>
+        <v>44461.81758185845</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5143,18 +5143,18 @@
         <v>2</v>
       </c>
       <c r="F188" t="n">
-        <v>30.5162707616</v>
+        <v>20.8601384471</v>
       </c>
       <c r="G188" t="n">
-        <v>11163.661841081</v>
+        <v>11164.1910710619</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44463.92528122639</v>
+        <v>44463.92274706947</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>44463.94654308132</v>
+        <v>44463.94742173032</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5168,10 +5168,10 @@
         <v>4</v>
       </c>
       <c r="F189" t="n">
-        <v>30.6170710985</v>
+        <v>35.5315116263</v>
       </c>
       <c r="G189" t="n">
-        <v>3025.960187501</v>
+        <v>3031.4379038713</v>
       </c>
     </row>
     <row r="190">
@@ -5196,7 +5196,7 @@
         <v>5.5</v>
       </c>
       <c r="G190" t="n">
-        <v>18721.2946295579</v>
+        <v>18720.0293749934</v>
       </c>
     </row>
     <row r="191">
@@ -5351,10 +5351,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44492.72335726403</v>
+        <v>44492.72157656223</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>44492.74258697925</v>
+        <v>44492.74375155539</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5368,18 +5368,18 @@
         <v>5</v>
       </c>
       <c r="F197" t="n">
-        <v>27.69078991501667</v>
+        <v>31.9319901496</v>
       </c>
       <c r="G197" t="n">
-        <v>12931.26779353578</v>
+        <v>12928.7035829511</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44503.41340810429</v>
+        <v>44503.41097500542</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>44503.43002453158</v>
+        <v>44503.43100258902</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5393,10 +5393,10 @@
         <v>2</v>
       </c>
       <c r="F198" t="n">
-        <v>23.9276553018</v>
+        <v>28.8397203899</v>
       </c>
       <c r="G198" t="n">
-        <v>15365.9824200704</v>
+        <v>15360.8017680383</v>
       </c>
     </row>
     <row r="199">
@@ -5421,7 +5421,7 @@
         <v>4.266666666666667</v>
       </c>
       <c r="G199" t="n">
-        <v>31451.09800784367</v>
+        <v>31449.68960513777</v>
       </c>
     </row>
     <row r="200">
@@ -5451,10 +5451,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44531.29894594331</v>
+        <v>44531.2985685519</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>44531.31765708609</v>
+        <v>44531.31743373609</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5468,10 +5468,10 @@
         <v>2</v>
       </c>
       <c r="F201" t="n">
-        <v>26.9440455911</v>
+        <v>27.1658652351</v>
       </c>
       <c r="G201" t="n">
-        <v>8668.998825049301</v>
+        <v>8668.455381409</v>
       </c>
     </row>
     <row r="202">
@@ -5496,7 +5496,7 @@
         <v>7.05</v>
       </c>
       <c r="G202" t="n">
-        <v>2820.2571293596</v>
+        <v>2820.5787533559</v>
       </c>
     </row>
     <row r="203">
@@ -5551,10 +5551,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44538.90399263987</v>
+        <v>44538.90357345471</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>44538.92140458707</v>
+        <v>44538.92075096411</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5568,18 +5568,18 @@
         <v>2</v>
       </c>
       <c r="F205" t="n">
-        <v>25.0732039645</v>
+        <v>24.7356135342</v>
       </c>
       <c r="G205" t="n">
-        <v>2013.4827347563</v>
+        <v>2012.8791081252</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44541.15193672237</v>
+        <v>44541.15501740773</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>44541.17587614703</v>
+        <v>44541.17360401245</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5593,10 +5593,10 @@
         <v>5</v>
       </c>
       <c r="F206" t="n">
-        <v>34.4727715041</v>
+        <v>26.7647107938</v>
       </c>
       <c r="G206" t="n">
-        <v>3211.9662748454</v>
+        <v>3217.3436788207</v>
       </c>
     </row>
     <row r="207">
@@ -5621,15 +5621,15 @@
         <v>7.033333333333333</v>
       </c>
       <c r="G207" t="n">
-        <v>6023.805014929701</v>
+        <v>6027.076888726099</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44547.90514835935</v>
+        <v>44547.9070197094</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>44547.92747950181</v>
+        <v>44547.92803514473</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>4</v>
       </c>
       <c r="F208" t="n">
-        <v>32.1568451434</v>
+        <v>30.2622268799</v>
       </c>
       <c r="G208" t="n">
-        <v>3659.3136374798</v>
+        <v>3662.008381539683</v>
       </c>
     </row>
     <row r="209">
@@ -5671,7 +5671,7 @@
         <v>4.05</v>
       </c>
       <c r="G209" t="n">
-        <v>4352.396184043467</v>
+        <v>4351.596058247083</v>
       </c>
     </row>
     <row r="210">
@@ -5701,10 +5701,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44564.47795495878</v>
+        <v>44564.48248902309</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>44564.49926699824</v>
+        <v>44564.5045173817</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5718,18 +5718,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>30.6893368166</v>
+        <v>31.7208363904</v>
       </c>
       <c r="G211" t="n">
-        <v>19465.9051406512</v>
+        <v>19472.4341932642</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44568.58228707178</v>
+        <v>44568.5879811363</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>44568.60385094008</v>
+        <v>44568.6077667471</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5737,24 +5737,24 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
       </c>
       <c r="F212" t="n">
-        <v>31.0519703509</v>
+        <v>28.491279521</v>
       </c>
       <c r="G212" t="n">
-        <v>5879.548905899899</v>
+        <v>5880.1878066441</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44570.58160556285</v>
+        <v>44570.58287362191</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>44570.60872612575</v>
+        <v>44570.60715897325</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5768,10 +5768,10 @@
         <v>6</v>
       </c>
       <c r="F213" t="n">
-        <v>39.0536105872</v>
+        <v>34.9709059271</v>
       </c>
       <c r="G213" t="n">
-        <v>2847.9666567849</v>
+        <v>2844.1538997466</v>
       </c>
     </row>
     <row r="214">
@@ -5796,15 +5796,15 @@
         <v>4.65</v>
       </c>
       <c r="G214" t="n">
-        <v>3580.967712242634</v>
+        <v>3583.224411839933</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44584.5167757041</v>
+        <v>44584.51376149451</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>44584.5339360047</v>
+        <v>44584.53545464728</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5818,18 +5818,18 @@
         <v>6</v>
       </c>
       <c r="F215" t="n">
-        <v>24.7108328665</v>
+        <v>31.23814000501666</v>
       </c>
       <c r="G215" t="n">
-        <v>16441.9736805695</v>
+        <v>16437.6332187523</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44592.14143876929</v>
+        <v>44592.14157994331</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>44592.15977021552</v>
+        <v>44592.16265096338</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5843,10 +5843,10 @@
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>26.3972825871</v>
+        <v>30.342268899</v>
       </c>
       <c r="G216" t="n">
-        <v>10954.8039809979</v>
+        <v>10952.82042628748</v>
       </c>
     </row>
     <row r="217">
@@ -5871,7 +5871,7 @@
         <v>6.1</v>
       </c>
       <c r="G217" t="n">
-        <v>4263.314222979</v>
+        <v>4259.1659460562</v>
       </c>
     </row>
     <row r="218">
@@ -6176,10 +6176,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44603.53542369686</v>
+        <v>44603.53363147804</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>44603.55039859511</v>
+        <v>44603.55421416558</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -6193,10 +6193,10 @@
         <v>4</v>
       </c>
       <c r="F230" t="n">
-        <v>21.5638534711</v>
+        <v>29.6390700447</v>
       </c>
       <c r="G230" t="n">
-        <v>634.7934568285</v>
+        <v>632.2126617322999</v>
       </c>
     </row>
     <row r="231">
@@ -6221,15 +6221,15 @@
         <v>4.833333333333333</v>
       </c>
       <c r="G231" t="n">
-        <v>5678.0926897004</v>
+        <v>5672.598268223</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44609.47747089935</v>
+        <v>44609.47411647694</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>44609.49927941238</v>
+        <v>44609.49629499208</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -6243,18 +6243,18 @@
         <v>3</v>
       </c>
       <c r="F232" t="n">
-        <v>31.4042587746</v>
+        <v>31.9370618079</v>
       </c>
       <c r="G232" t="n">
-        <v>2852.0580950723</v>
+        <v>2847.2277268007</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44612.95331117205</v>
+        <v>44612.95228951182</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>44612.97346021868</v>
+        <v>44612.97352318045</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -6268,18 +6268,18 @@
         <v>6</v>
       </c>
       <c r="F233" t="n">
-        <v>29.0146271419</v>
+        <v>30.5764828307</v>
       </c>
       <c r="G233" t="n">
-        <v>4973.805733915699</v>
+        <v>4976.6321084207</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44613.28773726491</v>
+        <v>44613.29153588854</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>44613.30728879073</v>
+        <v>44613.30708693589</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -6293,10 +6293,10 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>28.1541971851</v>
+        <v>22.3935081786</v>
       </c>
       <c r="G234" t="n">
-        <v>452.558946572</v>
+        <v>457.9382996551</v>
       </c>
     </row>
     <row r="235">
@@ -6321,7 +6321,7 @@
         <v>2.4</v>
       </c>
       <c r="G235" t="n">
-        <v>2282.687474671734</v>
+        <v>2282.978145639633</v>
       </c>
     </row>
     <row r="236">
@@ -6451,10 +6451,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44621.48379448627</v>
+        <v>44621.48699206374</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>44621.50818529912</v>
+        <v>44621.50854477999</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -6468,10 +6468,10 @@
         <v>1</v>
       </c>
       <c r="F241" t="n">
-        <v>35.122770501</v>
+        <v>31.0359113995</v>
       </c>
       <c r="G241" t="n">
-        <v>2937.4140602352</v>
+        <v>2942.0185717999</v>
       </c>
     </row>
     <row r="242">
@@ -6496,7 +6496,7 @@
         <v>5.9</v>
       </c>
       <c r="G242" t="n">
-        <v>1433.5631692638</v>
+        <v>1433.0455168006</v>
       </c>
     </row>
     <row r="243">
@@ -7326,10 +7326,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44652.27317008856</v>
+        <v>44652.2716512042</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>44652.29499456691</v>
+        <v>44652.29752612879</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -7343,18 +7343,18 @@
         <v>4</v>
       </c>
       <c r="F276" t="n">
-        <v>31.4272488204</v>
+        <v>37.2598914246</v>
       </c>
       <c r="G276" t="n">
-        <v>16679.1482608698</v>
+        <v>16676.961067389</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44661.37834872847</v>
+        <v>44661.37875137128</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>44661.39899571409</v>
+        <v>44661.39716093866</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -7368,18 +7368,18 @@
         <v>6</v>
       </c>
       <c r="F277" t="n">
-        <v>29.7316592893</v>
+        <v>26.5097770195</v>
       </c>
       <c r="G277" t="n">
-        <v>13080.0299926587</v>
+        <v>13076.9643491775</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44666.02291433463</v>
+        <v>44666.02627929992</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>44666.04358898969</v>
+        <v>44666.04434066571</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -7393,10 +7393,10 @@
         <v>4</v>
       </c>
       <c r="F278" t="n">
-        <v>29.7715032954</v>
+        <v>26.0083667207</v>
       </c>
       <c r="G278" t="n">
-        <v>6658.442813565701</v>
+        <v>6665.93044022</v>
       </c>
     </row>
     <row r="279">
@@ -7421,7 +7421,7 @@
         <v>2.85</v>
       </c>
       <c r="G279" t="n">
-        <v>2739.831854834033</v>
+        <v>2738.749441382033</v>
       </c>
     </row>
     <row r="280">
@@ -7451,10 +7451,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44680.53536948559</v>
+        <v>44680.53525179593</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>44680.55680119126</v>
+        <v>44680.5571307144</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -7468,18 +7468,18 @@
         <v>4</v>
       </c>
       <c r="F281" t="n">
-        <v>30.8616561733</v>
+        <v>31.5056426077</v>
       </c>
       <c r="G281" t="n">
-        <v>17966.1153925892</v>
+        <v>17965.9459194667</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44681.74425389047</v>
+        <v>44681.74414619375</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>44681.76546891584</v>
+        <v>44681.76877564597</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -7493,10 +7493,10 @@
         <v>5</v>
       </c>
       <c r="F282" t="n">
-        <v>30.549636553</v>
+        <v>35.4664112023</v>
       </c>
       <c r="G282" t="n">
-        <v>1709.9318868511</v>
+        <v>1709.3022902625</v>
       </c>
     </row>
     <row r="283">
@@ -7521,15 +7521,15 @@
         <v>7.4</v>
       </c>
       <c r="G283" t="n">
-        <v>2754.424761166733</v>
+        <v>2749.663069794134</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44694.2224454743</v>
+        <v>44694.22677556636</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>44694.24677399626</v>
+        <v>44694.24661429114</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -7543,10 +7543,10 @@
         <v>4</v>
       </c>
       <c r="F284" t="n">
-        <v>35.03307162</v>
+        <v>28.5677636677</v>
       </c>
       <c r="G284" t="n">
-        <v>15176.2214830038</v>
+        <v>15182.4568155765</v>
       </c>
     </row>
     <row r="285">
@@ -7571,15 +7571,15 @@
         <v>5.05</v>
       </c>
       <c r="G285" t="n">
-        <v>2798.6454453762</v>
+        <v>2798.8754207558</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44700.12812629764</v>
+        <v>44700.13181516361</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>44700.15299271145</v>
+        <v>44700.15211973456</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -7593,18 +7593,18 @@
         <v>3</v>
       </c>
       <c r="F286" t="n">
-        <v>35.80763588408333</v>
+        <v>29.2385821705</v>
       </c>
       <c r="G286" t="n">
-        <v>5665.4518686072</v>
+        <v>5670.7638356097</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44711.59242238769</v>
+        <v>44711.59121355082</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>44711.61132800029</v>
+        <v>44711.61212621458</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -7618,18 +7618,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>27.22408213128334</v>
+        <v>30.1142358029</v>
       </c>
       <c r="G287" t="n">
-        <v>16472.77873380192</v>
+        <v>16472.2950954163</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44714.50809550712</v>
+        <v>44714.50751595195</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>44714.5245051661</v>
+        <v>44714.52402665634</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -7643,18 +7643,18 @@
         <v>3</v>
       </c>
       <c r="F288" t="n">
-        <v>23.6299089309</v>
+        <v>23.7754143155</v>
       </c>
       <c r="G288" t="n">
-        <v>4171.345209837317</v>
+        <v>4169.3612218292</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44715.83904288099</v>
+        <v>44715.83728945503</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>44715.85957454902</v>
+        <v>44715.8589549847</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -7668,18 +7668,18 @@
         <v>4</v>
       </c>
       <c r="F289" t="n">
-        <v>29.5656019703</v>
+        <v>31.1983627246</v>
       </c>
       <c r="G289" t="n">
-        <v>1892.9343094246</v>
+        <v>1891.0984301043</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44717.73289846728</v>
+        <v>44717.7376237182</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>44717.75816144603</v>
+        <v>44717.75450588043</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -7693,10 +7693,10 @@
         <v>6</v>
       </c>
       <c r="F290" t="n">
-        <v>36.3786894011</v>
+        <v>24.31031361891667</v>
       </c>
       <c r="G290" t="n">
-        <v>2697.5864423103</v>
+        <v>2705.282976230284</v>
       </c>
     </row>
     <row r="291">
@@ -7721,15 +7721,15 @@
         <v>4.2</v>
       </c>
       <c r="G291" t="n">
-        <v>2556.330851034334</v>
+        <v>2561.594865511133</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44721.36652749225</v>
+        <v>44721.36817460159</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>44721.39297944781</v>
+        <v>44721.38801015655</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -7743,18 +7743,18 @@
         <v>3</v>
       </c>
       <c r="F292" t="n">
-        <v>38.0908160235</v>
+        <v>28.5631991356</v>
       </c>
       <c r="G292" t="n">
-        <v>2635.5162555087</v>
+        <v>2637.8880929735</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44729.05609885415</v>
+        <v>44729.05733295656</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>44729.07803906471</v>
+        <v>44729.07480025812</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -7768,10 +7768,10 @@
         <v>4</v>
       </c>
       <c r="F293" t="n">
-        <v>31.5939032043</v>
+        <v>25.1529142364</v>
       </c>
       <c r="G293" t="n">
-        <v>11034.8919451263</v>
+        <v>11043.8248320095</v>
       </c>
     </row>
     <row r="294">
@@ -7796,15 +7796,15 @@
         <v>5.183333333333334</v>
       </c>
       <c r="G294" t="n">
-        <v>7201.823746803867</v>
+        <v>7206.487628311666</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44735.89587846498</v>
+        <v>44735.89789267405</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>44735.91783178168</v>
+        <v>44735.91766226624</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -7818,18 +7818,18 @@
         <v>3</v>
       </c>
       <c r="F295" t="n">
-        <v>31.6127760574</v>
+        <v>28.4682127471</v>
       </c>
       <c r="G295" t="n">
-        <v>2610.681656234</v>
+        <v>2613.5821173137</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44739.68756704631</v>
+        <v>44739.68552496674</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>44739.71103890245</v>
+        <v>44739.70765469124</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -7843,18 +7843,18 @@
         <v>0</v>
       </c>
       <c r="F296" t="n">
-        <v>33.7994728421</v>
+        <v>31.8668032863</v>
       </c>
       <c r="G296" t="n">
-        <v>5428.4187810726</v>
+        <v>5425.722288710001</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44753.4134275064</v>
+        <v>44753.41366078657</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>44753.44049938423</v>
+        <v>44753.43907624758</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -7868,18 +7868,18 @@
         <v>0</v>
       </c>
       <c r="F297" t="n">
-        <v>38.98350406580001</v>
+        <v>36.5982638374</v>
       </c>
       <c r="G297" t="n">
-        <v>19731.4395896889</v>
+        <v>19736.6487772893</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44760.7280558531</v>
+        <v>44760.73059821482</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>44760.74908148064</v>
+        <v>44760.74776499941</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -7893,10 +7893,10 @@
         <v>0</v>
       </c>
       <c r="F298" t="n">
-        <v>30.276903644</v>
+        <v>24.7201698002</v>
       </c>
       <c r="G298" t="n">
-        <v>10494.0813151806</v>
+        <v>10499.7916328447</v>
       </c>
     </row>
     <row r="299">
@@ -7921,15 +7921,15 @@
         <v>3.733333333333333</v>
       </c>
       <c r="G299" t="n">
-        <v>20395.2560012146</v>
+        <v>20397.1517341713</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44787.48087001083</v>
+        <v>44787.47436075741</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>44787.49537655839</v>
+        <v>44787.49973425288</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -7943,18 +7943,18 @@
         <v>6</v>
       </c>
       <c r="F300" t="n">
-        <v>20.8894284934</v>
+        <v>36.5378334701</v>
       </c>
       <c r="G300" t="n">
-        <v>18094.7861489379</v>
+        <v>18085.4128240163</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44794.28927558691</v>
+        <v>44794.289649538</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>44794.31180843911</v>
+        <v>44794.30809484493</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -7968,18 +7968,18 @@
         <v>6</v>
       </c>
       <c r="F301" t="n">
-        <v>32.4473071669</v>
+        <v>26.5612419741</v>
       </c>
       <c r="G301" t="n">
-        <v>9783.2146010658</v>
+        <v>9777.4780105759</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44794.47879499822</v>
+        <v>44794.48074024947</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>44794.49969934607</v>
+        <v>44794.49801347974</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -7993,18 +7993,18 @@
         <v>6</v>
       </c>
       <c r="F302" t="n">
-        <v>30.1022609112</v>
+        <v>24.87345157421667</v>
       </c>
       <c r="G302" t="n">
-        <v>240.4606451148</v>
+        <v>248.6093825464</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44796.20331797079</v>
+        <v>44796.20907552924</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>44796.22882480554</v>
+        <v>44796.22823774932</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -8012,24 +8012,24 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E303" t="n">
         <v>1</v>
       </c>
       <c r="F303" t="n">
-        <v>36.7298420579</v>
+        <v>27.5935968925</v>
       </c>
       <c r="G303" t="n">
-        <v>2453.2108195805</v>
+        <v>2463.929351309483</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44802.83490799466</v>
+        <v>44802.82825088993</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>44802.85307276108</v>
+        <v>44802.85354515757</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -8037,16 +8037,16 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
       </c>
       <c r="F304" t="n">
-        <v>26.1572636187</v>
+        <v>36.4237454003</v>
       </c>
       <c r="G304" t="n">
-        <v>9512.7597923374</v>
+        <v>9504.018922479399</v>
       </c>
     </row>
     <row r="305">
@@ -8071,15 +8071,15 @@
         <v>3.85</v>
       </c>
       <c r="G305" t="n">
-        <v>1017.058557382167</v>
+        <v>1016.378306427967</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44805.26953708063</v>
+        <v>44805.26731857517</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>44805.29124644805</v>
+        <v>44805.29059710311</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -8093,18 +8093,18 @@
         <v>3</v>
       </c>
       <c r="F306" t="n">
-        <v>31.2614890739</v>
+        <v>33.5210802297</v>
       </c>
       <c r="G306" t="n">
-        <v>2458.8000627819</v>
+        <v>2455.6054149289</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44815.62492411939</v>
+        <v>44815.62190310682</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>44815.64591228485</v>
+        <v>44815.64493408667</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -8118,18 +8118,18 @@
         <v>6</v>
       </c>
       <c r="F307" t="n">
-        <v>30.2229582683</v>
+        <v>33.1646110007</v>
       </c>
       <c r="G307" t="n">
-        <v>14880.4958467383</v>
+        <v>14877.0806453284</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44828.037941804</v>
+        <v>44828.03780957119</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>44828.06353282935</v>
+        <v>44828.05935239057</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -8143,10 +8143,10 @@
         <v>5</v>
       </c>
       <c r="F308" t="n">
-        <v>36.8510765232</v>
+        <v>31.021659895</v>
       </c>
       <c r="G308" t="n">
-        <v>17844.5225075634</v>
+        <v>17845.7406977028</v>
       </c>
     </row>
     <row r="309">
@@ -8171,7 +8171,7 @@
         <v>4.4</v>
       </c>
       <c r="G309" t="n">
-        <v>8999.612725717667</v>
+        <v>9005.632557581168</v>
       </c>
     </row>
     <row r="310">
@@ -8251,10 +8251,10 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44843.02821508671</v>
+        <v>44843.02969536029</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>44843.04656893669</v>
+        <v>44843.0494362022</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -8268,18 +8268,18 @@
         <v>6</v>
       </c>
       <c r="F313" t="n">
-        <v>26.4295439633</v>
+        <v>28.4268123388</v>
       </c>
       <c r="G313" t="n">
-        <v>6062.2297248744</v>
+        <v>6064.3613188319</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44844.94573060769</v>
+        <v>44844.94139657398</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>44844.96072603396</v>
+        <v>44844.9665148756</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -8293,18 +8293,18 @@
         <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>21.5934138226</v>
+        <v>36.1703543248</v>
       </c>
       <c r="G314" t="n">
-        <v>2734.7928062504</v>
+        <v>2724.4229353724</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44848.92005366418</v>
+        <v>44848.92187517573</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>44848.9448402959</v>
+        <v>44848.94251513034</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -8318,10 +8318,10 @@
         <v>4</v>
       </c>
       <c r="F315" t="n">
-        <v>35.692749681</v>
+        <v>29.7215346357</v>
       </c>
       <c r="G315" t="n">
-        <v>5701.431787521</v>
+        <v>5695.7188321875</v>
       </c>
     </row>
     <row r="316">
@@ -8346,7 +8346,7 @@
         <v>9.75</v>
       </c>
       <c r="G316" t="n">
-        <v>7848.063307220634</v>
+        <v>7851.411545642233</v>
       </c>
     </row>
     <row r="317">
@@ -8376,10 +8376,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44889.78409977011</v>
+        <v>44889.78600603179</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>44889.80479495843</v>
+        <v>44889.80955787788</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -8393,18 +8393,18 @@
         <v>3</v>
       </c>
       <c r="F318" t="n">
-        <v>29.801071186</v>
+        <v>33.9146583757</v>
       </c>
       <c r="G318" t="n">
-        <v>31946.0870022866</v>
+        <v>31948.8320191233</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44892.24272267843</v>
+        <v>44892.24508169161</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>44892.26425088765</v>
+        <v>44892.26661799064</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -8418,10 +8418,10 @@
         <v>6</v>
       </c>
       <c r="F319" t="n">
-        <v>31.0006212628</v>
+        <v>31.0122706179</v>
       </c>
       <c r="G319" t="n">
-        <v>3510.6159168153</v>
+        <v>3507.1542917617</v>
       </c>
     </row>
     <row r="320">
@@ -8446,7 +8446,7 @@
         <v>3.216666666666667</v>
       </c>
       <c r="G320" t="n">
-        <v>2449.212055115967</v>
+        <v>2445.803426788067</v>
       </c>
     </row>
     <row r="321">
@@ -8626,10 +8626,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44907.60104713359</v>
+        <v>44907.60063452053</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>44907.6247164032</v>
+        <v>44907.62014976719</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -8643,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="F328" t="n">
-        <v>34.0837482583</v>
+        <v>28.1019551756</v>
       </c>
       <c r="G328" t="n">
-        <v>17968.4078723683</v>
+        <v>17967.8137095784</v>
       </c>
     </row>
     <row r="329">
@@ -8671,7 +8671,7 @@
         <v>3.65</v>
       </c>
       <c r="G329" t="n">
-        <v>38357.04171270673</v>
+        <v>38363.61766857933</v>
       </c>
     </row>
     <row r="330">
@@ -8701,10 +8701,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44935.3849687633</v>
+        <v>44935.39032681232</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>44935.4114663234</v>
+        <v>44935.41065624783</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -8718,18 +8718,18 @@
         <v>0</v>
       </c>
       <c r="F331" t="n">
-        <v>38.1564865564</v>
+        <v>29.2743871413</v>
       </c>
       <c r="G331" t="n">
-        <v>1315.0550191505</v>
+        <v>1322.7706097338</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44938.01094078324</v>
+        <v>44938.01010791199</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>44938.03688203307</v>
+        <v>44938.03276190175</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -8743,18 +8743,18 @@
         <v>3</v>
       </c>
       <c r="F332" t="n">
-        <v>37.3553997435</v>
+        <v>32.6217452403</v>
       </c>
       <c r="G332" t="n">
-        <v>3743.2432221755</v>
+        <v>3743.2103964082</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44940.92787008757</v>
+        <v>44940.92687942705</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>44940.95384495546</v>
+        <v>44940.9475113906</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -8768,10 +8768,10 @@
         <v>5</v>
       </c>
       <c r="F333" t="n">
-        <v>37.4038097634</v>
+        <v>29.7100275185</v>
       </c>
       <c r="G333" t="n">
-        <v>4163.0227984886</v>
+        <v>4167.5292364362</v>
       </c>
     </row>
     <row r="334">
@@ -8796,7 +8796,7 @@
         <v>2.4</v>
       </c>
       <c r="G334" t="n">
-        <v>14989.64659745543</v>
+        <v>14998.76693085503</v>
       </c>
     </row>
     <row r="335">
@@ -8926,10 +8926,10 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44964.22126771291</v>
+        <v>44964.22151824963</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>44964.24639080183</v>
+        <v>44964.24533547493</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -8943,18 +8943,18 @@
         <v>1</v>
       </c>
       <c r="F340" t="n">
-        <v>36.17724803780001</v>
+        <v>34.2968044217</v>
       </c>
       <c r="G340" t="n">
-        <v>2665.792173269</v>
+        <v>2666.1529461498</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44966.05445875008</v>
+        <v>44966.05888151442</v>
       </c>
       <c r="B341" s="2" t="n">
-        <v>44966.07652196909</v>
+        <v>44966.07579642846</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -8968,18 +8968,18 @@
         <v>3</v>
       </c>
       <c r="F341" t="n">
-        <v>31.7710353666</v>
+        <v>24.3574762156</v>
       </c>
       <c r="G341" t="n">
-        <v>2603.6178454822</v>
+        <v>2611.5062968715</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44968.20234485598</v>
+        <v>44968.20484360449</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>44968.22672307961</v>
+        <v>44968.22154195726</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -8993,18 +8993,18 @@
         <v>5</v>
       </c>
       <c r="F342" t="n">
-        <v>35.1046420257</v>
+        <v>24.04562798561667</v>
       </c>
       <c r="G342" t="n">
-        <v>3061.1849571336</v>
+        <v>3065.827933475783</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44969.47742603361</v>
+        <v>44969.47751755722</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>44969.49768405793</v>
+        <v>44969.49832752183</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -9018,18 +9018,18 @@
         <v>6</v>
       </c>
       <c r="F343" t="n">
-        <v>29.1715550134</v>
+        <v>29.9663490263</v>
       </c>
       <c r="G343" t="n">
-        <v>1801.0122537663</v>
+        <v>1808.6048639537</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44978.49410898177</v>
+        <v>44978.49746279779</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>44978.51568423013</v>
+        <v>44978.51773932041</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -9043,10 +9043,10 @@
         <v>1</v>
       </c>
       <c r="F344" t="n">
-        <v>31.0683576377</v>
+        <v>29.1981925839</v>
       </c>
       <c r="G344" t="n">
-        <v>12954.851890332</v>
+        <v>12958.7547973846</v>
       </c>
     </row>
     <row r="345">
@@ -9071,15 +9071,15 @@
         <v>3.95</v>
       </c>
       <c r="G345" t="n">
-        <v>2008.531375269033</v>
+        <v>2005.572045264833</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44982.74641129972</v>
+        <v>44982.74395078384</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>44982.769748817</v>
+        <v>44982.7661708309</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -9093,18 +9093,18 @@
         <v>5</v>
       </c>
       <c r="F346" t="n">
-        <v>33.6060248838</v>
+        <v>31.9968677625</v>
       </c>
       <c r="G346" t="n">
-        <v>4079.7656049342</v>
+        <v>4076.222462073</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44986.41650864794</v>
+        <v>44986.40979906506</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>44986.43728510374</v>
+        <v>44986.43547739773</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         <v>2</v>
       </c>
       <c r="F347" t="n">
-        <v>29.91809635</v>
+        <v>36.9767990512</v>
       </c>
       <c r="G347" t="n">
-        <v>5251.3341565545</v>
+        <v>5246.824657182099</v>
       </c>
     </row>
     <row r="348">
@@ -9146,7 +9146,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="G348" t="n">
-        <v>11728.7261172775</v>
+        <v>11731.3292139312</v>
       </c>
     </row>
     <row r="349">
@@ -9201,10 +9201,10 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45014.10240839953</v>
+        <v>45014.10286159226</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>45014.12345268311</v>
+        <v>45014.12234932549</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -9218,18 +9218,18 @@
         <v>2</v>
       </c>
       <c r="F351" t="n">
-        <v>30.3037683541</v>
+        <v>28.0623358533</v>
       </c>
       <c r="G351" t="n">
-        <v>27092.218095332</v>
+        <v>27092.8706928587</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45018.97704973585</v>
+        <v>45018.97405173472</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>45018.99964457929</v>
+        <v>45018.99532151677</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -9243,18 +9243,18 @@
         <v>6</v>
       </c>
       <c r="F352" t="n">
-        <v>32.5365745382</v>
+        <v>30.6284861483</v>
       </c>
       <c r="G352" t="n">
-        <v>6989.179755957401</v>
+        <v>6986.4514692965</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45035.99481859478</v>
+        <v>45035.99407778977</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>45036.01717770509</v>
+        <v>45036.0203905163</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -9268,10 +9268,10 @@
         <v>2</v>
       </c>
       <c r="F353" t="n">
-        <v>32.1971188513</v>
+        <v>37.8903262055</v>
       </c>
       <c r="G353" t="n">
-        <v>24473.0505823036</v>
+        <v>24478.2090331177</v>
       </c>
     </row>
     <row r="354">
@@ -9296,15 +9296,15 @@
         <v>3.566666666666667</v>
       </c>
       <c r="G354" t="n">
-        <v>8842.130771330067</v>
+        <v>8837.504323186668</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45052.1202752383</v>
+        <v>45052.11759091922</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>45052.13685117815</v>
+        <v>45052.14209726835</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -9318,18 +9318,18 @@
         <v>5</v>
       </c>
       <c r="F355" t="n">
-        <v>23.8693533921</v>
+        <v>35.2891427331</v>
       </c>
       <c r="G355" t="n">
-        <v>14342.7630098188</v>
+        <v>14338.8975903607</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45055.57373864832</v>
+        <v>45055.57720654126</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>45055.59499013899</v>
+        <v>45055.59919672973</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -9343,18 +9343,18 @@
         <v>1</v>
       </c>
       <c r="F356" t="n">
-        <v>30.6021465713</v>
+        <v>31.6658714001</v>
       </c>
       <c r="G356" t="n">
-        <v>4949.1179570422</v>
+        <v>4946.5573530003</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45058.11837051042</v>
+        <v>45058.11997482749</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>45058.1400599996</v>
+        <v>45058.14100384015</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -9368,10 +9368,10 @@
         <v>4</v>
       </c>
       <c r="F357" t="n">
-        <v>31.2328644246</v>
+        <v>30.281778229</v>
       </c>
       <c r="G357" t="n">
-        <v>3633.6677348507</v>
+        <v>3629.920460772</v>
       </c>
     </row>
     <row r="358">
@@ -9396,15 +9396,15 @@
         <v>5.333333333333333</v>
       </c>
       <c r="G358" t="n">
-        <v>215.9302672336333</v>
+        <v>214.5711368381334</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45061.95723646579</v>
+        <v>45061.96361851102</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>45061.98329173239</v>
+        <v>45061.98319121384</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -9412,24 +9412,24 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E359" t="n">
         <v>0</v>
       </c>
       <c r="F359" t="n">
-        <v>37.5195839187</v>
+        <v>28.1846920755</v>
       </c>
       <c r="G359" t="n">
-        <v>5275.4705107463</v>
+        <v>5284.660655872</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45064.02357890375</v>
+        <v>45064.02430292831</v>
       </c>
       <c r="B360" s="2" t="n">
-        <v>45064.04439932702</v>
+        <v>45064.04041607223</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -9443,18 +9443,18 @@
         <v>3</v>
       </c>
       <c r="F360" t="n">
-        <v>29.9814095072</v>
+        <v>23.2029272581</v>
       </c>
       <c r="G360" t="n">
-        <v>2938.0135267484</v>
+        <v>2939.2008688274</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45071.63013831958</v>
+        <v>45071.62912630697</v>
       </c>
       <c r="B361" s="2" t="n">
-        <v>45071.64655003735</v>
+        <v>45071.6511065532</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -9468,10 +9468,10 @@
         <v>3</v>
       </c>
       <c r="F361" t="n">
-        <v>23.6328735907</v>
+        <v>31.6515545645</v>
       </c>
       <c r="G361" t="n">
-        <v>10923.4641492767</v>
+        <v>10927.7427380155</v>
       </c>
     </row>
     <row r="362">
@@ -9496,15 +9496,15 @@
         <v>6.55</v>
       </c>
       <c r="G362" t="n">
-        <v>1574.351279545333</v>
+        <v>1567.789896720333</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45084.76714043746</v>
+        <v>45084.7656955275</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>45084.78489095861</v>
+        <v>45084.78331623767</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -9518,18 +9518,18 @@
         <v>2</v>
       </c>
       <c r="F363" t="n">
-        <v>25.5607504656</v>
+        <v>25.3738226381</v>
       </c>
       <c r="G363" t="n">
-        <v>17312.7488966064</v>
+        <v>17310.6682262833</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45096.2007167489</v>
+        <v>45096.19962447219</v>
       </c>
       <c r="B364" s="2" t="n">
-        <v>45096.22336939074</v>
+        <v>45096.22330478986</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -9543,18 +9543,18 @@
         <v>0</v>
       </c>
       <c r="F364" t="n">
-        <v>32.61980424451666</v>
+        <v>34.0996574611</v>
       </c>
       <c r="G364" t="n">
-        <v>16438.7891380188</v>
+        <v>16439.4838576966</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45099.90845182022</v>
+        <v>45099.91370972414</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>45099.93095456337</v>
+        <v>45099.93193592085</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -9568,18 +9568,18 @@
         <v>3</v>
       </c>
       <c r="F365" t="n">
-        <v>32.403950124</v>
+        <v>26.2457232535</v>
       </c>
       <c r="G365" t="n">
-        <v>5306.518698461383</v>
+        <v>5314.1831053608</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45107.49341849501</v>
+        <v>45107.49267957539</v>
       </c>
       <c r="B366" s="2" t="n">
-        <v>45107.51206505124</v>
+        <v>45107.51213774219</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -9593,18 +9593,18 @@
         <v>4</v>
       </c>
       <c r="F366" t="n">
-        <v>26.851040975</v>
+        <v>28.0197601926</v>
       </c>
       <c r="G366" t="n">
-        <v>10889.9480615639</v>
+        <v>10887.4708625395</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45119.22239089257</v>
+        <v>45119.22293416302</v>
       </c>
       <c r="B367" s="2" t="n">
-        <v>45119.24162836043</v>
+        <v>45119.24599924376</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -9618,18 +9618,18 @@
         <v>2</v>
       </c>
       <c r="F367" t="n">
-        <v>27.7019537213</v>
+        <v>33.2137162811</v>
       </c>
       <c r="G367" t="n">
-        <v>16862.8692115129</v>
+        <v>16863.5468459914</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45123.76534655484</v>
+        <v>45123.76778944133</v>
       </c>
       <c r="B368" s="2" t="n">
-        <v>45123.78647392592</v>
+        <v>45123.78296421983</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -9643,10 +9643,10 @@
         <v>6</v>
       </c>
       <c r="F368" t="n">
-        <v>30.4234143453</v>
+        <v>21.8516810342</v>
       </c>
       <c r="G368" t="n">
-        <v>6514.154199947</v>
+        <v>6511.3778844949</v>
       </c>
     </row>
     <row r="369">
@@ -9671,15 +9671,15 @@
         <v>6.016666666666667</v>
       </c>
       <c r="G369" t="n">
-        <v>3836.677546680567</v>
+        <v>3841.731523439566</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45132.97900444282</v>
+        <v>45132.97717037439</v>
       </c>
       <c r="B370" s="2" t="n">
-        <v>45132.99496271963</v>
+        <v>45132.99707603559</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -9693,18 +9693,18 @@
         <v>1</v>
       </c>
       <c r="F370" t="n">
-        <v>22.9799186114</v>
+        <v>28.6641521406</v>
       </c>
       <c r="G370" t="n">
-        <v>9394.5497309989</v>
+        <v>9391.908672456899</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45133.43744360015</v>
+        <v>45133.4331607125</v>
       </c>
       <c r="B371" s="2" t="n">
-        <v>45133.45700114198</v>
+        <v>45133.45758412505</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -9718,18 +9718,18 @@
         <v>2</v>
       </c>
       <c r="F371" t="n">
-        <v>28.1628602383</v>
+        <v>35.1697140645</v>
       </c>
       <c r="G371" t="n">
-        <v>637.1724679511001</v>
+        <v>627.9619347524</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45138.39418597856</v>
+        <v>45138.39157480458</v>
       </c>
       <c r="B372" s="2" t="n">
-        <v>45138.41096403448</v>
+        <v>45138.41603508473</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -9743,18 +9743,18 @@
         <v>0</v>
       </c>
       <c r="F372" t="n">
-        <v>24.1604005288</v>
+        <v>35.2228034126</v>
       </c>
       <c r="G372" t="n">
-        <v>7109.546164662</v>
+        <v>7104.946578523201</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45139.35046348214</v>
+        <v>45139.3528961778</v>
       </c>
       <c r="B373" s="2" t="n">
-        <v>45139.37492719553</v>
+        <v>45139.36969710446</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -9768,18 +9768,18 @@
         <v>1</v>
       </c>
       <c r="F373" t="n">
-        <v>35.2277472856</v>
+        <v>24.1933343791</v>
       </c>
       <c r="G373" t="n">
-        <v>1352.8792046278</v>
+        <v>1349.0799740212</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45141.68076705918</v>
+        <v>45141.68592150811</v>
       </c>
       <c r="B374" s="2" t="n">
-        <v>45141.70464302383</v>
+        <v>45141.70820999785</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -9793,18 +9793,18 @@
         <v>3</v>
       </c>
       <c r="F374" t="n">
-        <v>34.3813891065</v>
+        <v>32.0954252227</v>
       </c>
       <c r="G374" t="n">
-        <v>3320.4094036472</v>
+        <v>3335.3631412667</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45141.97843652203</v>
+        <v>45141.97868225745</v>
       </c>
       <c r="B375" s="2" t="n">
-        <v>45141.99672957534</v>
+        <v>45141.99466948845</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -9818,18 +9818,18 @@
         <v>3</v>
       </c>
       <c r="F375" t="n">
-        <v>26.3419967648</v>
+        <v>23.0216126294</v>
       </c>
       <c r="G375" t="n">
-        <v>394.2626374044</v>
+        <v>389.4800538374</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45149.62320442112</v>
+        <v>45149.62270126016</v>
       </c>
       <c r="B376" s="2" t="n">
-        <v>45149.63911469021</v>
+        <v>45149.64404150804</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -9843,10 +9843,10 @@
         <v>4</v>
       </c>
       <c r="F376" t="n">
-        <v>22.9107874713</v>
+        <v>30.7299569409</v>
       </c>
       <c r="G376" t="n">
-        <v>10982.1237779393</v>
+        <v>10984.3657512618</v>
       </c>
     </row>
     <row r="377">
@@ -9871,7 +9871,7 @@
         <v>6.9</v>
       </c>
       <c r="G377" t="n">
-        <v>1980.824846095933</v>
+        <v>1973.730228423933</v>
       </c>
     </row>
     <row r="378">
@@ -10101,10 +10101,10 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45168.39504999985</v>
+        <v>45168.39345340076</v>
       </c>
       <c r="B387" s="2" t="n">
-        <v>45168.41686989756</v>
+        <v>45168.41676209081</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -10118,18 +10118,18 @@
         <v>2</v>
       </c>
       <c r="F387" t="n">
-        <v>31.4206527022</v>
+        <v>33.5645136559</v>
       </c>
       <c r="G387" t="n">
-        <v>928.3886664639</v>
+        <v>926.0895637792</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45179.56027778861</v>
+        <v>45179.56165776018</v>
       </c>
       <c r="B388" s="2" t="n">
-        <v>45179.58544890464</v>
+        <v>45179.58522383039</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -10143,18 +10143,18 @@
         <v>6</v>
       </c>
       <c r="F388" t="n">
-        <v>36.24640708398333</v>
+        <v>33.9351411046</v>
       </c>
       <c r="G388" t="n">
-        <v>16046.5073631055</v>
+        <v>16048.649763886</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45181.70913473102</v>
+        <v>45181.70670976525</v>
       </c>
       <c r="B389" s="2" t="n">
-        <v>45181.72708538259</v>
+        <v>45181.72822421944</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -10162,24 +10162,24 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E389" t="n">
         <v>1</v>
       </c>
       <c r="F389" t="n">
-        <v>25.848938262</v>
+        <v>30.9808140221</v>
       </c>
       <c r="G389" t="n">
-        <v>3058.107589985817</v>
+        <v>3054.9397462228</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45194.95910080169</v>
+        <v>45194.95715746172</v>
       </c>
       <c r="B390" s="2" t="n">
-        <v>45194.97853327589</v>
+        <v>45194.98145572554</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -10187,24 +10187,24 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E390" t="n">
         <v>0</v>
       </c>
       <c r="F390" t="n">
-        <v>27.982762855</v>
+        <v>34.9894999003</v>
       </c>
       <c r="G390" t="n">
-        <v>19054.1022035011</v>
+        <v>19049.6638688855</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45199.8303669822</v>
+        <v>45199.83147243885</v>
       </c>
       <c r="B391" s="2" t="n">
-        <v>45199.85115770261</v>
+        <v>45199.85580522502</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -10218,18 +10218,18 @@
         <v>5</v>
       </c>
       <c r="F391" t="n">
-        <v>29.9386374091</v>
+        <v>35.0392120795</v>
       </c>
       <c r="G391" t="n">
-        <v>6986.6405370759</v>
+        <v>6984.0240671695</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45199.95955163847</v>
+        <v>45199.95555544184</v>
       </c>
       <c r="B392" s="2" t="n">
-        <v>45199.98022569126</v>
+        <v>45199.98068216637</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -10237,24 +10237,24 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
       </c>
       <c r="F392" t="n">
-        <v>29.7706360161</v>
+        <v>36.1824833286</v>
       </c>
       <c r="G392" t="n">
-        <v>156.0872676327</v>
+        <v>143.6403122123</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45202.16524520495</v>
+        <v>45202.16867687193</v>
       </c>
       <c r="B393" s="2" t="n">
-        <v>45202.18515154096</v>
+        <v>45202.18694151345</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -10262,24 +10262,24 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E393" t="n">
         <v>1</v>
       </c>
       <c r="F393" t="n">
-        <v>28.66512386158333</v>
+        <v>26.3010837783</v>
       </c>
       <c r="G393" t="n">
-        <v>3146.428099696317</v>
+        <v>3150.7123760132</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45205.03916469507</v>
+        <v>45205.04325440697</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>45205.06297497429</v>
+        <v>45205.06432285361</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -10287,24 +10287,24 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
       </c>
       <c r="F394" t="n">
-        <v>34.286802097</v>
+        <v>30.33856315878333</v>
       </c>
       <c r="G394" t="n">
-        <v>4109.7789419157</v>
+        <v>4113.0905666767</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45212.71014460683</v>
+        <v>45212.71079365238</v>
       </c>
       <c r="B395" s="2" t="n">
-        <v>45212.72775303854</v>
+        <v>45212.72755172873</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -10318,18 +10318,18 @@
         <v>4</v>
       </c>
       <c r="F395" t="n">
-        <v>25.35614167261667</v>
+        <v>24.1316299557</v>
       </c>
       <c r="G395" t="n">
-        <v>11011.9242708374</v>
+        <v>11010.91795021872</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45213.06070534013</v>
+        <v>45213.06398409799</v>
       </c>
       <c r="B396" s="2" t="n">
-        <v>45213.08253954984</v>
+        <v>45213.0838974711</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -10343,18 +10343,18 @@
         <v>5</v>
       </c>
       <c r="F396" t="n">
-        <v>31.44126198778333</v>
+        <v>28.6752572876</v>
       </c>
       <c r="G396" t="n">
-        <v>479.4513142852</v>
+        <v>484.4626117236</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45214.29048828268</v>
+        <v>45214.29058782984</v>
       </c>
       <c r="B397" s="2" t="n">
-        <v>45214.31435319774</v>
+        <v>45214.3121380203</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -10368,18 +10368,18 @@
         <v>6</v>
       </c>
       <c r="F397" t="n">
-        <v>34.3654776933</v>
+        <v>31.0322742716</v>
       </c>
       <c r="G397" t="n">
-        <v>1739.4461752879</v>
+        <v>1737.6341165823</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45214.66552897823</v>
+        <v>45214.66502755714</v>
       </c>
       <c r="B398" s="2" t="n">
-        <v>45214.68927483015</v>
+        <v>45214.68481041423</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -10393,18 +10393,18 @@
         <v>6</v>
       </c>
       <c r="F398" t="n">
-        <v>34.1940267522</v>
+        <v>28.4873142271</v>
       </c>
       <c r="G398" t="n">
-        <v>505.6931239038</v>
+        <v>508.1609330418</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45218.35346024908</v>
+        <v>45218.35164753516</v>
       </c>
       <c r="B399" s="2" t="n">
-        <v>45218.3723960172</v>
+        <v>45218.37355209457</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -10418,10 +10418,10 @@
         <v>3</v>
       </c>
       <c r="F399" t="n">
-        <v>27.26750608608333</v>
+        <v>31.5425655594</v>
       </c>
       <c r="G399" t="n">
-        <v>5276.427003265217</v>
+        <v>5280.245454125</v>
       </c>
     </row>
     <row r="400">
@@ -10446,7 +10446,7 @@
         <v>3.383333333333333</v>
       </c>
       <c r="G400" t="n">
-        <v>7801.066401897933</v>
+        <v>7799.401650467234</v>
       </c>
     </row>
     <row r="401">
@@ -10576,10 +10576,10 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45233.46042263799</v>
+        <v>45233.46377216204</v>
       </c>
       <c r="B406" s="2" t="n">
-        <v>45233.48425047061</v>
+        <v>45233.48654897968</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -10593,10 +10593,10 @@
         <v>4</v>
       </c>
       <c r="F406" t="n">
-        <v>34.3120789777</v>
+        <v>32.7986173966</v>
       </c>
       <c r="G406" t="n">
-        <v>5576.8919320413</v>
+        <v>5581.7152466708</v>
       </c>
     </row>
     <row r="407">
@@ -10621,7 +10621,7 @@
         <v>4.083333333333333</v>
       </c>
       <c r="G407" t="n">
-        <v>5238.595988981</v>
+        <v>5235.286135932601</v>
       </c>
     </row>
     <row r="408">
@@ -10651,10 +10651,10 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45249.75678963784</v>
+        <v>45249.75599503384</v>
       </c>
       <c r="B409" s="2" t="n">
-        <v>45249.77840350463</v>
+        <v>45249.77881962107</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -10668,18 +10668,18 @@
         <v>6</v>
       </c>
       <c r="F409" t="n">
-        <v>31.1239681906</v>
+        <v>32.86740561048334</v>
       </c>
       <c r="G409" t="n">
-        <v>18180.8104118176</v>
+        <v>18179.6661820784</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45251.50417161755</v>
+        <v>45251.50481742476</v>
       </c>
       <c r="B410" s="2" t="n">
-        <v>45251.53006778767</v>
+        <v>45251.5265888339</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -10693,18 +10693,18 @@
         <v>1</v>
       </c>
       <c r="F410" t="n">
-        <v>37.2904849767</v>
+        <v>31.3508291696</v>
       </c>
       <c r="G410" t="n">
-        <v>2485.106082602</v>
+        <v>2485.436837305517</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45252.14966614412</v>
+        <v>45252.15046634258</v>
       </c>
       <c r="B411" s="2" t="n">
-        <v>45252.17480202403</v>
+        <v>45252.17284299392</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -10718,18 +10718,18 @@
         <v>2</v>
       </c>
       <c r="F411" t="n">
-        <v>36.1956670625</v>
+        <v>32.2223779378</v>
       </c>
       <c r="G411" t="n">
-        <v>892.2216332877</v>
+        <v>898.3836124955</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45252.44262492099</v>
+        <v>45252.44263595474</v>
       </c>
       <c r="B412" s="2" t="n">
-        <v>45252.46492009795</v>
+        <v>45252.46444204595</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -10743,18 +10743,18 @@
         <v>2</v>
       </c>
       <c r="F412" t="n">
-        <v>32.10505481448333</v>
+        <v>31.4007713459</v>
       </c>
       <c r="G412" t="n">
-        <v>385.6649716435001</v>
+        <v>388.501863563</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45259.46456355262</v>
+        <v>45259.46616313074</v>
       </c>
       <c r="B413" s="2" t="n">
-        <v>45259.4844398987</v>
+        <v>45259.48801062527</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -10768,18 +10768,18 @@
         <v>2</v>
       </c>
       <c r="F413" t="n">
-        <v>28.6219383823</v>
+        <v>31.4603921389</v>
       </c>
       <c r="G413" t="n">
-        <v>10079.48657470492</v>
+        <v>10082.4783621015</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45268.10985123718</v>
+        <v>45268.10930945931</v>
       </c>
       <c r="B414" s="2" t="n">
-        <v>45268.13203439692</v>
+        <v>45268.13410369965</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -10793,18 +10793,18 @@
         <v>4</v>
       </c>
       <c r="F414" t="n">
-        <v>31.9437500413</v>
+        <v>35.7037061095</v>
       </c>
       <c r="G414" t="n">
-        <v>12420.592327393</v>
+        <v>12414.6703209934</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45270.85783872165</v>
+        <v>45270.86221751689</v>
       </c>
       <c r="B415" s="2" t="n">
-        <v>45270.88430673285</v>
+        <v>45270.88283894065</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -10818,10 +10818,10 @@
         <v>6</v>
       </c>
       <c r="F415" t="n">
-        <v>38.1139361119</v>
+        <v>29.6948502211</v>
       </c>
       <c r="G415" t="n">
-        <v>3925.1582276052</v>
+        <v>3928.4838968029</v>
       </c>
     </row>
     <row r="416">
@@ -10846,15 +10846,15 @@
         <v>3.166666666666667</v>
       </c>
       <c r="G416" t="n">
-        <v>4811.714971366299</v>
+        <v>4813.828592126501</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45287.00133082797</v>
+        <v>45286.99770900338</v>
       </c>
       <c r="B417" s="2" t="n">
-        <v>45287.02004990023</v>
+        <v>45287.02245315576</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -10862,24 +10862,24 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F417" t="n">
-        <v>26.9554640522</v>
+        <v>35.6315794236</v>
       </c>
       <c r="G417" t="n">
-        <v>18393.6330589563</v>
+        <v>18388.417631545</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45287.12079150754</v>
+        <v>45287.1234295613</v>
       </c>
       <c r="B418" s="2" t="n">
-        <v>45287.14471645838</v>
+        <v>45287.14704933612</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -10893,18 +10893,18 @@
         <v>2</v>
       </c>
       <c r="F418" t="n">
-        <v>34.4519292131</v>
+        <v>34.0124757518</v>
       </c>
       <c r="G418" t="n">
-        <v>145.0679145263</v>
+        <v>145.4060239716</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45287.41444899701</v>
+        <v>45287.41697936355</v>
       </c>
       <c r="B419" s="2" t="n">
-        <v>45287.43684318414</v>
+        <v>45287.437812445</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -10912,24 +10912,24 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E419" t="n">
         <v>2</v>
       </c>
       <c r="F419" t="n">
-        <v>32.2476294813</v>
+        <v>29.9996372754</v>
       </c>
       <c r="G419" t="n">
-        <v>388.4148556151</v>
+        <v>388.6992395076</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45299.74882165482</v>
+        <v>45299.7466468468</v>
       </c>
       <c r="B420" s="2" t="n">
-        <v>45299.77210169149</v>
+        <v>45299.77279237404</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -10943,10 +10943,10 @@
         <v>0</v>
       </c>
       <c r="F420" t="n">
-        <v>33.52325281348333</v>
+        <v>37.6495592078</v>
       </c>
       <c r="G420" t="n">
-        <v>17729.248997762</v>
+        <v>17724.7215386012</v>
       </c>
     </row>
     <row r="421">
@@ -10971,7 +10971,7 @@
         <v>3.6</v>
       </c>
       <c r="G421" t="n">
-        <v>1646.806897580217</v>
+        <v>1645.812314716</v>
       </c>
     </row>
     <row r="422">
@@ -11001,10 +11001,10 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45302.92802474447</v>
+        <v>45302.9324643732</v>
       </c>
       <c r="B423" s="2" t="n">
-        <v>45302.95117771225</v>
+        <v>45302.95259361397</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -11018,10 +11018,10 @@
         <v>3</v>
       </c>
       <c r="F423" t="n">
-        <v>33.3402736277</v>
+        <v>28.9861067025</v>
       </c>
       <c r="G423" t="n">
-        <v>2878.5222987024</v>
+        <v>2884.9153640925</v>
       </c>
     </row>
     <row r="424">
@@ -11046,7 +11046,7 @@
         <v>12.56666666666667</v>
       </c>
       <c r="G424" t="n">
-        <v>38842.05409433657</v>
+        <v>38840.01519587167</v>
       </c>
     </row>
     <row r="425">
@@ -11076,10 +11076,10 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45340.54640799425</v>
+        <v>45340.54263096643</v>
       </c>
       <c r="B426" s="2" t="n">
-        <v>45340.56408247264</v>
+        <v>45340.56710589338</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -11093,18 +11093,18 @@
         <v>6</v>
       </c>
       <c r="F426" t="n">
-        <v>25.451248892</v>
+        <v>35.2438948077</v>
       </c>
       <c r="G426" t="n">
-        <v>15124.9441783852</v>
+        <v>15119.5052583343</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45351.26887842389</v>
+        <v>45351.27546986906</v>
       </c>
       <c r="B427" s="2" t="n">
-        <v>45351.29473350552</v>
+        <v>45351.29482360688</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -11118,18 +11118,18 @@
         <v>3</v>
       </c>
       <c r="F427" t="n">
-        <v>37.23131756119999</v>
+        <v>27.8693824567</v>
       </c>
       <c r="G427" t="n">
-        <v>15414.9061697919</v>
+        <v>15420.0441249791</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45352.35737545074</v>
+        <v>45352.35353188876</v>
       </c>
       <c r="B428" s="2" t="n">
-        <v>45352.37829127548</v>
+        <v>45352.37895368996</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -11143,18 +11143,18 @@
         <v>4</v>
       </c>
       <c r="F428" t="n">
-        <v>30.1187876202</v>
+        <v>36.6073937448</v>
       </c>
       <c r="G428" t="n">
-        <v>1530.2044011124</v>
+        <v>1524.5399259088</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45354.94192362325</v>
+        <v>45354.93642464357</v>
       </c>
       <c r="B429" s="2" t="n">
-        <v>45354.95711860073</v>
+        <v>45354.96273183291</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -11168,18 +11168,18 @@
         <v>6</v>
       </c>
       <c r="F429" t="n">
-        <v>21.8807675741</v>
+        <v>37.8823526622</v>
       </c>
       <c r="G429" t="n">
-        <v>3691.63058079</v>
+        <v>3682.7581731795</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45358.75211206092</v>
+        <v>45358.74801008821</v>
       </c>
       <c r="B430" s="2" t="n">
-        <v>45358.7719646037</v>
+        <v>45358.77323812489</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -11187,24 +11187,24 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E430" t="n">
         <v>3</v>
       </c>
       <c r="F430" t="n">
-        <v>28.5876616051</v>
+        <v>36.3283728294</v>
       </c>
       <c r="G430" t="n">
-        <v>5464.7905826708</v>
+        <v>5450.8006876236</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45361.91521243437</v>
+        <v>45361.91580256446</v>
       </c>
       <c r="B431" s="2" t="n">
-        <v>45361.93771430361</v>
+        <v>45361.94110584171</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -11218,18 +11218,18 @@
         <v>6</v>
       </c>
       <c r="F431" t="n">
-        <v>32.4026916952</v>
+        <v>36.43671924528334</v>
       </c>
       <c r="G431" t="n">
-        <v>4526.276876177</v>
+        <v>4525.292792973617</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45363.29443246795</v>
+        <v>45363.2912146117</v>
       </c>
       <c r="B432" s="2" t="n">
-        <v>45363.3155591754</v>
+        <v>45363.31468986471</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -11237,24 +11237,24 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E432" t="n">
         <v>1</v>
       </c>
       <c r="F432" t="n">
-        <v>30.4224587127</v>
+        <v>33.8043643442</v>
       </c>
       <c r="G432" t="n">
-        <v>1953.6741566527</v>
+        <v>1944.1566287748</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45368.77393718603</v>
+        <v>45368.76989115619</v>
       </c>
       <c r="B433" s="2" t="n">
-        <v>45368.79482165949</v>
+        <v>45368.79167706447</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -11268,18 +11268,18 @@
         <v>6</v>
       </c>
       <c r="F433" t="n">
-        <v>30.0736417772</v>
+        <v>31.3717079272</v>
       </c>
       <c r="G433" t="n">
-        <v>7860.0643353224</v>
+        <v>7855.4898597198</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45370.58585852056</v>
+        <v>45370.58363667512</v>
       </c>
       <c r="B434" s="2" t="n">
-        <v>45370.60383735948</v>
+        <v>45370.60887110817</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -11293,18 +11293,18 @@
         <v>1</v>
       </c>
       <c r="F434" t="n">
-        <v>25.8895280562</v>
+        <v>36.3375835871</v>
       </c>
       <c r="G434" t="n">
-        <v>2579.0930799286</v>
+        <v>2580.4218393477</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45372.54504638408</v>
+        <v>45372.54090999116</v>
       </c>
       <c r="B435" s="2" t="n">
-        <v>45372.56135422253</v>
+        <v>45372.56302838433</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -11312,24 +11312,24 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E435" t="n">
         <v>3</v>
       </c>
       <c r="F435" t="n">
-        <v>23.4832873778</v>
+        <v>31.8504861615</v>
       </c>
       <c r="G435" t="n">
-        <v>2795.3409954109</v>
+        <v>2782.1359914941</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45375.89683752634</v>
+        <v>45375.89469890847</v>
       </c>
       <c r="B436" s="2" t="n">
-        <v>45375.91571490005</v>
+        <v>45375.92053370755</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -11343,18 +11343,18 @@
         <v>6</v>
       </c>
       <c r="F436" t="n">
-        <v>27.18341813951667</v>
+        <v>37.20211066868333</v>
       </c>
       <c r="G436" t="n">
-        <v>4803.0959574891</v>
+        <v>4797.605554780416</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45380.37390619925</v>
+        <v>45380.3761931545</v>
       </c>
       <c r="B437" s="2" t="n">
-        <v>45380.39788188588</v>
+        <v>45380.39471535624</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -11362,24 +11362,24 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E437" t="n">
         <v>4</v>
       </c>
       <c r="F437" t="n">
-        <v>34.5249887534</v>
+        <v>26.6719704908</v>
       </c>
       <c r="G437" t="n">
-        <v>6419.795470850283</v>
+        <v>6416.149603614201</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45382.7937611992</v>
+        <v>45382.79475405259</v>
       </c>
       <c r="B438" s="2" t="n">
-        <v>45382.81622313453</v>
+        <v>45382.81625235451</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -11393,18 +11393,18 @@
         <v>6</v>
       </c>
       <c r="F438" t="n">
-        <v>32.3451868643</v>
+        <v>30.9575547638</v>
       </c>
       <c r="G438" t="n">
-        <v>3450.066211182</v>
+        <v>3456.055722749</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45387.29361029728</v>
+        <v>45387.28991356659</v>
       </c>
       <c r="B439" s="2" t="n">
-        <v>45387.3127173244</v>
+        <v>45387.31720717179</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -11412,24 +11412,24 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E439" t="n">
         <v>4</v>
       </c>
       <c r="F439" t="n">
-        <v>27.5141190388</v>
+        <v>39.3027914719</v>
       </c>
       <c r="G439" t="n">
-        <v>6447.4375143708</v>
+        <v>6442.072145412199</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45388.29375819775</v>
+        <v>45388.29373624034</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>45388.31264605536</v>
+        <v>45388.31544214756</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -11443,18 +11443,18 @@
         <v>5</v>
       </c>
       <c r="F440" t="n">
-        <v>27.1985149427</v>
+        <v>31.2565064123</v>
       </c>
       <c r="G440" t="n">
-        <v>1412.6988576444</v>
+        <v>1406.2018587003</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45394.81190072196</v>
+        <v>45394.81069427812</v>
       </c>
       <c r="B441" s="2" t="n">
-        <v>45394.83220561661</v>
+        <v>45394.83634663274</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -11468,18 +11468,18 @@
         <v>4</v>
       </c>
       <c r="F441" t="n">
-        <v>29.2390482945</v>
+        <v>36.9393906459</v>
       </c>
       <c r="G441" t="n">
-        <v>9358.926719905199</v>
+        <v>9353.163068018201</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45399.29070309064</v>
+        <v>45399.29354737537</v>
       </c>
       <c r="B442" s="2" t="n">
-        <v>45399.31608424464</v>
+        <v>45399.31709730261</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -11487,24 +11487,24 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E442" t="n">
         <v>2</v>
       </c>
       <c r="F442" t="n">
-        <v>36.548861763</v>
+        <v>33.9118952332</v>
       </c>
       <c r="G442" t="n">
-        <v>6420.236362601</v>
+        <v>6418.3690693839</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45401.39909237209</v>
+        <v>45401.39744364785</v>
       </c>
       <c r="B443" s="2" t="n">
-        <v>45401.42103230159</v>
+        <v>45401.41617372119</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -11518,18 +11518,18 @@
         <v>4</v>
       </c>
       <c r="F443" t="n">
-        <v>31.5934984727</v>
+        <v>26.9713056144</v>
       </c>
       <c r="G443" t="n">
-        <v>2999.5317035376</v>
+        <v>2995.6987371356</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45401.70660351935</v>
+        <v>45401.70678100333</v>
       </c>
       <c r="B444" s="2" t="n">
-        <v>45401.73328130296</v>
+        <v>45401.73005493332</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -11543,18 +11543,18 @@
         <v>4</v>
       </c>
       <c r="F444" t="n">
-        <v>38.4160083989</v>
+        <v>33.5144591847</v>
       </c>
       <c r="G444" t="n">
-        <v>411.2225535792001</v>
+        <v>418.474486279</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45411.18931868108</v>
+        <v>45411.19073470927</v>
       </c>
       <c r="B445" s="2" t="n">
-        <v>45411.2093082128</v>
+        <v>45411.21151665392</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -11568,18 +11568,18 @@
         <v>0</v>
       </c>
       <c r="F445" t="n">
-        <v>28.7849256669</v>
+        <v>29.9260002947</v>
       </c>
       <c r="G445" t="n">
-        <v>13616.6938245009</v>
+        <v>13623.3788773574</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45415.46302557951</v>
+        <v>45415.46238056272</v>
       </c>
       <c r="B446" s="2" t="n">
-        <v>45415.47794593286</v>
+        <v>45415.48213501853</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -11593,18 +11593,18 @@
         <v>4</v>
       </c>
       <c r="F446" t="n">
-        <v>21.48530883</v>
+        <v>28.4464163778</v>
       </c>
       <c r="G446" t="n">
-        <v>6125.353008055599</v>
+        <v>6121.2440286718</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45417.87461903886</v>
+        <v>45417.87515344047</v>
       </c>
       <c r="B447" s="2" t="n">
-        <v>45417.89597237767</v>
+        <v>45417.89937914039</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -11612,24 +11612,24 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E447" t="n">
         <v>6</v>
       </c>
       <c r="F447" t="n">
-        <v>30.7488078836</v>
+        <v>34.8850079011</v>
       </c>
       <c r="G447" t="n">
-        <v>3451.2092726529</v>
+        <v>3445.946527583</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45425.35284661395</v>
+        <v>45425.35460008027</v>
       </c>
       <c r="B448" s="2" t="n">
-        <v>45425.37848358786</v>
+        <v>45425.37633986037</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -11643,18 +11643,18 @@
         <v>0</v>
       </c>
       <c r="F448" t="n">
-        <v>36.9172424262</v>
+        <v>31.3052833378</v>
       </c>
       <c r="G448" t="n">
-        <v>10737.8989002317</v>
+        <v>10735.5181534282</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45426.01994096453</v>
+        <v>45426.02520674714</v>
       </c>
       <c r="B449" s="2" t="n">
-        <v>45426.04587717491</v>
+        <v>45426.04504391557</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -11668,18 +11668,18 @@
         <v>1</v>
       </c>
       <c r="F449" t="n">
-        <v>37.3481429605</v>
+        <v>28.5655225383</v>
       </c>
       <c r="G449" t="n">
-        <v>923.6986223968</v>
+        <v>934.3683169473001</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45426.91536318819</v>
+        <v>45426.91644658009</v>
       </c>
       <c r="B450" s="2" t="n">
-        <v>45426.9410645868</v>
+        <v>45426.93721992711</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -11693,18 +11693,18 @@
         <v>1</v>
       </c>
       <c r="F450" t="n">
-        <v>37.0100140034</v>
+        <v>29.9136197063</v>
       </c>
       <c r="G450" t="n">
-        <v>1252.0598591155</v>
+        <v>1254.8198369082</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45429.79460602624</v>
+        <v>45429.79197835591</v>
       </c>
       <c r="B451" s="2" t="n">
-        <v>45429.8163030956</v>
+        <v>45429.81375664048</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -11718,18 +11718,18 @@
         <v>4</v>
       </c>
       <c r="F451" t="n">
-        <v>31.2437798876</v>
+        <v>31.3607297852</v>
       </c>
       <c r="G451" t="n">
-        <v>4109.0996727883</v>
+        <v>4110.8521374852</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45435.70954705781</v>
+        <v>45435.70798826509</v>
       </c>
       <c r="B452" s="2" t="n">
-        <v>45435.72841241875</v>
+        <v>45435.72773565407</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -11737,24 +11737,24 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E452" t="n">
         <v>3</v>
       </c>
       <c r="F452" t="n">
-        <v>27.1661197407</v>
+        <v>28.4362401327</v>
       </c>
       <c r="G452" t="n">
-        <v>8486.271305587999</v>
+        <v>8487.6935394259</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45440.14999954047</v>
+        <v>45440.15031159925</v>
       </c>
       <c r="B453" s="2" t="n">
-        <v>45440.16922325885</v>
+        <v>45440.17103580241</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -11768,18 +11768,18 @@
         <v>1</v>
       </c>
       <c r="F453" t="n">
-        <v>27.6821544511</v>
+        <v>29.8428525412</v>
       </c>
       <c r="G453" t="n">
-        <v>6367.085455296899</v>
+        <v>6368.5093610551</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45441.68758894728</v>
+        <v>45441.68997931988</v>
       </c>
       <c r="B454" s="2" t="n">
-        <v>45441.70897449302</v>
+        <v>45441.70892990656</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -11793,18 +11793,18 @@
         <v>2</v>
       </c>
       <c r="F454" t="n">
-        <v>30.7951858576</v>
+        <v>27.2888448316</v>
       </c>
       <c r="G454" t="n">
-        <v>2186.4465913447</v>
+        <v>2187.2786651501</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45446.14570665075</v>
+        <v>45446.15010102069</v>
       </c>
       <c r="B455" s="2" t="n">
-        <v>45446.16636228595</v>
+        <v>45446.16498253644</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -11818,18 +11818,18 @@
         <v>0</v>
       </c>
       <c r="F455" t="n">
-        <v>29.744114678</v>
+        <v>21.42938268081667</v>
       </c>
       <c r="G455" t="n">
-        <v>6388.8943071392</v>
+        <v>6395.286404358183</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45452.37884474562</v>
+        <v>45452.3792999335</v>
       </c>
       <c r="B456" s="2" t="n">
-        <v>45452.3949947744</v>
+        <v>45452.39635612073</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -11843,18 +11843,18 @@
         <v>6</v>
       </c>
       <c r="F456" t="n">
-        <v>23.256041441</v>
+        <v>24.5609096191</v>
       </c>
       <c r="G456" t="n">
-        <v>8945.974741931899</v>
+        <v>8948.617051747698</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45457.02036928252</v>
+        <v>45457.02105613109</v>
       </c>
       <c r="B457" s="2" t="n">
-        <v>45457.04493217972</v>
+        <v>45457.0399545892</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -11868,18 +11868,18 @@
         <v>4</v>
       </c>
       <c r="F457" t="n">
-        <v>35.3705719619</v>
+        <v>27.2137796711</v>
       </c>
       <c r="G457" t="n">
-        <v>6660.5392916998</v>
+        <v>6659.568014923399</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45467.51991250495</v>
+        <v>45467.52009692247</v>
       </c>
       <c r="B458" s="2" t="n">
-        <v>45467.54540245711</v>
+        <v>45467.54323042833</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -11893,18 +11893,18 @@
         <v>0</v>
       </c>
       <c r="F458" t="n">
-        <v>36.7055311031</v>
+        <v>33.3122484531</v>
       </c>
       <c r="G458" t="n">
-        <v>15083.9716683289</v>
+        <v>15091.4049599084</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45468.20808908244</v>
+        <v>45468.21231801792</v>
       </c>
       <c r="B459" s="2" t="n">
-        <v>45468.22811281207</v>
+        <v>45468.22739178492</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -11912,24 +11912,24 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E459" t="n">
         <v>1</v>
       </c>
       <c r="F459" t="n">
-        <v>28.8341706711</v>
+        <v>21.7062244892</v>
       </c>
       <c r="G459" t="n">
-        <v>954.2687404815</v>
+        <v>963.4861289911</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45469.43589533116</v>
+        <v>45469.43921212267</v>
       </c>
       <c r="B460" s="2" t="n">
-        <v>45469.46228207804</v>
+        <v>45469.4589126901</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -11943,18 +11943,18 @@
         <v>2</v>
       </c>
       <c r="F460" t="n">
-        <v>37.9969155182</v>
+        <v>28.368817103</v>
       </c>
       <c r="G460" t="n">
-        <v>1739.2068274891</v>
+        <v>1745.0212863649</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45483.1903525038</v>
+        <v>45483.18882872014</v>
       </c>
       <c r="B461" s="2" t="n">
-        <v>45483.20989490288</v>
+        <v>45483.21098792135</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -11968,18 +11968,18 @@
         <v>2</v>
       </c>
       <c r="F461" t="n">
-        <v>28.1410546738</v>
+        <v>31.9092497455</v>
       </c>
       <c r="G461" t="n">
-        <v>19768.4214130802</v>
+        <v>19771.0790832468</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45492.52470643281</v>
+        <v>45492.52241688644</v>
       </c>
       <c r="B462" s="2" t="n">
-        <v>45492.54590633813</v>
+        <v>45492.5396991504</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -11993,18 +11993,18 @@
         <v>4</v>
       </c>
       <c r="F462" t="n">
-        <v>30.527863659</v>
+        <v>24.8864601066</v>
       </c>
       <c r="G462" t="n">
-        <v>13413.3286031153</v>
+        <v>13408.4577097258</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45493.04431320962</v>
+        <v>45493.04270457558</v>
       </c>
       <c r="B463" s="2" t="n">
-        <v>45493.06299876003</v>
+        <v>45493.06177231488</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -12018,18 +12018,18 @@
         <v>5</v>
       </c>
       <c r="F463" t="n">
-        <v>26.9071925796</v>
+        <v>27.4575445877</v>
       </c>
       <c r="G463" t="n">
-        <v>717.7058949411</v>
+        <v>724.3278122545</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45498.7069068967</v>
+        <v>45498.70835518763</v>
       </c>
       <c r="B464" s="2" t="n">
-        <v>45498.73349592441</v>
+        <v>45498.72818551384</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -12037,24 +12037,24 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E464" t="n">
         <v>3</v>
       </c>
       <c r="F464" t="n">
-        <v>38.28819990140001</v>
+        <v>28.5556697516</v>
       </c>
       <c r="G464" t="n">
-        <v>8127.2277168176</v>
+        <v>8131.0793367622</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45499.62606736986</v>
+        <v>45499.62355204659</v>
       </c>
       <c r="B465" s="2" t="n">
-        <v>45499.64402838647</v>
+        <v>45499.64521524694</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -12062,24 +12062,24 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E465" t="n">
         <v>4</v>
       </c>
       <c r="F465" t="n">
-        <v>25.8638639191</v>
+        <v>31.1950085195</v>
       </c>
       <c r="G465" t="n">
-        <v>1285.3028814447</v>
+        <v>1289.3278071456</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45501.97923219581</v>
+        <v>45501.98117416182</v>
       </c>
       <c r="B466" s="2" t="n">
-        <v>45501.99983169906</v>
+        <v>45502.00058770394</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -12093,18 +12093,18 @@
         <v>6</v>
       </c>
       <c r="F466" t="n">
-        <v>29.6632846947</v>
+        <v>27.9555006698</v>
       </c>
       <c r="G466" t="n">
-        <v>3362.6934854416</v>
+        <v>3363.780837414</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45516.47966346918</v>
+        <v>45516.48378523404</v>
       </c>
       <c r="B467" s="2" t="n">
-        <v>45516.49916677418</v>
+        <v>45516.50112682639</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -12118,18 +12118,18 @@
         <v>0</v>
       </c>
       <c r="F467" t="n">
-        <v>28.0847592066</v>
+        <v>24.9718929838</v>
       </c>
       <c r="G467" t="n">
-        <v>20850.9577489548</v>
+        <v>20855.8044433265</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45519.69097866859</v>
+        <v>45519.69221477469</v>
       </c>
       <c r="B468" s="2" t="n">
-        <v>45519.70652435</v>
+        <v>45519.71257138279</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -12143,18 +12143,18 @@
         <v>3</v>
       </c>
       <c r="F468" t="n">
-        <v>22.3857812459</v>
+        <v>29.3135156662</v>
       </c>
       <c r="G468" t="n">
-        <v>4596.2091279435</v>
+        <v>4595.1666455496</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45520.04160658959</v>
+        <v>45520.04254189382</v>
       </c>
       <c r="B469" s="2" t="n">
-        <v>45520.06220503725</v>
+        <v>45520.06716857672</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -12162,24 +12162,24 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E469" t="n">
         <v>4</v>
       </c>
       <c r="F469" t="n">
-        <v>29.6617646061</v>
+        <v>35.4624233762</v>
       </c>
       <c r="G469" t="n">
-        <v>482.5184250156</v>
+        <v>475.1575358968</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45525.50221823479</v>
+        <v>45525.50460803234</v>
       </c>
       <c r="B470" s="2" t="n">
-        <v>45525.51943891877</v>
+        <v>45525.52536724781</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -12193,18 +12193,18 @@
         <v>2</v>
       </c>
       <c r="F470" t="n">
-        <v>24.79778494</v>
+        <v>29.8932702763</v>
       </c>
       <c r="G470" t="n">
-        <v>7833.619004467099</v>
+        <v>7829.9128160849</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45542.7104446731</v>
+        <v>45542.710885081</v>
       </c>
       <c r="B471" s="2" t="n">
-        <v>45542.72930402425</v>
+        <v>45542.72987212368</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -12218,18 +12218,18 @@
         <v>5</v>
       </c>
       <c r="F471" t="n">
-        <v>27.1574656431</v>
+        <v>27.3413414503</v>
       </c>
       <c r="G471" t="n">
-        <v>24755.0482862351</v>
+        <v>24747.1456798055</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45546.60641177994</v>
+        <v>45546.60742595894</v>
       </c>
       <c r="B472" s="2" t="n">
-        <v>45546.62478558718</v>
+        <v>45546.62374160739</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -12243,18 +12243,18 @@
         <v>2</v>
       </c>
       <c r="F472" t="n">
-        <v>26.4582824379</v>
+        <v>23.4945337789</v>
       </c>
       <c r="G472" t="n">
-        <v>5583.035168195501</v>
+        <v>5583.677522764299</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45549.27510121268</v>
+        <v>45549.26908108985</v>
       </c>
       <c r="B473" s="2" t="n">
-        <v>45549.29171043905</v>
+        <v>45549.28985576564</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -12268,18 +12268,18 @@
         <v>5</v>
       </c>
       <c r="F473" t="n">
-        <v>23.9172859661</v>
+        <v>29.9155331316</v>
       </c>
       <c r="G473" t="n">
-        <v>3816.4545007219</v>
+        <v>3809.2888547393</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45552.8148102494</v>
+        <v>45552.81482172587</v>
       </c>
       <c r="B474" s="2" t="n">
-        <v>45552.83613169396</v>
+        <v>45552.83746514747</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -12293,10 +12293,10 @@
         <v>1</v>
       </c>
       <c r="F474" t="n">
-        <v>30.7028801696</v>
+        <v>32.6065271252</v>
       </c>
       <c r="G474" t="n">
-        <v>5073.2637268925</v>
+        <v>5075.950982732399</v>
       </c>
     </row>
     <row r="475">
@@ -12321,7 +12321,7 @@
         <v>6.483333333333333</v>
       </c>
       <c r="G475" t="n">
-        <v>1697.487027360333</v>
+        <v>1695.566854287133</v>
       </c>
     </row>
     <row r="476">
@@ -12351,10 +12351,10 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45559.27222064309</v>
+        <v>45559.27644562664</v>
       </c>
       <c r="B477" s="2" t="n">
-        <v>45559.2974394591</v>
+        <v>45559.29511784074</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -12368,18 +12368,18 @@
         <v>1</v>
       </c>
       <c r="F477" t="n">
-        <v>36.3150950614</v>
+        <v>26.887988293</v>
       </c>
       <c r="G477" t="n">
-        <v>7557.1143927205</v>
+        <v>7563.1983690425</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45565.27401731487</v>
+        <v>45565.27291097733</v>
       </c>
       <c r="B478" s="2" t="n">
-        <v>45565.29468615369</v>
+        <v>45565.29236482818</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -12393,18 +12393,18 @@
         <v>0</v>
       </c>
       <c r="F478" t="n">
-        <v>29.7631279012</v>
+        <v>28.0135452443</v>
       </c>
       <c r="G478" t="n">
-        <v>8606.272112311</v>
+        <v>8608.022116683</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45576.02663692308</v>
+        <v>45576.02568825828</v>
       </c>
       <c r="B479" s="2" t="n">
-        <v>45576.04725648974</v>
+        <v>45576.04498205321</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -12418,18 +12418,18 @@
         <v>4</v>
       </c>
       <c r="F479" t="n">
-        <v>29.6921759856</v>
+        <v>27.7830647058</v>
       </c>
       <c r="G479" t="n">
-        <v>15454.0091079182</v>
+        <v>15455.9857393236</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45578.43758351554</v>
+        <v>45578.44355383763</v>
       </c>
       <c r="B480" s="2" t="n">
-        <v>45578.46174743729</v>
+        <v>45578.46240499982</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -12443,18 +12443,18 @@
         <v>6</v>
       </c>
       <c r="F480" t="n">
-        <v>34.796047322</v>
+        <v>27.1456735725</v>
       </c>
       <c r="G480" t="n">
-        <v>3442.0709171596</v>
+        <v>3453.9433695584</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45581.46287622711</v>
+        <v>45581.46327421848</v>
       </c>
       <c r="B481" s="2" t="n">
-        <v>45581.48514327265</v>
+        <v>45581.47940595946</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -12468,18 +12468,18 @@
         <v>2</v>
       </c>
       <c r="F481" t="n">
-        <v>32.0645455855</v>
+        <v>23.2297070036</v>
       </c>
       <c r="G481" t="n">
-        <v>4321.625457323</v>
+        <v>4321.2516748686</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45582.17089965669</v>
+        <v>45582.16849023548</v>
       </c>
       <c r="B482" s="2" t="n">
-        <v>45582.18921415832</v>
+        <v>45582.19338837683</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -12493,18 +12493,18 @@
         <v>3</v>
       </c>
       <c r="F482" t="n">
-        <v>26.3728823523</v>
+        <v>35.853323546</v>
       </c>
       <c r="G482" t="n">
-        <v>987.4891930171</v>
+        <v>992.2813574598</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45585.44000295265</v>
+        <v>45585.4389460098</v>
       </c>
       <c r="B483" s="2" t="n">
-        <v>45585.46196551365</v>
+        <v>45585.46187678086</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -12518,18 +12518,18 @@
         <v>6</v>
       </c>
       <c r="F483" t="n">
-        <v>31.6260878341</v>
+        <v>33.0203103288</v>
       </c>
       <c r="G483" t="n">
-        <v>4681.135863841801</v>
+        <v>4673.6029914823</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45590.83681846775</v>
+        <v>45590.83589895011</v>
       </c>
       <c r="B484" s="2" t="n">
-        <v>45590.85470584763</v>
+        <v>45590.85866520445</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -12543,18 +12543,18 @@
         <v>4</v>
       </c>
       <c r="F484" t="n">
-        <v>25.7578270129</v>
+        <v>32.7834062719</v>
       </c>
       <c r="G484" t="n">
-        <v>7739.7882539165</v>
+        <v>7738.591923713901</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45592.81313146816</v>
+        <v>45592.81405119333</v>
       </c>
       <c r="B485" s="2" t="n">
-        <v>45592.83819072138</v>
+        <v>45592.84006788736</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -12568,10 +12568,10 @@
         <v>6</v>
       </c>
       <c r="F485" t="n">
-        <v>36.085324628</v>
+        <v>37.4640394047</v>
       </c>
       <c r="G485" t="n">
-        <v>2820.1328935645</v>
+        <v>2815.7558239766</v>
       </c>
     </row>
     <row r="486">
@@ -12596,7 +12596,7 @@
         <v>3.016666666666667</v>
       </c>
       <c r="G486" t="n">
-        <v>11277.3386945448</v>
+        <v>11274.6355755207</v>
       </c>
     </row>
     <row r="487">

--- a/content/balanced_data_with_features.xlsx
+++ b/content/balanced_data_with_features.xlsx
@@ -501,10 +501,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43851.67562879137</v>
+        <v>43851.67330189647</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43851.69099127268</v>
+        <v>43851.69369970333</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -518,10 +518,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>22.1219730699</v>
+        <v>29.37284188921667</v>
       </c>
       <c r="G3" t="n">
-        <v>19564.4221262609</v>
+        <v>19561.07139759299</v>
       </c>
     </row>
     <row r="4">
@@ -546,15 +546,15 @@
         <v>9.016666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>9636.722567335868</v>
+        <v>9632.822427184467</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43864.05365162359</v>
+        <v>43864.05937437613</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43864.07827821499</v>
+        <v>43864.07414258539</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>35.4622916113</v>
+        <v>21.2662213304</v>
       </c>
       <c r="G5" t="n">
-        <v>8156.4916713074</v>
+        <v>8164.732434980399</v>
       </c>
     </row>
     <row r="6">
@@ -596,7 +596,7 @@
         <v>2.366666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>3407.2960370813</v>
+        <v>3413.2513436892</v>
       </c>
     </row>
     <row r="7">
@@ -676,10 +676,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43878.34075589276</v>
+        <v>43878.33705808927</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43878.35714533722</v>
+        <v>43878.35629915286</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -693,18 +693,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.6008000331</v>
+        <v>27.707131567</v>
       </c>
       <c r="G10" t="n">
-        <v>13203.455152239</v>
+        <v>13198.1303152281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43884.94372543792</v>
+        <v>43884.93953632312</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43884.9655271298</v>
+        <v>43884.96068486751</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>31.3944363228</v>
+        <v>30.4539039345</v>
       </c>
       <c r="G11" t="n">
-        <v>9484.675345000102</v>
+        <v>9479.8615251665</v>
       </c>
     </row>
     <row r="12">
@@ -746,7 +746,7 @@
         <v>4.1</v>
       </c>
       <c r="G12" t="n">
-        <v>7057.257599738334</v>
+        <v>7064.230457437234</v>
       </c>
     </row>
     <row r="13">
@@ -776,10 +776,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43892.19161045385</v>
+        <v>43892.18595315259</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43892.21012335603</v>
+        <v>43892.20882036942</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -793,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>26.65857914278333</v>
+        <v>32.9287922489</v>
       </c>
       <c r="G14" t="n">
-        <v>3304.6023868887</v>
+        <v>3296.455873067</v>
       </c>
     </row>
     <row r="15">
@@ -821,15 +821,15 @@
         <v>3.45</v>
       </c>
       <c r="G15" t="n">
-        <v>2815.155700635184</v>
+        <v>2817.032001350767</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43896.18633356028</v>
+        <v>43896.1904274418</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43896.21068683163</v>
+        <v>43896.20679500619</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>35.0687107602</v>
+        <v>23.5692927094</v>
       </c>
       <c r="G16" t="n">
-        <v>2907.1369934693</v>
+        <v>2913.0321828771</v>
       </c>
     </row>
     <row r="17">
@@ -871,7 +871,7 @@
         <v>9.816666666666666</v>
       </c>
       <c r="G17" t="n">
-        <v>14722.87762910383</v>
+        <v>14728.48185774683</v>
       </c>
     </row>
     <row r="18">
@@ -901,10 +901,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43908.00134288635</v>
+        <v>43907.99636696278</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43908.0216978467</v>
+        <v>43908.02287786852</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -912,24 +912,24 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>29.3111429271</v>
+        <v>38.1757042663</v>
       </c>
       <c r="G19" t="n">
-        <v>2223.2004230052</v>
+        <v>2216.0350930753</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43910.1634974222</v>
+        <v>43910.16610902889</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43910.18995794307</v>
+        <v>43910.18659223398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -943,10 +943,10 @@
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>38.103150058</v>
+        <v>29.4958153414</v>
       </c>
       <c r="G20" t="n">
-        <v>3084.1913887056</v>
+        <v>3086.2528709318</v>
       </c>
     </row>
     <row r="21">
@@ -971,7 +971,7 @@
         <v>4.45</v>
       </c>
       <c r="G21" t="n">
-        <v>6082.010561970767</v>
+        <v>6086.857183051867</v>
       </c>
     </row>
     <row r="22">
@@ -1076,10 +1076,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43929.71037635763</v>
+        <v>43929.70614274648</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43929.73042294285</v>
+        <v>43929.72690097455</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1087,24 +1087,24 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>28.8670827267</v>
+        <v>29.891848411</v>
       </c>
       <c r="G26" t="n">
-        <v>11043.9419549846</v>
+        <v>11037.8455549403</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43932.16448511927</v>
+        <v>43932.16384098711</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43932.18483407328</v>
+        <v>43932.18340133949</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1118,18 +1118,18 @@
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>29.30249376518333</v>
+        <v>28.1669074296</v>
       </c>
       <c r="G27" t="n">
-        <v>3505.049534044917</v>
+        <v>3509.1936180908</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43934.87408605183</v>
+        <v>43934.87475941607</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43934.89403230525</v>
+        <v>43934.89308685654</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1143,18 +1143,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>28.7226049309</v>
+        <v>26.3915142883</v>
       </c>
       <c r="G28" t="n">
-        <v>3872.5228491283</v>
+        <v>3875.5556302622</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43935.03839898775</v>
+        <v>43935.04132509082</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43935.06312371237</v>
+        <v>43935.06134015586</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1168,18 +1168,18 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>35.6036034497</v>
+        <v>28.82169365111667</v>
       </c>
       <c r="G29" t="n">
-        <v>207.8880227875</v>
+        <v>213.4630573746834</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43937.87702400038</v>
+        <v>43937.87743680185</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43937.89176717346</v>
+        <v>43937.89377387922</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1193,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>21.2301692334</v>
+        <v>23.52539141871667</v>
       </c>
       <c r="G30" t="n">
-        <v>4052.0164147416</v>
+        <v>4055.179170232484</v>
       </c>
     </row>
     <row r="31">
@@ -1221,7 +1221,7 @@
         <v>3.416666666666667</v>
       </c>
       <c r="G31" t="n">
-        <v>18902.07193687387</v>
+        <v>18899.18228056747</v>
       </c>
     </row>
     <row r="32">
@@ -1351,10 +1351,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43967.07279239287</v>
+        <v>43967.07424012428</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43967.09462367933</v>
+        <v>43967.09938166013</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1368,18 +1368,18 @@
         <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>31.4370525007</v>
+        <v>36.2038116062</v>
       </c>
       <c r="G37" t="n">
-        <v>11395.7210457419</v>
+        <v>11397.8057789823</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43970.59505809916</v>
+        <v>43970.59468932066</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43970.61647267197</v>
+        <v>43970.61810746118</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>30.8369848462</v>
+        <v>33.7221223527</v>
       </c>
       <c r="G38" t="n">
-        <v>5040.6255645478</v>
+        <v>5033.2430311669</v>
       </c>
     </row>
     <row r="39">
@@ -1421,15 +1421,15 @@
         <v>5.183333333333334</v>
       </c>
       <c r="G39" t="n">
-        <v>6084.862685696733</v>
+        <v>6082.508589225234</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43975.24456320606</v>
+        <v>43975.23894550163</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43975.26028799383</v>
+        <v>43975.26521602714</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1443,18 +1443,18 @@
         <v>6</v>
       </c>
       <c r="F40" t="n">
-        <v>22.6436943721</v>
+        <v>37.82955672799999</v>
       </c>
       <c r="G40" t="n">
-        <v>574.4043500792</v>
+        <v>566.3148556953</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43979.84705714971</v>
+        <v>43979.84900590077</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43979.86602340999</v>
+        <v>43979.86967530005</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1468,18 +1468,18 @@
         <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>27.3114148024</v>
+        <v>29.7639349638</v>
       </c>
       <c r="G41" t="n">
-        <v>6604.947584466199</v>
+        <v>6600.6574180183</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43984.86385800537</v>
+        <v>43984.86709461022</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43984.89008353179</v>
+        <v>43984.8862256905</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1493,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>37.7647580456</v>
+        <v>27.5487556002</v>
       </c>
       <c r="G42" t="n">
-        <v>7196.8818173622</v>
+        <v>7196.2838066473</v>
       </c>
     </row>
     <row r="43">
@@ -1521,7 +1521,7 @@
         <v>3.283333333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>4023.313047538967</v>
+        <v>4028.868339013767</v>
       </c>
     </row>
     <row r="44">
@@ -1551,10 +1551,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43993.21545846014</v>
+        <v>43993.21341603762</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43993.23222219859</v>
+        <v>43993.23549445029</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1568,18 +1568,18 @@
         <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>24.1397833537</v>
+        <v>31.7929142561</v>
       </c>
       <c r="G45" t="n">
-        <v>4594.2435159486</v>
+        <v>4591.3024275098</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43994.19042180113</v>
+        <v>43994.19302795207</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43994.21166469668</v>
+        <v>43994.21449436666</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1593,10 +1593,10 @@
         <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>30.5897695951</v>
+        <v>30.9116370098</v>
       </c>
       <c r="G46" t="n">
-        <v>1379.8074276577</v>
+        <v>1378.8482425628</v>
       </c>
     </row>
     <row r="47">
@@ -1621,7 +1621,7 @@
         <v>3.9</v>
       </c>
       <c r="G47" t="n">
-        <v>40360.1695034449</v>
+        <v>40356.0947786615</v>
       </c>
     </row>
     <row r="48">
@@ -1676,10 +1676,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44031.61269687164</v>
+        <v>44031.6147639332</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44031.63485347414</v>
+        <v>44031.63903005084</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1693,18 +1693,18 @@
         <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>31.9055075888</v>
+        <v>34.9432093952</v>
       </c>
       <c r="G50" t="n">
-        <v>13435.2668285112</v>
+        <v>13438.2433971386</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44038.0133824023</v>
+        <v>44038.01211667882</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44038.03070418916</v>
+        <v>44038.03321803369</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1718,18 +1718,18 @@
         <v>6</v>
       </c>
       <c r="F51" t="n">
-        <v>24.9433730845</v>
+        <v>30.3859510243</v>
       </c>
       <c r="G51" t="n">
-        <v>9185.081656552</v>
+        <v>9177.244744300098</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44048.36434078274</v>
+        <v>44048.36403625281</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>44048.38423473317</v>
+        <v>44048.38599848119</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1743,18 +1743,18 @@
         <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>28.6472886045</v>
+        <v>31.6256088747</v>
       </c>
       <c r="G52" t="n">
-        <v>14880.4366947626</v>
+        <v>14876.3782355312</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44050.55398930617</v>
+        <v>44050.55397584169</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>44050.5738146614</v>
+        <v>44050.57284335583</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1768,18 +1768,18 @@
         <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>28.5485115258</v>
+        <v>27.1692203422</v>
       </c>
       <c r="G53" t="n">
-        <v>3124.4465851275</v>
+        <v>3121.8873991185</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44051.74161588628</v>
+        <v>44051.73896795393</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>44051.76434666992</v>
+        <v>44051.7634249217</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
         <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>32.7323284347</v>
+        <v>35.2180335726</v>
       </c>
       <c r="G54" t="n">
-        <v>1681.6337638412</v>
+        <v>1679.2194212871</v>
       </c>
     </row>
     <row r="55">
@@ -1821,7 +1821,7 @@
         <v>3.55</v>
       </c>
       <c r="G55" t="n">
-        <v>3253.274128633866</v>
+        <v>3254.601446082167</v>
       </c>
     </row>
     <row r="56">
@@ -2176,10 +2176,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44060.64894406219</v>
+        <v>44060.65094417508</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44060.66928272147</v>
+        <v>44060.66982620185</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2193,10 +2193,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>29.2876693648</v>
+        <v>27.1901185521</v>
       </c>
       <c r="G70" t="n">
-        <v>1225.9961162236</v>
+        <v>1228.8762787917</v>
       </c>
     </row>
     <row r="71">
@@ -2221,15 +2221,15 @@
         <v>6.8</v>
       </c>
       <c r="G71" t="n">
-        <v>838.0828810782666</v>
+        <v>837.3002693228666</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44061.35981406386</v>
+        <v>44061.36298140131</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44061.37987642887</v>
+        <v>44061.38290233717</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2243,10 +2243,10 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>28.8898055913</v>
+        <v>28.6861476579</v>
       </c>
       <c r="G72" t="n">
-        <v>149.4822519769</v>
+        <v>154.0432178885</v>
       </c>
     </row>
     <row r="73">
@@ -2271,7 +2271,7 @@
         <v>3.433333333333333</v>
       </c>
       <c r="G73" t="n">
-        <v>16306.94460909847</v>
+        <v>16302.58730112027</v>
       </c>
     </row>
     <row r="74">
@@ -2476,10 +2476,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44090.32004555874</v>
+        <v>44090.31660575972</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>44090.34179226258</v>
+        <v>44090.34045635843</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2493,18 +2493,18 @@
         <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>31.3152535297</v>
+        <v>34.34486214</v>
       </c>
       <c r="G82" t="n">
-        <v>2313.1989379241</v>
+        <v>2308.2456273377</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44090.9207987653</v>
+        <v>44090.92264212216</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>44090.94330892678</v>
+        <v>44090.94037723359</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2518,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>32.41463252320001</v>
+        <v>25.53856044161667</v>
       </c>
       <c r="G83" t="n">
-        <v>833.7693639234</v>
+        <v>838.3474997869999</v>
       </c>
     </row>
     <row r="84">
@@ -2546,15 +2546,15 @@
         <v>4.533333333333333</v>
       </c>
       <c r="G84" t="n">
-        <v>635.8684787662667</v>
+        <v>640.09011696035</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44094.17656728606</v>
+        <v>44094.17862788431</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>44094.2019085449</v>
+        <v>44094.20050063332</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2568,10 +2568,10 @@
         <v>6</v>
       </c>
       <c r="F85" t="n">
-        <v>36.4914127107</v>
+        <v>31.4967585742</v>
       </c>
       <c r="G85" t="n">
-        <v>4015.4902252743</v>
+        <v>4018.457486759</v>
       </c>
     </row>
     <row r="86">
@@ -2596,7 +2596,7 @@
         <v>3.016666666666667</v>
       </c>
       <c r="G86" t="n">
-        <v>6817.818362014999</v>
+        <v>6819.845754666801</v>
       </c>
     </row>
     <row r="87">
@@ -2776,10 +2776,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44143.2794746155</v>
+        <v>44143.27699534542</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44143.30046021246</v>
+        <v>44143.30023281387</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2793,18 +2793,18 @@
         <v>6</v>
       </c>
       <c r="F94" t="n">
-        <v>30.2192596098</v>
+        <v>33.4619545703</v>
       </c>
       <c r="G94" t="n">
-        <v>26011.9601129974</v>
+        <v>26008.3899640732</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44147.65201229542</v>
+        <v>44147.65541390617</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>44147.6770548025</v>
+        <v>44147.67574050018</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2818,18 +2818,18 @@
         <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>36.0612102007</v>
+        <v>29.2702953545</v>
       </c>
       <c r="G95" t="n">
-        <v>6266.2349994598</v>
+        <v>6271.4607729201</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44164.30147487562</v>
+        <v>44164.30128306604</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>44164.31759733518</v>
+        <v>44164.3190892757</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2843,18 +2843,18 @@
         <v>6</v>
       </c>
       <c r="F96" t="n">
-        <v>23.2163417505</v>
+        <v>25.640941897</v>
       </c>
       <c r="G96" t="n">
-        <v>23939.164905312</v>
+        <v>23940.7812948649</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44164.55137739253</v>
+        <v>44164.55073683087</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44164.56692774329</v>
+        <v>44164.56986830255</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2868,18 +2868,18 @@
         <v>6</v>
       </c>
       <c r="F97" t="n">
-        <v>22.3925050792</v>
+        <v>27.5493192284</v>
       </c>
       <c r="G97" t="n">
-        <v>336.6432826027</v>
+        <v>333.572479453</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44173.48408125446</v>
+        <v>44173.48584705045</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>44173.50472105882</v>
+        <v>44173.5060518497</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2893,18 +2893,18 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>29.7213182818</v>
+        <v>29.0949109133</v>
       </c>
       <c r="G98" t="n">
-        <v>12840.7010560783</v>
+        <v>12839.0093969613</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44173.63263395886</v>
+        <v>44173.63137779352</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>44173.65583639537</v>
+        <v>44173.65631265681</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2918,18 +2918,18 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>33.4115085603</v>
+        <v>35.90620313270001</v>
       </c>
       <c r="G99" t="n">
-        <v>184.1945760765</v>
+        <v>180.4693591082</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44177.30196099582</v>
+        <v>44177.30161844959</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44177.31664982643</v>
+        <v>44177.31882119989</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2943,18 +2943,18 @@
         <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>21.1519160537</v>
+        <v>24.7719604421</v>
       </c>
       <c r="G100" t="n">
-        <v>5250.4194246542</v>
+        <v>5249.2403415966</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44178.44552201976</v>
+        <v>44178.44503847589</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>44178.46435982706</v>
+        <v>44178.468659304</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2968,10 +2968,10 @@
         <v>6</v>
       </c>
       <c r="F101" t="n">
-        <v>27.1264425227</v>
+        <v>34.013992484</v>
       </c>
       <c r="G101" t="n">
-        <v>1625.5759584012</v>
+        <v>1621.7528774444</v>
       </c>
     </row>
     <row r="102">
@@ -2996,7 +2996,7 @@
         <v>2.716666666666667</v>
       </c>
       <c r="G102" t="n">
-        <v>5594.221849025867</v>
+        <v>5588.030602222667</v>
       </c>
     </row>
     <row r="103">
@@ -3076,10 +3076,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44190.24996020726</v>
+        <v>44190.24681131861</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44190.27130275476</v>
+        <v>44190.26718419058</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3093,18 +3093,18 @@
         <v>4</v>
       </c>
       <c r="F106" t="n">
-        <v>30.7332683914</v>
+        <v>29.3369356305</v>
       </c>
       <c r="G106" t="n">
-        <v>423.1426984654</v>
+        <v>418.6082988077</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44201.41229848476</v>
+        <v>44201.41772537908</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44201.43282716698</v>
+        <v>44201.43592932419</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>29.5613023988</v>
+        <v>26.2136809571</v>
       </c>
       <c r="G107" t="n">
-        <v>16043.0338512012</v>
+        <v>16056.7793114539</v>
       </c>
     </row>
     <row r="108">
@@ -3146,7 +3146,7 @@
         <v>4.416666666666667</v>
       </c>
       <c r="G108" t="n">
-        <v>1886.5288795432</v>
+        <v>1882.0617731508</v>
       </c>
     </row>
     <row r="109">
@@ -3176,10 +3176,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44209.18375898919</v>
+        <v>44209.17929907289</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>44209.19998113895</v>
+        <v>44209.20069768009</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3193,18 +3193,18 @@
         <v>2</v>
       </c>
       <c r="F110" t="n">
-        <v>23.3598956444</v>
+        <v>30.8139943614</v>
       </c>
       <c r="G110" t="n">
-        <v>8014.9796111144</v>
+        <v>8008.557331641499</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44216.40829343971</v>
+        <v>44216.40957826683</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>44216.4325092518</v>
+        <v>44216.42867835415</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3218,18 +3218,18 @@
         <v>2</v>
       </c>
       <c r="F111" t="n">
-        <v>34.8707693901</v>
+        <v>27.5041257561</v>
       </c>
       <c r="G111" t="n">
-        <v>10379.9697131039</v>
+        <v>10380.7880448989</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44220.85040563584</v>
+        <v>44220.84662150541</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>44220.86723376482</v>
+        <v>44220.86603229101</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3243,18 +3243,18 @@
         <v>6</v>
       </c>
       <c r="F112" t="n">
-        <v>24.2325057111</v>
+        <v>27.95153123551666</v>
       </c>
       <c r="G112" t="n">
-        <v>6361.7707930417</v>
+        <v>6361.8381378233</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44221.39069015604</v>
+        <v>44221.38818492289</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>44221.41038230219</v>
+        <v>44221.41112924668</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>28.3566904452</v>
+        <v>33.0398262535</v>
       </c>
       <c r="G113" t="n">
-        <v>753.7772033746</v>
+        <v>751.8997899199834</v>
       </c>
     </row>
     <row r="114">
@@ -3296,7 +3296,7 @@
         <v>2.733333333333333</v>
       </c>
       <c r="G114" t="n">
-        <v>20301.9828181746</v>
+        <v>20300.9072181098</v>
       </c>
     </row>
     <row r="115">
@@ -3351,10 +3351,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44246.46954750393</v>
+        <v>44246.47149735568</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>44246.4875273165</v>
+        <v>44246.49246349404</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3368,18 +3368,18 @@
         <v>4</v>
       </c>
       <c r="F117" t="n">
-        <v>25.8909301008</v>
+        <v>30.1912392338</v>
       </c>
       <c r="G117" t="n">
-        <v>14821.115072349</v>
+        <v>14823.922858857</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44250.71857105893</v>
+        <v>44250.7155844264</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>44250.73947363419</v>
+        <v>44250.73643704061</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3393,10 +3393,10 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>30.0997083727</v>
+        <v>30.02776445741667</v>
       </c>
       <c r="G118" t="n">
-        <v>6092.7029890873</v>
+        <v>6081.2941426084</v>
       </c>
     </row>
     <row r="119">
@@ -3421,15 +3421,15 @@
         <v>3.233333333333333</v>
       </c>
       <c r="G119" t="n">
-        <v>144.1413000902</v>
+        <v>148.5139948433833</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44254.38014584109</v>
+        <v>44254.38641538077</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>44254.4039736477</v>
+        <v>44254.40498368777</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3443,18 +3443,18 @@
         <v>5</v>
       </c>
       <c r="F120" t="n">
-        <v>34.312041513</v>
+        <v>26.7383620813</v>
       </c>
       <c r="G120" t="n">
-        <v>5095.1933445038</v>
+        <v>5104.2214816354</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44260.17292234963</v>
+        <v>44260.17819798407</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>44260.1990984672</v>
+        <v>44260.19288034414</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3468,18 +3468,18 @@
         <v>4</v>
       </c>
       <c r="F121" t="n">
-        <v>37.6936093045</v>
+        <v>21.1425984961</v>
       </c>
       <c r="G121" t="n">
-        <v>8307.286130791999</v>
+        <v>8313.4285866889</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44260.38427482996</v>
+        <v>44260.38645194198</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44260.40597895073</v>
+        <v>44260.40414965009</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3493,18 +3493,18 @@
         <v>4</v>
       </c>
       <c r="F122" t="n">
-        <v>31.2539338993</v>
+        <v>25.4846996897</v>
       </c>
       <c r="G122" t="n">
-        <v>266.6539623866</v>
+        <v>278.7431008907</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44263.90647824282</v>
+        <v>44263.90587909322</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>44263.92393023384</v>
+        <v>44263.92352350755</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3518,18 +3518,18 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>25.1308670702</v>
+        <v>25.4079566307</v>
       </c>
       <c r="G123" t="n">
-        <v>5040.7189806138</v>
+        <v>5042.4903980937</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44266.25654854248</v>
+        <v>44266.25714595536</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>44266.28252779056</v>
+        <v>44266.27987101154</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3543,18 +3543,18 @@
         <v>3</v>
       </c>
       <c r="F124" t="n">
-        <v>37.4101172483</v>
+        <v>32.724080898</v>
       </c>
       <c r="G124" t="n">
-        <v>3358.9703644308</v>
+        <v>3360.4163248492</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44267.58845916313</v>
+        <v>44267.59337463352</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>44267.61447351894</v>
+        <v>44267.60919748639</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3568,18 +3568,18 @@
         <v>4</v>
       </c>
       <c r="F125" t="n">
-        <v>37.4606723529</v>
+        <v>22.7849081369</v>
       </c>
       <c r="G125" t="n">
-        <v>1880.5411764977</v>
+        <v>1891.4452156515</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44268.57034553206</v>
+        <v>44268.56824250816</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>44268.58865048223</v>
+        <v>44268.59268147928</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3593,10 +3593,10 @@
         <v>5</v>
       </c>
       <c r="F126" t="n">
-        <v>26.3591282551</v>
+        <v>35.1921184119</v>
       </c>
       <c r="G126" t="n">
-        <v>1376.4556988889</v>
+        <v>1381.0248313501</v>
       </c>
     </row>
     <row r="127">
@@ -3621,15 +3621,15 @@
         <v>2.15</v>
       </c>
       <c r="G127" t="n">
-        <v>2692.143305576433</v>
+        <v>2686.338669829233</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44277.8166819188</v>
+        <v>44277.81661159898</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>44277.83385055177</v>
+        <v>44277.83590266912</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3643,10 +3643,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>24.722831477</v>
+        <v>27.7791409907</v>
       </c>
       <c r="G128" t="n">
-        <v>10594.0719630859</v>
+        <v>10593.9707025471</v>
       </c>
     </row>
     <row r="129">
@@ -3671,7 +3671,7 @@
         <v>3.083333333333333</v>
       </c>
       <c r="G129" t="n">
-        <v>732.6718721037666</v>
+        <v>729.7168231288667</v>
       </c>
     </row>
     <row r="130">
@@ -3701,10 +3701,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44284.45680846491</v>
+        <v>44284.45420317996</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>44284.47685990023</v>
+        <v>44284.47268786396</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3718,18 +3718,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>28.8740668744</v>
+        <v>26.6179449492</v>
       </c>
       <c r="G131" t="n">
-        <v>8254.9041894691</v>
+        <v>8251.152579154899</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44289.85199582041</v>
+        <v>44289.84804490288</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>44289.86828375365</v>
+        <v>44289.8727543761</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3743,18 +3743,18 @@
         <v>5</v>
       </c>
       <c r="F132" t="n">
-        <v>23.45462389</v>
+        <v>35.58164144449999</v>
       </c>
       <c r="G132" t="n">
-        <v>7740.195725041001</v>
+        <v>7740.5141360508</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44291.28872685126</v>
+        <v>44291.28502242539</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>44291.31036466562</v>
+        <v>44291.3106618159</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3768,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>31.1584526709</v>
+        <v>36.920722326</v>
       </c>
       <c r="G133" t="n">
-        <v>2045.4380605476</v>
+        <v>2033.665990982</v>
       </c>
     </row>
     <row r="134">
@@ -3796,7 +3796,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="G134" t="n">
-        <v>1145.058214840333</v>
+        <v>1144.630318425933</v>
       </c>
     </row>
     <row r="135">
@@ -3826,10 +3826,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44303.02574334013</v>
+        <v>44303.0243282366</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>44303.04838055585</v>
+        <v>44303.04918248515</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3843,10 +3843,10 @@
         <v>5</v>
       </c>
       <c r="F136" t="n">
-        <v>32.5975906392</v>
+        <v>35.7901179109</v>
       </c>
       <c r="G136" t="n">
-        <v>15718.7204097921</v>
+        <v>15716.6826607099</v>
       </c>
     </row>
     <row r="137">
@@ -3871,15 +3871,15 @@
         <v>2.083333333333333</v>
       </c>
       <c r="G137" t="n">
-        <v>5211.015332902034</v>
+        <v>5209.860554712533</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44310.70789304187</v>
+        <v>44310.71175844847</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>44310.72806111564</v>
+        <v>44310.72893769624</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
       </c>
       <c r="F138" t="n">
-        <v>29.0420262247</v>
+        <v>24.7381167697</v>
       </c>
       <c r="G138" t="n">
-        <v>5816.5993136395</v>
+        <v>5822.1654991496</v>
       </c>
     </row>
     <row r="139">
@@ -3921,7 +3921,7 @@
         <v>6.383333333333334</v>
       </c>
       <c r="G139" t="n">
-        <v>8390.691993469134</v>
+        <v>8389.429717414034</v>
       </c>
     </row>
     <row r="140">
@@ -3951,10 +3951,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44317.40442340023</v>
+        <v>44317.40416062951</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>44317.42598584969</v>
+        <v>44317.42073258718</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3968,18 +3968,18 @@
         <v>5</v>
       </c>
       <c r="F141" t="n">
-        <v>31.0499272207</v>
+        <v>23.863619035</v>
       </c>
       <c r="G141" t="n">
-        <v>873.5530296755001</v>
+        <v>873.1746398392</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44321.46449041207</v>
+        <v>44321.46288717385</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>44321.48656751408</v>
+        <v>44321.48688934452</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3993,18 +3993,18 @@
         <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>31.7910269038</v>
+        <v>34.5631257557</v>
       </c>
       <c r="G142" t="n">
-        <v>5815.4465698242</v>
+        <v>5820.702604812001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44325.3829711704</v>
+        <v>44325.38385856008</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>44325.4043966292</v>
+        <v>44325.40464025275</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4018,18 +4018,18 @@
         <v>6</v>
       </c>
       <c r="F143" t="n">
-        <v>30.8526606692</v>
+        <v>29.9256374512</v>
       </c>
       <c r="G143" t="n">
-        <v>5610.8212650975</v>
+        <v>5611.6356704204</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44325.86137903886</v>
+        <v>44325.86049959101</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>44325.88237984732</v>
+        <v>44325.88004107539</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4043,10 +4043,10 @@
         <v>6</v>
       </c>
       <c r="F144" t="n">
-        <v>30.2411641567</v>
+        <v>28.1397375134</v>
       </c>
       <c r="G144" t="n">
-        <v>658.0546699193</v>
+        <v>656.4374470793999</v>
       </c>
     </row>
     <row r="145">
@@ -4071,15 +4071,15 @@
         <v>2.983333333333333</v>
       </c>
       <c r="G145" t="n">
-        <v>2004.356353199767</v>
+        <v>2007.724184760367</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44340.088191933</v>
+        <v>44340.08789302361</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>44340.10688353438</v>
+        <v>44340.1123926926</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4093,18 +4093,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>26.9159059757</v>
+        <v>35.2795233506</v>
       </c>
       <c r="G146" t="n">
-        <v>18449.0297168595</v>
+        <v>18448.5992873367</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44342.46156469736</v>
+        <v>44342.46697419909</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>44342.48808575381</v>
+        <v>44342.48291786716</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4118,10 +4118,10 @@
         <v>2</v>
       </c>
       <c r="F147" t="n">
-        <v>38.1903212777</v>
+        <v>22.9588820174</v>
       </c>
       <c r="G147" t="n">
-        <v>3390.7408747062</v>
+        <v>3390.5973693471</v>
       </c>
     </row>
     <row r="148">
@@ -4146,15 +4146,15 @@
         <v>6.466666666666667</v>
       </c>
       <c r="G148" t="n">
-        <v>9760.706514514233</v>
+        <v>9768.148271281534</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44350.37180955329</v>
+        <v>44350.37578921572</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>44350.39341299024</v>
+        <v>44350.39880958846</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4162,16 +4162,16 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E149" t="n">
         <v>3</v>
       </c>
       <c r="F149" t="n">
-        <v>31.1089492224</v>
+        <v>33.1493367379</v>
       </c>
       <c r="G149" t="n">
-        <v>1585.3890900671</v>
+        <v>1591.119803979</v>
       </c>
     </row>
     <row r="150">
@@ -4196,7 +4196,7 @@
         <v>2.35</v>
       </c>
       <c r="G150" t="n">
-        <v>1484.018627377166</v>
+        <v>1476.247525949767</v>
       </c>
     </row>
     <row r="151">
@@ -4301,10 +4301,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44361.10008155757</v>
+        <v>44361.09990328561</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>44361.11970080722</v>
+        <v>44361.11966590196</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>28.2517194972</v>
+        <v>28.4581675562</v>
       </c>
       <c r="G155" t="n">
-        <v>3872.2507762415</v>
+        <v>3871.9940646054</v>
       </c>
     </row>
     <row r="156">
@@ -4346,7 +4346,7 @@
         <v>3.416666666666667</v>
       </c>
       <c r="G156" t="n">
-        <v>473.8641709279667</v>
+        <v>473.9144345050667</v>
       </c>
     </row>
     <row r="157">
@@ -4451,10 +4451,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44392.11195675913</v>
+        <v>44392.11536620958</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>44392.13345334594</v>
+        <v>44392.13305629407</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4468,18 +4468,18 @@
         <v>3</v>
       </c>
       <c r="F161" t="n">
-        <v>30.9550850069</v>
+        <v>25.4737216691</v>
       </c>
       <c r="G161" t="n">
-        <v>9958.234399821</v>
+        <v>9963.1440084797</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44392.44397271481</v>
+        <v>44392.44620855478</v>
       </c>
       <c r="B162" s="2" t="n">
-        <v>44392.46496080016</v>
+        <v>44392.46884572986</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4493,18 +4493,18 @@
         <v>3</v>
       </c>
       <c r="F162" t="n">
-        <v>30.22284291</v>
+        <v>32.5975321201</v>
       </c>
       <c r="G162" t="n">
-        <v>447.1478911724</v>
+        <v>450.9392554067</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44394.57200550978</v>
+        <v>44394.57415615184</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>44394.59329639983</v>
+        <v>44394.58892527313</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4518,10 +4518,10 @@
         <v>5</v>
       </c>
       <c r="F163" t="n">
-        <v>30.6588816737</v>
+        <v>21.2675346432</v>
       </c>
       <c r="G163" t="n">
-        <v>3034.1443818478</v>
+        <v>3031.6470076506</v>
       </c>
     </row>
     <row r="164">
@@ -4546,7 +4546,7 @@
         <v>2.833333333333333</v>
       </c>
       <c r="G164" t="n">
-        <v>2666.419850901533</v>
+        <v>2672.714273363933</v>
       </c>
     </row>
     <row r="165">
@@ -4576,10 +4576,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44397.98932282167</v>
+        <v>44397.98789799428</v>
       </c>
       <c r="B166" s="2" t="n">
-        <v>44398.0109628322</v>
+        <v>44398.01152437308</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4593,18 +4593,18 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>31.1616151593</v>
+        <v>34.0219854758</v>
       </c>
       <c r="G166" t="n">
-        <v>417.2415298758</v>
+        <v>415.1897784359</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44399.80706359854</v>
+        <v>44399.80117187717</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>44399.82258352698</v>
+        <v>44399.82792910023</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4618,10 +4618,10 @@
         <v>3</v>
       </c>
       <c r="F167" t="n">
-        <v>22.348696937</v>
+        <v>38.5304012087</v>
       </c>
       <c r="G167" t="n">
-        <v>2586.3851035468</v>
+        <v>2577.0924058841</v>
       </c>
     </row>
     <row r="168">
@@ -4646,7 +4646,7 @@
         <v>4.966666666666667</v>
       </c>
       <c r="G168" t="n">
-        <v>11551.87972114777</v>
+        <v>11544.18209566217</v>
       </c>
     </row>
     <row r="169">
@@ -4726,10 +4726,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44420.41055199176</v>
+        <v>44420.41120079959</v>
       </c>
       <c r="B172" s="2" t="n">
-        <v>44420.43466230825</v>
+        <v>44420.43628312198</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4743,10 +4743,10 @@
         <v>3</v>
       </c>
       <c r="F172" t="n">
-        <v>34.71885575220001</v>
+        <v>36.1185442441</v>
       </c>
       <c r="G172" t="n">
-        <v>17125.6615348025</v>
+        <v>17126.5958180767</v>
       </c>
     </row>
     <row r="173">
@@ -4771,7 +4771,7 @@
         <v>3.383333333333333</v>
       </c>
       <c r="G173" t="n">
-        <v>4493.986276111967</v>
+        <v>4491.652304345867</v>
       </c>
     </row>
     <row r="174">
@@ -4876,10 +4876,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44432.23048007063</v>
+        <v>44432.23207217478</v>
       </c>
       <c r="B178" s="2" t="n">
-        <v>44432.25619616693</v>
+        <v>44432.25067258877</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4893,18 +4893,18 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>37.0311786848</v>
+        <v>26.7845961597</v>
       </c>
       <c r="G178" t="n">
-        <v>2036.1413017149</v>
+        <v>2038.4339316874</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44433.31906483586</v>
+        <v>44433.31357028664</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>44433.33804858366</v>
+        <v>44433.33684750195</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4918,18 +4918,18 @@
         <v>2</v>
       </c>
       <c r="F179" t="n">
-        <v>27.3365968222</v>
+        <v>33.5191900421</v>
       </c>
       <c r="G179" t="n">
-        <v>1530.5308832553</v>
+        <v>1530.5726849357</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44437.5436427075</v>
+        <v>44437.54786195378</v>
       </c>
       <c r="B180" s="2" t="n">
-        <v>44437.56302599284</v>
+        <v>44437.56626937547</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4943,18 +4943,18 @@
         <v>6</v>
       </c>
       <c r="F180" t="n">
-        <v>27.9119308704</v>
+        <v>26.5066872463</v>
       </c>
       <c r="G180" t="n">
-        <v>6056.0555383392</v>
+        <v>6063.8608106227</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44444.23038957792</v>
+        <v>44444.23598169419</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>44444.25338893427</v>
+        <v>44444.25243657014</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4968,10 +4968,10 @@
         <v>6</v>
       </c>
       <c r="F181" t="n">
-        <v>33.1190731523</v>
+        <v>23.6950213569</v>
       </c>
       <c r="G181" t="n">
-        <v>9601.0035625209</v>
+        <v>9604.385738949799</v>
       </c>
     </row>
     <row r="182">
@@ -4996,15 +4996,15 @@
         <v>4.2</v>
       </c>
       <c r="G182" t="n">
-        <v>2955.586601306667</v>
+        <v>2956.958005666067</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44446.74674188024</v>
+        <v>44446.74673921021</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>44446.76892229717</v>
+        <v>44446.76994329119</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>31.9398003753</v>
+        <v>33.413876615</v>
       </c>
       <c r="G183" t="n">
-        <v>630.6416408866</v>
+        <v>630.6377960376</v>
       </c>
     </row>
     <row r="184">
@@ -5046,7 +5046,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="G184" t="n">
-        <v>870.5018920714333</v>
+        <v>869.0316606807334</v>
       </c>
     </row>
     <row r="185">
@@ -5126,10 +5126,10 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44461.80309565119</v>
+        <v>44461.79982809685</v>
       </c>
       <c r="B188" s="2" t="n">
-        <v>44461.81758185845</v>
+        <v>44461.81870342241</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5143,18 +5143,18 @@
         <v>2</v>
       </c>
       <c r="F188" t="n">
-        <v>20.8601384471</v>
+        <v>27.1804687995</v>
       </c>
       <c r="G188" t="n">
-        <v>11164.1910710619</v>
+        <v>11159.4857928099</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44463.92274706947</v>
+        <v>44463.92593704686</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>44463.94742173032</v>
+        <v>44463.94521281796</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5168,10 +5168,10 @@
         <v>4</v>
       </c>
       <c r="F189" t="n">
-        <v>35.5315116263</v>
+        <v>27.7571103816</v>
       </c>
       <c r="G189" t="n">
-        <v>3031.4379038713</v>
+        <v>3034.4164192099</v>
       </c>
     </row>
     <row r="190">
@@ -5196,7 +5196,7 @@
         <v>5.5</v>
       </c>
       <c r="G190" t="n">
-        <v>18720.0293749934</v>
+        <v>18723.2102087991</v>
       </c>
     </row>
     <row r="191">
@@ -5351,10 +5351,10 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44492.72157656223</v>
+        <v>44492.71937867282</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>44492.74375155539</v>
+        <v>44492.74484547378</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5368,18 +5368,18 @@
         <v>5</v>
       </c>
       <c r="F197" t="n">
-        <v>31.9319901496</v>
+        <v>36.6721933763</v>
       </c>
       <c r="G197" t="n">
-        <v>12928.7035829511</v>
+        <v>12925.5386222049</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44503.41097500542</v>
+        <v>44503.41187662711</v>
       </c>
       <c r="B198" s="2" t="n">
-        <v>44503.43100258902</v>
+        <v>44503.42744647632</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5393,10 +5393,10 @@
         <v>2</v>
       </c>
       <c r="F198" t="n">
-        <v>28.8397203899</v>
+        <v>22.4205828707</v>
       </c>
       <c r="G198" t="n">
-        <v>15360.8017680383</v>
+        <v>15360.5248607919</v>
       </c>
     </row>
     <row r="199">
@@ -5421,7 +5421,7 @@
         <v>4.266666666666667</v>
       </c>
       <c r="G199" t="n">
-        <v>31449.68960513777</v>
+        <v>31454.81040742287</v>
       </c>
     </row>
     <row r="200">
@@ -5451,10 +5451,10 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44531.2985685519</v>
+        <v>44531.30193454042</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>44531.31743373609</v>
+        <v>44531.32363688675</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5468,10 +5468,10 @@
         <v>2</v>
       </c>
       <c r="F201" t="n">
-        <v>27.1658652351</v>
+        <v>31.25137871638333</v>
       </c>
       <c r="G201" t="n">
-        <v>8668.455381409</v>
+        <v>8673.3024048811</v>
       </c>
     </row>
     <row r="202">
@@ -5496,7 +5496,7 @@
         <v>7.05</v>
       </c>
       <c r="G202" t="n">
-        <v>2820.5787533559</v>
+        <v>2811.646216402517</v>
       </c>
     </row>
     <row r="203">
@@ -5551,10 +5551,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44538.90357345471</v>
+        <v>44538.90489261028</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>44538.92075096411</v>
+        <v>44538.92181605184</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5568,18 +5568,18 @@
         <v>2</v>
       </c>
       <c r="F205" t="n">
-        <v>24.7356135342</v>
+        <v>24.3697558377</v>
       </c>
       <c r="G205" t="n">
-        <v>2012.8791081252</v>
+        <v>2014.7786921489</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44541.15501740773</v>
+        <v>44541.15434651606</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>44541.17360401245</v>
+        <v>44541.17399350102</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5593,10 +5593,10 @@
         <v>5</v>
       </c>
       <c r="F206" t="n">
-        <v>26.7647107938</v>
+        <v>28.2916583466</v>
       </c>
       <c r="G206" t="n">
-        <v>3217.3436788207</v>
+        <v>3214.8438684814</v>
       </c>
     </row>
     <row r="207">
@@ -5621,15 +5621,15 @@
         <v>7.033333333333333</v>
       </c>
       <c r="G207" t="n">
-        <v>6027.076888726099</v>
+        <v>6026.516025185399</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44547.9070197094</v>
+        <v>44547.90661251861</v>
       </c>
       <c r="B208" s="2" t="n">
-        <v>44547.92803514473</v>
+        <v>44547.9274990259</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         <v>4</v>
       </c>
       <c r="F208" t="n">
-        <v>30.2622268799</v>
+        <v>30.0765705009</v>
       </c>
       <c r="G208" t="n">
-        <v>3662.008381539683</v>
+        <v>3661.4220268027</v>
       </c>
     </row>
     <row r="209">
@@ -5671,7 +5671,7 @@
         <v>4.05</v>
       </c>
       <c r="G209" t="n">
-        <v>4351.596058247083</v>
+        <v>4352.368069363067</v>
       </c>
     </row>
     <row r="210">
@@ -5701,10 +5701,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44564.48248902309</v>
+        <v>44564.48204307836</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>44564.5045173817</v>
+        <v>44564.50434773329</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5718,18 +5718,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>31.7208363904</v>
+        <v>32.118703112</v>
       </c>
       <c r="G211" t="n">
-        <v>19472.4341932642</v>
+        <v>19471.792032837</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44568.5879811363</v>
+        <v>44568.58304295108</v>
       </c>
       <c r="B212" s="2" t="n">
-        <v>44568.6077667471</v>
+        <v>44568.60351242194</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5737,24 +5737,24 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
       </c>
       <c r="F212" t="n">
-        <v>28.491279521</v>
+        <v>29.4760380436</v>
       </c>
       <c r="G212" t="n">
-        <v>5880.1878066441</v>
+        <v>5873.3211136116</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>44570.58287362191</v>
+        <v>44570.58296588004</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>44570.60715897325</v>
+        <v>44570.60903933771</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5768,10 +5768,10 @@
         <v>6</v>
       </c>
       <c r="F213" t="n">
-        <v>34.9709059271</v>
+        <v>37.5457790368</v>
       </c>
       <c r="G213" t="n">
-        <v>2844.1538997466</v>
+        <v>2850.41297967</v>
       </c>
     </row>
     <row r="214">
@@ -5796,15 +5796,15 @@
         <v>4.65</v>
       </c>
       <c r="G214" t="n">
-        <v>3583.224411839933</v>
+        <v>3580.516687022333</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>44584.51376149451</v>
+        <v>44584.51774837847</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>44584.53545464728</v>
+        <v>44584.53676032271</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5818,18 +5818,18 @@
         <v>6</v>
       </c>
       <c r="F215" t="n">
-        <v>31.23814000501666</v>
+        <v>27.3771997013</v>
       </c>
       <c r="G215" t="n">
-        <v>16437.6332187523</v>
+        <v>16443.3743316726</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>44592.14157994331</v>
+        <v>44592.14121799506</v>
       </c>
       <c r="B216" s="2" t="n">
-        <v>44592.16265096338</v>
+        <v>44592.1631804502</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5843,10 +5843,10 @@
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>30.342268899</v>
+        <v>31.6259353993</v>
       </c>
       <c r="G216" t="n">
-        <v>10952.82042628748</v>
+        <v>10950.4190481839</v>
       </c>
     </row>
     <row r="217">
@@ -5871,7 +5871,7 @@
         <v>6.1</v>
       </c>
       <c r="G217" t="n">
-        <v>4259.1659460562</v>
+        <v>4258.4034850429</v>
       </c>
     </row>
     <row r="218">
@@ -6176,10 +6176,10 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>44603.53363147804</v>
+        <v>44603.53481248643</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>44603.55421416558</v>
+        <v>44603.55069641603</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -6193,10 +6193,10 @@
         <v>4</v>
       </c>
       <c r="F230" t="n">
-        <v>29.6390700447</v>
+        <v>22.8728586086</v>
       </c>
       <c r="G230" t="n">
-        <v>632.2126617322999</v>
+        <v>633.913313812</v>
       </c>
     </row>
     <row r="231">
@@ -6221,15 +6221,15 @@
         <v>4.833333333333333</v>
       </c>
       <c r="G231" t="n">
-        <v>5672.598268223</v>
+        <v>5677.663827579399</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>44609.47411647694</v>
+        <v>44609.47818725547</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>44609.49629499208</v>
+        <v>44609.49809429737</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -6243,18 +6243,18 @@
         <v>3</v>
       </c>
       <c r="F232" t="n">
-        <v>31.9370618079</v>
+        <v>28.6661403421</v>
       </c>
       <c r="G232" t="n">
-        <v>2847.2277268007</v>
+        <v>2853.08964789</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>44612.95228951182</v>
+        <v>44612.95307962758</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>44612.97352318045</v>
+        <v>44612.97724154228</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -6268,18 +6268,18 @@
         <v>6</v>
       </c>
       <c r="F233" t="n">
-        <v>30.5764828307</v>
+        <v>34.79315716738333</v>
       </c>
       <c r="G233" t="n">
-        <v>4976.6321084207</v>
+        <v>4975.178875496817</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>44613.29153588854</v>
+        <v>44613.28862802509</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>44613.30708693589</v>
+        <v>44613.30947335573</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -6293,10 +6293,10 @@
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>22.3935081786</v>
+        <v>30.0172761218</v>
       </c>
       <c r="G234" t="n">
-        <v>457.9382996551</v>
+        <v>448.3965352419</v>
       </c>
     </row>
     <row r="235">
@@ -6321,7 +6321,7 @@
         <v>2.4</v>
       </c>
       <c r="G235" t="n">
-        <v>2282.978145639633</v>
+        <v>2279.541701073334</v>
       </c>
     </row>
     <row r="236">
@@ -6451,10 +6451,10 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>44621.48699206374</v>
+        <v>44621.48899510188</v>
       </c>
       <c r="B241" s="2" t="n">
-        <v>44621.50854477999</v>
+        <v>44621.50906945203</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -6468,10 +6468,10 @@
         <v>1</v>
       </c>
       <c r="F241" t="n">
-        <v>31.0359113995</v>
+        <v>28.907064215</v>
       </c>
       <c r="G241" t="n">
-        <v>2942.0185717999</v>
+        <v>2944.9029467085</v>
       </c>
     </row>
     <row r="242">
@@ -6496,7 +6496,7 @@
         <v>5.9</v>
       </c>
       <c r="G242" t="n">
-        <v>1433.0455168006</v>
+        <v>1432.2899890765</v>
       </c>
     </row>
     <row r="243">
@@ -7326,10 +7326,10 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>44652.2716512042</v>
+        <v>44652.27586299692</v>
       </c>
       <c r="B276" s="2" t="n">
-        <v>44652.29752612879</v>
+        <v>44652.29202389879</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -7343,18 +7343,18 @@
         <v>4</v>
       </c>
       <c r="F276" t="n">
-        <v>37.2598914246</v>
+        <v>23.271698697</v>
       </c>
       <c r="G276" t="n">
-        <v>16676.961067389</v>
+        <v>16683.0260489151</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>44661.37875137128</v>
+        <v>44661.37533805976</v>
       </c>
       <c r="B277" s="2" t="n">
-        <v>44661.39716093866</v>
+        <v>44661.39753620823</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -7368,18 +7368,18 @@
         <v>6</v>
       </c>
       <c r="F277" t="n">
-        <v>26.5097770195</v>
+        <v>31.9653338133</v>
       </c>
       <c r="G277" t="n">
-        <v>13076.9643491775</v>
+        <v>13079.9723917728</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>44666.02627929992</v>
+        <v>44666.02706391551</v>
       </c>
       <c r="B278" s="2" t="n">
-        <v>44666.04434066571</v>
+        <v>44666.04235901588</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -7393,10 +7393,10 @@
         <v>4</v>
       </c>
       <c r="F278" t="n">
-        <v>26.0083667207</v>
+        <v>22.0249445328</v>
       </c>
       <c r="G278" t="n">
-        <v>6665.93044022</v>
+        <v>6666.519898483701</v>
       </c>
     </row>
     <row r="279">
@@ -7421,7 +7421,7 @@
         <v>2.85</v>
       </c>
       <c r="G279" t="n">
-        <v>2738.749441382033</v>
+        <v>2741.603017118633</v>
       </c>
     </row>
     <row r="280">
@@ -7451,10 +7451,10 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>44680.53525179593</v>
+        <v>44680.53689076022</v>
       </c>
       <c r="B281" s="2" t="n">
-        <v>44680.5571307144</v>
+        <v>44680.55747673924</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -7468,18 +7468,18 @@
         <v>4</v>
       </c>
       <c r="F281" t="n">
-        <v>31.5056426077</v>
+        <v>29.6438097865</v>
       </c>
       <c r="G281" t="n">
-        <v>17965.9459194667</v>
+        <v>17968.3060280529</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>44681.74414619375</v>
+        <v>44681.74824205365</v>
       </c>
       <c r="B282" s="2" t="n">
-        <v>44681.76877564597</v>
+        <v>44681.76413431454</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -7493,10 +7493,10 @@
         <v>5</v>
       </c>
       <c r="F282" t="n">
-        <v>35.4664112023</v>
+        <v>22.8848556721</v>
       </c>
       <c r="G282" t="n">
-        <v>1709.3022902625</v>
+        <v>1714.7020527631</v>
       </c>
     </row>
     <row r="283">
@@ -7521,15 +7521,15 @@
         <v>7.4</v>
       </c>
       <c r="G283" t="n">
-        <v>2749.663069794134</v>
+        <v>2756.346587058733</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>44694.22677556636</v>
+        <v>44694.22246092141</v>
       </c>
       <c r="B284" s="2" t="n">
-        <v>44694.24661429114</v>
+        <v>44694.24488311975</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -7543,10 +7543,10 @@
         <v>4</v>
       </c>
       <c r="F284" t="n">
-        <v>28.5677636677</v>
+        <v>32.2879656207</v>
       </c>
       <c r="G284" t="n">
-        <v>15182.4568155765</v>
+        <v>15176.2437268449</v>
       </c>
     </row>
     <row r="285">
@@ -7571,15 +7571,15 @@
         <v>5.05</v>
       </c>
       <c r="G285" t="n">
-        <v>2798.8754207558</v>
+        <v>2801.3683075344</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>44700.13181516361</v>
+        <v>44700.13418828501</v>
       </c>
       <c r="B286" s="2" t="n">
-        <v>44700.15211973456</v>
+        <v>44700.1518451045</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -7593,18 +7593,18 @@
         <v>3</v>
       </c>
       <c r="F286" t="n">
-        <v>29.2385821705</v>
+        <v>25.4258200762</v>
       </c>
       <c r="G286" t="n">
-        <v>5670.7638356097</v>
+        <v>5674.1811304177</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>44711.59121355082</v>
+        <v>44711.58865136505</v>
       </c>
       <c r="B287" s="2" t="n">
-        <v>44711.61212621458</v>
+        <v>44711.60942049821</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -7618,18 +7618,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>30.1142358029</v>
+        <v>29.9075517619</v>
       </c>
       <c r="G287" t="n">
-        <v>16472.2950954163</v>
+        <v>16469.0010151921</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>44714.50751595195</v>
+        <v>44714.50663158217</v>
       </c>
       <c r="B288" s="2" t="n">
-        <v>44714.52402665634</v>
+        <v>44714.52641796281</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -7643,18 +7643,18 @@
         <v>3</v>
       </c>
       <c r="F288" t="n">
-        <v>23.7754143155</v>
+        <v>28.492388138</v>
       </c>
       <c r="G288" t="n">
-        <v>4169.3612218292</v>
+        <v>4171.983960870401</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>44715.83728945503</v>
+        <v>44715.83864536258</v>
       </c>
       <c r="B289" s="2" t="n">
-        <v>44715.8589549847</v>
+        <v>44715.86240130317</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -7668,18 +7668,18 @@
         <v>4</v>
       </c>
       <c r="F289" t="n">
-        <v>31.1983627246</v>
+        <v>34.208554452</v>
       </c>
       <c r="G289" t="n">
-        <v>1891.0984301043</v>
+        <v>1889.6074556623</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>44717.7376237182</v>
+        <v>44717.73802404688</v>
       </c>
       <c r="B290" s="2" t="n">
-        <v>44717.75450588043</v>
+        <v>44717.75755893295</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -7693,10 +7693,10 @@
         <v>6</v>
       </c>
       <c r="F290" t="n">
-        <v>24.31031361891667</v>
+        <v>28.1302359562</v>
       </c>
       <c r="G290" t="n">
-        <v>2705.282976230284</v>
+        <v>2700.8967509375</v>
       </c>
     </row>
     <row r="291">
@@ -7721,15 +7721,15 @@
         <v>4.2</v>
       </c>
       <c r="G291" t="n">
-        <v>2561.594865511133</v>
+        <v>2557.198469869033</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>44721.36817460159</v>
+        <v>44721.36994558021</v>
       </c>
       <c r="B292" s="2" t="n">
-        <v>44721.38801015655</v>
+        <v>44721.39028379087</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -7743,18 +7743,18 @@
         <v>3</v>
       </c>
       <c r="F292" t="n">
-        <v>28.5631991356</v>
+        <v>29.28702335041667</v>
       </c>
       <c r="G292" t="n">
-        <v>2637.8880929735</v>
+        <v>2640.4383021685</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>44729.05733295656</v>
+        <v>44729.05434047124</v>
       </c>
       <c r="B293" s="2" t="n">
-        <v>44729.07480025812</v>
+        <v>44729.08074667909</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -7768,10 +7768,10 @@
         <v>4</v>
       </c>
       <c r="F293" t="n">
-        <v>25.1529142364</v>
+        <v>38.0249393226</v>
       </c>
       <c r="G293" t="n">
-        <v>11043.8248320095</v>
+        <v>11036.24161973428</v>
       </c>
     </row>
     <row r="294">
@@ -7796,15 +7796,15 @@
         <v>5.183333333333334</v>
       </c>
       <c r="G294" t="n">
-        <v>7206.487628311666</v>
+        <v>7197.924782090867</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>44735.89789267405</v>
+        <v>44735.89424151112</v>
       </c>
       <c r="B295" s="2" t="n">
-        <v>44735.91766226624</v>
+        <v>44735.91429293629</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -7818,18 +7818,18 @@
         <v>3</v>
       </c>
       <c r="F295" t="n">
-        <v>28.4682127471</v>
+        <v>28.8740522265</v>
       </c>
       <c r="G295" t="n">
-        <v>2613.5821173137</v>
+        <v>2608.3244426933</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44739.68552496674</v>
+        <v>44739.68669007091</v>
       </c>
       <c r="B296" s="2" t="n">
-        <v>44739.70765469124</v>
+        <v>44739.70625135666</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -7843,18 +7843,18 @@
         <v>0</v>
       </c>
       <c r="F296" t="n">
-        <v>31.8668032863</v>
+        <v>28.1682514844</v>
       </c>
       <c r="G296" t="n">
-        <v>5425.722288710001</v>
+        <v>5432.251873872</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44753.41366078657</v>
+        <v>44753.41806926241</v>
       </c>
       <c r="B297" s="2" t="n">
-        <v>44753.43907624758</v>
+        <v>44753.43797754629</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -7862,24 +7862,24 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E297" t="n">
         <v>0</v>
       </c>
       <c r="F297" t="n">
-        <v>36.5982638374</v>
+        <v>28.6679288147</v>
       </c>
       <c r="G297" t="n">
-        <v>19736.6487772893</v>
+        <v>19745.0177842585</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44760.73059821482</v>
+        <v>44760.72579598762</v>
       </c>
       <c r="B298" s="2" t="n">
-        <v>44760.74776499941</v>
+        <v>44760.74961865493</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -7893,10 +7893,10 @@
         <v>0</v>
       </c>
       <c r="F298" t="n">
-        <v>24.7201698002</v>
+        <v>34.30464094198333</v>
       </c>
       <c r="G298" t="n">
-        <v>10499.7916328447</v>
+        <v>10494.4585554884</v>
       </c>
     </row>
     <row r="299">
@@ -7921,15 +7921,15 @@
         <v>3.733333333333333</v>
       </c>
       <c r="G299" t="n">
-        <v>20397.1517341713</v>
+        <v>20394.48247022021</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44787.47436075741</v>
+        <v>44787.4794241097</v>
       </c>
       <c r="B300" s="2" t="n">
-        <v>44787.49973425288</v>
+        <v>44787.50070690626</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -7943,18 +7943,18 @@
         <v>6</v>
       </c>
       <c r="F300" t="n">
-        <v>36.5378334701</v>
+        <v>30.6472270521</v>
       </c>
       <c r="G300" t="n">
-        <v>18085.4128240163</v>
+        <v>18092.7040513067</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44794.289649538</v>
+        <v>44794.28745818556</v>
       </c>
       <c r="B301" s="2" t="n">
-        <v>44794.30809484493</v>
+        <v>44794.3075791739</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -7968,18 +7968,18 @@
         <v>6</v>
       </c>
       <c r="F301" t="n">
-        <v>26.5612419741</v>
+        <v>28.9742232031</v>
       </c>
       <c r="G301" t="n">
-        <v>9777.4780105759</v>
+        <v>9772.9218421897</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44794.48074024947</v>
+        <v>44794.47416093228</v>
       </c>
       <c r="B302" s="2" t="n">
-        <v>44794.49801347974</v>
+        <v>44794.49773753883</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -7993,18 +7993,18 @@
         <v>6</v>
       </c>
       <c r="F302" t="n">
-        <v>24.87345157421667</v>
+        <v>33.9503134293</v>
       </c>
       <c r="G302" t="n">
-        <v>248.6093825464</v>
+        <v>239.8777320801</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44796.20907552924</v>
+        <v>44796.20917251693</v>
       </c>
       <c r="B303" s="2" t="n">
-        <v>44796.22823774932</v>
+        <v>44796.22720225787</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -8018,18 +8018,18 @@
         <v>1</v>
       </c>
       <c r="F303" t="n">
-        <v>27.5935968925</v>
+        <v>25.96282695331667</v>
       </c>
       <c r="G303" t="n">
-        <v>2463.929351309483</v>
+        <v>2464.466368455683</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44802.82825088993</v>
+        <v>44802.83259903357</v>
       </c>
       <c r="B304" s="2" t="n">
-        <v>44802.85354515757</v>
+        <v>44802.8526186793</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -8043,10 +8043,10 @@
         <v>0</v>
       </c>
       <c r="F304" t="n">
-        <v>36.4237454003</v>
+        <v>28.8282898516</v>
       </c>
       <c r="G304" t="n">
-        <v>9504.018922479399</v>
+        <v>9511.771357011101</v>
       </c>
     </row>
     <row r="305">
@@ -8071,15 +8071,15 @@
         <v>3.85</v>
       </c>
       <c r="G305" t="n">
-        <v>1016.378306427967</v>
+        <v>1017.712435133967</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44805.26731857517</v>
+        <v>44805.27181322906</v>
       </c>
       <c r="B306" s="2" t="n">
-        <v>44805.29059710311</v>
+        <v>44805.2930976451</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -8093,18 +8093,18 @@
         <v>3</v>
       </c>
       <c r="F306" t="n">
-        <v>33.5210802297</v>
+        <v>30.6495591137</v>
       </c>
       <c r="G306" t="n">
-        <v>2455.6054149289</v>
+        <v>2462.0777165172</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44815.62190310682</v>
+        <v>44815.62241330861</v>
       </c>
       <c r="B307" s="2" t="n">
-        <v>44815.64493408667</v>
+        <v>44815.64836551962</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -8118,18 +8118,18 @@
         <v>6</v>
       </c>
       <c r="F307" t="n">
-        <v>33.1646110007</v>
+        <v>37.3711838582</v>
       </c>
       <c r="G307" t="n">
-        <v>14877.0806453284</v>
+        <v>14874.2145554416</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44828.03780957119</v>
+        <v>44828.04300473914</v>
       </c>
       <c r="B308" s="2" t="n">
-        <v>44828.05935239057</v>
+        <v>44828.0610980498</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -8137,16 +8137,16 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
       </c>
       <c r="F308" t="n">
-        <v>31.021659895</v>
+        <v>26.054367347</v>
       </c>
       <c r="G308" t="n">
-        <v>17845.7406977028</v>
+        <v>17848.2804761059</v>
       </c>
     </row>
     <row r="309">
@@ -8171,7 +8171,7 @@
         <v>4.4</v>
       </c>
       <c r="G309" t="n">
-        <v>9005.632557581168</v>
+        <v>9003.118808283067</v>
       </c>
     </row>
     <row r="310">
@@ -8251,10 +8251,10 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44843.02969536029</v>
+        <v>44843.0248033465</v>
       </c>
       <c r="B313" s="2" t="n">
-        <v>44843.0494362022</v>
+        <v>44843.04455697414</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -8268,18 +8268,18 @@
         <v>6</v>
       </c>
       <c r="F313" t="n">
-        <v>28.4268123388</v>
+        <v>28.4452238276</v>
       </c>
       <c r="G313" t="n">
-        <v>6064.3613188319</v>
+        <v>6057.3168189532</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44844.94139657398</v>
+        <v>44844.94069309573</v>
       </c>
       <c r="B314" s="2" t="n">
-        <v>44844.9665148756</v>
+        <v>44844.96519435997</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -8293,18 +8293,18 @@
         <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>36.1703543248</v>
+        <v>35.28182051220001</v>
       </c>
       <c r="G314" t="n">
-        <v>2724.4229353724</v>
+        <v>2730.4360150746</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44848.92187517573</v>
+        <v>44848.92071280489</v>
       </c>
       <c r="B315" s="2" t="n">
-        <v>44848.94251513034</v>
+        <v>44848.9401438257</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -8318,10 +8318,10 @@
         <v>4</v>
       </c>
       <c r="F315" t="n">
-        <v>29.7215346357</v>
+        <v>27.9806699815</v>
       </c>
       <c r="G315" t="n">
-        <v>5695.7188321875</v>
+        <v>5695.946560672</v>
       </c>
     </row>
     <row r="316">
@@ -8346,7 +8346,7 @@
         <v>9.75</v>
       </c>
       <c r="G316" t="n">
-        <v>7851.411545642233</v>
+        <v>7854.826224312234</v>
       </c>
     </row>
     <row r="317">
@@ -8376,10 +8376,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44889.78600603179</v>
+        <v>44889.78836011724</v>
       </c>
       <c r="B318" s="2" t="n">
-        <v>44889.80955787788</v>
+        <v>44889.81084185254</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -8393,18 +8393,18 @@
         <v>3</v>
       </c>
       <c r="F318" t="n">
-        <v>33.9146583757</v>
+        <v>32.3736988575</v>
       </c>
       <c r="G318" t="n">
-        <v>31948.8320191233</v>
+        <v>31952.2219021544</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44892.24508169161</v>
+        <v>44892.24854766893</v>
       </c>
       <c r="B319" s="2" t="n">
-        <v>44892.26661799064</v>
+        <v>44892.26519239607</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -8418,10 +8418,10 @@
         <v>6</v>
       </c>
       <c r="F319" t="n">
-        <v>31.0122706179</v>
+        <v>23.9684070804</v>
       </c>
       <c r="G319" t="n">
-        <v>3507.1542917617</v>
+        <v>3510.2963755955</v>
       </c>
     </row>
     <row r="320">
@@ -8446,7 +8446,7 @@
         <v>3.216666666666667</v>
       </c>
       <c r="G320" t="n">
-        <v>2445.803426788067</v>
+        <v>2447.856282978867</v>
       </c>
     </row>
     <row r="321">
@@ -8626,10 +8626,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44907.60063452053</v>
+        <v>44907.60492947376</v>
       </c>
       <c r="B328" s="2" t="n">
-        <v>44907.62014976719</v>
+        <v>44907.62140807798</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -8643,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="F328" t="n">
-        <v>28.1019551756</v>
+        <v>23.7291900624</v>
       </c>
       <c r="G328" t="n">
-        <v>17967.8137095784</v>
+        <v>17973.9984422302</v>
       </c>
     </row>
     <row r="329">
@@ -8671,7 +8671,7 @@
         <v>3.65</v>
       </c>
       <c r="G329" t="n">
-        <v>38363.61766857933</v>
+        <v>38361.80570104074</v>
       </c>
     </row>
     <row r="330">
@@ -8701,10 +8701,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>44935.39032681232</v>
+        <v>44935.38955467317</v>
       </c>
       <c r="B331" s="2" t="n">
-        <v>44935.41065624783</v>
+        <v>44935.41214811026</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -8718,18 +8718,18 @@
         <v>0</v>
       </c>
       <c r="F331" t="n">
-        <v>29.2743871413</v>
+        <v>32.5345494053</v>
       </c>
       <c r="G331" t="n">
-        <v>1322.7706097338</v>
+        <v>1321.6587293813</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>44938.01010791199</v>
+        <v>44938.01252817289</v>
       </c>
       <c r="B332" s="2" t="n">
-        <v>44938.03276190175</v>
+        <v>44938.03763580816</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -8743,18 +8743,18 @@
         <v>3</v>
       </c>
       <c r="F332" t="n">
-        <v>32.6217452403</v>
+        <v>36.1549947844</v>
       </c>
       <c r="G332" t="n">
-        <v>3743.2103964082</v>
+        <v>3744.5472901872</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>44940.92687942705</v>
+        <v>44940.93050617358</v>
       </c>
       <c r="B333" s="2" t="n">
-        <v>44940.9475113906</v>
+        <v>44940.95315767116</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -8768,10 +8768,10 @@
         <v>5</v>
       </c>
       <c r="F333" t="n">
-        <v>29.7100275185</v>
+        <v>32.6181565166</v>
       </c>
       <c r="G333" t="n">
-        <v>4167.5292364362</v>
+        <v>4165.7333261951</v>
       </c>
     </row>
     <row r="334">
@@ -8796,7 +8796,7 @@
         <v>2.4</v>
       </c>
       <c r="G334" t="n">
-        <v>14998.76693085503</v>
+        <v>14990.63628686343</v>
       </c>
     </row>
     <row r="335">
@@ -8926,10 +8926,10 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>44964.22151824963</v>
+        <v>44964.22406073205</v>
       </c>
       <c r="B340" s="2" t="n">
-        <v>44964.24533547493</v>
+        <v>44964.24639476364</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -8943,18 +8943,18 @@
         <v>1</v>
       </c>
       <c r="F340" t="n">
-        <v>34.2968044217</v>
+        <v>32.1610055096</v>
       </c>
       <c r="G340" t="n">
-        <v>2666.1529461498</v>
+        <v>2669.8141208232</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>44966.05888151442</v>
+        <v>44966.05524971273</v>
       </c>
       <c r="B341" s="2" t="n">
-        <v>44966.07579642846</v>
+        <v>44966.07978340729</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -8968,18 +8968,18 @@
         <v>3</v>
       </c>
       <c r="F341" t="n">
-        <v>24.3574762156</v>
+        <v>35.3285201616</v>
       </c>
       <c r="G341" t="n">
-        <v>2611.5062968715</v>
+        <v>2604.7511266743</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>44968.20484360449</v>
+        <v>44968.20609257524</v>
       </c>
       <c r="B342" s="2" t="n">
-        <v>44968.22154195726</v>
+        <v>44968.22610800117</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -8993,18 +8993,18 @@
         <v>5</v>
       </c>
       <c r="F342" t="n">
-        <v>24.04562798561667</v>
+        <v>28.8222133221</v>
       </c>
       <c r="G342" t="n">
-        <v>3065.827933475783</v>
+        <v>3061.8852018604</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>44969.47751755722</v>
+        <v>44969.47323998663</v>
       </c>
       <c r="B343" s="2" t="n">
-        <v>44969.49832752183</v>
+        <v>44969.49730119363</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -9018,18 +9018,18 @@
         <v>6</v>
       </c>
       <c r="F343" t="n">
-        <v>29.9663490263</v>
+        <v>34.6481380791</v>
       </c>
       <c r="G343" t="n">
-        <v>1808.6048639537</v>
+        <v>1795.8700590735</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>44978.49746279779</v>
+        <v>44978.49776000287</v>
       </c>
       <c r="B344" s="2" t="n">
-        <v>44978.51773932041</v>
+        <v>44978.51378856773</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -9043,10 +9043,10 @@
         <v>1</v>
       </c>
       <c r="F344" t="n">
-        <v>29.1981925839</v>
+        <v>23.0811333983</v>
       </c>
       <c r="G344" t="n">
-        <v>12958.7547973846</v>
+        <v>12960.6606853004</v>
       </c>
     </row>
     <row r="345">
@@ -9071,15 +9071,15 @@
         <v>3.95</v>
       </c>
       <c r="G345" t="n">
-        <v>2005.572045264833</v>
+        <v>2011.261129130834</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>44982.74395078384</v>
+        <v>44982.74746712115</v>
       </c>
       <c r="B346" s="2" t="n">
-        <v>44982.7661708309</v>
+        <v>44982.76759055869</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -9093,18 +9093,18 @@
         <v>5</v>
       </c>
       <c r="F346" t="n">
-        <v>31.9968677625</v>
+        <v>28.9777500671</v>
       </c>
       <c r="G346" t="n">
-        <v>4076.222462073</v>
+        <v>4081.2859877906</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>44986.40979906506</v>
+        <v>44986.41489420155</v>
       </c>
       <c r="B347" s="2" t="n">
-        <v>44986.43547739773</v>
+        <v>44986.43565376749</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         <v>2</v>
       </c>
       <c r="F347" t="n">
-        <v>36.9767990512</v>
+        <v>29.8937749514</v>
       </c>
       <c r="G347" t="n">
-        <v>5246.824657182099</v>
+        <v>5252.1172457121</v>
       </c>
     </row>
     <row r="348">
@@ -9146,7 +9146,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="G348" t="n">
-        <v>11731.3292139312</v>
+        <v>11731.0752414788</v>
       </c>
     </row>
     <row r="349">
@@ -9201,10 +9201,10 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45014.10286159226</v>
+        <v>45014.1035800819</v>
       </c>
       <c r="B351" s="2" t="n">
-        <v>45014.12234932549</v>
+        <v>45014.11833630424</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -9218,18 +9218,18 @@
         <v>2</v>
       </c>
       <c r="F351" t="n">
-        <v>28.0623358533</v>
+        <v>21.2489601582</v>
       </c>
       <c r="G351" t="n">
-        <v>27092.8706928587</v>
+        <v>27093.9053179457</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45018.97405173472</v>
+        <v>45018.97674648507</v>
       </c>
       <c r="B352" s="2" t="n">
-        <v>45018.99532151677</v>
+        <v>45018.99556070251</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -9243,18 +9243,18 @@
         <v>6</v>
       </c>
       <c r="F352" t="n">
-        <v>30.6284861483</v>
+        <v>27.0924731196</v>
       </c>
       <c r="G352" t="n">
-        <v>6986.4514692965</v>
+        <v>6996.1106604019</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45035.99407778977</v>
+        <v>45035.99372685332</v>
       </c>
       <c r="B353" s="2" t="n">
-        <v>45036.0203905163</v>
+        <v>45036.02092131141</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -9268,10 +9268,10 @@
         <v>2</v>
       </c>
       <c r="F353" t="n">
-        <v>37.8903262055</v>
+        <v>39.1600196495</v>
       </c>
       <c r="G353" t="n">
-        <v>24478.2090331177</v>
+        <v>24477.3592571691</v>
       </c>
     </row>
     <row r="354">
@@ -9296,15 +9296,15 @@
         <v>3.566666666666667</v>
       </c>
       <c r="G354" t="n">
-        <v>8837.504323186668</v>
+        <v>8836.739978222668</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45052.11759091922</v>
+        <v>45052.11974108389</v>
       </c>
       <c r="B355" s="2" t="n">
-        <v>45052.14209726835</v>
+        <v>45052.14156690321</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -9318,18 +9318,18 @@
         <v>5</v>
       </c>
       <c r="F355" t="n">
-        <v>35.2891427331</v>
+        <v>31.4291798131</v>
       </c>
       <c r="G355" t="n">
-        <v>14338.8975903607</v>
+        <v>14341.9938274736</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45055.57720654126</v>
+        <v>45055.57587971067</v>
       </c>
       <c r="B356" s="2" t="n">
-        <v>45055.59919672973</v>
+        <v>45055.59485883881</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -9343,18 +9343,18 @@
         <v>1</v>
       </c>
       <c r="F356" t="n">
-        <v>31.6658714001</v>
+        <v>27.3299445325</v>
       </c>
       <c r="G356" t="n">
-        <v>4946.5573530003</v>
+        <v>4945.410442747399</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45058.11997482749</v>
+        <v>45058.12098355667</v>
       </c>
       <c r="B357" s="2" t="n">
-        <v>45058.14100384015</v>
+        <v>45058.13807565392</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -9368,10 +9368,10 @@
         <v>4</v>
       </c>
       <c r="F357" t="n">
-        <v>30.281778229</v>
+        <v>24.6126200495</v>
       </c>
       <c r="G357" t="n">
-        <v>3629.920460772</v>
+        <v>3637.6195937091</v>
       </c>
     </row>
     <row r="358">
@@ -9396,15 +9396,15 @@
         <v>5.333333333333333</v>
       </c>
       <c r="G358" t="n">
-        <v>214.5711368381334</v>
+        <v>218.7877250081333</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45061.96361851102</v>
+        <v>45061.95964646142</v>
       </c>
       <c r="B359" s="2" t="n">
-        <v>45061.98319121384</v>
+        <v>45061.97843798413</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -9418,18 +9418,18 @@
         <v>0</v>
       </c>
       <c r="F359" t="n">
-        <v>28.1846920755</v>
+        <v>27.0597927054</v>
       </c>
       <c r="G359" t="n">
-        <v>5284.660655872</v>
+        <v>5278.9409044589</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45064.02430292831</v>
+        <v>45064.0235460388</v>
       </c>
       <c r="B360" s="2" t="n">
-        <v>45064.04041607223</v>
+        <v>45064.04432996196</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -9443,18 +9443,18 @@
         <v>3</v>
       </c>
       <c r="F360" t="n">
-        <v>23.2029272581</v>
+        <v>29.9288493532</v>
       </c>
       <c r="G360" t="n">
-        <v>2939.2008688274</v>
+        <v>2944.955598713</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45071.62912630697</v>
+        <v>45071.62840761015</v>
       </c>
       <c r="B361" s="2" t="n">
-        <v>45071.6511065532</v>
+        <v>45071.65023692022</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -9468,10 +9468,10 @@
         <v>3</v>
       </c>
       <c r="F361" t="n">
-        <v>31.6515545645</v>
+        <v>31.4342065043</v>
       </c>
       <c r="G361" t="n">
-        <v>10927.7427380155</v>
+        <v>10921.0718133942</v>
       </c>
     </row>
     <row r="362">
@@ -9496,15 +9496,15 @@
         <v>6.55</v>
       </c>
       <c r="G362" t="n">
-        <v>1567.789896720333</v>
+        <v>1569.042168204333</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45084.7656955275</v>
+        <v>45084.76625376008</v>
       </c>
       <c r="B363" s="2" t="n">
-        <v>45084.78331623767</v>
+        <v>45084.78288617287</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -9518,18 +9518,18 @@
         <v>2</v>
       </c>
       <c r="F363" t="n">
-        <v>25.3738226381</v>
+        <v>23.9506744251</v>
       </c>
       <c r="G363" t="n">
-        <v>17310.6682262833</v>
+        <v>17311.4720811896</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45096.19962447219</v>
+        <v>45096.20592357533</v>
       </c>
       <c r="B364" s="2" t="n">
-        <v>45096.22330478986</v>
+        <v>45096.22268254284</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -9543,18 +9543,18 @@
         <v>0</v>
       </c>
       <c r="F364" t="n">
-        <v>34.0996574611</v>
+        <v>24.13291321531667</v>
       </c>
       <c r="G364" t="n">
-        <v>16439.4838576966</v>
+        <v>16449.173859527</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45099.91370972414</v>
+        <v>45099.9113213142</v>
       </c>
       <c r="B365" s="2" t="n">
-        <v>45099.93193592085</v>
+        <v>45099.934252247</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -9568,18 +9568,18 @@
         <v>3</v>
       </c>
       <c r="F365" t="n">
-        <v>26.2457232535</v>
+        <v>33.0205432295</v>
       </c>
       <c r="G365" t="n">
-        <v>5314.1831053608</v>
+        <v>5311.639830771784</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45107.49267957539</v>
+        <v>45107.49732572841</v>
       </c>
       <c r="B366" s="2" t="n">
-        <v>45107.51213774219</v>
+        <v>45107.5138357004</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -9593,18 +9593,18 @@
         <v>4</v>
       </c>
       <c r="F366" t="n">
-        <v>28.0197601926</v>
+        <v>23.7743596421</v>
       </c>
       <c r="G366" t="n">
-        <v>10887.4708625395</v>
+        <v>10890.825813235</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45119.22293416302</v>
+        <v>45119.22597394603</v>
       </c>
       <c r="B367" s="2" t="n">
-        <v>45119.24599924376</v>
+        <v>45119.24782651049</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -9618,18 +9618,18 @@
         <v>2</v>
       </c>
       <c r="F367" t="n">
-        <v>33.2137162811</v>
+        <v>31.4676928375</v>
       </c>
       <c r="G367" t="n">
-        <v>16863.5468459914</v>
+        <v>16865.4790737167</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45123.76778944133</v>
+        <v>45123.76616821468</v>
       </c>
       <c r="B368" s="2" t="n">
-        <v>45123.78296421983</v>
+        <v>45123.78423046449</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -9643,10 +9643,10 @@
         <v>6</v>
       </c>
       <c r="F368" t="n">
-        <v>21.8516810342</v>
+        <v>26.0096397267</v>
       </c>
       <c r="G368" t="n">
-        <v>6511.3778844949</v>
+        <v>6506.4120540212</v>
       </c>
     </row>
     <row r="369">
@@ -9671,15 +9671,15 @@
         <v>6.016666666666667</v>
       </c>
       <c r="G369" t="n">
-        <v>3841.731523439566</v>
+        <v>3839.908131129167</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45132.97717037439</v>
+        <v>45132.9751285357</v>
       </c>
       <c r="B370" s="2" t="n">
-        <v>45132.99707603559</v>
+        <v>45132.99774916578</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -9693,18 +9693,18 @@
         <v>1</v>
       </c>
       <c r="F370" t="n">
-        <v>28.6641521406</v>
+        <v>32.5737073073</v>
       </c>
       <c r="G370" t="n">
-        <v>9391.908672456899</v>
+        <v>9388.968424749501</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45133.4331607125</v>
+        <v>45133.43638198473</v>
       </c>
       <c r="B371" s="2" t="n">
-        <v>45133.45758412505</v>
+        <v>45133.45830476232</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -9718,18 +9718,18 @@
         <v>2</v>
       </c>
       <c r="F371" t="n">
-        <v>35.1697140645</v>
+        <v>31.5687997239</v>
       </c>
       <c r="G371" t="n">
-        <v>627.9619347524</v>
+        <v>631.6312592941</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45138.39157480458</v>
+        <v>45138.39311924011</v>
       </c>
       <c r="B372" s="2" t="n">
-        <v>45138.41603508473</v>
+        <v>45138.41015214024</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -9743,18 +9743,18 @@
         <v>0</v>
       </c>
       <c r="F372" t="n">
-        <v>35.2228034126</v>
+        <v>24.5273762091</v>
       </c>
       <c r="G372" t="n">
-        <v>7104.946578523201</v>
+        <v>7106.132848012499</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45139.3528961778</v>
+        <v>45139.35272330234</v>
       </c>
       <c r="B373" s="2" t="n">
-        <v>45139.36969710446</v>
+        <v>45139.36898480918</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -9768,18 +9768,18 @@
         <v>1</v>
       </c>
       <c r="F373" t="n">
-        <v>24.1933343791</v>
+        <v>23.4165698573</v>
       </c>
       <c r="G373" t="n">
-        <v>1349.0799740212</v>
+        <v>1357.3024734108</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45141.68592150811</v>
+        <v>45141.68389892971</v>
       </c>
       <c r="B374" s="2" t="n">
-        <v>45141.70820999785</v>
+        <v>45141.7051462379</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -9793,18 +9793,18 @@
         <v>3</v>
       </c>
       <c r="F374" t="n">
-        <v>32.0954252227</v>
+        <v>30.5961237985</v>
       </c>
       <c r="G374" t="n">
-        <v>3335.3631412667</v>
+        <v>3333.4763335622</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45141.97868225745</v>
+        <v>45141.97244996419</v>
       </c>
       <c r="B375" s="2" t="n">
-        <v>45141.99466948845</v>
+        <v>45141.99641246024</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -9818,18 +9818,18 @@
         <v>3</v>
       </c>
       <c r="F375" t="n">
-        <v>23.0216126294</v>
+        <v>34.50599431520001</v>
       </c>
       <c r="G375" t="n">
-        <v>389.4800538374</v>
+        <v>384.917365849</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45149.62270126016</v>
+        <v>45149.62455649651</v>
       </c>
       <c r="B376" s="2" t="n">
-        <v>45149.64404150804</v>
+        <v>45149.64121458632</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -9843,10 +9843,10 @@
         <v>4</v>
       </c>
       <c r="F376" t="n">
-        <v>30.7299569409</v>
+        <v>23.9876493466</v>
       </c>
       <c r="G376" t="n">
-        <v>10984.3657512618</v>
+        <v>10984.5274122129</v>
       </c>
     </row>
     <row r="377">
@@ -9871,7 +9871,7 @@
         <v>6.9</v>
       </c>
       <c r="G377" t="n">
-        <v>1973.730228423933</v>
+        <v>1977.800995684433</v>
       </c>
     </row>
     <row r="378">
@@ -10101,10 +10101,10 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45168.39345340076</v>
+        <v>45168.39846161104</v>
       </c>
       <c r="B387" s="2" t="n">
-        <v>45168.41676209081</v>
+        <v>45168.41778175075</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -10118,18 +10118,18 @@
         <v>2</v>
       </c>
       <c r="F387" t="n">
-        <v>33.5645136559</v>
+        <v>27.8210011727</v>
       </c>
       <c r="G387" t="n">
-        <v>926.0895637792</v>
+        <v>933.3013865803</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45179.56165776018</v>
+        <v>45179.56002180072</v>
       </c>
       <c r="B388" s="2" t="n">
-        <v>45179.58522383039</v>
+        <v>45179.58057215838</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -10143,18 +10143,18 @@
         <v>6</v>
       </c>
       <c r="F388" t="n">
-        <v>33.9351411046</v>
+        <v>29.5925150332</v>
       </c>
       <c r="G388" t="n">
-        <v>16048.649763886</v>
+        <v>16044.8256719479</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45181.70670976525</v>
+        <v>45181.70843301308</v>
       </c>
       <c r="B389" s="2" t="n">
-        <v>45181.72822421944</v>
+        <v>45181.72855527084</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -10162,24 +10162,24 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E389" t="n">
         <v>1</v>
       </c>
       <c r="F389" t="n">
-        <v>30.9808140221</v>
+        <v>28.9760511932</v>
       </c>
       <c r="G389" t="n">
-        <v>3054.9397462228</v>
+        <v>3064.11963077</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45194.95715746172</v>
+        <v>45194.95583654456</v>
       </c>
       <c r="B390" s="2" t="n">
-        <v>45194.98145572554</v>
+        <v>45194.9783297099</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -10193,18 +10193,18 @@
         <v>0</v>
       </c>
       <c r="F390" t="n">
-        <v>34.9894999003</v>
+        <v>32.3901580791</v>
       </c>
       <c r="G390" t="n">
-        <v>19049.6638688855</v>
+        <v>19047.285034149</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45199.83147243885</v>
+        <v>45199.83638791819</v>
       </c>
       <c r="B391" s="2" t="n">
-        <v>45199.85580522502</v>
+        <v>45199.85338315275</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -10212,24 +10212,24 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
       </c>
       <c r="F391" t="n">
-        <v>35.0392120795</v>
+        <v>24.4731377641</v>
       </c>
       <c r="G391" t="n">
-        <v>6984.0240671695</v>
+        <v>6995.603819944899</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45199.95555544184</v>
+        <v>45199.96018692093</v>
       </c>
       <c r="B392" s="2" t="n">
-        <v>45199.98068216637</v>
+        <v>45199.97836125453</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -10237,24 +10237,24 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E392" t="n">
         <v>5</v>
       </c>
       <c r="F392" t="n">
-        <v>36.1824833286</v>
+        <v>26.1710403859</v>
       </c>
       <c r="G392" t="n">
-        <v>143.6403122123</v>
+        <v>153.7974261714</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45202.16867687193</v>
+        <v>45202.16452998704</v>
       </c>
       <c r="B393" s="2" t="n">
-        <v>45202.18694151345</v>
+        <v>45202.18832804461</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -10262,24 +10262,24 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E393" t="n">
         <v>1</v>
       </c>
       <c r="F393" t="n">
-        <v>26.3010837783</v>
+        <v>34.2692029086</v>
       </c>
       <c r="G393" t="n">
-        <v>3150.7123760132</v>
+        <v>3148.0829748122</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45205.04325440697</v>
+        <v>45205.04258209204</v>
       </c>
       <c r="B394" s="2" t="n">
-        <v>45205.06432285361</v>
+        <v>45205.06487027816</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -10293,18 +10293,18 @@
         <v>4</v>
       </c>
       <c r="F394" t="n">
-        <v>30.33856315878333</v>
+        <v>32.0949880217</v>
       </c>
       <c r="G394" t="n">
-        <v>4113.0905666767</v>
+        <v>4110.1258282962</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45212.71079365238</v>
+        <v>45212.70913264657</v>
       </c>
       <c r="B395" s="2" t="n">
-        <v>45212.72755172873</v>
+        <v>45212.73207545671</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -10318,18 +10318,18 @@
         <v>4</v>
       </c>
       <c r="F395" t="n">
-        <v>24.1316299557</v>
+        <v>33.0376465916</v>
       </c>
       <c r="G395" t="n">
-        <v>11010.91795021872</v>
+        <v>11007.7378105158</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45213.06398409799</v>
+        <v>45213.0599390904</v>
       </c>
       <c r="B396" s="2" t="n">
-        <v>45213.0838974711</v>
+        <v>45213.08409189903</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -10343,18 +10343,18 @@
         <v>5</v>
       </c>
       <c r="F396" t="n">
-        <v>28.6752572876</v>
+        <v>34.7800444286</v>
       </c>
       <c r="G396" t="n">
-        <v>484.4626117236</v>
+        <v>472.1236325107</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45214.29058782984</v>
+        <v>45214.29249832846</v>
       </c>
       <c r="B397" s="2" t="n">
-        <v>45214.3121380203</v>
+        <v>45214.31624421484</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -10362,24 +10362,24 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E397" t="n">
         <v>6</v>
       </c>
       <c r="F397" t="n">
-        <v>31.0322742716</v>
+        <v>34.1940763764</v>
       </c>
       <c r="G397" t="n">
-        <v>1737.6341165823</v>
+        <v>1740.105258387</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45214.66502755714</v>
+        <v>45214.66772069854</v>
       </c>
       <c r="B398" s="2" t="n">
-        <v>45214.68481041423</v>
+        <v>45214.68527388933</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -10387,24 +10387,24 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E398" t="n">
         <v>6</v>
       </c>
       <c r="F398" t="n">
-        <v>28.4873142271</v>
+        <v>25.2765947306</v>
       </c>
       <c r="G398" t="n">
-        <v>508.1609330418</v>
+        <v>506.1261365378001</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45218.35164753516</v>
+        <v>45218.35269388468</v>
       </c>
       <c r="B399" s="2" t="n">
-        <v>45218.37355209457</v>
+        <v>45218.37602860257</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -10418,10 +10418,10 @@
         <v>3</v>
       </c>
       <c r="F399" t="n">
-        <v>31.5425655594</v>
+        <v>33.6019937407</v>
       </c>
       <c r="G399" t="n">
-        <v>5280.245454125</v>
+        <v>5281.084793322099</v>
       </c>
     </row>
     <row r="400">
@@ -10446,7 +10446,7 @@
         <v>3.383333333333333</v>
       </c>
       <c r="G400" t="n">
-        <v>7799.401650467234</v>
+        <v>7795.835478961633</v>
       </c>
     </row>
     <row r="401">
@@ -10576,10 +10576,10 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45233.46377216204</v>
+        <v>45233.46573626278</v>
       </c>
       <c r="B406" s="2" t="n">
-        <v>45233.48654897968</v>
+        <v>45233.48200437712</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -10593,10 +10593,10 @@
         <v>4</v>
       </c>
       <c r="F406" t="n">
-        <v>32.7986173966</v>
+        <v>23.4260846516</v>
       </c>
       <c r="G406" t="n">
-        <v>5581.7152466708</v>
+        <v>5584.5435517438</v>
       </c>
     </row>
     <row r="407">
@@ -10621,7 +10621,7 @@
         <v>4.083333333333333</v>
       </c>
       <c r="G407" t="n">
-        <v>5235.286135932601</v>
+        <v>5241.8303636046</v>
       </c>
     </row>
     <row r="408">
@@ -10651,10 +10651,10 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45249.75599503384</v>
+        <v>45249.75362163757</v>
       </c>
       <c r="B409" s="2" t="n">
-        <v>45249.77881962107</v>
+        <v>45249.77953802256</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -10668,18 +10668,18 @@
         <v>6</v>
       </c>
       <c r="F409" t="n">
-        <v>32.86740561048334</v>
+        <v>37.3195943832</v>
       </c>
       <c r="G409" t="n">
-        <v>18179.6661820784</v>
+        <v>18176.2484914469</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45251.50481742476</v>
+        <v>45251.50420281565</v>
       </c>
       <c r="B410" s="2" t="n">
-        <v>45251.5265888339</v>
+        <v>45251.52867983595</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -10693,18 +10693,18 @@
         <v>1</v>
       </c>
       <c r="F410" t="n">
-        <v>31.3508291696</v>
+        <v>35.246909229</v>
       </c>
       <c r="G410" t="n">
-        <v>2485.436837305517</v>
+        <v>2483.5173020431</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45252.15046634258</v>
+        <v>45252.15003248188</v>
       </c>
       <c r="B411" s="2" t="n">
-        <v>45252.17284299392</v>
+        <v>45252.17573880213</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -10718,18 +10718,18 @@
         <v>2</v>
       </c>
       <c r="F411" t="n">
-        <v>32.2223779378</v>
+        <v>37.01710116749999</v>
       </c>
       <c r="G411" t="n">
-        <v>898.3836124955</v>
+        <v>894.7478101353</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45252.44263595474</v>
+        <v>45252.44362466349</v>
       </c>
       <c r="B412" s="2" t="n">
-        <v>45252.46444204595</v>
+        <v>45252.46360771604</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -10743,18 +10743,18 @@
         <v>2</v>
       </c>
       <c r="F412" t="n">
-        <v>31.4007713459</v>
+        <v>28.7755956921</v>
       </c>
       <c r="G412" t="n">
-        <v>388.501863563</v>
+        <v>385.7556403499</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45259.46616313074</v>
+        <v>45259.46242695117</v>
       </c>
       <c r="B413" s="2" t="n">
-        <v>45259.48801062527</v>
+        <v>45259.48308558528</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -10768,18 +10768,18 @@
         <v>2</v>
       </c>
       <c r="F413" t="n">
-        <v>31.4603921389</v>
+        <v>29.7484331205</v>
       </c>
       <c r="G413" t="n">
-        <v>10082.4783621015</v>
+        <v>10078.2996985754</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45268.10930945931</v>
+        <v>45268.10969269366</v>
       </c>
       <c r="B414" s="2" t="n">
-        <v>45268.13410369965</v>
+        <v>45268.13100756103</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -10793,18 +10793,18 @@
         <v>4</v>
       </c>
       <c r="F414" t="n">
-        <v>35.7037061095</v>
+        <v>30.6934090137</v>
       </c>
       <c r="G414" t="n">
-        <v>12414.6703209934</v>
+        <v>12422.3142360674</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45270.86221751689</v>
+        <v>45270.85715713325</v>
       </c>
       <c r="B415" s="2" t="n">
-        <v>45270.88283894065</v>
+        <v>45270.87952581768</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -10818,10 +10818,10 @@
         <v>6</v>
       </c>
       <c r="F415" t="n">
-        <v>29.6948502211</v>
+        <v>32.2109055641</v>
       </c>
       <c r="G415" t="n">
-        <v>3928.4838968029</v>
+        <v>3925.6553840065</v>
       </c>
     </row>
     <row r="416">
@@ -10846,15 +10846,15 @@
         <v>3.166666666666667</v>
       </c>
       <c r="G416" t="n">
-        <v>4813.828592126501</v>
+        <v>4818.5994892054</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45286.99770900338</v>
+        <v>45286.99686260877</v>
       </c>
       <c r="B417" s="2" t="n">
-        <v>45287.02245315576</v>
+        <v>45287.02297246704</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -10868,18 +10868,18 @@
         <v>1</v>
       </c>
       <c r="F417" t="n">
-        <v>35.6315794236</v>
+        <v>37.5981959012</v>
       </c>
       <c r="G417" t="n">
-        <v>18388.417631545</v>
+        <v>18387.1988233036</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45287.1234295613</v>
+        <v>45287.12329330852</v>
       </c>
       <c r="B418" s="2" t="n">
-        <v>45287.14704933612</v>
+        <v>45287.14786215558</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -10893,18 +10893,18 @@
         <v>2</v>
       </c>
       <c r="F418" t="n">
-        <v>34.0124757518</v>
+        <v>35.379139767</v>
       </c>
       <c r="G418" t="n">
-        <v>145.4060239716</v>
+        <v>144.4620117364</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45287.41697936355</v>
+        <v>45287.41225810785</v>
       </c>
       <c r="B419" s="2" t="n">
-        <v>45287.437812445</v>
+        <v>45287.43378705441</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -10912,24 +10912,24 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E419" t="n">
         <v>2</v>
       </c>
       <c r="F419" t="n">
-        <v>29.9996372754</v>
+        <v>31.0016830448</v>
       </c>
       <c r="G419" t="n">
-        <v>388.6992395076</v>
+        <v>380.7301712687</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45299.7466468468</v>
+        <v>45299.75194850149</v>
       </c>
       <c r="B420" s="2" t="n">
-        <v>45299.77279237404</v>
+        <v>45299.76994980426</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -10937,16 +10937,16 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E420" t="n">
         <v>0</v>
       </c>
       <c r="F420" t="n">
-        <v>37.6495592078</v>
+        <v>25.9218759929</v>
       </c>
       <c r="G420" t="n">
-        <v>17724.7215386012</v>
+        <v>17738.1524837955</v>
       </c>
     </row>
     <row r="421">
@@ -10971,7 +10971,7 @@
         <v>3.6</v>
       </c>
       <c r="G421" t="n">
-        <v>1645.812314716</v>
+        <v>1649.9056151899</v>
       </c>
     </row>
     <row r="422">
@@ -11001,10 +11001,10 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>45302.9324643732</v>
+        <v>45302.92668427486</v>
       </c>
       <c r="B423" s="2" t="n">
-        <v>45302.95259361397</v>
+        <v>45302.95073947874</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -11018,10 +11018,10 @@
         <v>3</v>
       </c>
       <c r="F423" t="n">
-        <v>28.9861067025</v>
+        <v>34.6394935937</v>
       </c>
       <c r="G423" t="n">
-        <v>2884.9153640925</v>
+        <v>2876.5920224668</v>
       </c>
     </row>
     <row r="424">
@@ -11046,7 +11046,7 @@
         <v>12.56666666666667</v>
       </c>
       <c r="G424" t="n">
-        <v>38840.01519587167</v>
+        <v>38842.68515060617</v>
       </c>
     </row>
     <row r="425">
@@ -11076,10 +11076,10 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45340.54263096643</v>
+        <v>45340.5433073446</v>
       </c>
       <c r="B426" s="2" t="n">
-        <v>45340.56710589338</v>
+        <v>45340.56036503841</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -11093,18 +11093,18 @@
         <v>6</v>
       </c>
       <c r="F426" t="n">
-        <v>35.2438948077</v>
+        <v>24.5630790872</v>
       </c>
       <c r="G426" t="n">
-        <v>15119.5052583343</v>
+        <v>15120.4792428979</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45351.27546986906</v>
+        <v>45351.27202956832</v>
       </c>
       <c r="B427" s="2" t="n">
-        <v>45351.29482360688</v>
+        <v>45351.28978398057</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -11118,18 +11118,18 @@
         <v>3</v>
       </c>
       <c r="F427" t="n">
-        <v>27.8693824567</v>
+        <v>25.5663536186</v>
       </c>
       <c r="G427" t="n">
-        <v>15420.0441249791</v>
+        <v>15424.7969230804</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45352.35353188876</v>
+        <v>45352.35528984222</v>
       </c>
       <c r="B428" s="2" t="n">
-        <v>45352.37895368996</v>
+        <v>45352.37911679152</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -11143,18 +11143,18 @@
         <v>4</v>
       </c>
       <c r="F428" t="n">
-        <v>36.6073937448</v>
+        <v>34.3108069803</v>
       </c>
       <c r="G428" t="n">
-        <v>1524.5399259088</v>
+        <v>1534.3284407964</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45354.93642464357</v>
+        <v>45354.94156725344</v>
       </c>
       <c r="B429" s="2" t="n">
-        <v>45354.96273183291</v>
+        <v>45354.9601629832</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -11168,18 +11168,18 @@
         <v>6</v>
       </c>
       <c r="F429" t="n">
-        <v>37.8823526622</v>
+        <v>26.7778508533</v>
       </c>
       <c r="G429" t="n">
-        <v>3682.7581731795</v>
+        <v>3689.9286651581</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45358.74801008821</v>
+        <v>45358.7485579432</v>
       </c>
       <c r="B430" s="2" t="n">
-        <v>45358.77323812489</v>
+        <v>45358.77273517507</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -11193,18 +11193,18 @@
         <v>3</v>
       </c>
       <c r="F430" t="n">
-        <v>36.3283728294</v>
+        <v>34.8152138949</v>
       </c>
       <c r="G430" t="n">
-        <v>5450.8006876236</v>
+        <v>5455.2887424032</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45361.91580256446</v>
+        <v>45361.91528514557</v>
       </c>
       <c r="B431" s="2" t="n">
-        <v>45361.94110584171</v>
+        <v>45361.94007845026</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -11218,18 +11218,18 @@
         <v>6</v>
       </c>
       <c r="F431" t="n">
-        <v>36.43671924528334</v>
+        <v>35.7023587446</v>
       </c>
       <c r="G431" t="n">
-        <v>4525.292792973617</v>
+        <v>4525.2719575293</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45363.2912146117</v>
+        <v>45363.2913522952</v>
       </c>
       <c r="B432" s="2" t="n">
-        <v>45363.31468986471</v>
+        <v>45363.31655889713</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -11243,18 +11243,18 @@
         <v>1</v>
       </c>
       <c r="F432" t="n">
-        <v>33.8043643442</v>
+        <v>36.2975067762</v>
       </c>
       <c r="G432" t="n">
-        <v>1944.1566287748</v>
+        <v>1945.8343367174</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45368.76989115619</v>
+        <v>45368.77359329244</v>
       </c>
       <c r="B433" s="2" t="n">
-        <v>45368.79167706447</v>
+        <v>45368.79626620984</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -11268,18 +11268,18 @@
         <v>6</v>
       </c>
       <c r="F433" t="n">
-        <v>31.3717079272</v>
+        <v>32.6490010604</v>
       </c>
       <c r="G433" t="n">
-        <v>7855.4898597198</v>
+        <v>7858.1295292506</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45370.58363667512</v>
+        <v>45370.5817331424</v>
       </c>
       <c r="B434" s="2" t="n">
-        <v>45370.60887110817</v>
+        <v>45370.60871168599</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -11287,24 +11287,24 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E434" t="n">
         <v>1</v>
       </c>
       <c r="F434" t="n">
-        <v>36.3375835871</v>
+        <v>38.8491027414</v>
       </c>
       <c r="G434" t="n">
-        <v>2580.4218393477</v>
+        <v>2571.0723828987</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45372.54090999116</v>
+        <v>45372.5446533925</v>
       </c>
       <c r="B435" s="2" t="n">
-        <v>45372.56302838433</v>
+        <v>45372.56401415812</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -11312,24 +11312,24 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E435" t="n">
         <v>3</v>
       </c>
       <c r="F435" t="n">
-        <v>31.8504861615</v>
+        <v>27.8795025051</v>
       </c>
       <c r="G435" t="n">
-        <v>2782.1359914941</v>
+        <v>2787.7560573788</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45375.89469890847</v>
+        <v>45375.89963370645</v>
       </c>
       <c r="B436" s="2" t="n">
-        <v>45375.92053370755</v>
+        <v>45375.91536498813</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -11343,18 +11343,18 @@
         <v>6</v>
       </c>
       <c r="F436" t="n">
-        <v>37.20211066868333</v>
+        <v>22.653045611</v>
       </c>
       <c r="G436" t="n">
-        <v>4797.605554780416</v>
+        <v>4803.292149588399</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45380.3761931545</v>
+        <v>45380.37707349976</v>
       </c>
       <c r="B437" s="2" t="n">
-        <v>45380.39471535624</v>
+        <v>45380.39829873382</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -11368,18 +11368,18 @@
         <v>4</v>
       </c>
       <c r="F437" t="n">
-        <v>26.6719704908</v>
+        <v>30.5643370589</v>
       </c>
       <c r="G437" t="n">
-        <v>6416.149603614201</v>
+        <v>6424.8602567522</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45382.79475405259</v>
+        <v>45382.79517849271</v>
       </c>
       <c r="B438" s="2" t="n">
-        <v>45382.81625235451</v>
+        <v>45382.81331845158</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -11393,18 +11393,18 @@
         <v>6</v>
       </c>
       <c r="F438" t="n">
-        <v>30.9575547638</v>
+        <v>26.1215407674</v>
       </c>
       <c r="G438" t="n">
-        <v>3456.055722749</v>
+        <v>3451.5068527974</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45387.28991356659</v>
+        <v>45387.29427430953</v>
       </c>
       <c r="B439" s="2" t="n">
-        <v>45387.31720717179</v>
+        <v>45387.31310889742</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -11412,24 +11412,24 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E439" t="n">
         <v>4</v>
       </c>
       <c r="F439" t="n">
-        <v>39.3027914719</v>
+        <v>27.1218065632</v>
       </c>
       <c r="G439" t="n">
-        <v>6442.072145412199</v>
+        <v>6452.5764354439</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45388.29373624034</v>
+        <v>45388.29031798333</v>
       </c>
       <c r="B440" s="2" t="n">
-        <v>45388.31544214756</v>
+        <v>45388.31146813705</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -11437,24 +11437,24 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E440" t="n">
         <v>5</v>
       </c>
       <c r="F440" t="n">
-        <v>31.2565064123</v>
+        <v>30.4562213615</v>
       </c>
       <c r="G440" t="n">
-        <v>1406.2018587003</v>
+        <v>1407.1810837151</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45394.81069427812</v>
+        <v>45394.81223400433</v>
       </c>
       <c r="B441" s="2" t="n">
-        <v>45394.83634663274</v>
+        <v>45394.83689685564</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -11468,18 +11468,18 @@
         <v>4</v>
       </c>
       <c r="F441" t="n">
-        <v>36.9393906459</v>
+        <v>35.514505889</v>
       </c>
       <c r="G441" t="n">
-        <v>9353.163068018201</v>
+        <v>9361.1028488743</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45399.29354737537</v>
+        <v>45399.29290335225</v>
       </c>
       <c r="B442" s="2" t="n">
-        <v>45399.31709730261</v>
+        <v>45399.31465913663</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -11493,18 +11493,18 @@
         <v>2</v>
       </c>
       <c r="F442" t="n">
-        <v>33.9118952332</v>
+        <v>31.328329523</v>
       </c>
       <c r="G442" t="n">
-        <v>6418.3690693839</v>
+        <v>6416.6493551062</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45401.39744364785</v>
+        <v>45401.39440839466</v>
       </c>
       <c r="B443" s="2" t="n">
-        <v>45401.41617372119</v>
+        <v>45401.41672168342</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -11518,18 +11518,18 @@
         <v>4</v>
       </c>
       <c r="F443" t="n">
-        <v>26.9713056144</v>
+        <v>32.1311358345</v>
       </c>
       <c r="G443" t="n">
-        <v>2995.6987371356</v>
+        <v>2994.8389315481</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45401.70678100333</v>
+        <v>45401.70805946865</v>
       </c>
       <c r="B444" s="2" t="n">
-        <v>45401.73005493332</v>
+        <v>45401.73318871255</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -11543,18 +11543,18 @@
         <v>4</v>
       </c>
       <c r="F444" t="n">
-        <v>33.5144591847</v>
+        <v>36.18611124628333</v>
       </c>
       <c r="G444" t="n">
-        <v>418.474486279</v>
+        <v>419.5264107117167</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45411.19073470927</v>
+        <v>45411.19024706351</v>
       </c>
       <c r="B445" s="2" t="n">
-        <v>45411.21151665392</v>
+        <v>45411.20715735447</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -11568,18 +11568,18 @@
         <v>0</v>
       </c>
       <c r="F445" t="n">
-        <v>29.9260002947</v>
+        <v>24.3508189823</v>
       </c>
       <c r="G445" t="n">
-        <v>13623.3788773574</v>
+        <v>13618.1640253581</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45415.46238056272</v>
+        <v>45415.45696754746</v>
       </c>
       <c r="B446" s="2" t="n">
-        <v>45415.48213501853</v>
+        <v>45415.48118582358</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -11587,24 +11587,24 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E446" t="n">
         <v>4</v>
       </c>
       <c r="F446" t="n">
-        <v>28.4464163778</v>
+        <v>34.87431762849999</v>
       </c>
       <c r="G446" t="n">
-        <v>6121.2440286718</v>
+        <v>6119.726677896801</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45417.87515344047</v>
+        <v>45417.87468733103</v>
       </c>
       <c r="B447" s="2" t="n">
-        <v>45417.89937914039</v>
+        <v>45417.8990676802</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -11612,24 +11612,24 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E447" t="n">
         <v>6</v>
       </c>
       <c r="F447" t="n">
-        <v>34.8850079011</v>
+        <v>35.1077028035</v>
       </c>
       <c r="G447" t="n">
-        <v>3445.946527583</v>
+        <v>3446.6421707259</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45425.35460008027</v>
+        <v>45425.35226476436</v>
       </c>
       <c r="B448" s="2" t="n">
-        <v>45425.37633986037</v>
+        <v>45425.37488125554</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -11643,18 +11643,18 @@
         <v>0</v>
       </c>
       <c r="F448" t="n">
-        <v>31.3052833378</v>
+        <v>32.5677473059</v>
       </c>
       <c r="G448" t="n">
-        <v>10735.5181534282</v>
+        <v>10732.60380119</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45426.02520674714</v>
+        <v>45426.02152815125</v>
       </c>
       <c r="B449" s="2" t="n">
-        <v>45426.04504391557</v>
+        <v>45426.04536070182</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -11668,18 +11668,18 @@
         <v>1</v>
       </c>
       <c r="F449" t="n">
-        <v>28.5655225383</v>
+        <v>34.3188728165</v>
       </c>
       <c r="G449" t="n">
-        <v>934.3683169473001</v>
+        <v>931.1715298167001</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45426.91644658009</v>
+        <v>45426.91818724346</v>
       </c>
       <c r="B450" s="2" t="n">
-        <v>45426.93721992711</v>
+        <v>45426.93603627734</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -11687,24 +11687,24 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E450" t="n">
         <v>1</v>
       </c>
       <c r="F450" t="n">
-        <v>29.9136197063</v>
+        <v>25.7026087922</v>
       </c>
       <c r="G450" t="n">
-        <v>1254.8198369082</v>
+        <v>1256.870219961</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45429.79197835591</v>
+        <v>45429.79215006386</v>
       </c>
       <c r="B451" s="2" t="n">
-        <v>45429.81375664048</v>
+        <v>45429.81172023869</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -11718,18 +11718,18 @@
         <v>4</v>
       </c>
       <c r="F451" t="n">
-        <v>31.3607297852</v>
+        <v>28.181051757</v>
       </c>
       <c r="G451" t="n">
-        <v>4110.8521374852</v>
+        <v>4112.803852594499</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45435.70798826509</v>
+        <v>45435.70859522919</v>
       </c>
       <c r="B452" s="2" t="n">
-        <v>45435.72773565407</v>
+        <v>45435.73240823464</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -11737,24 +11737,24 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E452" t="n">
         <v>3</v>
       </c>
       <c r="F452" t="n">
-        <v>28.4362401327</v>
+        <v>34.2907278577</v>
       </c>
       <c r="G452" t="n">
-        <v>8487.6935394259</v>
+        <v>8491.4999863132</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45440.15031159925</v>
+        <v>45440.14693638819</v>
       </c>
       <c r="B453" s="2" t="n">
-        <v>45440.17103580241</v>
+        <v>45440.17015530181</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -11768,18 +11768,18 @@
         <v>1</v>
       </c>
       <c r="F453" t="n">
-        <v>29.8428525412</v>
+        <v>33.435235609</v>
       </c>
       <c r="G453" t="n">
-        <v>6368.5093610551</v>
+        <v>6356.920541115001</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>45441.68997931988</v>
+        <v>45441.68846723809</v>
       </c>
       <c r="B454" s="2" t="n">
-        <v>45441.70892990656</v>
+        <v>45441.70722397703</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -11793,18 +11793,18 @@
         <v>2</v>
       </c>
       <c r="F454" t="n">
-        <v>27.2888448316</v>
+        <v>27.0097040662</v>
       </c>
       <c r="G454" t="n">
-        <v>2187.2786651501</v>
+        <v>2186.3691882379</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>45446.15010102069</v>
+        <v>45446.14539172212</v>
       </c>
       <c r="B455" s="2" t="n">
-        <v>45446.16498253644</v>
+        <v>45446.16460468251</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -11818,18 +11818,18 @@
         <v>0</v>
       </c>
       <c r="F455" t="n">
-        <v>21.42938268081667</v>
+        <v>27.6666629661</v>
       </c>
       <c r="G455" t="n">
-        <v>6395.286404358183</v>
+        <v>6390.9615529333</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>45452.3792999335</v>
+        <v>45452.37731101416</v>
       </c>
       <c r="B456" s="2" t="n">
-        <v>45452.39635612073</v>
+        <v>45452.39424289375</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -11843,18 +11843,18 @@
         <v>6</v>
       </c>
       <c r="F456" t="n">
-        <v>24.5609096191</v>
+        <v>24.3819066086</v>
       </c>
       <c r="G456" t="n">
-        <v>8948.617051747698</v>
+        <v>8946.2971175735</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>45457.02105613109</v>
+        <v>45457.02215459564</v>
       </c>
       <c r="B457" s="2" t="n">
-        <v>45457.0399545892</v>
+        <v>45457.04120167514</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -11868,18 +11868,18 @@
         <v>4</v>
       </c>
       <c r="F457" t="n">
-        <v>27.2137796711</v>
+        <v>27.4277944774</v>
       </c>
       <c r="G457" t="n">
-        <v>6659.568014923399</v>
+        <v>6664.1928507291</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>45467.52009692247</v>
+        <v>45467.51981964863</v>
       </c>
       <c r="B458" s="2" t="n">
-        <v>45467.54323042833</v>
+        <v>45467.54039659704</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -11893,18 +11893,18 @@
         <v>0</v>
       </c>
       <c r="F458" t="n">
-        <v>33.3122484531</v>
+        <v>29.6308057007</v>
       </c>
       <c r="G458" t="n">
-        <v>15091.4049599084</v>
+        <v>15089.2098818341</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>45468.21231801792</v>
+        <v>45468.20827515562</v>
       </c>
       <c r="B459" s="2" t="n">
-        <v>45468.22739178492</v>
+        <v>45468.22995352525</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -11912,24 +11912,24 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E459" t="n">
         <v>1</v>
       </c>
       <c r="F459" t="n">
-        <v>21.7062244892</v>
+        <v>31.216852271</v>
       </c>
       <c r="G459" t="n">
-        <v>963.4861289911</v>
+        <v>961.7451243529</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>45469.43921212267</v>
+        <v>45469.43967877627</v>
       </c>
       <c r="B460" s="2" t="n">
-        <v>45469.4589126901</v>
+        <v>45469.46156047813</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -11943,18 +11943,18 @@
         <v>2</v>
       </c>
       <c r="F460" t="n">
-        <v>28.368817103</v>
+        <v>31.5096506554</v>
       </c>
       <c r="G460" t="n">
-        <v>1745.0212863649</v>
+        <v>1742.0043614766</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>45483.18882872014</v>
+        <v>45483.19189546209</v>
       </c>
       <c r="B461" s="2" t="n">
-        <v>45483.21098792135</v>
+        <v>45483.20706266559</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -11968,18 +11968,18 @@
         <v>2</v>
       </c>
       <c r="F461" t="n">
-        <v>31.9092497455</v>
+        <v>21.8407730466</v>
       </c>
       <c r="G461" t="n">
-        <v>19771.0790832468</v>
+        <v>19771.6823768987</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>45492.52241688644</v>
+        <v>45492.52308306184</v>
       </c>
       <c r="B462" s="2" t="n">
-        <v>45492.5396991504</v>
+        <v>45492.54153237888</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -11993,18 +11993,18 @@
         <v>4</v>
       </c>
       <c r="F462" t="n">
-        <v>24.8864601066</v>
+        <v>26.5670165348</v>
       </c>
       <c r="G462" t="n">
-        <v>13408.4577097258</v>
+        <v>13415.0693706105</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>45493.04270457558</v>
+        <v>45493.04110149149</v>
       </c>
       <c r="B463" s="2" t="n">
-        <v>45493.06177231488</v>
+        <v>45493.06480941156</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -12012,24 +12012,24 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E463" t="n">
         <v>5</v>
       </c>
       <c r="F463" t="n">
-        <v>27.4575445877</v>
+        <v>34.1394048941</v>
       </c>
       <c r="G463" t="n">
-        <v>724.3278122545</v>
+        <v>719.3795221677999</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>45498.70835518763</v>
+        <v>45498.70660786769</v>
       </c>
       <c r="B464" s="2" t="n">
-        <v>45498.72818551384</v>
+        <v>45498.73089023725</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -12037,24 +12037,24 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E464" t="n">
         <v>3</v>
       </c>
       <c r="F464" t="n">
-        <v>28.5556697516</v>
+        <v>34.9666121591</v>
       </c>
       <c r="G464" t="n">
-        <v>8131.0793367622</v>
+        <v>8124.1897768336</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>45499.62355204659</v>
+        <v>45499.6263498139</v>
       </c>
       <c r="B465" s="2" t="n">
-        <v>45499.64521524694</v>
+        <v>45499.64456148933</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -12062,24 +12062,24 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E465" t="n">
         <v>4</v>
       </c>
       <c r="F465" t="n">
-        <v>31.1950085195</v>
+        <v>26.2248126119</v>
       </c>
       <c r="G465" t="n">
-        <v>1289.3278071456</v>
+        <v>1289.4617903751</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>45501.98117416182</v>
+        <v>45501.98362908332</v>
       </c>
       <c r="B466" s="2" t="n">
-        <v>45502.00058770394</v>
+        <v>45502.00025939242</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -12093,18 +12093,18 @@
         <v>6</v>
       </c>
       <c r="F466" t="n">
-        <v>27.9555006698</v>
+        <v>23.9476451012</v>
       </c>
       <c r="G466" t="n">
-        <v>3363.780837414</v>
+        <v>3368.2573353539</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>45516.48378523404</v>
+        <v>45516.48372483338</v>
       </c>
       <c r="B467" s="2" t="n">
-        <v>45516.50112682639</v>
+        <v>45516.50151847473</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -12118,18 +12118,18 @@
         <v>0</v>
       </c>
       <c r="F467" t="n">
-        <v>24.9718929838</v>
+        <v>25.6228435493</v>
       </c>
       <c r="G467" t="n">
-        <v>20855.8044433265</v>
+        <v>20856.1902349797</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>45519.69221477469</v>
+        <v>45519.69119612691</v>
       </c>
       <c r="B468" s="2" t="n">
-        <v>45519.71257138279</v>
+        <v>45519.7079891801</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -12143,18 +12143,18 @@
         <v>3</v>
       </c>
       <c r="F468" t="n">
-        <v>29.3135156662</v>
+        <v>24.1819966004</v>
       </c>
       <c r="G468" t="n">
-        <v>4595.1666455496</v>
+        <v>4593.1358191414</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>45520.04254189382</v>
+        <v>45520.04211401566</v>
       </c>
       <c r="B469" s="2" t="n">
-        <v>45520.06716857672</v>
+        <v>45520.06476274574</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -12168,18 +12168,18 @@
         <v>4</v>
       </c>
       <c r="F469" t="n">
-        <v>35.4624233762</v>
+        <v>32.6141713085</v>
       </c>
       <c r="G469" t="n">
-        <v>475.1575358968</v>
+        <v>481.1397632037</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>45525.50460803234</v>
+        <v>45525.50320124444</v>
       </c>
       <c r="B470" s="2" t="n">
-        <v>45525.52536724781</v>
+        <v>45525.52005187952</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -12193,18 +12193,18 @@
         <v>2</v>
       </c>
       <c r="F470" t="n">
-        <v>29.8932702763</v>
+        <v>24.264914499</v>
       </c>
       <c r="G470" t="n">
-        <v>7829.9128160849</v>
+        <v>7831.351438137101</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>45542.710885081</v>
+        <v>45542.71294021377</v>
       </c>
       <c r="B471" s="2" t="n">
-        <v>45542.72987212368</v>
+        <v>45542.73293581555</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -12218,18 +12218,18 @@
         <v>5</v>
       </c>
       <c r="F471" t="n">
-        <v>27.3413414503</v>
+        <v>28.7936665729</v>
       </c>
       <c r="G471" t="n">
-        <v>24747.1456798055</v>
+        <v>24757.7592013286</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>45546.60742595894</v>
+        <v>45546.60870901566</v>
       </c>
       <c r="B472" s="2" t="n">
-        <v>45546.62374160739</v>
+        <v>45546.6235507839</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -12243,18 +12243,18 @@
         <v>2</v>
       </c>
       <c r="F472" t="n">
-        <v>23.4945337789</v>
+        <v>21.3721462583</v>
       </c>
       <c r="G472" t="n">
-        <v>5583.677522764299</v>
+        <v>5581.113408148501</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>45549.26908108985</v>
+        <v>45549.27265739073</v>
       </c>
       <c r="B473" s="2" t="n">
-        <v>45549.28985576564</v>
+        <v>45549.29335735345</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -12268,18 +12268,18 @@
         <v>5</v>
       </c>
       <c r="F473" t="n">
-        <v>29.9155331316</v>
+        <v>29.8079463224</v>
       </c>
       <c r="G473" t="n">
-        <v>3809.2888547393</v>
+        <v>3814.7135138351</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>45552.81482172587</v>
+        <v>45552.81646593663</v>
       </c>
       <c r="B474" s="2" t="n">
-        <v>45552.83746514747</v>
+        <v>45552.83752926691</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -12293,10 +12293,10 @@
         <v>1</v>
       </c>
       <c r="F474" t="n">
-        <v>32.6065271252</v>
+        <v>30.3311956014</v>
       </c>
       <c r="G474" t="n">
-        <v>5075.950982732399</v>
+        <v>5073.276359787899</v>
       </c>
     </row>
     <row r="475">
@@ -12321,7 +12321,7 @@
         <v>6.483333333333333</v>
       </c>
       <c r="G475" t="n">
-        <v>1695.566854287133</v>
+        <v>1695.474522300333</v>
       </c>
     </row>
     <row r="476">
@@ -12351,10 +12351,10 @@
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>45559.27644562664</v>
+        <v>45559.27206678686</v>
       </c>
       <c r="B477" s="2" t="n">
-        <v>45559.29511784074</v>
+        <v>45559.29716537461</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -12368,18 +12368,18 @@
         <v>1</v>
       </c>
       <c r="F477" t="n">
-        <v>26.887988293</v>
+        <v>36.14196635288333</v>
       </c>
       <c r="G477" t="n">
-        <v>7563.1983690425</v>
+        <v>7556.892839759899</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>45565.27291097733</v>
+        <v>45565.2712306062</v>
       </c>
       <c r="B478" s="2" t="n">
-        <v>45565.29236482818</v>
+        <v>45565.29666184269</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -12393,18 +12393,18 @@
         <v>0</v>
       </c>
       <c r="F478" t="n">
-        <v>28.0135452443</v>
+        <v>36.6209805328</v>
       </c>
       <c r="G478" t="n">
-        <v>8608.022116683</v>
+        <v>8602.653933490417</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>45576.02568825828</v>
+        <v>45576.02725449676</v>
       </c>
       <c r="B479" s="2" t="n">
-        <v>45576.04498205321</v>
+        <v>45576.04740142602</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -12418,18 +12418,18 @@
         <v>4</v>
       </c>
       <c r="F479" t="n">
-        <v>27.7830647058</v>
+        <v>29.0115781317</v>
       </c>
       <c r="G479" t="n">
-        <v>15455.9857393236</v>
+        <v>15452.0534218773</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>45578.44355383763</v>
+        <v>45578.44321617884</v>
       </c>
       <c r="B480" s="2" t="n">
-        <v>45578.46240499982</v>
+        <v>45578.46402246529</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -12443,18 +12443,18 @@
         <v>6</v>
       </c>
       <c r="F480" t="n">
-        <v>27.1456735725</v>
+        <v>29.9610524811</v>
       </c>
       <c r="G480" t="n">
-        <v>3453.9433695584</v>
+        <v>3449.9732440623</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>45581.46327421848</v>
+        <v>45581.46416769374</v>
       </c>
       <c r="B481" s="2" t="n">
-        <v>45581.47940595946</v>
+        <v>45581.48130168943</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -12468,18 +12468,18 @@
         <v>2</v>
       </c>
       <c r="F481" t="n">
-        <v>23.2297070036</v>
+        <v>24.6729538031</v>
       </c>
       <c r="G481" t="n">
-        <v>4321.2516748686</v>
+        <v>4320.2091289724</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>45582.16849023548</v>
+        <v>45582.16691484417</v>
       </c>
       <c r="B482" s="2" t="n">
-        <v>45582.19338837683</v>
+        <v>45582.18744094062</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -12493,18 +12493,18 @@
         <v>3</v>
       </c>
       <c r="F482" t="n">
-        <v>35.853323546</v>
+        <v>29.5575788833</v>
       </c>
       <c r="G482" t="n">
-        <v>992.2813574598</v>
+        <v>987.2829428168001</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>45585.4389460098</v>
+        <v>45585.43836218239</v>
       </c>
       <c r="B483" s="2" t="n">
-        <v>45585.46187678086</v>
+        <v>45585.45934290255</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -12518,18 +12518,18 @@
         <v>6</v>
       </c>
       <c r="F483" t="n">
-        <v>33.0203103288</v>
+        <v>30.2122370362</v>
       </c>
       <c r="G483" t="n">
-        <v>4673.6029914823</v>
+        <v>4681.326588137</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>45590.83589895011</v>
+        <v>45590.83506840611</v>
       </c>
       <c r="B484" s="2" t="n">
-        <v>45590.85866520445</v>
+        <v>45590.85840430514</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -12543,18 +12543,18 @@
         <v>4</v>
       </c>
       <c r="F484" t="n">
-        <v>32.7834062719</v>
+        <v>33.6036946092</v>
       </c>
       <c r="G484" t="n">
-        <v>7738.591923713901</v>
+        <v>7741.0447251356</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>45592.81405119333</v>
+        <v>45592.81735412925</v>
       </c>
       <c r="B485" s="2" t="n">
-        <v>45592.84006788736</v>
+        <v>45592.83462928848</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -12568,10 +12568,10 @@
         <v>6</v>
       </c>
       <c r="F485" t="n">
-        <v>37.4640394047</v>
+        <v>24.87622929701667</v>
       </c>
       <c r="G485" t="n">
-        <v>2815.7558239766</v>
+        <v>2820.8877467146</v>
       </c>
     </row>
     <row r="486">
@@ -12596,7 +12596,7 @@
         <v>3.016666666666667</v>
       </c>
       <c r="G486" t="n">
-        <v>11274.6355755207</v>
+        <v>11282.46715790638</v>
       </c>
     </row>
     <row r="487">
